--- a/Vitia_Ostrovsky/R_Calc_Crang_2024/Data/Crang_2024.xlsx
+++ b/Vitia_Ostrovsky/R_Calc_Crang_2024/Data/Crang_2024.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fokke\OneDrive\Рабочий стол\Vitia\R_calc_Vitia\R_Calc_Crang_2024\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fokke\OneDrive\Рабочий стол\Vitia\Paper_2024\Vitia_Ostrovsky\R_Calc_Crang_2024\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7310"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7310" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Full" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Full!$A$1:$AC$207</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Чистовые!$A$1:$Z$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Чистовые!$A$1:$AA$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Чистовые Северная '!$A$1:$N$16</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="105">
   <si>
     <t>Sample</t>
   </si>
@@ -345,6 +345,9 @@
   </si>
   <si>
     <t>Area</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crang 3 </t>
   </si>
 </sst>
 </file>
@@ -736,7 +739,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC207"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H1" sqref="H1:AC1"/>
     </sheetView>
   </sheetViews>
@@ -19178,113 +19181,116 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z49"/>
+  <dimension ref="A1:AA49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1048576" sqref="B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="8.453125" customWidth="1"/>
+    <col min="3" max="3" width="8.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:27" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" t="s">
         <v>88</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
       <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>54</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>21</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>55</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>17</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>22</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>56</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>15</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>57</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>58</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>59</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>79</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="S1" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>20</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>81</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>82</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>83</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>84</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>85</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>86</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>89</v>
       </c>
       <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
         <v>30</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>49</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>2</v>
       </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
       <c r="F2">
         <v>0</v>
       </c>
@@ -19298,17 +19304,17 @@
         <v>0</v>
       </c>
       <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
         <v>4</v>
       </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
       <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
         <v>21</v>
       </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
       <c r="N2">
         <v>0</v>
       </c>
@@ -19321,10 +19327,10 @@
       <c r="Q2">
         <v>0</v>
       </c>
-      <c r="R2" s="8">
-        <v>0</v>
-      </c>
-      <c r="S2">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2" s="8">
         <v>0</v>
       </c>
       <c r="T2">
@@ -19348,29 +19354,32 @@
       <c r="Z2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>89</v>
       </c>
       <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
         <v>31</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>39</v>
       </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
         <v>4</v>
       </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
       <c r="H3">
         <v>0</v>
       </c>
@@ -19378,17 +19387,17 @@
         <v>0</v>
       </c>
       <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
         <v>7</v>
       </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
       <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
         <v>11</v>
       </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
       <c r="N3">
         <v>0</v>
       </c>
@@ -19402,10 +19411,10 @@
         <v>0</v>
       </c>
       <c r="R3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -19414,10 +19423,10 @@
         <v>0</v>
       </c>
       <c r="V3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X3">
         <v>0</v>
@@ -19428,29 +19437,32 @@
       <c r="Z3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>89</v>
       </c>
       <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
         <v>32</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>77</v>
       </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
       <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
         <v>8</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>2</v>
       </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
       <c r="H4">
         <v>0</v>
       </c>
@@ -19458,17 +19470,17 @@
         <v>0</v>
       </c>
       <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
         <v>18</v>
       </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
       <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
         <v>9</v>
       </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
       <c r="N4">
         <v>0</v>
       </c>
@@ -19476,16 +19488,16 @@
         <v>0</v>
       </c>
       <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
         <v>2</v>
       </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
       <c r="R4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -19500,34 +19512,37 @@
         <v>0</v>
       </c>
       <c r="X4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>89</v>
       </c>
       <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
         <v>33</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>86</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>14</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>2</v>
       </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
       <c r="G5">
         <v>0</v>
       </c>
@@ -19535,37 +19550,37 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
         <v>6</v>
       </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
       <c r="L5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>1</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5">
+        <v>1</v>
+      </c>
+      <c r="R5">
         <v>2</v>
       </c>
-      <c r="R5">
-        <v>1</v>
-      </c>
       <c r="S5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -19588,25 +19603,28 @@
       <c r="Z5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>89</v>
       </c>
       <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
         <v>34</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>112</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>4</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
       <c r="F6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -19618,11 +19636,11 @@
         <v>0</v>
       </c>
       <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
         <v>9</v>
       </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
       <c r="L6">
         <v>0</v>
       </c>
@@ -19636,10 +19654,10 @@
         <v>0</v>
       </c>
       <c r="P6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -19668,26 +19686,29 @@
       <c r="Z6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>89</v>
       </c>
       <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
         <v>35</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>231</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>15</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>2</v>
       </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
       <c r="G7">
         <v>0</v>
       </c>
@@ -19698,20 +19719,20 @@
         <v>0</v>
       </c>
       <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
         <v>7</v>
       </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
       <c r="L7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
         <v>4</v>
       </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
       <c r="O7">
         <v>0</v>
       </c>
@@ -19719,11 +19740,11 @@
         <v>0</v>
       </c>
       <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
         <v>2</v>
       </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
       <c r="S7">
         <v>0</v>
       </c>
@@ -19743,34 +19764,37 @@
         <v>0</v>
       </c>
       <c r="Y7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>89</v>
       </c>
       <c r="B8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C8" t="s">
         <v>36</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>86</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>11</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>9</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>2</v>
       </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
       <c r="H8">
         <v>0</v>
       </c>
@@ -19778,17 +19802,17 @@
         <v>0</v>
       </c>
       <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
         <v>12</v>
       </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
       <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
         <v>14</v>
       </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
       <c r="N8">
         <v>0</v>
       </c>
@@ -19796,13 +19820,13 @@
         <v>0</v>
       </c>
       <c r="P8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8">
         <v>1</v>
       </c>
       <c r="R8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S8">
         <v>0</v>
@@ -19828,28 +19852,28 @@
       <c r="Z8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>89</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>37</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>73</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>14</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>12</v>
       </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
       <c r="G9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -19858,19 +19882,19 @@
         <v>0</v>
       </c>
       <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
         <v>16</v>
       </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
       <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
         <v>23</v>
       </c>
-      <c r="M9">
-        <v>1</v>
-      </c>
       <c r="N9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -19882,11 +19906,11 @@
         <v>0</v>
       </c>
       <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
         <v>2</v>
       </c>
-      <c r="S9">
-        <v>0</v>
-      </c>
       <c r="T9">
         <v>0</v>
       </c>
@@ -19908,23 +19932,23 @@
       <c r="Z9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>89</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>38</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>17</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>18</v>
       </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
       <c r="F10">
         <v>0</v>
       </c>
@@ -19938,17 +19962,17 @@
         <v>0</v>
       </c>
       <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
         <v>2</v>
       </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
       <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
         <v>2</v>
       </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
       <c r="N10">
         <v>0</v>
       </c>
@@ -19956,10 +19980,10 @@
         <v>0</v>
       </c>
       <c r="P10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R10">
         <v>0</v>
@@ -19988,26 +20012,26 @@
       <c r="Z10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>89</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>39</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>133</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>4</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>3</v>
       </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
       <c r="G11">
         <v>0</v>
       </c>
@@ -20018,17 +20042,17 @@
         <v>0</v>
       </c>
       <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
         <v>11</v>
       </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
       <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
         <v>30</v>
       </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
       <c r="N11">
         <v>0</v>
       </c>
@@ -20042,11 +20066,11 @@
         <v>0</v>
       </c>
       <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
         <v>2</v>
       </c>
-      <c r="S11">
-        <v>0</v>
-      </c>
       <c r="T11">
         <v>0</v>
       </c>
@@ -20068,26 +20092,26 @@
       <c r="Z11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>89</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>40</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>107</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>16</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>20</v>
       </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
       <c r="G12">
         <v>0</v>
       </c>
@@ -20098,19 +20122,19 @@
         <v>0</v>
       </c>
       <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
         <v>11</v>
       </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
       <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
         <v>30</v>
       </c>
-      <c r="M12">
-        <v>1</v>
-      </c>
       <c r="N12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -20134,10 +20158,10 @@
         <v>0</v>
       </c>
       <c r="V12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X12">
         <v>0</v>
@@ -20148,28 +20172,28 @@
       <c r="Z12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>89</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>41</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>86</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>12</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>8</v>
       </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
       <c r="G13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -20178,17 +20202,17 @@
         <v>0</v>
       </c>
       <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
         <v>10</v>
       </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
       <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
         <v>28</v>
       </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
       <c r="N13">
         <v>0</v>
       </c>
@@ -20199,10 +20223,10 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S13">
         <v>0</v>
@@ -20228,26 +20252,26 @@
       <c r="Z13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>89</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>49</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>7</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>5</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>6</v>
       </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
       <c r="G14">
         <v>0</v>
       </c>
@@ -20258,17 +20282,17 @@
         <v>0</v>
       </c>
       <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
         <v>21</v>
       </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
       <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
         <v>17</v>
       </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
       <c r="N14">
         <v>0</v>
       </c>
@@ -20279,10 +20303,10 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S14">
         <v>0</v>
@@ -20308,50 +20332,50 @@
       <c r="Z14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>89</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>50</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>101</v>
       </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
       <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
         <v>33</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>4</v>
       </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
         <v>29</v>
       </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
       <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
         <v>41</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>3</v>
       </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
       <c r="O15">
         <v>0</v>
       </c>
@@ -20388,28 +20412,28 @@
       <c r="Z15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>89</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>51</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>134</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>11</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>42</v>
       </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
       <c r="G16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -20418,17 +20442,17 @@
         <v>0</v>
       </c>
       <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
         <v>13</v>
       </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
       <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
         <v>28</v>
       </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
       <c r="N16">
         <v>0</v>
       </c>
@@ -20442,10 +20466,10 @@
         <v>0</v>
       </c>
       <c r="R16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T16">
         <v>0</v>
@@ -20468,29 +20492,29 @@
       <c r="Z16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>89</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>60</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>61</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>2</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>3</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>4</v>
       </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
       <c r="H17">
         <v>0</v>
       </c>
@@ -20498,17 +20522,17 @@
         <v>0</v>
       </c>
       <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
         <v>9</v>
       </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
       <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
         <v>19</v>
       </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
       <c r="N17">
         <v>0</v>
       </c>
@@ -20522,10 +20546,10 @@
         <v>0</v>
       </c>
       <c r="R17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T17">
         <v>0</v>
@@ -20548,26 +20572,26 @@
       <c r="Z17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>89</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>61</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>15</v>
       </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
       <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
         <v>4</v>
       </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
       <c r="G18">
         <v>0</v>
       </c>
@@ -20575,31 +20599,31 @@
         <v>0</v>
       </c>
       <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
         <v>2</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>4</v>
       </c>
-      <c r="K18">
-        <v>1</v>
-      </c>
       <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
         <v>39</v>
       </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P18">
         <v>1</v>
       </c>
       <c r="Q18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R18">
         <v>0</v>
@@ -20608,10 +20632,10 @@
         <v>0</v>
       </c>
       <c r="T18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V18">
         <v>0</v>
@@ -20628,28 +20652,28 @@
       <c r="Z18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>89</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>62</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>56</v>
       </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
       <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
         <v>5</v>
       </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
       <c r="G19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -20658,17 +20682,17 @@
         <v>0</v>
       </c>
       <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
         <v>7</v>
       </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
       <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
         <v>19</v>
       </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
       <c r="N19">
         <v>0</v>
       </c>
@@ -20688,10 +20712,10 @@
         <v>0</v>
       </c>
       <c r="T19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V19">
         <v>0</v>
@@ -20708,29 +20732,29 @@
       <c r="Z19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>89</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>63</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>49</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>3</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>6</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>2</v>
       </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
       <c r="H20">
         <v>0</v>
       </c>
@@ -20738,17 +20762,17 @@
         <v>0</v>
       </c>
       <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
         <v>4</v>
       </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
       <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
         <v>15</v>
       </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
       <c r="N20">
         <v>0</v>
       </c>
@@ -20788,28 +20812,28 @@
       <c r="Z20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>89</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>64</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>49</v>
       </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
       <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
         <v>10</v>
       </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
       <c r="G21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -20818,17 +20842,17 @@
         <v>0</v>
       </c>
       <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
         <v>20</v>
       </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
       <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
         <v>24</v>
       </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
       <c r="N21">
         <v>0</v>
       </c>
@@ -20868,26 +20892,26 @@
       <c r="Z21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>89</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>65</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>48</v>
       </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
       <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
         <v>4</v>
       </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
       <c r="G22">
         <v>0</v>
       </c>
@@ -20898,17 +20922,17 @@
         <v>0</v>
       </c>
       <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
         <v>9</v>
       </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
       <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
         <v>14</v>
       </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
       <c r="N22">
         <v>0</v>
       </c>
@@ -20919,13 +20943,13 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R22">
         <v>1</v>
       </c>
       <c r="S22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T22">
         <v>0</v>
@@ -20946,49 +20970,49 @@
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="AA22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>89</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>66</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>70</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>5</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>4</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>5</v>
       </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>2</v>
       </c>
       <c r="J23">
+        <v>2</v>
+      </c>
+      <c r="K23">
         <v>7</v>
       </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
       <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
         <v>106</v>
       </c>
-      <c r="M23">
-        <v>0</v>
-      </c>
       <c r="N23">
         <v>0</v>
       </c>
@@ -21002,16 +21026,16 @@
         <v>0</v>
       </c>
       <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
         <v>2</v>
       </c>
-      <c r="S23">
-        <v>1</v>
-      </c>
       <c r="T23">
         <v>1</v>
       </c>
       <c r="U23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V23">
         <v>0</v>
@@ -21028,46 +21052,46 @@
       <c r="Z23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>89</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>67</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>90</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>2</v>
       </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
       <c r="F24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
         <v>3</v>
       </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
       <c r="L24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -21097,10 +21121,10 @@
         <v>0</v>
       </c>
       <c r="W24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y24">
         <v>0</v>
@@ -21108,47 +21132,47 @@
       <c r="Z24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>89</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>68</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>98</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>5</v>
-      </c>
-      <c r="E25">
-        <v>4</v>
       </c>
       <c r="F25">
         <v>4</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25">
         <v>4</v>
       </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
       <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
         <v>20</v>
       </c>
-      <c r="M25">
-        <v>0</v>
-      </c>
       <c r="N25">
         <v>0</v>
       </c>
@@ -21162,11 +21186,11 @@
         <v>0</v>
       </c>
       <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>2</v>
       </c>
-      <c r="S25">
-        <v>0</v>
-      </c>
       <c r="T25">
         <v>0</v>
       </c>
@@ -21177,37 +21201,37 @@
         <v>0</v>
       </c>
       <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25">
         <v>3</v>
       </c>
-      <c r="X25">
-        <v>0</v>
-      </c>
       <c r="Y25">
         <v>0</v>
       </c>
       <c r="Z25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>89</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>69</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>48</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>8</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>9</v>
       </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
       <c r="G26">
         <v>0</v>
       </c>
@@ -21218,34 +21242,34 @@
         <v>0</v>
       </c>
       <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
         <v>5</v>
       </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
       <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
         <v>20</v>
       </c>
-      <c r="M26">
-        <v>0</v>
-      </c>
       <c r="N26">
         <v>0</v>
       </c>
       <c r="O26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q26">
         <v>0</v>
       </c>
       <c r="R26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T26">
         <v>0</v>
@@ -21268,26 +21292,26 @@
       <c r="Z26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>89</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>70</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>166</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>4</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>2</v>
       </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
       <c r="G27">
         <v>0</v>
       </c>
@@ -21298,17 +21322,17 @@
         <v>0</v>
       </c>
       <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
         <v>10</v>
       </c>
-      <c r="K27">
-        <v>0</v>
-      </c>
       <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
         <v>43</v>
       </c>
-      <c r="M27">
-        <v>0</v>
-      </c>
       <c r="N27">
         <v>0</v>
       </c>
@@ -21322,10 +21346,10 @@
         <v>0</v>
       </c>
       <c r="R27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T27">
         <v>0</v>
@@ -21348,26 +21372,26 @@
       <c r="Z27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>89</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>71</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>111</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>2</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>3</v>
       </c>
-      <c r="F28">
-        <v>0</v>
-      </c>
       <c r="G28">
         <v>0</v>
       </c>
@@ -21378,17 +21402,17 @@
         <v>0</v>
       </c>
       <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
         <v>5</v>
       </c>
-      <c r="K28">
-        <v>0</v>
-      </c>
       <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
         <v>16</v>
       </c>
-      <c r="M28">
-        <v>0</v>
-      </c>
       <c r="N28">
         <v>0</v>
       </c>
@@ -21417,10 +21441,10 @@
         <v>0</v>
       </c>
       <c r="W28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y28">
         <v>0</v>
@@ -21428,26 +21452,26 @@
       <c r="Z28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>89</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>72</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>27</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>25</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>16</v>
       </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
       <c r="G29">
         <v>0</v>
       </c>
@@ -21458,32 +21482,32 @@
         <v>0</v>
       </c>
       <c r="J29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
         <v>5</v>
       </c>
-      <c r="M29">
-        <v>0</v>
-      </c>
       <c r="N29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P29">
         <v>0</v>
       </c>
       <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="R29">
         <v>6</v>
       </c>
-      <c r="R29">
-        <v>0</v>
-      </c>
       <c r="S29">
         <v>0</v>
       </c>
@@ -21491,10 +21515,10 @@
         <v>0</v>
       </c>
       <c r="U29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W29">
         <v>0</v>
@@ -21508,46 +21532,46 @@
       <c r="Z29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>89</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
         <v>73</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>26</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>37</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>8</v>
       </c>
-      <c r="F30">
-        <v>0</v>
-      </c>
       <c r="G30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30">
         <v>0</v>
       </c>
       <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
         <v>5</v>
       </c>
-      <c r="K30">
-        <v>0</v>
-      </c>
       <c r="L30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N30">
         <v>0</v>
@@ -21559,14 +21583,14 @@
         <v>0</v>
       </c>
       <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30">
         <v>5</v>
       </c>
-      <c r="R30">
+      <c r="S30">
         <v>2</v>
       </c>
-      <c r="S30">
-        <v>0</v>
-      </c>
       <c r="T30">
         <v>0</v>
       </c>
@@ -21588,26 +21612,26 @@
       <c r="Z30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>89</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
         <v>74</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>43</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>20</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>12</v>
       </c>
-      <c r="F31">
-        <v>0</v>
-      </c>
       <c r="G31">
         <v>0</v>
       </c>
@@ -21618,7 +21642,7 @@
         <v>0</v>
       </c>
       <c r="J31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K31">
         <v>1</v>
@@ -21627,7 +21651,7 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N31">
         <v>0</v>
@@ -21636,13 +21660,13 @@
         <v>0</v>
       </c>
       <c r="P31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q31">
         <v>1</v>
       </c>
       <c r="R31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S31">
         <v>0</v>
@@ -21654,11 +21678,11 @@
         <v>0</v>
       </c>
       <c r="V31">
+        <v>0</v>
+      </c>
+      <c r="W31">
         <v>2</v>
       </c>
-      <c r="W31">
-        <v>0</v>
-      </c>
       <c r="X31">
         <v>0</v>
       </c>
@@ -21668,41 +21692,41 @@
       <c r="Z31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>89</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
         <v>75</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>21</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>2</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>25</v>
       </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
       <c r="G32">
         <v>1</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
         <v>2</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>5</v>
       </c>
-      <c r="K32">
-        <v>0</v>
-      </c>
       <c r="L32">
         <v>0</v>
       </c>
@@ -21713,20 +21737,20 @@
         <v>0</v>
       </c>
       <c r="O32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R32">
+        <v>1</v>
+      </c>
+      <c r="S32">
         <v>3</v>
       </c>
-      <c r="S32">
-        <v>0</v>
-      </c>
       <c r="T32">
         <v>0</v>
       </c>
@@ -21748,41 +21772,41 @@
       <c r="Z32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>89</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
         <v>76</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>12</v>
       </c>
-      <c r="D33">
-        <v>0</v>
-      </c>
       <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
         <v>4</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>2</v>
       </c>
-      <c r="G33">
-        <v>0</v>
-      </c>
       <c r="H33">
         <v>0</v>
       </c>
       <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
         <v>3</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <v>2</v>
       </c>
-      <c r="K33">
-        <v>0</v>
-      </c>
       <c r="L33">
         <v>0</v>
       </c>
@@ -21799,13 +21823,13 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R33">
         <v>1</v>
       </c>
       <c r="S33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T33">
         <v>0</v>
@@ -21828,26 +21852,26 @@
       <c r="Z33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>89</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
         <v>77</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>13</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>3</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>24</v>
       </c>
-      <c r="F34">
-        <v>0</v>
-      </c>
       <c r="G34">
         <v>0</v>
       </c>
@@ -21858,22 +21882,22 @@
         <v>0</v>
       </c>
       <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
         <v>6</v>
       </c>
-      <c r="K34">
-        <v>0</v>
-      </c>
       <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
         <v>4</v>
       </c>
-      <c r="M34">
+      <c r="N34">
         <v>2</v>
       </c>
-      <c r="N34">
-        <v>0</v>
-      </c>
       <c r="O34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P34">
         <v>1</v>
@@ -21885,7 +21909,7 @@
         <v>1</v>
       </c>
       <c r="S34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T34">
         <v>0</v>
@@ -21908,34 +21932,34 @@
       <c r="Z34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>87</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
         <v>30</v>
       </c>
-      <c r="C35">
+      <c r="D35">
         <v>148</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>4</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>3</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>2</v>
       </c>
-      <c r="G35">
-        <v>1</v>
-      </c>
       <c r="H35">
         <v>1</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35">
         <v>0</v>
@@ -21988,40 +22012,40 @@
       <c r="Z35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>87</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" t="s">
         <v>31</v>
       </c>
-      <c r="C36">
+      <c r="D36">
         <v>68</v>
-      </c>
-      <c r="D36">
-        <v>3</v>
       </c>
       <c r="E36">
         <v>3</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36">
         <v>0</v>
       </c>
       <c r="J36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L36">
         <v>0</v>
@@ -22068,37 +22092,37 @@
       <c r="Z36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>87</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" t="s">
         <v>32</v>
       </c>
-      <c r="C37">
+      <c r="D37">
         <v>146</v>
       </c>
-      <c r="D37">
+      <c r="E37">
         <v>2</v>
       </c>
-      <c r="E37">
-        <v>1</v>
-      </c>
       <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
         <v>3</v>
       </c>
-      <c r="G37">
-        <v>0</v>
-      </c>
       <c r="H37">
         <v>0</v>
       </c>
       <c r="I37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K37">
         <v>0</v>
@@ -22148,26 +22172,26 @@
       <c r="Z37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>87</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" t="s">
         <v>46</v>
       </c>
-      <c r="C38">
+      <c r="D38">
         <v>224</v>
       </c>
-      <c r="D38">
+      <c r="E38">
         <v>7</v>
       </c>
-      <c r="E38">
+      <c r="F38">
         <v>9</v>
       </c>
-      <c r="F38">
-        <v>0</v>
-      </c>
       <c r="G38">
         <v>0</v>
       </c>
@@ -22178,13 +22202,13 @@
         <v>0</v>
       </c>
       <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
         <v>9</v>
       </c>
-      <c r="K38">
-        <v>1</v>
-      </c>
       <c r="L38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M38">
         <v>0</v>
@@ -22228,47 +22252,47 @@
       <c r="Z38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>87</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" t="s">
         <v>47</v>
       </c>
-      <c r="C39">
+      <c r="D39">
         <v>163</v>
       </c>
-      <c r="D39">
+      <c r="E39">
         <v>5</v>
       </c>
-      <c r="E39">
+      <c r="F39">
         <v>14</v>
       </c>
-      <c r="F39">
-        <v>0</v>
-      </c>
       <c r="G39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39">
         <v>1</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
         <v>4</v>
       </c>
-      <c r="K39">
-        <v>0</v>
-      </c>
       <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
         <v>8</v>
       </c>
-      <c r="M39">
-        <v>0</v>
-      </c>
       <c r="N39">
         <v>0</v>
       </c>
@@ -22308,26 +22332,26 @@
       <c r="Z39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>87</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C40" t="s">
         <v>48</v>
       </c>
-      <c r="C40">
+      <c r="D40">
         <v>218</v>
       </c>
-      <c r="D40">
-        <v>1</v>
-      </c>
       <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40">
         <v>12</v>
       </c>
-      <c r="F40">
-        <v>0</v>
-      </c>
       <c r="G40">
         <v>0</v>
       </c>
@@ -22338,10 +22362,10 @@
         <v>0</v>
       </c>
       <c r="J40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L40">
         <v>0</v>
@@ -22388,41 +22412,41 @@
       <c r="Z40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>87</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41" t="s">
         <v>36</v>
       </c>
-      <c r="C41">
+      <c r="D41">
         <v>144</v>
       </c>
-      <c r="D41">
+      <c r="E41">
         <v>7</v>
       </c>
-      <c r="E41">
+      <c r="F41">
         <v>17</v>
       </c>
-      <c r="F41">
-        <v>0</v>
-      </c>
       <c r="G41">
         <v>0</v>
       </c>
       <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
         <v>3</v>
       </c>
-      <c r="I41">
-        <v>0</v>
-      </c>
       <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
         <v>6</v>
       </c>
-      <c r="K41">
-        <v>0</v>
-      </c>
       <c r="L41">
         <v>0</v>
       </c>
@@ -22468,26 +22492,26 @@
       <c r="Z41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>87</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42" t="s">
         <v>37</v>
       </c>
-      <c r="C42">
+      <c r="D42">
         <v>180</v>
       </c>
-      <c r="D42">
+      <c r="E42">
         <v>3</v>
       </c>
-      <c r="E42">
+      <c r="F42">
         <v>8</v>
       </c>
-      <c r="F42">
-        <v>0</v>
-      </c>
       <c r="G42">
         <v>0</v>
       </c>
@@ -22498,20 +22522,20 @@
         <v>0</v>
       </c>
       <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
         <v>13</v>
       </c>
-      <c r="K42">
+      <c r="L42">
         <v>2</v>
       </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
       <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
         <v>3</v>
       </c>
-      <c r="N42">
-        <v>0</v>
-      </c>
       <c r="O42">
         <v>0</v>
       </c>
@@ -22548,41 +22572,41 @@
       <c r="Z42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>87</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C43" t="s">
         <v>38</v>
       </c>
-      <c r="C43">
+      <c r="D43">
         <v>86</v>
       </c>
-      <c r="D43">
-        <v>1</v>
-      </c>
       <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43">
         <v>5</v>
       </c>
-      <c r="F43">
-        <v>0</v>
-      </c>
       <c r="G43">
         <v>0</v>
       </c>
       <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
         <v>2</v>
       </c>
-      <c r="I43">
-        <v>0</v>
-      </c>
       <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
         <v>7</v>
       </c>
-      <c r="K43">
-        <v>0</v>
-      </c>
       <c r="L43">
         <v>0</v>
       </c>
@@ -22628,41 +22652,41 @@
       <c r="Z43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>87</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C44" t="s">
         <v>39</v>
       </c>
-      <c r="C44">
+      <c r="D44">
         <v>60</v>
       </c>
-      <c r="D44">
+      <c r="E44">
         <v>6</v>
       </c>
-      <c r="E44">
+      <c r="F44">
         <v>16</v>
       </c>
-      <c r="F44">
-        <v>0</v>
-      </c>
       <c r="G44">
         <v>0</v>
       </c>
       <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
         <v>2</v>
       </c>
-      <c r="I44">
-        <v>0</v>
-      </c>
       <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
         <v>12</v>
       </c>
-      <c r="K44">
-        <v>0</v>
-      </c>
       <c r="L44">
         <v>0</v>
       </c>
@@ -22708,26 +22732,26 @@
       <c r="Z44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>87</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C45" t="s">
         <v>40</v>
       </c>
-      <c r="C45">
+      <c r="D45">
         <v>15</v>
       </c>
-      <c r="D45">
-        <v>1</v>
-      </c>
       <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45">
         <v>15</v>
       </c>
-      <c r="F45">
-        <v>0</v>
-      </c>
       <c r="G45">
         <v>0</v>
       </c>
@@ -22735,28 +22759,28 @@
         <v>0</v>
       </c>
       <c r="I45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J45">
+        <v>1</v>
+      </c>
+      <c r="K45">
         <v>3</v>
       </c>
-      <c r="K45">
-        <v>0</v>
-      </c>
       <c r="L45">
         <v>0</v>
       </c>
       <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
         <v>3</v>
       </c>
-      <c r="N45">
-        <v>0</v>
-      </c>
       <c r="O45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q45">
         <v>0</v>
@@ -22788,47 +22812,47 @@
       <c r="Z45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>87</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C46" t="s">
         <v>41</v>
       </c>
-      <c r="C46">
+      <c r="D46">
         <v>71</v>
       </c>
-      <c r="D46">
-        <v>1</v>
-      </c>
       <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46">
         <v>18</v>
       </c>
-      <c r="F46">
-        <v>1</v>
-      </c>
       <c r="G46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
         <v>3</v>
       </c>
-      <c r="I46">
-        <v>0</v>
-      </c>
       <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
         <v>6</v>
       </c>
-      <c r="K46">
-        <v>0</v>
-      </c>
       <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
         <v>5</v>
       </c>
-      <c r="M46">
-        <v>0</v>
-      </c>
       <c r="N46">
         <v>0</v>
       </c>
@@ -22868,28 +22892,28 @@
       <c r="Z46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>87</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C47" t="s">
         <v>49</v>
       </c>
-      <c r="C47">
+      <c r="D47">
         <v>67</v>
       </c>
-      <c r="D47">
-        <v>1</v>
-      </c>
       <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47">
         <v>49</v>
       </c>
-      <c r="F47">
-        <v>1</v>
-      </c>
       <c r="G47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H47">
         <v>0</v>
@@ -22898,22 +22922,22 @@
         <v>0</v>
       </c>
       <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
         <v>3</v>
       </c>
-      <c r="K47">
-        <v>0</v>
-      </c>
       <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
         <v>17</v>
       </c>
-      <c r="M47">
+      <c r="N47">
         <v>19</v>
       </c>
-      <c r="N47">
-        <v>1</v>
-      </c>
       <c r="O47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P47">
         <v>0</v>
@@ -22948,53 +22972,53 @@
       <c r="Z47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>87</v>
       </c>
-      <c r="B48" t="s">
+      <c r="C48" t="s">
         <v>50</v>
       </c>
-      <c r="C48">
+      <c r="D48">
         <v>123</v>
       </c>
-      <c r="D48">
+      <c r="E48">
         <v>2</v>
       </c>
-      <c r="E48">
+      <c r="F48">
         <v>70</v>
       </c>
-      <c r="F48">
+      <c r="G48">
         <v>4</v>
       </c>
-      <c r="G48">
-        <v>0</v>
-      </c>
       <c r="H48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
         <v>9</v>
       </c>
-      <c r="K48">
-        <v>0</v>
-      </c>
       <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
         <v>8</v>
       </c>
-      <c r="M48">
+      <c r="N48">
         <v>12</v>
       </c>
-      <c r="N48">
+      <c r="O48">
         <v>3</v>
       </c>
-      <c r="O48">
-        <v>0</v>
-      </c>
       <c r="P48">
         <v>0</v>
       </c>
@@ -23028,29 +23052,29 @@
       <c r="Z48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>87</v>
       </c>
-      <c r="B49" t="s">
+      <c r="C49" t="s">
         <v>51</v>
       </c>
-      <c r="C49">
+      <c r="D49">
         <v>39</v>
       </c>
-      <c r="D49">
+      <c r="E49">
         <v>2</v>
       </c>
-      <c r="E49">
+      <c r="F49">
         <v>19</v>
       </c>
-      <c r="F49">
+      <c r="G49">
         <v>2</v>
       </c>
-      <c r="G49">
-        <v>0</v>
-      </c>
       <c r="H49">
         <v>0</v>
       </c>
@@ -23058,20 +23082,20 @@
         <v>0</v>
       </c>
       <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
         <v>3</v>
       </c>
-      <c r="K49">
-        <v>0</v>
-      </c>
       <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
         <v>2</v>
       </c>
-      <c r="M49">
+      <c r="N49">
         <v>4</v>
       </c>
-      <c r="N49">
-        <v>0</v>
-      </c>
       <c r="O49">
         <v>0</v>
       </c>
@@ -23108,9 +23132,12 @@
       <c r="Z49">
         <v>0</v>
       </c>
+      <c r="AA49">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Z1"/>
+  <autoFilter ref="A1:AA1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Vitia_Ostrovsky/R_Calc_Crang_2024/Data/Crang_2024.xlsx
+++ b/Vitia_Ostrovsky/R_Calc_Crang_2024/Data/Crang_2024.xlsx
@@ -1,23 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fokke\OneDrive\Рабочий стол\Vitia\Paper_2024\Vitia_Ostrovsky\R_Calc_Crang_2024\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9180" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22190" windowHeight="9180" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Full" sheetId="1" r:id="rId1"/>
     <sheet name="Чистовые" sheetId="3" r:id="rId2"/>
-    <sheet name="Чистовые Северная " sheetId="4" r:id="rId3"/>
-    <sheet name="Coordinats" sheetId="2" r:id="rId4"/>
+    <sheet name="Outline" sheetId="5" r:id="rId3"/>
+    <sheet name="Чистовые Северная " sheetId="4" r:id="rId4"/>
+    <sheet name="Coordinats" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Full!$A$1:$AD$207</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Чистовые!$A$1:$AA$49</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Чистовые Северная '!$A$1:$N$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Чистовые Северная '!$A$1:$N$16</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -35,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="923" uniqueCount="115">
   <si>
     <t>Area</t>
   </si>
@@ -367,22 +373,39 @@
   <si>
     <t>Cang 5.3</t>
   </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Upper</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Stream</t>
+  </si>
+  <si>
+    <t>67.025658</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-* #\.##0.00_-;\-* #\.##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #\.##0.00\ &quot;₽&quot;_-;\-* #\.##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #\.##0_-;\-* #\.##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-* #\.##0\ &quot;₽&quot;_-;\-* #\.##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
-  </numFmts>
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
@@ -416,352 +439,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -769,269 +463,27 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1041,62 +493,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Запятая" xfId="1" builtinId="3"/>
-    <cellStyle name="Денежный" xfId="2" builtinId="4"/>
-    <cellStyle name="Процент" xfId="3" builtinId="5"/>
-    <cellStyle name="Запятая [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Денежный [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Гиперссылка" xfId="6" builtinId="8"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="7" builtinId="9"/>
-    <cellStyle name="Примечание" xfId="8" builtinId="10"/>
-    <cellStyle name="Предупреждающий текст" xfId="9" builtinId="11"/>
-    <cellStyle name="Заголовок" xfId="10" builtinId="15"/>
-    <cellStyle name="Пояснительный текст" xfId="11" builtinId="53"/>
-    <cellStyle name="Заголовок 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Заголовок 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Заголовок 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Заголовок 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Ввод" xfId="16" builtinId="20"/>
-    <cellStyle name="Вывод" xfId="17" builtinId="21"/>
-    <cellStyle name="Вычисление" xfId="18" builtinId="22"/>
-    <cellStyle name="Проверить ячейку" xfId="19" builtinId="23"/>
-    <cellStyle name="Связанная ячейка" xfId="20" builtinId="24"/>
-    <cellStyle name="Итого" xfId="21" builtinId="25"/>
-    <cellStyle name="Хороший" xfId="22" builtinId="26"/>
-    <cellStyle name="Плохой" xfId="23" builtinId="27"/>
-    <cellStyle name="Нейтральный" xfId="24" builtinId="28"/>
-    <cellStyle name="Акцент1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% — Акцент1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% — Акцент1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% — Акцент1" xfId="28" builtinId="32"/>
-    <cellStyle name="Акцент2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% — Акцент2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% — Акцент2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% — Акцент2" xfId="32" builtinId="36"/>
-    <cellStyle name="Акцент3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% — Акцент3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% — Акцент3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% — Акцент3" xfId="36" builtinId="40"/>
-    <cellStyle name="Акцент4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% — Акцент4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% — Акцент4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% — Акцент4" xfId="40" builtinId="44"/>
-    <cellStyle name="Акцент5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% — Акцент5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% — Акцент5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% — Акцент5" xfId="44" builtinId="48"/>
-    <cellStyle name="Акцент6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% — Акцент6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% — Акцент6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% — Акцент6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1354,25 +772,25 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD207"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="23" max="23" width="17.3611111111111" customWidth="1"/>
-    <col min="30" max="30" width="21.0925925925926" customWidth="1"/>
+    <col min="23" max="23" width="17.36328125" customWidth="1"/>
+    <col min="30" max="30" width="21.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1464,12 +882,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:30">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>30</v>
       </c>
       <c r="B2">
-        <v>67.025075</v>
+        <v>67.025075000000001</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
@@ -1557,12 +975,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:30">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>30</v>
       </c>
       <c r="B3">
-        <v>67.025075</v>
+        <v>67.025075000000001</v>
       </c>
       <c r="C3">
         <v>32.540053</v>
@@ -1650,12 +1068,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>30</v>
       </c>
       <c r="B4">
-        <v>67.025075</v>
+        <v>67.025075000000001</v>
       </c>
       <c r="C4">
         <v>32.540053</v>
@@ -1671,7 +1089,7 @@
         <v>Crang 1_3</v>
       </c>
       <c r="G4">
-        <v>0.081</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="H4">
         <v>3.8</v>
@@ -1743,12 +1161,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>30</v>
       </c>
       <c r="B5">
-        <v>67.025075</v>
+        <v>67.025075000000001</v>
       </c>
       <c r="C5">
         <v>32.540053</v>
@@ -1764,7 +1182,7 @@
         <v>Crang 1_4</v>
       </c>
       <c r="G5">
-        <v>0.061</v>
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="H5">
         <v>3.9</v>
@@ -1836,12 +1254,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>30</v>
       </c>
       <c r="B6">
-        <v>67.025075</v>
+        <v>67.025075000000001</v>
       </c>
       <c r="C6">
         <v>32.540053</v>
@@ -1857,7 +1275,7 @@
         <v>Crang 1_5</v>
       </c>
       <c r="G6">
-        <v>0.139</v>
+        <v>0.13900000000000001</v>
       </c>
       <c r="H6">
         <v>4.18</v>
@@ -1929,12 +1347,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>30</v>
       </c>
       <c r="B7">
-        <v>67.025075</v>
+        <v>67.025075000000001</v>
       </c>
       <c r="C7">
         <v>32.540053</v>
@@ -2022,12 +1440,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>30</v>
       </c>
       <c r="B8">
-        <v>67.025075</v>
+        <v>67.025075000000001</v>
       </c>
       <c r="C8">
         <v>32.540053</v>
@@ -2043,7 +1461,7 @@
         <v>Crang 1_7</v>
       </c>
       <c r="G8">
-        <v>0.071</v>
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="H8">
         <v>3.85</v>
@@ -2115,12 +1533,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>30</v>
       </c>
       <c r="B9">
-        <v>67.025075</v>
+        <v>67.025075000000001</v>
       </c>
       <c r="C9">
         <v>32.540053</v>
@@ -2136,7 +1554,7 @@
         <v>Crang 1_8</v>
       </c>
       <c r="G9">
-        <v>0.032</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="H9">
         <v>2.8</v>
@@ -2208,12 +1626,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>30</v>
       </c>
       <c r="B10">
-        <v>67.025075</v>
+        <v>67.025075000000001</v>
       </c>
       <c r="C10">
         <v>32.540053</v>
@@ -2229,7 +1647,7 @@
         <v>Crang 1_9</v>
       </c>
       <c r="G10">
-        <v>0.045</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="H10">
         <v>3.68</v>
@@ -2301,12 +1719,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>30</v>
       </c>
       <c r="B11">
-        <v>67.025075</v>
+        <v>67.025075000000001</v>
       </c>
       <c r="C11">
         <v>32.540053</v>
@@ -2322,10 +1740,10 @@
         <v>Crang 1_10</v>
       </c>
       <c r="G11">
-        <v>0.029</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="H11">
-        <v>2.28</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -2394,12 +1812,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>30</v>
       </c>
       <c r="B12">
-        <v>67.025075</v>
+        <v>67.025075000000001</v>
       </c>
       <c r="C12">
         <v>32.540053</v>
@@ -2415,7 +1833,7 @@
         <v>Crang 1_11</v>
       </c>
       <c r="G12">
-        <v>0.018</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="H12">
         <v>1.74</v>
@@ -2487,15 +1905,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>30</v>
       </c>
       <c r="B13">
-        <v>67.024917</v>
+        <v>67.024917000000002</v>
       </c>
       <c r="C13">
-        <v>32.540383</v>
+        <v>32.540382999999999</v>
       </c>
       <c r="D13" t="s">
         <v>32</v>
@@ -2508,7 +1926,7 @@
         <v>Crang 2_1</v>
       </c>
       <c r="G13">
-        <v>0.656</v>
+        <v>0.65600000000000003</v>
       </c>
       <c r="H13">
         <v>8.1</v>
@@ -2580,15 +1998,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>30</v>
       </c>
       <c r="B14">
-        <v>67.024917</v>
+        <v>67.024917000000002</v>
       </c>
       <c r="C14">
-        <v>32.540383</v>
+        <v>32.540382999999999</v>
       </c>
       <c r="D14" t="s">
         <v>32</v>
@@ -2601,7 +2019,7 @@
         <v>Crang 2_2</v>
       </c>
       <c r="G14">
-        <v>0.341</v>
+        <v>0.34100000000000003</v>
       </c>
       <c r="H14">
         <v>7.02</v>
@@ -2673,15 +2091,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>30</v>
       </c>
       <c r="B15">
-        <v>67.024917</v>
+        <v>67.024917000000002</v>
       </c>
       <c r="C15">
-        <v>32.540383</v>
+        <v>32.540382999999999</v>
       </c>
       <c r="D15" t="s">
         <v>32</v>
@@ -2694,7 +2112,7 @@
         <v>Crang 2_3</v>
       </c>
       <c r="G15">
-        <v>0.783</v>
+        <v>0.78300000000000003</v>
       </c>
       <c r="H15">
         <v>8.98</v>
@@ -2766,15 +2184,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>30</v>
       </c>
       <c r="B16">
-        <v>67.024917</v>
+        <v>67.024917000000002</v>
       </c>
       <c r="C16">
-        <v>32.540383</v>
+        <v>32.540382999999999</v>
       </c>
       <c r="D16" t="s">
         <v>32</v>
@@ -2787,7 +2205,7 @@
         <v>Crang 2_4</v>
       </c>
       <c r="G16">
-        <v>0.488</v>
+        <v>0.48799999999999999</v>
       </c>
       <c r="H16">
         <v>7.64</v>
@@ -2859,15 +2277,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:30">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>30</v>
       </c>
       <c r="B17">
-        <v>67.024917</v>
+        <v>67.024917000000002</v>
       </c>
       <c r="C17">
-        <v>32.540383</v>
+        <v>32.540382999999999</v>
       </c>
       <c r="D17" t="s">
         <v>32</v>
@@ -2880,7 +2298,7 @@
         <v>Crang 2_5</v>
       </c>
       <c r="G17">
-        <v>0.264</v>
+        <v>0.26400000000000001</v>
       </c>
       <c r="H17">
         <v>6.92</v>
@@ -2952,15 +2370,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:30">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>30</v>
       </c>
       <c r="B18">
-        <v>67.024917</v>
+        <v>67.024917000000002</v>
       </c>
       <c r="C18">
-        <v>32.540383</v>
+        <v>32.540382999999999</v>
       </c>
       <c r="D18" t="s">
         <v>32</v>
@@ -2973,7 +2391,7 @@
         <v>Crang 2_6</v>
       </c>
       <c r="G18">
-        <v>0.337</v>
+        <v>0.33700000000000002</v>
       </c>
       <c r="H18">
         <v>6.68</v>
@@ -3045,15 +2463,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:30">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>30</v>
       </c>
       <c r="B19">
-        <v>67.024917</v>
+        <v>67.024917000000002</v>
       </c>
       <c r="C19">
-        <v>32.540383</v>
+        <v>32.540382999999999</v>
       </c>
       <c r="D19" t="s">
         <v>32</v>
@@ -3138,15 +2556,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:30">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>30</v>
       </c>
       <c r="B20">
-        <v>67.024917</v>
+        <v>67.024917000000002</v>
       </c>
       <c r="C20">
-        <v>32.540383</v>
+        <v>32.540382999999999</v>
       </c>
       <c r="D20" t="s">
         <v>32</v>
@@ -3159,7 +2577,7 @@
         <v>Crang 2_8</v>
       </c>
       <c r="G20">
-        <v>0.334</v>
+        <v>0.33400000000000002</v>
       </c>
       <c r="H20">
         <v>6.54</v>
@@ -3231,15 +2649,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:30">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>30</v>
       </c>
       <c r="B21">
-        <v>67.024917</v>
+        <v>67.024917000000002</v>
       </c>
       <c r="C21">
-        <v>32.540383</v>
+        <v>32.540382999999999</v>
       </c>
       <c r="D21" t="s">
         <v>32</v>
@@ -3252,7 +2670,7 @@
         <v>Crang 2_9</v>
       </c>
       <c r="G21">
-        <v>0.164</v>
+        <v>0.16400000000000001</v>
       </c>
       <c r="H21">
         <v>5.52</v>
@@ -3324,15 +2742,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:30">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>30</v>
       </c>
       <c r="B22">
-        <v>67.024917</v>
+        <v>67.024917000000002</v>
       </c>
       <c r="C22">
-        <v>32.540383</v>
+        <v>32.540382999999999</v>
       </c>
       <c r="D22" s="10" t="s">
         <v>32</v>
@@ -3345,7 +2763,7 @@
         <v>Crang 2_10</v>
       </c>
       <c r="G22">
-        <v>0.488</v>
+        <v>0.48799999999999999</v>
       </c>
       <c r="H22">
         <v>8.19</v>
@@ -3417,15 +2835,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:30">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>30</v>
       </c>
       <c r="B23">
-        <v>67.024917</v>
+        <v>67.024917000000002</v>
       </c>
       <c r="C23">
-        <v>32.540383</v>
+        <v>32.540382999999999</v>
       </c>
       <c r="D23" t="s">
         <v>32</v>
@@ -3510,15 +2928,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:30">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>30</v>
       </c>
       <c r="B24">
-        <v>67.024917</v>
+        <v>67.024917000000002</v>
       </c>
       <c r="C24">
-        <v>32.540383</v>
+        <v>32.540382999999999</v>
       </c>
       <c r="D24" t="s">
         <v>32</v>
@@ -3603,15 +3021,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:30">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>30</v>
       </c>
       <c r="B25">
-        <v>67.024917</v>
+        <v>67.024917000000002</v>
       </c>
       <c r="C25">
-        <v>32.540383</v>
+        <v>32.540382999999999</v>
       </c>
       <c r="D25" t="s">
         <v>32</v>
@@ -3624,7 +3042,7 @@
         <v>Crang 2_13</v>
       </c>
       <c r="G25">
-        <v>0.132</v>
+        <v>0.13200000000000001</v>
       </c>
       <c r="H25">
         <v>5.79</v>
@@ -3696,15 +3114,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:30">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>30</v>
       </c>
       <c r="B26">
-        <v>67.024917</v>
+        <v>67.024917000000002</v>
       </c>
       <c r="C26">
-        <v>32.540383</v>
+        <v>32.540382999999999</v>
       </c>
       <c r="D26" t="s">
         <v>32</v>
@@ -3717,7 +3135,7 @@
         <v>Crang 2_14</v>
       </c>
       <c r="G26">
-        <v>0.145</v>
+        <v>0.14499999999999999</v>
       </c>
       <c r="H26">
         <v>5.35</v>
@@ -3789,15 +3207,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:30">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>30</v>
       </c>
       <c r="B27">
-        <v>67.024917</v>
+        <v>67.024917000000002</v>
       </c>
       <c r="C27">
-        <v>32.540383</v>
+        <v>32.540382999999999</v>
       </c>
       <c r="D27" t="s">
         <v>32</v>
@@ -3810,7 +3228,7 @@
         <v>Crang 2_15</v>
       </c>
       <c r="G27">
-        <v>0.137</v>
+        <v>0.13700000000000001</v>
       </c>
       <c r="H27">
         <v>5.28</v>
@@ -3882,15 +3300,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:30">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>30</v>
       </c>
       <c r="B28">
-        <v>67.024917</v>
+        <v>67.024917000000002</v>
       </c>
       <c r="C28">
-        <v>32.540383</v>
+        <v>32.540382999999999</v>
       </c>
       <c r="D28" t="s">
         <v>32</v>
@@ -3903,7 +3321,7 @@
         <v>Crang 2_16</v>
       </c>
       <c r="G28">
-        <v>0.099</v>
+        <v>9.9000000000000005E-2</v>
       </c>
       <c r="H28">
         <v>4.7</v>
@@ -3975,15 +3393,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:30">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>30</v>
       </c>
       <c r="B29">
-        <v>67.024917</v>
+        <v>67.024917000000002</v>
       </c>
       <c r="C29">
-        <v>32.540383</v>
+        <v>32.540382999999999</v>
       </c>
       <c r="D29" t="s">
         <v>32</v>
@@ -3996,7 +3414,7 @@
         <v>Crang 2_17</v>
       </c>
       <c r="G29">
-        <v>0.088</v>
+        <v>8.7999999999999995E-2</v>
       </c>
       <c r="H29">
         <v>4.79</v>
@@ -4068,15 +3486,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:30">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>30</v>
       </c>
       <c r="B30">
-        <v>67.024917</v>
+        <v>67.024917000000002</v>
       </c>
       <c r="C30">
-        <v>32.540383</v>
+        <v>32.540382999999999</v>
       </c>
       <c r="D30" t="s">
         <v>32</v>
@@ -4089,7 +3507,7 @@
         <v>Crang 2_18</v>
       </c>
       <c r="G30">
-        <v>0.075</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="H30">
         <v>4.13</v>
@@ -4161,15 +3579,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:30">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>30</v>
       </c>
       <c r="B31">
-        <v>67.024917</v>
+        <v>67.024917000000002</v>
       </c>
       <c r="C31">
-        <v>32.540383</v>
+        <v>32.540382999999999</v>
       </c>
       <c r="D31" t="s">
         <v>32</v>
@@ -4182,10 +3600,10 @@
         <v>Crang 2_19</v>
       </c>
       <c r="G31">
-        <v>0.061</v>
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="H31">
-        <v>4.02</v>
+        <v>4.0199999999999996</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -4254,15 +3672,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:30">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>30</v>
       </c>
       <c r="B32">
-        <v>67.024917</v>
+        <v>67.024917000000002</v>
       </c>
       <c r="C32">
-        <v>32.540383</v>
+        <v>32.540382999999999</v>
       </c>
       <c r="D32" t="s">
         <v>32</v>
@@ -4275,7 +3693,7 @@
         <v>Crang 2_20</v>
       </c>
       <c r="G32">
-        <v>0.058</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="H32">
         <v>3.37</v>
@@ -4347,15 +3765,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:30">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>30</v>
       </c>
       <c r="B33">
-        <v>67.024917</v>
+        <v>67.024917000000002</v>
       </c>
       <c r="C33">
-        <v>32.540383</v>
+        <v>32.540382999999999</v>
       </c>
       <c r="D33" t="s">
         <v>32</v>
@@ -4368,7 +3786,7 @@
         <v>Crang 2_21</v>
       </c>
       <c r="G33">
-        <v>0.035</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="H33">
         <v>3.07</v>
@@ -4440,12 +3858,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:30">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>30</v>
       </c>
       <c r="B34">
-        <v>67.025051</v>
+        <v>67.025051000000005</v>
       </c>
       <c r="C34">
         <v>32.540588</v>
@@ -4461,10 +3879,10 @@
         <v>Crang 3_1</v>
       </c>
       <c r="G34">
-        <v>0.524</v>
+        <v>0.52400000000000002</v>
       </c>
       <c r="H34">
-        <v>8.03</v>
+        <v>8.0299999999999994</v>
       </c>
       <c r="I34">
         <v>1</v>
@@ -4533,12 +3951,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:30">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>30</v>
       </c>
       <c r="B35">
-        <v>67.025051</v>
+        <v>67.025051000000005</v>
       </c>
       <c r="C35">
         <v>32.540588</v>
@@ -4626,12 +4044,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:30">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>30</v>
       </c>
       <c r="B36">
-        <v>67.025051</v>
+        <v>67.025051000000005</v>
       </c>
       <c r="C36">
         <v>32.540588</v>
@@ -4647,7 +4065,7 @@
         <v>Crang 3_3</v>
       </c>
       <c r="G36">
-        <v>0.417</v>
+        <v>0.41699999999999998</v>
       </c>
       <c r="H36">
         <v>7.06</v>
@@ -4719,12 +4137,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:30">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>30</v>
       </c>
       <c r="B37">
-        <v>67.025051</v>
+        <v>67.025051000000005</v>
       </c>
       <c r="C37">
         <v>32.540588</v>
@@ -4740,7 +4158,7 @@
         <v>Crang 3_4</v>
       </c>
       <c r="G37">
-        <v>0.341</v>
+        <v>0.34100000000000003</v>
       </c>
       <c r="H37">
         <v>7.27</v>
@@ -4812,12 +4230,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:30">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>30</v>
       </c>
       <c r="B38">
-        <v>67.025051</v>
+        <v>67.025051000000005</v>
       </c>
       <c r="C38">
         <v>32.540588</v>
@@ -4905,12 +4323,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:30">
+    <row r="39" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>30</v>
       </c>
       <c r="B39">
-        <v>67.025051</v>
+        <v>67.025051000000005</v>
       </c>
       <c r="C39">
         <v>32.540588</v>
@@ -4926,7 +4344,7 @@
         <v>Crang 3_7</v>
       </c>
       <c r="G39">
-        <v>0.557</v>
+        <v>0.55700000000000005</v>
       </c>
       <c r="H39">
         <v>7.64</v>
@@ -4998,12 +4416,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:30">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>30</v>
       </c>
       <c r="B40">
-        <v>67.025051</v>
+        <v>67.025051000000005</v>
       </c>
       <c r="C40">
         <v>32.540588</v>
@@ -5019,7 +4437,7 @@
         <v>Crang 3_6</v>
       </c>
       <c r="G40">
-        <v>0.524</v>
+        <v>0.52400000000000002</v>
       </c>
       <c r="H40">
         <v>6.41</v>
@@ -5091,12 +4509,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:30">
+    <row r="41" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>30</v>
       </c>
       <c r="B41">
-        <v>67.025051</v>
+        <v>67.025051000000005</v>
       </c>
       <c r="C41">
         <v>32.540588</v>
@@ -5112,7 +4530,7 @@
         <v>Crang 3_8</v>
       </c>
       <c r="G41">
-        <v>0.368</v>
+        <v>0.36799999999999999</v>
       </c>
       <c r="H41">
         <v>5.92</v>
@@ -5184,12 +4602,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:30">
+    <row r="42" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>30</v>
       </c>
       <c r="B42">
-        <v>67.025051</v>
+        <v>67.025051000000005</v>
       </c>
       <c r="C42">
         <v>32.540588</v>
@@ -5277,12 +4695,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:30">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>30</v>
       </c>
       <c r="B43">
-        <v>67.025051</v>
+        <v>67.025051000000005</v>
       </c>
       <c r="C43">
         <v>32.540588</v>
@@ -5298,7 +4716,7 @@
         <v>Crang 3_10</v>
       </c>
       <c r="G43">
-        <v>0.131</v>
+        <v>0.13100000000000001</v>
       </c>
       <c r="H43">
         <v>4.78</v>
@@ -5370,12 +4788,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:30">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>30</v>
       </c>
       <c r="B44">
-        <v>67.025051</v>
+        <v>67.025051000000005</v>
       </c>
       <c r="C44">
         <v>32.540588</v>
@@ -5391,7 +4809,7 @@
         <v>Crang 3_11</v>
       </c>
       <c r="G44">
-        <v>0.101</v>
+        <v>0.10100000000000001</v>
       </c>
       <c r="H44">
         <v>4.51</v>
@@ -5463,12 +4881,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:30">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>30</v>
       </c>
       <c r="B45">
-        <v>67.025051</v>
+        <v>67.025051000000005</v>
       </c>
       <c r="C45">
         <v>32.540588</v>
@@ -5484,7 +4902,7 @@
         <v>Crang 3_12</v>
       </c>
       <c r="G45">
-        <v>0.094</v>
+        <v>9.4E-2</v>
       </c>
       <c r="H45">
         <v>3.69</v>
@@ -5556,12 +4974,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:30">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>30</v>
       </c>
       <c r="B46">
-        <v>67.025051</v>
+        <v>67.025051000000005</v>
       </c>
       <c r="C46">
         <v>32.540588</v>
@@ -5577,7 +4995,7 @@
         <v>Crang 3_13</v>
       </c>
       <c r="G46">
-        <v>0.058</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="H46">
         <v>2.13</v>
@@ -5649,12 +5067,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:30">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>30</v>
       </c>
       <c r="B47">
-        <v>67.025051</v>
+        <v>67.025051000000005</v>
       </c>
       <c r="C47">
         <v>32.540588</v>
@@ -5670,7 +5088,7 @@
         <v>Crang 3_14</v>
       </c>
       <c r="G47">
-        <v>0.016</v>
+        <v>1.6E-2</v>
       </c>
       <c r="H47">
         <v>1.78</v>
@@ -5742,15 +5160,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:30">
+    <row r="48" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>30</v>
       </c>
       <c r="B48">
-        <v>67.024943</v>
+        <v>67.024942999999993</v>
       </c>
       <c r="C48">
-        <v>32.541286</v>
+        <v>32.541285999999999</v>
       </c>
       <c r="D48" t="s">
         <v>34</v>
@@ -5763,10 +5181,10 @@
         <v>Crang 4_1</v>
       </c>
       <c r="G48">
-        <v>1.205</v>
+        <v>1.2050000000000001</v>
       </c>
       <c r="H48">
-        <v>1.067</v>
+        <v>1.0669999999999999</v>
       </c>
       <c r="I48">
         <v>0</v>
@@ -5835,15 +5253,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:30">
+    <row r="49" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>30</v>
       </c>
       <c r="B49">
-        <v>67.024943</v>
+        <v>67.024942999999993</v>
       </c>
       <c r="C49">
-        <v>32.541286</v>
+        <v>32.541285999999999</v>
       </c>
       <c r="D49" t="s">
         <v>34</v>
@@ -5856,10 +5274,10 @@
         <v>Crang 4_2</v>
       </c>
       <c r="G49">
-        <v>0.591</v>
+        <v>0.59099999999999997</v>
       </c>
       <c r="H49">
-        <v>8.46</v>
+        <v>8.4600000000000009</v>
       </c>
       <c r="I49">
         <v>1</v>
@@ -5928,15 +5346,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:30">
+    <row r="50" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>30</v>
       </c>
       <c r="B50">
-        <v>67.024943</v>
+        <v>67.024942999999993</v>
       </c>
       <c r="C50">
-        <v>32.541286</v>
+        <v>32.541285999999999</v>
       </c>
       <c r="D50" t="s">
         <v>34</v>
@@ -5949,7 +5367,7 @@
         <v>Crang 4_3</v>
       </c>
       <c r="G50">
-        <v>0.658</v>
+        <v>0.65800000000000003</v>
       </c>
       <c r="H50">
         <v>8.99</v>
@@ -6021,15 +5439,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:30">
+    <row r="51" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>30</v>
       </c>
       <c r="B51">
-        <v>67.024943</v>
+        <v>67.024942999999993</v>
       </c>
       <c r="C51">
-        <v>32.541286</v>
+        <v>32.541285999999999</v>
       </c>
       <c r="D51" t="s">
         <v>34</v>
@@ -6042,7 +5460,7 @@
         <v>Crang 4_4</v>
       </c>
       <c r="G51">
-        <v>0.271</v>
+        <v>0.27100000000000002</v>
       </c>
       <c r="H51">
         <v>6.79</v>
@@ -6114,15 +5532,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:30">
+    <row r="52" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>30</v>
       </c>
       <c r="B52">
-        <v>67.024943</v>
+        <v>67.024942999999993</v>
       </c>
       <c r="C52">
-        <v>32.541286</v>
+        <v>32.541285999999999</v>
       </c>
       <c r="D52" t="s">
         <v>34</v>
@@ -6207,15 +5625,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:30">
+    <row r="53" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>30</v>
       </c>
       <c r="B53">
-        <v>67.024943</v>
+        <v>67.024942999999993</v>
       </c>
       <c r="C53">
-        <v>32.541286</v>
+        <v>32.541285999999999</v>
       </c>
       <c r="D53" t="s">
         <v>34</v>
@@ -6300,15 +5718,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:30">
+    <row r="54" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>30</v>
       </c>
       <c r="B54">
-        <v>67.024943</v>
+        <v>67.024942999999993</v>
       </c>
       <c r="C54">
-        <v>32.541286</v>
+        <v>32.541285999999999</v>
       </c>
       <c r="D54" t="s">
         <v>34</v>
@@ -6321,7 +5739,7 @@
         <v>Crang 4_7</v>
       </c>
       <c r="G54">
-        <v>0.206</v>
+        <v>0.20599999999999999</v>
       </c>
       <c r="H54">
         <v>5.13</v>
@@ -6393,15 +5811,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:30">
+    <row r="55" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>30</v>
       </c>
       <c r="B55">
-        <v>67.024943</v>
+        <v>67.024942999999993</v>
       </c>
       <c r="C55">
-        <v>32.541286</v>
+        <v>32.541285999999999</v>
       </c>
       <c r="D55" t="s">
         <v>34</v>
@@ -6414,7 +5832,7 @@
         <v>Crang 4_8</v>
       </c>
       <c r="G55">
-        <v>0.116</v>
+        <v>0.11600000000000001</v>
       </c>
       <c r="H55">
         <v>4.54</v>
@@ -6486,15 +5904,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:30">
+    <row r="56" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>30</v>
       </c>
       <c r="B56">
-        <v>67.024943</v>
+        <v>67.024942999999993</v>
       </c>
       <c r="C56">
-        <v>32.541286</v>
+        <v>32.541285999999999</v>
       </c>
       <c r="D56" t="s">
         <v>34</v>
@@ -6579,15 +5997,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:30">
+    <row r="57" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>30</v>
       </c>
       <c r="B57">
-        <v>67.024943</v>
+        <v>67.024942999999993</v>
       </c>
       <c r="C57">
-        <v>32.541286</v>
+        <v>32.541285999999999</v>
       </c>
       <c r="D57" t="s">
         <v>34</v>
@@ -6600,7 +6018,7 @@
         <v>Crang 4_10</v>
       </c>
       <c r="G57">
-        <v>0.071</v>
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="H57">
         <v>3.93</v>
@@ -6672,15 +6090,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:30">
+    <row r="58" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>30</v>
       </c>
       <c r="B58">
-        <v>67.024943</v>
+        <v>67.024942999999993</v>
       </c>
       <c r="C58">
-        <v>32.541286</v>
+        <v>32.541285999999999</v>
       </c>
       <c r="D58" t="s">
         <v>34</v>
@@ -6693,7 +6111,7 @@
         <v>Crang 4_11</v>
       </c>
       <c r="G58">
-        <v>0.026</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="H58">
         <v>1.6</v>
@@ -6765,15 +6183,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:30">
+    <row r="59" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>30</v>
       </c>
       <c r="B59">
-        <v>67.024943</v>
+        <v>67.024942999999993</v>
       </c>
       <c r="C59">
-        <v>32.541472</v>
+        <v>32.541471999999999</v>
       </c>
       <c r="D59" t="s">
         <v>35</v>
@@ -6786,7 +6204,7 @@
         <v>Crang 5_1</v>
       </c>
       <c r="G59">
-        <v>0.684</v>
+        <v>0.68400000000000005</v>
       </c>
       <c r="H59">
         <v>13.85</v>
@@ -6858,15 +6276,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:30">
+    <row r="60" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>30</v>
       </c>
       <c r="B60">
-        <v>67.024943</v>
+        <v>67.024942999999993</v>
       </c>
       <c r="C60">
-        <v>32.541472</v>
+        <v>32.541471999999999</v>
       </c>
       <c r="D60" t="s">
         <v>35</v>
@@ -6879,7 +6297,7 @@
         <v>Crang 5_2</v>
       </c>
       <c r="G60">
-        <v>0.451</v>
+        <v>0.45100000000000001</v>
       </c>
       <c r="H60">
         <v>8.92</v>
@@ -6951,15 +6369,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:30">
+    <row r="61" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>30</v>
       </c>
       <c r="B61">
-        <v>67.025059</v>
+        <v>67.025058999999999</v>
       </c>
       <c r="C61">
-        <v>32.541472</v>
+        <v>32.541471999999999</v>
       </c>
       <c r="D61" t="s">
         <v>35</v>
@@ -6972,7 +6390,7 @@
         <v>Crang 5_3</v>
       </c>
       <c r="G61">
-        <v>0.545</v>
+        <v>0.54500000000000004</v>
       </c>
       <c r="H61">
         <v>8.51</v>
@@ -7044,15 +6462,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:30">
+    <row r="62" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>30</v>
       </c>
       <c r="B62">
-        <v>67.025059</v>
+        <v>67.025058999999999</v>
       </c>
       <c r="C62">
-        <v>32.541472</v>
+        <v>32.541471999999999</v>
       </c>
       <c r="D62" t="s">
         <v>35</v>
@@ -7137,15 +6555,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:30">
+    <row r="63" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>30</v>
       </c>
       <c r="B63">
-        <v>67.025059</v>
+        <v>67.025058999999999</v>
       </c>
       <c r="C63">
-        <v>32.541472</v>
+        <v>32.541471999999999</v>
       </c>
       <c r="D63" t="s">
         <v>35</v>
@@ -7158,7 +6576,7 @@
         <v>Crang 5_5</v>
       </c>
       <c r="G63">
-        <v>1.092</v>
+        <v>1.0920000000000001</v>
       </c>
       <c r="H63">
         <v>10.25</v>
@@ -7230,15 +6648,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:30">
+    <row r="64" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>30</v>
       </c>
       <c r="B64">
-        <v>67.025059</v>
+        <v>67.025058999999999</v>
       </c>
       <c r="C64">
-        <v>32.541472</v>
+        <v>32.541471999999999</v>
       </c>
       <c r="D64" t="s">
         <v>35</v>
@@ -7251,7 +6669,7 @@
         <v>Crang 5_6</v>
       </c>
       <c r="G64">
-        <v>0.534</v>
+        <v>0.53400000000000003</v>
       </c>
       <c r="H64">
         <v>7.88</v>
@@ -7323,15 +6741,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:30">
+    <row r="65" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>30</v>
       </c>
       <c r="B65">
-        <v>67.025059</v>
+        <v>67.025058999999999</v>
       </c>
       <c r="C65">
-        <v>32.541472</v>
+        <v>32.541471999999999</v>
       </c>
       <c r="D65" t="s">
         <v>35</v>
@@ -7344,7 +6762,7 @@
         <v>Crang 5_7</v>
       </c>
       <c r="G65">
-        <v>0.131</v>
+        <v>0.13100000000000001</v>
       </c>
       <c r="H65">
         <v>5.31</v>
@@ -7416,15 +6834,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:30">
+    <row r="66" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>30</v>
       </c>
       <c r="B66">
-        <v>67.025059</v>
+        <v>67.025058999999999</v>
       </c>
       <c r="C66">
-        <v>32.541472</v>
+        <v>32.541471999999999</v>
       </c>
       <c r="D66" t="s">
         <v>35</v>
@@ -7437,7 +6855,7 @@
         <v>Crang 5_8</v>
       </c>
       <c r="G66">
-        <v>0.079</v>
+        <v>7.9000000000000001E-2</v>
       </c>
       <c r="H66">
         <v>4.49</v>
@@ -7509,15 +6927,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:30">
+    <row r="67" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>30</v>
       </c>
       <c r="B67">
-        <v>67.025059</v>
+        <v>67.025058999999999</v>
       </c>
       <c r="C67">
-        <v>32.541472</v>
+        <v>32.541471999999999</v>
       </c>
       <c r="D67" t="s">
         <v>35</v>
@@ -7533,7 +6951,7 @@
         <v>0.154</v>
       </c>
       <c r="H67">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="I67">
         <v>1</v>
@@ -7602,15 +7020,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:30">
+    <row r="68" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>30</v>
       </c>
       <c r="B68">
-        <v>67.025059</v>
+        <v>67.025058999999999</v>
       </c>
       <c r="C68">
-        <v>32.541472</v>
+        <v>32.541471999999999</v>
       </c>
       <c r="D68" t="s">
         <v>35</v>
@@ -7623,7 +7041,7 @@
         <v>Crang 5_10</v>
       </c>
       <c r="G68">
-        <v>0.073</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="H68">
         <v>4.37</v>
@@ -7695,15 +7113,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:30">
+    <row r="69" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>30</v>
       </c>
       <c r="B69">
-        <v>67.025059</v>
+        <v>67.025058999999999</v>
       </c>
       <c r="C69">
-        <v>32.541472</v>
+        <v>32.541471999999999</v>
       </c>
       <c r="D69" t="s">
         <v>35</v>
@@ -7716,7 +7134,7 @@
         <v>Crang 5_11</v>
       </c>
       <c r="G69">
-        <v>0.054</v>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="H69">
         <v>3.89</v>
@@ -7788,15 +7206,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:30">
+    <row r="70" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>30</v>
       </c>
       <c r="B70">
-        <v>67.025059</v>
+        <v>67.025058999999999</v>
       </c>
       <c r="C70">
-        <v>32.541472</v>
+        <v>32.541471999999999</v>
       </c>
       <c r="D70" t="s">
         <v>35</v>
@@ -7809,7 +7227,7 @@
         <v>Crang 5_12</v>
       </c>
       <c r="G70">
-        <v>0.037</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="H70">
         <v>3.63</v>
@@ -7881,15 +7299,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:30">
+    <row r="71" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>30</v>
       </c>
       <c r="B71">
-        <v>67.025059</v>
+        <v>67.025058999999999</v>
       </c>
       <c r="C71">
-        <v>32.541472</v>
+        <v>32.541471999999999</v>
       </c>
       <c r="D71" t="s">
         <v>35</v>
@@ -7902,7 +7320,7 @@
         <v>Crang 5_13</v>
       </c>
       <c r="G71">
-        <v>0.036</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="H71">
         <v>3.33</v>
@@ -7974,15 +7392,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:30">
+    <row r="72" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>30</v>
       </c>
       <c r="B72">
-        <v>67.025059</v>
+        <v>67.025058999999999</v>
       </c>
       <c r="C72">
-        <v>32.541472</v>
+        <v>32.541471999999999</v>
       </c>
       <c r="D72" t="s">
         <v>35</v>
@@ -7995,7 +7413,7 @@
         <v>Crang 5_14</v>
       </c>
       <c r="G72">
-        <v>0.029</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="H72">
         <v>2.58</v>
@@ -8067,15 +7485,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:30">
+    <row r="73" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>36</v>
       </c>
       <c r="B73">
-        <v>67.505</v>
+        <v>67.504999999999995</v>
       </c>
       <c r="C73">
-        <v>34.911</v>
+        <v>34.911000000000001</v>
       </c>
       <c r="D73" t="s">
         <v>37</v>
@@ -8088,7 +7506,7 @@
         <v>Crang  1_1</v>
       </c>
       <c r="G73">
-        <v>0.654</v>
+        <v>0.65400000000000003</v>
       </c>
       <c r="H73">
         <v>7.74</v>
@@ -8160,15 +7578,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:30">
+    <row r="74" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>36</v>
       </c>
       <c r="B74">
-        <v>67.505</v>
+        <v>67.504999999999995</v>
       </c>
       <c r="C74">
-        <v>34.911</v>
+        <v>34.911000000000001</v>
       </c>
       <c r="D74" t="s">
         <v>37</v>
@@ -8181,7 +7599,7 @@
         <v>Crang  1_2</v>
       </c>
       <c r="G74">
-        <v>0.579</v>
+        <v>0.57899999999999996</v>
       </c>
       <c r="H74">
         <v>8.17</v>
@@ -8253,15 +7671,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:30">
+    <row r="75" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>36</v>
       </c>
       <c r="B75">
-        <v>67.505</v>
+        <v>67.504999999999995</v>
       </c>
       <c r="C75">
-        <v>34.911</v>
+        <v>34.911000000000001</v>
       </c>
       <c r="D75" t="s">
         <v>37</v>
@@ -8274,7 +7692,7 @@
         <v>Crang  1_3</v>
       </c>
       <c r="G75">
-        <v>0.259</v>
+        <v>0.25900000000000001</v>
       </c>
       <c r="H75">
         <v>3.36</v>
@@ -8346,15 +7764,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:30">
+    <row r="76" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>36</v>
       </c>
       <c r="B76">
-        <v>67.505</v>
+        <v>67.504999999999995</v>
       </c>
       <c r="C76">
-        <v>34.911</v>
+        <v>34.911000000000001</v>
       </c>
       <c r="D76" t="s">
         <v>37</v>
@@ -8367,7 +7785,7 @@
         <v>Crang  1_4</v>
       </c>
       <c r="G76">
-        <v>0.066</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="H76">
         <v>0.04</v>
@@ -8439,15 +7857,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:30">
+    <row r="77" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>36</v>
       </c>
       <c r="B77">
-        <v>67.505</v>
+        <v>67.504999999999995</v>
       </c>
       <c r="C77">
-        <v>34.911</v>
+        <v>34.911000000000001</v>
       </c>
       <c r="D77" t="s">
         <v>37</v>
@@ -8460,7 +7878,7 @@
         <v>Crang  1_5</v>
       </c>
       <c r="G77">
-        <v>0.035</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="H77">
         <v>3.71</v>
@@ -8532,15 +7950,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:30">
+    <row r="78" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>36</v>
       </c>
       <c r="B78">
-        <v>67.505</v>
+        <v>67.504999999999995</v>
       </c>
       <c r="C78">
-        <v>34.911</v>
+        <v>34.911000000000001</v>
       </c>
       <c r="D78" t="s">
         <v>37</v>
@@ -8625,15 +8043,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:30">
+    <row r="79" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>36</v>
       </c>
       <c r="B79">
-        <v>67.505</v>
+        <v>67.504999999999995</v>
       </c>
       <c r="C79">
-        <v>34.911</v>
+        <v>34.911000000000001</v>
       </c>
       <c r="D79" t="s">
         <v>37</v>
@@ -8718,15 +8136,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:30">
+    <row r="80" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>36</v>
       </c>
       <c r="B80">
-        <v>67.505</v>
+        <v>67.504999999999995</v>
       </c>
       <c r="C80">
-        <v>34.911</v>
+        <v>34.911000000000001</v>
       </c>
       <c r="D80" t="s">
         <v>37</v>
@@ -8739,7 +8157,7 @@
         <v>Crang  1_8</v>
       </c>
       <c r="G80">
-        <v>0.021</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="H80">
         <v>1.65</v>
@@ -8811,15 +8229,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:30">
+    <row r="81" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>36</v>
       </c>
       <c r="B81">
-        <v>67.505</v>
+        <v>67.504999999999995</v>
       </c>
       <c r="C81">
-        <v>34.911</v>
+        <v>34.911000000000001</v>
       </c>
       <c r="D81" t="s">
         <v>37</v>
@@ -8832,7 +8250,7 @@
         <v>Crang  1_9</v>
       </c>
       <c r="G81">
-        <v>0.017</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="H81">
         <v>2.71</v>
@@ -8904,15 +8322,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:30">
+    <row r="82" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>36</v>
       </c>
       <c r="B82">
-        <v>67.505</v>
+        <v>67.504999999999995</v>
       </c>
       <c r="C82">
-        <v>34.911</v>
+        <v>34.911000000000001</v>
       </c>
       <c r="D82" t="s">
         <v>37</v>
@@ -8925,7 +8343,7 @@
         <v>Crang  1_10</v>
       </c>
       <c r="G82">
-        <v>0.006</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="H82">
         <v>2.91</v>
@@ -8997,15 +8415,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:30">
+    <row r="83" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>36</v>
       </c>
       <c r="B83">
-        <v>67.505</v>
+        <v>67.504999999999995</v>
       </c>
       <c r="C83">
-        <v>34.911</v>
+        <v>34.911000000000001</v>
       </c>
       <c r="D83" t="s">
         <v>37</v>
@@ -9018,7 +8436,7 @@
         <v>Crang  1_11</v>
       </c>
       <c r="G83">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="H83">
         <v>2.66</v>
@@ -9090,15 +8508,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:30">
+    <row r="84" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>36</v>
       </c>
       <c r="B84">
-        <v>67.505</v>
+        <v>67.504999999999995</v>
       </c>
       <c r="C84">
-        <v>34.911</v>
+        <v>34.911000000000001</v>
       </c>
       <c r="D84" t="s">
         <v>37</v>
@@ -9111,7 +8529,7 @@
         <v>Crang  1_12</v>
       </c>
       <c r="G84">
-        <v>0.012</v>
+        <v>1.2E-2</v>
       </c>
       <c r="H84">
         <v>1.4</v>
@@ -9183,15 +8601,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:30">
+    <row r="85" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>36</v>
       </c>
       <c r="B85">
-        <v>67.505</v>
+        <v>67.504999999999995</v>
       </c>
       <c r="C85">
-        <v>34.911</v>
+        <v>34.911000000000001</v>
       </c>
       <c r="D85" t="s">
         <v>37</v>
@@ -9204,7 +8622,7 @@
         <v>Crang  1_13</v>
       </c>
       <c r="G85">
-        <v>0.009</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="H85">
         <v>2.69</v>
@@ -9276,15 +8694,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:30">
+    <row r="86" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>36</v>
       </c>
       <c r="B86">
-        <v>67.505</v>
+        <v>67.504999999999995</v>
       </c>
       <c r="C86">
-        <v>34.911</v>
+        <v>34.911000000000001</v>
       </c>
       <c r="D86" t="s">
         <v>37</v>
@@ -9297,7 +8715,7 @@
         <v>Crang  1_14</v>
       </c>
       <c r="G86">
-        <v>0.011</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="H86" t="s">
         <v>38</v>
@@ -9369,15 +8787,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:30">
+    <row r="87" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>36</v>
       </c>
       <c r="B87">
-        <v>67.505</v>
+        <v>67.504999999999995</v>
       </c>
       <c r="C87">
-        <v>34.911</v>
+        <v>34.911000000000001</v>
       </c>
       <c r="D87" t="s">
         <v>37</v>
@@ -9390,10 +8808,10 @@
         <v>Crang  1_15</v>
       </c>
       <c r="G87">
-        <v>0.008</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="H87">
-        <v>2.26</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="I87" s="11">
         <v>1</v>
@@ -9462,15 +8880,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:30">
+    <row r="88" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>36</v>
       </c>
       <c r="B88">
-        <v>67.505</v>
+        <v>67.504999999999995</v>
       </c>
       <c r="C88">
-        <v>34.911</v>
+        <v>34.911000000000001</v>
       </c>
       <c r="D88" t="s">
         <v>37</v>
@@ -9483,10 +8901,10 @@
         <v>Crang  1_16</v>
       </c>
       <c r="G88">
-        <v>0.005</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="H88">
-        <v>2.03</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="I88" s="11">
         <v>1</v>
@@ -9555,15 +8973,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:30">
+    <row r="89" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>36</v>
       </c>
       <c r="B89">
-        <v>67.505</v>
+        <v>67.504999999999995</v>
       </c>
       <c r="C89">
-        <v>34.911</v>
+        <v>34.911000000000001</v>
       </c>
       <c r="D89" t="s">
         <v>37</v>
@@ -9576,7 +8994,7 @@
         <v>Crang  1_17</v>
       </c>
       <c r="G89">
-        <v>0.004</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="H89">
         <v>2.59</v>
@@ -9648,15 +9066,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:30">
+    <row r="90" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>36</v>
       </c>
       <c r="B90">
-        <v>67.505</v>
+        <v>67.504999999999995</v>
       </c>
       <c r="C90">
-        <v>34.911</v>
+        <v>34.911000000000001</v>
       </c>
       <c r="D90" t="s">
         <v>37</v>
@@ -9669,10 +9087,10 @@
         <v>Crang  1_18</v>
       </c>
       <c r="G90">
-        <v>0.006</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="H90">
-        <v>2.07</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="I90" s="11">
         <v>0</v>
@@ -9741,15 +9159,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:30">
+    <row r="91" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>36</v>
       </c>
       <c r="B91">
-        <v>67.505</v>
+        <v>67.504999999999995</v>
       </c>
       <c r="C91">
-        <v>34.911</v>
+        <v>34.911000000000001</v>
       </c>
       <c r="D91" t="s">
         <v>37</v>
@@ -9762,10 +9180,10 @@
         <v>Crang  1_19</v>
       </c>
       <c r="G91">
-        <v>0.004</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="H91">
-        <v>1.09</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="I91" s="11">
         <v>1</v>
@@ -9834,15 +9252,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:30">
+    <row r="92" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>36</v>
       </c>
       <c r="B92">
-        <v>67.505</v>
+        <v>67.504999999999995</v>
       </c>
       <c r="C92">
-        <v>34.911</v>
+        <v>34.911000000000001</v>
       </c>
       <c r="D92" t="s">
         <v>37</v>
@@ -9855,7 +9273,7 @@
         <v>Crang  1_20</v>
       </c>
       <c r="G92">
-        <v>0.005</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="H92">
         <v>1.31</v>
@@ -9927,15 +9345,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:30">
+    <row r="93" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>36</v>
       </c>
       <c r="B93">
-        <v>67.505</v>
+        <v>67.504999999999995</v>
       </c>
       <c r="C93">
-        <v>34.911</v>
+        <v>34.911000000000001</v>
       </c>
       <c r="D93" t="s">
         <v>37</v>
@@ -9948,7 +9366,7 @@
         <v>Crang  1_21</v>
       </c>
       <c r="G93">
-        <v>0.007</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="H93">
         <v>1.87</v>
@@ -10020,15 +9438,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:30">
+    <row r="94" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>36</v>
       </c>
       <c r="B94">
-        <v>67.505</v>
+        <v>67.504999999999995</v>
       </c>
       <c r="C94">
-        <v>34.911</v>
+        <v>34.911000000000001</v>
       </c>
       <c r="D94" t="s">
         <v>37</v>
@@ -10041,7 +9459,7 @@
         <v>Crang  1_22</v>
       </c>
       <c r="G94">
-        <v>0.006</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="H94">
         <v>1.49</v>
@@ -10113,15 +9531,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:30">
+    <row r="95" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>36</v>
       </c>
       <c r="B95">
-        <v>67.505</v>
+        <v>67.504999999999995</v>
       </c>
       <c r="C95">
-        <v>34.911</v>
+        <v>34.911000000000001</v>
       </c>
       <c r="D95" t="s">
         <v>37</v>
@@ -10134,7 +9552,7 @@
         <v>Crang  1_23</v>
       </c>
       <c r="G95">
-        <v>0.004</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="H95">
         <v>2</v>
@@ -10206,15 +9624,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:30">
+    <row r="96" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>36</v>
       </c>
       <c r="B96">
-        <v>67.499</v>
+        <v>67.498999999999995</v>
       </c>
       <c r="C96">
-        <v>34.383</v>
+        <v>34.383000000000003</v>
       </c>
       <c r="D96" t="s">
         <v>32</v>
@@ -10227,7 +9645,7 @@
         <v>Crang 2_1</v>
       </c>
       <c r="G96">
-        <v>1.074</v>
+        <v>1.0740000000000001</v>
       </c>
       <c r="H96">
         <v>9.94</v>
@@ -10299,15 +9717,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:30">
+    <row r="97" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>36</v>
       </c>
       <c r="B97">
-        <v>67.499</v>
+        <v>67.498999999999995</v>
       </c>
       <c r="C97">
-        <v>34.383</v>
+        <v>34.383000000000003</v>
       </c>
       <c r="D97" t="s">
         <v>32</v>
@@ -10320,7 +9738,7 @@
         <v>Crang 2_2</v>
       </c>
       <c r="G97">
-        <v>0.069</v>
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="H97">
         <v>4.09</v>
@@ -10392,15 +9810,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:30">
+    <row r="98" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>36</v>
       </c>
       <c r="B98">
-        <v>67.499</v>
+        <v>67.498999999999995</v>
       </c>
       <c r="C98">
-        <v>34.383</v>
+        <v>34.383000000000003</v>
       </c>
       <c r="D98" t="s">
         <v>32</v>
@@ -10413,7 +9831,7 @@
         <v>Crang 2_3</v>
       </c>
       <c r="G98">
-        <v>0.085</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="H98">
         <v>4.87</v>
@@ -10485,15 +9903,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:30">
+    <row r="99" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>36</v>
       </c>
       <c r="B99">
-        <v>67.499</v>
+        <v>67.498999999999995</v>
       </c>
       <c r="C99">
-        <v>34.383</v>
+        <v>34.383000000000003</v>
       </c>
       <c r="D99" t="s">
         <v>32</v>
@@ -10506,7 +9924,7 @@
         <v>Crang 2_4</v>
       </c>
       <c r="G99">
-        <v>0.244</v>
+        <v>0.24399999999999999</v>
       </c>
       <c r="H99">
         <v>6.51</v>
@@ -10578,15 +9996,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:30">
+    <row r="100" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>36</v>
       </c>
       <c r="B100">
-        <v>67.499</v>
+        <v>67.498999999999995</v>
       </c>
       <c r="C100">
-        <v>34.383</v>
+        <v>34.383000000000003</v>
       </c>
       <c r="D100" t="s">
         <v>32</v>
@@ -10599,7 +10017,7 @@
         <v>Crang 2_5</v>
       </c>
       <c r="G100">
-        <v>0.084</v>
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="H100">
         <v>4.99</v>
@@ -10671,15 +10089,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:30">
+    <row r="101" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>36</v>
       </c>
       <c r="B101">
-        <v>67.499</v>
+        <v>67.498999999999995</v>
       </c>
       <c r="C101">
-        <v>34.383</v>
+        <v>34.383000000000003</v>
       </c>
       <c r="D101" t="s">
         <v>32</v>
@@ -10692,7 +10110,7 @@
         <v>Crang 2_6</v>
       </c>
       <c r="G101">
-        <v>0.052</v>
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="H101">
         <v>3.71</v>
@@ -10764,15 +10182,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:30">
+    <row r="102" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>36</v>
       </c>
       <c r="B102">
-        <v>67.499</v>
+        <v>67.498999999999995</v>
       </c>
       <c r="C102">
-        <v>34.383</v>
+        <v>34.383000000000003</v>
       </c>
       <c r="D102" t="s">
         <v>32</v>
@@ -10785,7 +10203,7 @@
         <v>Crang 2_7</v>
       </c>
       <c r="G102">
-        <v>0.051</v>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="H102">
         <v>3.97</v>
@@ -10857,15 +10275,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:30">
+    <row r="103" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>36</v>
       </c>
       <c r="B103">
-        <v>67.499</v>
+        <v>67.498999999999995</v>
       </c>
       <c r="C103">
-        <v>34.383</v>
+        <v>34.383000000000003</v>
       </c>
       <c r="D103" t="s">
         <v>32</v>
@@ -10950,15 +10368,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:30">
+    <row r="104" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>36</v>
       </c>
       <c r="B104">
-        <v>67.499</v>
+        <v>67.498999999999995</v>
       </c>
       <c r="C104">
-        <v>34.383</v>
+        <v>34.383000000000003</v>
       </c>
       <c r="D104" t="s">
         <v>32</v>
@@ -11043,15 +10461,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:30">
+    <row r="105" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>36</v>
       </c>
       <c r="B105">
-        <v>67.499</v>
+        <v>67.498999999999995</v>
       </c>
       <c r="C105">
-        <v>34.383</v>
+        <v>34.383000000000003</v>
       </c>
       <c r="D105" t="s">
         <v>32</v>
@@ -11136,15 +10554,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:30">
+    <row r="106" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>36</v>
       </c>
       <c r="B106">
-        <v>67.499</v>
+        <v>67.498999999999995</v>
       </c>
       <c r="C106">
-        <v>34.383</v>
+        <v>34.383000000000003</v>
       </c>
       <c r="D106" t="s">
         <v>32</v>
@@ -11157,7 +10575,7 @@
         <v>Crang 2_11</v>
       </c>
       <c r="G106">
-        <v>0.011</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="H106">
         <v>2.79</v>
@@ -11229,15 +10647,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:30">
+    <row r="107" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>36</v>
       </c>
       <c r="B107">
-        <v>67.499</v>
+        <v>67.498999999999995</v>
       </c>
       <c r="C107">
-        <v>34.383</v>
+        <v>34.383000000000003</v>
       </c>
       <c r="D107" t="s">
         <v>32</v>
@@ -11250,10 +10668,10 @@
         <v>Crang 2_12</v>
       </c>
       <c r="G107">
-        <v>0.012</v>
+        <v>1.2E-2</v>
       </c>
       <c r="H107">
-        <v>2.51</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="I107" s="11">
         <v>0</v>
@@ -11322,15 +10740,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:30">
+    <row r="108" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>36</v>
       </c>
       <c r="B108">
-        <v>67.499</v>
+        <v>67.498999999999995</v>
       </c>
       <c r="C108">
-        <v>34.383</v>
+        <v>34.383000000000003</v>
       </c>
       <c r="D108" t="s">
         <v>32</v>
@@ -11343,10 +10761,10 @@
         <v>Crang 2_13</v>
       </c>
       <c r="G108">
-        <v>0.005</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="H108">
-        <v>2.28</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="I108" s="11">
         <v>0</v>
@@ -11415,15 +10833,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:30">
+    <row r="109" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>36</v>
       </c>
       <c r="B109">
-        <v>67.499</v>
+        <v>67.498999999999995</v>
       </c>
       <c r="C109">
-        <v>34.383</v>
+        <v>34.383000000000003</v>
       </c>
       <c r="D109" t="s">
         <v>32</v>
@@ -11436,7 +10854,7 @@
         <v>Crang 2_14</v>
       </c>
       <c r="G109">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="H109">
         <v>1.77</v>
@@ -11508,15 +10926,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:30">
+    <row r="110" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>36</v>
       </c>
       <c r="B110">
-        <v>67.499</v>
+        <v>67.498999999999995</v>
       </c>
       <c r="C110">
-        <v>34.383</v>
+        <v>34.383000000000003</v>
       </c>
       <c r="D110" t="s">
         <v>32</v>
@@ -11529,7 +10947,7 @@
         <v>Crang 2_15</v>
       </c>
       <c r="G110">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="H110">
         <v>1.81</v>
@@ -11601,15 +11019,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:30">
+    <row r="111" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>36</v>
       </c>
       <c r="B111">
-        <v>67.498</v>
+        <v>67.498000000000005</v>
       </c>
       <c r="C111">
-        <v>34.344</v>
+        <v>34.344000000000001</v>
       </c>
       <c r="D111" t="s">
         <v>33</v>
@@ -11622,7 +11040,7 @@
         <v>Crang 3_1</v>
       </c>
       <c r="G111">
-        <v>0.0734</v>
+        <v>7.3400000000000007E-2</v>
       </c>
       <c r="H111">
         <v>9.6</v>
@@ -11694,15 +11112,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:30">
+    <row r="112" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>36</v>
       </c>
       <c r="B112">
-        <v>67.498</v>
+        <v>67.498000000000005</v>
       </c>
       <c r="C112">
-        <v>34.344</v>
+        <v>34.344000000000001</v>
       </c>
       <c r="D112" t="s">
         <v>33</v>
@@ -11715,7 +11133,7 @@
         <v>Crang 3_2</v>
       </c>
       <c r="G112">
-        <v>0.402</v>
+        <v>0.40200000000000002</v>
       </c>
       <c r="H112">
         <v>6.42</v>
@@ -11787,15 +11205,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:30">
+    <row r="113" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>36</v>
       </c>
       <c r="B113">
-        <v>67.498</v>
+        <v>67.498000000000005</v>
       </c>
       <c r="C113">
-        <v>34.344</v>
+        <v>34.344000000000001</v>
       </c>
       <c r="D113" t="s">
         <v>33</v>
@@ -11880,15 +11298,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:30">
+    <row r="114" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>36</v>
       </c>
       <c r="B114">
-        <v>67.498</v>
+        <v>67.498000000000005</v>
       </c>
       <c r="C114">
-        <v>34.344</v>
+        <v>34.344000000000001</v>
       </c>
       <c r="D114" t="s">
         <v>33</v>
@@ -11901,7 +11319,7 @@
         <v>Crang 3_4</v>
       </c>
       <c r="G114">
-        <v>0.048</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="H114">
         <v>3.65</v>
@@ -11973,15 +11391,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:30">
+    <row r="115" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>36</v>
       </c>
       <c r="B115">
-        <v>67.498</v>
+        <v>67.498000000000005</v>
       </c>
       <c r="C115">
-        <v>34.344</v>
+        <v>34.344000000000001</v>
       </c>
       <c r="D115" t="s">
         <v>33</v>
@@ -11994,7 +11412,7 @@
         <v>Crang 3_5</v>
       </c>
       <c r="G115">
-        <v>0.054</v>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="H115">
         <v>4.47</v>
@@ -12066,15 +11484,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:30">
+    <row r="116" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>36</v>
       </c>
       <c r="B116">
-        <v>67.498</v>
+        <v>67.498000000000005</v>
       </c>
       <c r="C116">
-        <v>34.344</v>
+        <v>34.344000000000001</v>
       </c>
       <c r="D116" t="s">
         <v>33</v>
@@ -12087,7 +11505,7 @@
         <v>Crang 3_6</v>
       </c>
       <c r="G116">
-        <v>0.046</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="H116">
         <v>3.95</v>
@@ -12159,15 +11577,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:30">
+    <row r="117" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>36</v>
       </c>
       <c r="B117">
-        <v>67.498</v>
+        <v>67.498000000000005</v>
       </c>
       <c r="C117">
-        <v>34.344</v>
+        <v>34.344000000000001</v>
       </c>
       <c r="D117" t="s">
         <v>33</v>
@@ -12252,15 +11670,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:30">
+    <row r="118" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>36</v>
       </c>
       <c r="B118">
-        <v>67.498</v>
+        <v>67.498000000000005</v>
       </c>
       <c r="C118">
-        <v>34.344</v>
+        <v>34.344000000000001</v>
       </c>
       <c r="D118" t="s">
         <v>33</v>
@@ -12273,7 +11691,7 @@
         <v>Crang 3_8</v>
       </c>
       <c r="G118">
-        <v>0.046</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="H118">
         <v>3.83</v>
@@ -12345,15 +11763,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:30">
+    <row r="119" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>36</v>
       </c>
       <c r="B119">
-        <v>67.498</v>
+        <v>67.498000000000005</v>
       </c>
       <c r="C119">
-        <v>34.344</v>
+        <v>34.344000000000001</v>
       </c>
       <c r="D119" t="s">
         <v>33</v>
@@ -12366,7 +11784,7 @@
         <v>Crang 3_9</v>
       </c>
       <c r="G119">
-        <v>0.068</v>
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="H119">
         <v>3.95</v>
@@ -12438,15 +11856,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:30">
+    <row r="120" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>36</v>
       </c>
       <c r="B120">
-        <v>67.498</v>
+        <v>67.498000000000005</v>
       </c>
       <c r="C120">
-        <v>34.344</v>
+        <v>34.344000000000001</v>
       </c>
       <c r="D120" t="s">
         <v>33</v>
@@ -12459,7 +11877,7 @@
         <v>Crang 3_10</v>
       </c>
       <c r="G120">
-        <v>0.014</v>
+        <v>1.4E-2</v>
       </c>
       <c r="H120">
         <v>3.1</v>
@@ -12531,15 +11949,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:30">
+    <row r="121" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>36</v>
       </c>
       <c r="B121">
-        <v>67.498</v>
+        <v>67.498000000000005</v>
       </c>
       <c r="C121">
-        <v>34.344</v>
+        <v>34.344000000000001</v>
       </c>
       <c r="D121" t="s">
         <v>33</v>
@@ -12552,7 +11970,7 @@
         <v>Crang 3_11</v>
       </c>
       <c r="G121">
-        <v>0.006</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="H121">
         <v>1.94</v>
@@ -12624,15 +12042,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:30">
+    <row r="122" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>36</v>
       </c>
       <c r="B122">
-        <v>67.498</v>
+        <v>67.498000000000005</v>
       </c>
       <c r="C122">
-        <v>34.344</v>
+        <v>34.344000000000001</v>
       </c>
       <c r="D122" t="s">
         <v>33</v>
@@ -12645,7 +12063,7 @@
         <v>Crang 3_12</v>
       </c>
       <c r="G122">
-        <v>0.007</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="H122">
         <v>2.64</v>
@@ -12717,15 +12135,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:30">
+    <row r="123" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>36</v>
       </c>
       <c r="B123">
-        <v>67.498</v>
+        <v>67.498000000000005</v>
       </c>
       <c r="C123">
-        <v>34.344</v>
+        <v>34.344000000000001</v>
       </c>
       <c r="D123" t="s">
         <v>33</v>
@@ -12738,7 +12156,7 @@
         <v>Crang 3_13</v>
       </c>
       <c r="G123">
-        <v>0.013</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="H123">
         <v>2.61</v>
@@ -12810,15 +12228,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:30">
+    <row r="124" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>36</v>
       </c>
       <c r="B124">
-        <v>67.498</v>
+        <v>67.498000000000005</v>
       </c>
       <c r="C124">
-        <v>34.344</v>
+        <v>34.344000000000001</v>
       </c>
       <c r="D124" t="s">
         <v>33</v>
@@ -12831,10 +12249,10 @@
         <v>Crang 3_14</v>
       </c>
       <c r="G124">
-        <v>0.004</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="H124">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="I124" s="11">
         <v>1</v>
@@ -12903,15 +12321,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:30">
+    <row r="125" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>36</v>
       </c>
       <c r="B125">
-        <v>67.498</v>
+        <v>67.498000000000005</v>
       </c>
       <c r="C125">
-        <v>34.344</v>
+        <v>34.344000000000001</v>
       </c>
       <c r="D125" t="s">
         <v>33</v>
@@ -12924,7 +12342,7 @@
         <v>Crang 3_15</v>
       </c>
       <c r="G125">
-        <v>0.008</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="H125">
         <v>1.81</v>
@@ -12996,15 +12414,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:30">
+    <row r="126" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>36</v>
       </c>
       <c r="B126">
-        <v>67.498</v>
+        <v>67.498000000000005</v>
       </c>
       <c r="C126">
-        <v>34.344</v>
+        <v>34.344000000000001</v>
       </c>
       <c r="D126" t="s">
         <v>33</v>
@@ -13017,7 +12435,7 @@
         <v>Crang 3_16</v>
       </c>
       <c r="G126">
-        <v>0.007</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="H126">
         <v>2.09</v>
@@ -13089,15 +12507,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:30">
+    <row r="127" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>36</v>
       </c>
       <c r="B127">
-        <v>67.498</v>
+        <v>67.498000000000005</v>
       </c>
       <c r="C127">
-        <v>34.344</v>
+        <v>34.344000000000001</v>
       </c>
       <c r="D127" t="s">
         <v>33</v>
@@ -13110,7 +12528,7 @@
         <v>Crang 3_17</v>
       </c>
       <c r="G127">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="H127">
         <v>1.7</v>
@@ -13182,15 +12600,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:30">
+    <row r="128" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>36</v>
       </c>
       <c r="B128">
-        <v>67.498</v>
+        <v>67.498000000000005</v>
       </c>
       <c r="C128">
-        <v>34.344</v>
+        <v>34.344000000000001</v>
       </c>
       <c r="D128" t="s">
         <v>33</v>
@@ -13203,7 +12621,7 @@
         <v>Crang 3_18</v>
       </c>
       <c r="G128">
-        <v>0.005</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="H128">
         <v>1.43</v>
@@ -13275,15 +12693,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:30">
+    <row r="129" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>36</v>
       </c>
       <c r="B129">
-        <v>67.498</v>
+        <v>67.498000000000005</v>
       </c>
       <c r="C129">
-        <v>34.344</v>
+        <v>34.344000000000001</v>
       </c>
       <c r="D129" t="s">
         <v>33</v>
@@ -13296,10 +12714,10 @@
         <v>Crang 3_19</v>
       </c>
       <c r="G129">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="H129">
-        <v>1.13</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="I129" s="11">
         <v>1</v>
@@ -13368,7 +12786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:30">
+    <row r="130" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>36</v>
       </c>
@@ -13376,7 +12794,7 @@
         <v>67.497</v>
       </c>
       <c r="C130">
-        <v>34.312</v>
+        <v>34.311999999999998</v>
       </c>
       <c r="D130" t="s">
         <v>34</v>
@@ -13389,7 +12807,7 @@
         <v>Crang 4_1</v>
       </c>
       <c r="G130">
-        <v>0.085</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="H130">
         <v>4.37</v>
@@ -13461,7 +12879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:30">
+    <row r="131" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>36</v>
       </c>
@@ -13469,7 +12887,7 @@
         <v>67.497</v>
       </c>
       <c r="C131">
-        <v>34.312</v>
+        <v>34.311999999999998</v>
       </c>
       <c r="D131" t="s">
         <v>34</v>
@@ -13482,7 +12900,7 @@
         <v>Crang 4_2</v>
       </c>
       <c r="G131">
-        <v>0.042</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="H131">
         <v>3.35</v>
@@ -13554,7 +12972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:30">
+    <row r="132" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>36</v>
       </c>
@@ -13562,7 +12980,7 @@
         <v>67.497</v>
       </c>
       <c r="C132">
-        <v>34.312</v>
+        <v>34.311999999999998</v>
       </c>
       <c r="D132" t="s">
         <v>34</v>
@@ -13575,7 +12993,7 @@
         <v>Crang 4_3</v>
       </c>
       <c r="G132">
-        <v>0.024</v>
+        <v>2.4E-2</v>
       </c>
       <c r="H132" t="s">
         <v>38</v>
@@ -13647,7 +13065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:30">
+    <row r="133" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>36</v>
       </c>
@@ -13655,7 +13073,7 @@
         <v>67.497</v>
       </c>
       <c r="C133">
-        <v>34.312</v>
+        <v>34.311999999999998</v>
       </c>
       <c r="D133" t="s">
         <v>34</v>
@@ -13668,10 +13086,10 @@
         <v>Crang 4_4</v>
       </c>
       <c r="G133">
-        <v>0.009</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="H133">
-        <v>2.05</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="I133" s="11">
         <v>1</v>
@@ -13740,7 +13158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:30">
+    <row r="134" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>36</v>
       </c>
@@ -13748,7 +13166,7 @@
         <v>67.497</v>
       </c>
       <c r="C134">
-        <v>34.312</v>
+        <v>34.311999999999998</v>
       </c>
       <c r="D134" t="s">
         <v>34</v>
@@ -13761,10 +13179,10 @@
         <v>Crang 4_5</v>
       </c>
       <c r="G134">
-        <v>0.015</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="H134">
-        <v>2.43</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="I134" s="11">
         <v>0</v>
@@ -13833,7 +13251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:30">
+    <row r="135" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>36</v>
       </c>
@@ -13841,7 +13259,7 @@
         <v>67.497</v>
       </c>
       <c r="C135">
-        <v>34.312</v>
+        <v>34.311999999999998</v>
       </c>
       <c r="D135" t="s">
         <v>34</v>
@@ -13854,7 +13272,7 @@
         <v>Crang 4_6</v>
       </c>
       <c r="G135">
-        <v>0.006</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="H135">
         <v>1.35</v>
@@ -13926,7 +13344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:30">
+    <row r="136" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>36</v>
       </c>
@@ -13934,7 +13352,7 @@
         <v>67.506</v>
       </c>
       <c r="C136">
-        <v>34.27</v>
+        <v>34.270000000000003</v>
       </c>
       <c r="D136" t="s">
         <v>35</v>
@@ -13947,7 +13365,7 @@
         <v>Crang 5_1</v>
       </c>
       <c r="G136">
-        <v>0.046</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="H136">
         <v>3.9</v>
@@ -14019,7 +13437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:30">
+    <row r="137" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>36</v>
       </c>
@@ -14027,7 +13445,7 @@
         <v>67.506</v>
       </c>
       <c r="C137">
-        <v>34.27</v>
+        <v>34.270000000000003</v>
       </c>
       <c r="D137" t="s">
         <v>35</v>
@@ -14040,7 +13458,7 @@
         <v>Crang 5_2</v>
       </c>
       <c r="G137">
-        <v>0.082</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="H137">
         <v>4.7</v>
@@ -14112,7 +13530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:30">
+    <row r="138" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>36</v>
       </c>
@@ -14120,7 +13538,7 @@
         <v>67.506</v>
       </c>
       <c r="C138">
-        <v>34.27</v>
+        <v>34.270000000000003</v>
       </c>
       <c r="D138" t="s">
         <v>35</v>
@@ -14133,7 +13551,7 @@
         <v>Crang 5_3</v>
       </c>
       <c r="G138">
-        <v>0.012</v>
+        <v>1.2E-2</v>
       </c>
       <c r="H138">
         <v>2.71</v>
@@ -14205,7 +13623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:30">
+    <row r="139" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>36</v>
       </c>
@@ -14213,7 +13631,7 @@
         <v>67.506</v>
       </c>
       <c r="C139">
-        <v>34.27</v>
+        <v>34.270000000000003</v>
       </c>
       <c r="D139" t="s">
         <v>35</v>
@@ -14226,7 +13644,7 @@
         <v>Crang 5_4</v>
       </c>
       <c r="G139">
-        <v>0.005</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="H139">
         <v>1.94</v>
@@ -14298,15 +13716,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:30">
+    <row r="140" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>36</v>
       </c>
       <c r="B140">
-        <v>67.51</v>
+        <v>67.510000000000005</v>
       </c>
       <c r="C140">
-        <v>34.386</v>
+        <v>34.386000000000003</v>
       </c>
       <c r="D140" t="s">
         <v>39</v>
@@ -14391,15 +13809,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:30">
+    <row r="141" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>36</v>
       </c>
       <c r="B141">
-        <v>67.51</v>
+        <v>67.510000000000005</v>
       </c>
       <c r="C141">
-        <v>34.386</v>
+        <v>34.386000000000003</v>
       </c>
       <c r="D141" t="s">
         <v>39</v>
@@ -14412,7 +13830,7 @@
         <v>Crang 6_2</v>
       </c>
       <c r="G141">
-        <v>0.032</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="H141">
         <v>2.84</v>
@@ -14484,15 +13902,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:30">
+    <row r="142" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>36</v>
       </c>
       <c r="B142">
-        <v>67.51</v>
+        <v>67.510000000000005</v>
       </c>
       <c r="C142">
-        <v>34.386</v>
+        <v>34.386000000000003</v>
       </c>
       <c r="D142" t="s">
         <v>39</v>
@@ -14505,7 +13923,7 @@
         <v>Crang 6_3</v>
       </c>
       <c r="G142">
-        <v>0.017</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="H142">
         <v>2.64</v>
@@ -14577,15 +13995,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:30">
+    <row r="143" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>36</v>
       </c>
       <c r="B143">
-        <v>67.51</v>
+        <v>67.510000000000005</v>
       </c>
       <c r="C143">
-        <v>34.386</v>
+        <v>34.386000000000003</v>
       </c>
       <c r="D143" t="s">
         <v>39</v>
@@ -14598,7 +14016,7 @@
         <v>Crang 6_4</v>
       </c>
       <c r="G143">
-        <v>0.026</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="H143">
         <v>2.84</v>
@@ -14670,15 +14088,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:30">
+    <row r="144" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>36</v>
       </c>
       <c r="B144">
-        <v>67.51</v>
+        <v>67.510000000000005</v>
       </c>
       <c r="C144">
-        <v>34.386</v>
+        <v>34.386000000000003</v>
       </c>
       <c r="D144" t="s">
         <v>39</v>
@@ -14691,7 +14109,7 @@
         <v>Crang 6_5</v>
       </c>
       <c r="G144">
-        <v>0.011</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="H144">
         <v>2.21</v>
@@ -14763,15 +14181,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:30">
+    <row r="145" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>36</v>
       </c>
       <c r="B145">
-        <v>67.51</v>
+        <v>67.510000000000005</v>
       </c>
       <c r="C145">
-        <v>34.386</v>
+        <v>34.386000000000003</v>
       </c>
       <c r="D145" t="s">
         <v>39</v>
@@ -14784,7 +14202,7 @@
         <v>Crang 6_6</v>
       </c>
       <c r="G145">
-        <v>0.021</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="H145">
         <v>2.44</v>
@@ -14856,15 +14274,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:30">
+    <row r="146" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>36</v>
       </c>
       <c r="B146">
-        <v>67.51</v>
+        <v>67.510000000000005</v>
       </c>
       <c r="C146">
-        <v>34.386</v>
+        <v>34.386000000000003</v>
       </c>
       <c r="D146" t="s">
         <v>39</v>
@@ -14877,7 +14295,7 @@
         <v>Crang 6_7</v>
       </c>
       <c r="G146">
-        <v>0.015</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="H146">
         <v>2.94</v>
@@ -14949,15 +14367,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:30">
+    <row r="147" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>36</v>
       </c>
       <c r="B147">
-        <v>67.51</v>
+        <v>67.510000000000005</v>
       </c>
       <c r="C147">
-        <v>34.386</v>
+        <v>34.386000000000003</v>
       </c>
       <c r="D147" t="s">
         <v>39</v>
@@ -14970,7 +14388,7 @@
         <v>Crang 6_8</v>
       </c>
       <c r="G147">
-        <v>0.017</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="H147">
         <v>2.21</v>
@@ -15042,15 +14460,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:30">
+    <row r="148" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>36</v>
       </c>
       <c r="B148">
-        <v>67.51</v>
+        <v>67.510000000000005</v>
       </c>
       <c r="C148">
-        <v>34.386</v>
+        <v>34.386000000000003</v>
       </c>
       <c r="D148" t="s">
         <v>39</v>
@@ -15063,10 +14481,10 @@
         <v>Crang 6_9</v>
       </c>
       <c r="G148">
-        <v>0.0134</v>
+        <v>1.34E-2</v>
       </c>
       <c r="H148">
-        <v>2.49</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="I148" s="11">
         <v>1</v>
@@ -15135,15 +14553,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:30">
+    <row r="149" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>36</v>
       </c>
       <c r="B149">
-        <v>67.51</v>
+        <v>67.510000000000005</v>
       </c>
       <c r="C149">
-        <v>34.386</v>
+        <v>34.386000000000003</v>
       </c>
       <c r="D149" t="s">
         <v>39</v>
@@ -15156,7 +14574,7 @@
         <v>Crang 6_10</v>
       </c>
       <c r="G149">
-        <v>0.022</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="H149">
         <v>3.3</v>
@@ -15228,15 +14646,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:30">
+    <row r="150" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>36</v>
       </c>
       <c r="B150">
-        <v>67.51</v>
+        <v>67.510000000000005</v>
       </c>
       <c r="C150">
-        <v>34.386</v>
+        <v>34.386000000000003</v>
       </c>
       <c r="D150" t="s">
         <v>39</v>
@@ -15249,10 +14667,10 @@
         <v>Crang 6_11</v>
       </c>
       <c r="G150">
-        <v>0.007</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="H150">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="I150" s="11">
         <v>0</v>
@@ -15321,15 +14739,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:30">
+    <row r="151" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>36</v>
       </c>
       <c r="B151">
-        <v>67.51</v>
+        <v>67.510000000000005</v>
       </c>
       <c r="C151">
-        <v>34.386</v>
+        <v>34.386000000000003</v>
       </c>
       <c r="D151" t="s">
         <v>39</v>
@@ -15342,10 +14760,10 @@
         <v>Crang 6_12</v>
       </c>
       <c r="G151">
-        <v>0.005</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="H151">
-        <v>2.05</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="I151" s="11">
         <v>1</v>
@@ -15414,15 +14832,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:30">
+    <row r="152" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>36</v>
       </c>
       <c r="B152">
-        <v>67.51</v>
+        <v>67.510000000000005</v>
       </c>
       <c r="C152">
-        <v>34.386</v>
+        <v>34.386000000000003</v>
       </c>
       <c r="D152" t="s">
         <v>39</v>
@@ -15435,7 +14853,7 @@
         <v>Crang 6_13</v>
       </c>
       <c r="G152">
-        <v>0.006</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="H152">
         <v>1.68</v>
@@ -15507,15 +14925,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:30">
+    <row r="153" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>36</v>
       </c>
       <c r="B153">
-        <v>67.51</v>
+        <v>67.510000000000005</v>
       </c>
       <c r="C153">
-        <v>34.386</v>
+        <v>34.386000000000003</v>
       </c>
       <c r="D153" t="s">
         <v>39</v>
@@ -15528,7 +14946,7 @@
         <v>Crang 6_14</v>
       </c>
       <c r="G153">
-        <v>0.003</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="H153">
         <v>2.1</v>
@@ -15600,15 +15018,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:30">
+    <row r="154" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>36</v>
       </c>
       <c r="B154">
-        <v>67.51</v>
+        <v>67.510000000000005</v>
       </c>
       <c r="C154">
-        <v>34.386</v>
+        <v>34.386000000000003</v>
       </c>
       <c r="D154" t="s">
         <v>39</v>
@@ -15621,7 +15039,7 @@
         <v>Crang 6_15</v>
       </c>
       <c r="G154">
-        <v>0.007</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="H154">
         <v>1.9</v>
@@ -15693,15 +15111,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:30">
+    <row r="155" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>36</v>
       </c>
       <c r="B155">
-        <v>67.51</v>
+        <v>67.510000000000005</v>
       </c>
       <c r="C155">
-        <v>34.386</v>
+        <v>34.386000000000003</v>
       </c>
       <c r="D155" t="s">
         <v>39</v>
@@ -15714,7 +15132,7 @@
         <v>Crang 6_16</v>
       </c>
       <c r="G155">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="H155">
         <v>1.39</v>
@@ -15786,15 +15204,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:30">
+    <row r="156" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>36</v>
       </c>
       <c r="B156">
-        <v>67.51</v>
+        <v>67.510000000000005</v>
       </c>
       <c r="C156">
-        <v>34.386</v>
+        <v>34.386000000000003</v>
       </c>
       <c r="D156" t="s">
         <v>39</v>
@@ -15807,7 +15225,7 @@
         <v>Crang 6_17</v>
       </c>
       <c r="G156">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="H156">
         <v>1.75</v>
@@ -15879,15 +15297,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:30">
+    <row r="157" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>36</v>
       </c>
       <c r="B157">
-        <v>67.505</v>
+        <v>67.504999999999995</v>
       </c>
       <c r="C157">
-        <v>34.352</v>
+        <v>34.351999999999997</v>
       </c>
       <c r="D157" t="s">
         <v>40</v>
@@ -15900,7 +15318,7 @@
         <v>Crang 7_1</v>
       </c>
       <c r="G157">
-        <v>0.102</v>
+        <v>0.10199999999999999</v>
       </c>
       <c r="H157">
         <v>4.08</v>
@@ -15972,15 +15390,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:30">
+    <row r="158" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>36</v>
       </c>
       <c r="B158">
-        <v>67.505</v>
+        <v>67.504999999999995</v>
       </c>
       <c r="C158">
-        <v>34.352</v>
+        <v>34.351999999999997</v>
       </c>
       <c r="D158" t="s">
         <v>40</v>
@@ -16065,15 +15483,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:30">
+    <row r="159" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>36</v>
       </c>
       <c r="B159">
-        <v>67.505</v>
+        <v>67.504999999999995</v>
       </c>
       <c r="C159">
-        <v>34.352</v>
+        <v>34.351999999999997</v>
       </c>
       <c r="D159" t="s">
         <v>40</v>
@@ -16086,7 +15504,7 @@
         <v>Crang 7_3</v>
       </c>
       <c r="G159">
-        <v>0.055</v>
+        <v>5.5E-2</v>
       </c>
       <c r="H159">
         <v>3.58</v>
@@ -16158,15 +15576,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:30">
+    <row r="160" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>36</v>
       </c>
       <c r="B160">
-        <v>67.505</v>
+        <v>67.504999999999995</v>
       </c>
       <c r="C160">
-        <v>34.352</v>
+        <v>34.351999999999997</v>
       </c>
       <c r="D160" t="s">
         <v>40</v>
@@ -16179,7 +15597,7 @@
         <v>Crang 7_4</v>
       </c>
       <c r="G160">
-        <v>0.063</v>
+        <v>6.3E-2</v>
       </c>
       <c r="H160">
         <v>3.94</v>
@@ -16251,15 +15669,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:30">
+    <row r="161" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>36</v>
       </c>
       <c r="B161">
-        <v>67.505</v>
+        <v>67.504999999999995</v>
       </c>
       <c r="C161">
-        <v>34.352</v>
+        <v>34.351999999999997</v>
       </c>
       <c r="D161" t="s">
         <v>40</v>
@@ -16272,7 +15690,7 @@
         <v>Crang 7_5</v>
       </c>
       <c r="G161">
-        <v>0.051</v>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="H161">
         <v>3.9</v>
@@ -16344,15 +15762,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:30">
+    <row r="162" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>36</v>
       </c>
       <c r="B162">
-        <v>67.505</v>
+        <v>67.504999999999995</v>
       </c>
       <c r="C162">
-        <v>34.352</v>
+        <v>34.351999999999997</v>
       </c>
       <c r="D162" t="s">
         <v>40</v>
@@ -16365,7 +15783,7 @@
         <v>Crang 7_6</v>
       </c>
       <c r="G162">
-        <v>0.019</v>
+        <v>1.9E-2</v>
       </c>
       <c r="H162">
         <v>2.9</v>
@@ -16437,15 +15855,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:30">
+    <row r="163" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>36</v>
       </c>
       <c r="B163">
-        <v>67.505</v>
+        <v>67.504999999999995</v>
       </c>
       <c r="C163">
-        <v>34.352</v>
+        <v>34.351999999999997</v>
       </c>
       <c r="D163" t="s">
         <v>40</v>
@@ -16458,7 +15876,7 @@
         <v>Crang 7_7</v>
       </c>
       <c r="G163">
-        <v>0.007</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="H163">
         <v>3.24</v>
@@ -16530,15 +15948,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:30">
+    <row r="164" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>36</v>
       </c>
       <c r="B164">
-        <v>67.505</v>
+        <v>67.504999999999995</v>
       </c>
       <c r="C164">
-        <v>34.352</v>
+        <v>34.351999999999997</v>
       </c>
       <c r="D164" t="s">
         <v>40</v>
@@ -16551,7 +15969,7 @@
         <v>Crang 7_8</v>
       </c>
       <c r="G164">
-        <v>0.027</v>
+        <v>2.7E-2</v>
       </c>
       <c r="H164">
         <v>3.63</v>
@@ -16623,15 +16041,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:30">
+    <row r="165" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>36</v>
       </c>
       <c r="B165">
-        <v>67.505</v>
+        <v>67.504999999999995</v>
       </c>
       <c r="C165">
-        <v>34.352</v>
+        <v>34.351999999999997</v>
       </c>
       <c r="D165" t="s">
         <v>40</v>
@@ -16644,7 +16062,7 @@
         <v>Crang 7_9</v>
       </c>
       <c r="G165">
-        <v>0.015</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="H165">
         <v>2.52</v>
@@ -16716,15 +16134,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:30">
+    <row r="166" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>36</v>
       </c>
       <c r="B166">
-        <v>67.505</v>
+        <v>67.504999999999995</v>
       </c>
       <c r="C166">
-        <v>34.352</v>
+        <v>34.351999999999997</v>
       </c>
       <c r="D166" t="s">
         <v>40</v>
@@ -16809,15 +16227,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:30">
+    <row r="167" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>36</v>
       </c>
       <c r="B167">
-        <v>67.505</v>
+        <v>67.504999999999995</v>
       </c>
       <c r="C167">
-        <v>34.352</v>
+        <v>34.351999999999997</v>
       </c>
       <c r="D167" t="s">
         <v>40</v>
@@ -16830,7 +16248,7 @@
         <v>Crang 7_11</v>
       </c>
       <c r="G167">
-        <v>0.006</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="H167">
         <v>1.98</v>
@@ -16902,15 +16320,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:30">
+    <row r="168" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>36</v>
       </c>
       <c r="B168">
-        <v>67.505</v>
+        <v>67.504999999999995</v>
       </c>
       <c r="C168">
-        <v>34.352</v>
+        <v>34.351999999999997</v>
       </c>
       <c r="D168" t="s">
         <v>40</v>
@@ -16923,7 +16341,7 @@
         <v>Crang 7_12</v>
       </c>
       <c r="G168">
-        <v>0.009</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="H168">
         <v>2.69</v>
@@ -16995,15 +16413,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:30">
+    <row r="169" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>36</v>
       </c>
       <c r="B169">
-        <v>67.505</v>
+        <v>67.504999999999995</v>
       </c>
       <c r="C169">
-        <v>34.352</v>
+        <v>34.351999999999997</v>
       </c>
       <c r="D169" t="s">
         <v>40</v>
@@ -17016,7 +16434,7 @@
         <v>Crang 7_13</v>
       </c>
       <c r="G169">
-        <v>0.012</v>
+        <v>1.2E-2</v>
       </c>
       <c r="H169">
         <v>2.67</v>
@@ -17088,15 +16506,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:30">
+    <row r="170" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>36</v>
       </c>
       <c r="B170">
-        <v>67.505</v>
+        <v>67.504999999999995</v>
       </c>
       <c r="C170">
-        <v>34.352</v>
+        <v>34.351999999999997</v>
       </c>
       <c r="D170" t="s">
         <v>40</v>
@@ -17109,10 +16527,10 @@
         <v>Crang 7_14</v>
       </c>
       <c r="G170">
-        <v>0.007</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="H170">
-        <v>2.03</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="I170" s="11">
         <v>1</v>
@@ -17181,15 +16599,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:30">
+    <row r="171" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>36</v>
       </c>
       <c r="B171">
-        <v>67.505</v>
+        <v>67.504999999999995</v>
       </c>
       <c r="C171">
-        <v>34.352</v>
+        <v>34.351999999999997</v>
       </c>
       <c r="D171" t="s">
         <v>40</v>
@@ -17202,7 +16620,7 @@
         <v>Crang 7_15</v>
       </c>
       <c r="G171">
-        <v>0.006</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="H171">
         <v>2.12</v>
@@ -17274,15 +16692,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:30">
+    <row r="172" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>36</v>
       </c>
       <c r="B172">
-        <v>67.505</v>
+        <v>67.504999999999995</v>
       </c>
       <c r="C172">
-        <v>34.352</v>
+        <v>34.351999999999997</v>
       </c>
       <c r="D172" t="s">
         <v>40</v>
@@ -17295,10 +16713,10 @@
         <v>Crang 7_16</v>
       </c>
       <c r="G172">
-        <v>0.007</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="H172">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="I172" s="11">
         <v>0</v>
@@ -17367,15 +16785,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:30">
+    <row r="173" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>36</v>
       </c>
       <c r="B173">
-        <v>67.505</v>
+        <v>67.504999999999995</v>
       </c>
       <c r="C173">
-        <v>34.352</v>
+        <v>34.351999999999997</v>
       </c>
       <c r="D173" t="s">
         <v>40</v>
@@ -17388,7 +16806,7 @@
         <v>Crang 7_17</v>
       </c>
       <c r="G173">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="H173">
         <v>1.64</v>
@@ -17460,15 +16878,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:30">
+    <row r="174" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>36</v>
       </c>
       <c r="B174">
-        <v>67.505</v>
+        <v>67.504999999999995</v>
       </c>
       <c r="C174">
-        <v>34.352</v>
+        <v>34.351999999999997</v>
       </c>
       <c r="D174" t="s">
         <v>40</v>
@@ -17481,7 +16899,7 @@
         <v>Crang 7_18</v>
       </c>
       <c r="G174">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="H174">
         <v>1.67</v>
@@ -17553,12 +16971,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:30">
+    <row r="175" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>36</v>
       </c>
       <c r="B175">
-        <v>67.399</v>
+        <v>67.399000000000001</v>
       </c>
       <c r="C175">
         <v>34.32</v>
@@ -17574,7 +16992,7 @@
         <v>Crang 8_1</v>
       </c>
       <c r="G175">
-        <v>0.358</v>
+        <v>0.35799999999999998</v>
       </c>
       <c r="H175">
         <v>7.87</v>
@@ -17646,12 +17064,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:30">
+    <row r="176" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>36</v>
       </c>
       <c r="B176">
-        <v>67.399</v>
+        <v>67.399000000000001</v>
       </c>
       <c r="C176">
         <v>34.32</v>
@@ -17667,7 +17085,7 @@
         <v>Crang 8_2</v>
       </c>
       <c r="G176">
-        <v>0.048</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="H176">
         <v>4.16</v>
@@ -17739,12 +17157,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:30">
+    <row r="177" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>36</v>
       </c>
       <c r="B177">
-        <v>67.399</v>
+        <v>67.399000000000001</v>
       </c>
       <c r="C177">
         <v>34.32</v>
@@ -17760,7 +17178,7 @@
         <v>Crang 8_3</v>
       </c>
       <c r="G177">
-        <v>0.031</v>
+        <v>3.1E-2</v>
       </c>
       <c r="H177">
         <v>2.82</v>
@@ -17832,12 +17250,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:30">
+    <row r="178" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>36</v>
       </c>
       <c r="B178">
-        <v>67.399</v>
+        <v>67.399000000000001</v>
       </c>
       <c r="C178">
         <v>34.32</v>
@@ -17853,7 +17271,7 @@
         <v>Crang 8_4</v>
       </c>
       <c r="G178">
-        <v>0.048</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="H178">
         <v>4.22</v>
@@ -17925,12 +17343,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:30">
+    <row r="179" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>36</v>
       </c>
       <c r="B179">
-        <v>67.399</v>
+        <v>67.399000000000001</v>
       </c>
       <c r="C179">
         <v>34.32</v>
@@ -17946,7 +17364,7 @@
         <v>Crang 8_5</v>
       </c>
       <c r="G179">
-        <v>0.021</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="H179">
         <v>3.15</v>
@@ -18018,12 +17436,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:30">
+    <row r="180" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>36</v>
       </c>
       <c r="B180">
-        <v>67.399</v>
+        <v>67.399000000000001</v>
       </c>
       <c r="C180">
         <v>34.32</v>
@@ -18039,7 +17457,7 @@
         <v>Crang 8_6</v>
       </c>
       <c r="G180">
-        <v>0.007</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="H180">
         <v>2.64</v>
@@ -18111,12 +17529,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:30">
+    <row r="181" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>36</v>
       </c>
       <c r="B181">
-        <v>67.399</v>
+        <v>67.399000000000001</v>
       </c>
       <c r="C181">
         <v>34.32</v>
@@ -18132,7 +17550,7 @@
         <v>Crang 8_7</v>
       </c>
       <c r="G181">
-        <v>0.008</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="H181">
         <v>2.5</v>
@@ -18204,12 +17622,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:30">
+    <row r="182" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>36</v>
       </c>
       <c r="B182">
-        <v>67.399</v>
+        <v>67.399000000000001</v>
       </c>
       <c r="C182">
         <v>34.32</v>
@@ -18225,7 +17643,7 @@
         <v>Crang 8_8</v>
       </c>
       <c r="G182">
-        <v>0.016</v>
+        <v>1.6E-2</v>
       </c>
       <c r="H182">
         <v>2.57</v>
@@ -18297,12 +17715,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:30">
+    <row r="183" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>36</v>
       </c>
       <c r="B183">
-        <v>67.399</v>
+        <v>67.399000000000001</v>
       </c>
       <c r="C183">
         <v>34.32</v>
@@ -18318,10 +17736,10 @@
         <v>Crang 8_9</v>
       </c>
       <c r="G183">
-        <v>0.011</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="H183">
-        <v>2.26</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="I183" s="11">
         <v>0</v>
@@ -18390,12 +17808,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:30">
+    <row r="184" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>36</v>
       </c>
       <c r="B184">
-        <v>67.399</v>
+        <v>67.399000000000001</v>
       </c>
       <c r="C184">
         <v>34.32</v>
@@ -18411,7 +17829,7 @@
         <v>Crang 8_10</v>
       </c>
       <c r="G184">
-        <v>0.012</v>
+        <v>1.2E-2</v>
       </c>
       <c r="H184">
         <v>2.67</v>
@@ -18483,12 +17901,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:30">
+    <row r="185" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>36</v>
       </c>
       <c r="B185">
-        <v>67.399</v>
+        <v>67.399000000000001</v>
       </c>
       <c r="C185">
         <v>34.32</v>
@@ -18504,7 +17922,7 @@
         <v>Crang 8_11</v>
       </c>
       <c r="G185">
-        <v>0.014</v>
+        <v>1.4E-2</v>
       </c>
       <c r="H185">
         <v>3.07</v>
@@ -18576,12 +17994,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:30">
+    <row r="186" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>36</v>
       </c>
       <c r="B186">
-        <v>67.399</v>
+        <v>67.399000000000001</v>
       </c>
       <c r="C186">
         <v>34.32</v>
@@ -18597,7 +18015,7 @@
         <v>Crang 8_12</v>
       </c>
       <c r="G186">
-        <v>0.004</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="H186">
         <v>1.38</v>
@@ -18669,12 +18087,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:30">
+    <row r="187" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>36</v>
       </c>
       <c r="B187">
-        <v>67.399</v>
+        <v>67.399000000000001</v>
       </c>
       <c r="C187">
         <v>34.32</v>
@@ -18690,7 +18108,7 @@
         <v>Crang 8_13</v>
       </c>
       <c r="G187">
-        <v>0.009</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="H187">
         <v>2.14</v>
@@ -18762,7 +18180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:30">
+    <row r="188" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>36</v>
       </c>
@@ -18770,7 +18188,7 @@
         <v>67.491</v>
       </c>
       <c r="C188">
-        <v>34.282</v>
+        <v>34.281999999999996</v>
       </c>
       <c r="D188" t="s">
         <v>42</v>
@@ -18783,7 +18201,7 @@
         <v>Crang 9_1</v>
       </c>
       <c r="G188">
-        <v>0.922</v>
+        <v>0.92200000000000004</v>
       </c>
       <c r="H188">
         <v>9.9</v>
@@ -18855,7 +18273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:30">
+    <row r="189" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>36</v>
       </c>
@@ -18863,7 +18281,7 @@
         <v>67.491</v>
       </c>
       <c r="C189">
-        <v>34.282</v>
+        <v>34.281999999999996</v>
       </c>
       <c r="D189" t="s">
         <v>42</v>
@@ -18876,10 +18294,10 @@
         <v>Crang 9_2</v>
       </c>
       <c r="G189">
-        <v>0.076</v>
+        <v>7.5999999999999998E-2</v>
       </c>
       <c r="H189">
-        <v>4.31</v>
+        <v>4.3099999999999996</v>
       </c>
       <c r="I189" s="11">
         <v>0</v>
@@ -18948,7 +18366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:30">
+    <row r="190" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>36</v>
       </c>
@@ -18956,7 +18374,7 @@
         <v>67.491</v>
       </c>
       <c r="C190">
-        <v>34.282</v>
+        <v>34.281999999999996</v>
       </c>
       <c r="D190" t="s">
         <v>42</v>
@@ -18969,7 +18387,7 @@
         <v>Crang 9_3</v>
       </c>
       <c r="G190">
-        <v>0.084</v>
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="H190">
         <v>4.38</v>
@@ -19041,7 +18459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:30">
+    <row r="191" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>36</v>
       </c>
@@ -19049,7 +18467,7 @@
         <v>67.491</v>
       </c>
       <c r="C191">
-        <v>34.282</v>
+        <v>34.281999999999996</v>
       </c>
       <c r="D191" t="s">
         <v>42</v>
@@ -19065,7 +18483,7 @@
         <v>0.104</v>
       </c>
       <c r="H191">
-        <v>5.11</v>
+        <v>5.1100000000000003</v>
       </c>
       <c r="I191" s="11">
         <v>0</v>
@@ -19134,7 +18552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:30">
+    <row r="192" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>36</v>
       </c>
@@ -19142,7 +18560,7 @@
         <v>67.491</v>
       </c>
       <c r="C192">
-        <v>34.282</v>
+        <v>34.281999999999996</v>
       </c>
       <c r="D192" t="s">
         <v>42</v>
@@ -19155,10 +18573,10 @@
         <v>Crang 9_5</v>
       </c>
       <c r="G192">
-        <v>0.007</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="H192">
-        <v>2.43</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="I192" s="11">
         <v>1</v>
@@ -19227,12 +18645,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:30">
+    <row r="193" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>36</v>
       </c>
       <c r="B193">
-        <v>67.473</v>
+        <v>67.472999999999999</v>
       </c>
       <c r="C193">
         <v>34.259</v>
@@ -19248,7 +18666,7 @@
         <v>Crang 10_1</v>
       </c>
       <c r="G193">
-        <v>1.033</v>
+        <v>1.0329999999999999</v>
       </c>
       <c r="H193">
         <v>9.4</v>
@@ -19320,12 +18738,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:30">
+    <row r="194" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>36</v>
       </c>
       <c r="B194">
-        <v>67.473</v>
+        <v>67.472999999999999</v>
       </c>
       <c r="C194">
         <v>34.259</v>
@@ -19341,10 +18759,10 @@
         <v>Crang 10_2</v>
       </c>
       <c r="G194">
-        <v>0.808</v>
+        <v>0.80800000000000005</v>
       </c>
       <c r="H194">
-        <v>9.53</v>
+        <v>9.5299999999999994</v>
       </c>
       <c r="I194" s="11">
         <v>0</v>
@@ -19413,12 +18831,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:30">
+    <row r="195" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>36</v>
       </c>
       <c r="B195">
-        <v>67.473</v>
+        <v>67.472999999999999</v>
       </c>
       <c r="C195">
         <v>34.259</v>
@@ -19434,7 +18852,7 @@
         <v>Crang 10_3</v>
       </c>
       <c r="G195">
-        <v>0.522</v>
+        <v>0.52200000000000002</v>
       </c>
       <c r="H195">
         <v>7.92</v>
@@ -19506,12 +18924,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:30">
+    <row r="196" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>36</v>
       </c>
       <c r="B196">
-        <v>67.473</v>
+        <v>67.472999999999999</v>
       </c>
       <c r="C196">
         <v>34.259</v>
@@ -19527,10 +18945,10 @@
         <v>Crang 10_4</v>
       </c>
       <c r="G196">
-        <v>0.853</v>
+        <v>0.85299999999999998</v>
       </c>
       <c r="H196">
-        <v>9.8</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="I196" s="11">
         <v>1</v>
@@ -19599,12 +19017,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:30">
+    <row r="197" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>36</v>
       </c>
       <c r="B197">
-        <v>67.473</v>
+        <v>67.472999999999999</v>
       </c>
       <c r="C197">
         <v>34.259</v>
@@ -19620,7 +19038,7 @@
         <v>Crang 10_5</v>
       </c>
       <c r="G197">
-        <v>0.285</v>
+        <v>0.28499999999999998</v>
       </c>
       <c r="H197">
         <v>7.1</v>
@@ -19692,12 +19110,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:30">
+    <row r="198" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>36</v>
       </c>
       <c r="B198">
-        <v>67.473</v>
+        <v>67.472999999999999</v>
       </c>
       <c r="C198">
         <v>34.259</v>
@@ -19713,7 +19131,7 @@
         <v>Crang 10_6</v>
       </c>
       <c r="G198">
-        <v>0.052</v>
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="H198">
         <v>3.73</v>
@@ -19785,12 +19203,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:30">
+    <row r="199" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>36</v>
       </c>
       <c r="B199">
-        <v>67.473</v>
+        <v>67.472999999999999</v>
       </c>
       <c r="C199">
         <v>34.259</v>
@@ -19806,10 +19224,10 @@
         <v>Crang 10_7</v>
       </c>
       <c r="G199">
-        <v>0.087</v>
+        <v>8.6999999999999994E-2</v>
       </c>
       <c r="H199">
-        <v>4.77</v>
+        <v>4.7699999999999996</v>
       </c>
       <c r="I199" s="11">
         <v>0</v>
@@ -19878,12 +19296,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:30">
+    <row r="200" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>36</v>
       </c>
       <c r="B200">
-        <v>67.441</v>
+        <v>67.441000000000003</v>
       </c>
       <c r="C200">
         <v>34.25</v>
@@ -19899,7 +19317,7 @@
         <v>Crang 11_1</v>
       </c>
       <c r="G200">
-        <v>1.037</v>
+        <v>1.0369999999999999</v>
       </c>
       <c r="H200">
         <v>10.23</v>
@@ -19971,12 +19389,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:30">
+    <row r="201" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>36</v>
       </c>
       <c r="B201">
-        <v>67.441</v>
+        <v>67.441000000000003</v>
       </c>
       <c r="C201">
         <v>34.25</v>
@@ -19992,7 +19410,7 @@
         <v>Crang 11_2</v>
       </c>
       <c r="G201">
-        <v>0.055</v>
+        <v>5.5E-2</v>
       </c>
       <c r="H201">
         <v>4.37</v>
@@ -20064,12 +19482,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:30">
+    <row r="202" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>36</v>
       </c>
       <c r="B202">
-        <v>67.441</v>
+        <v>67.441000000000003</v>
       </c>
       <c r="C202">
         <v>34.25</v>
@@ -20085,7 +19503,7 @@
         <v>Crang 11_3</v>
       </c>
       <c r="G202">
-        <v>0.013</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="H202">
         <v>3.03</v>
@@ -20157,12 +19575,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:30">
+    <row r="203" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>36</v>
       </c>
       <c r="B203">
-        <v>67.441</v>
+        <v>67.441000000000003</v>
       </c>
       <c r="C203">
         <v>34.25</v>
@@ -20178,10 +19596,10 @@
         <v>Crang 11_4</v>
       </c>
       <c r="G203">
-        <v>0.009</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="H203">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="I203" s="11">
         <v>1</v>
@@ -20250,12 +19668,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:30">
+    <row r="204" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>36</v>
       </c>
       <c r="B204">
-        <v>67.441</v>
+        <v>67.441000000000003</v>
       </c>
       <c r="C204">
         <v>34.25</v>
@@ -20343,12 +19761,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:30">
+    <row r="205" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>36</v>
       </c>
       <c r="B205">
-        <v>67.441</v>
+        <v>67.441000000000003</v>
       </c>
       <c r="C205">
         <v>34.25</v>
@@ -20364,7 +19782,7 @@
         <v>Crang 11_6</v>
       </c>
       <c r="G205">
-        <v>0.013</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="H205">
         <v>3.23</v>
@@ -20436,12 +19854,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:30">
+    <row r="206" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>36</v>
       </c>
       <c r="B206">
-        <v>67.441</v>
+        <v>67.441000000000003</v>
       </c>
       <c r="C206">
         <v>34.25</v>
@@ -20457,7 +19875,7 @@
         <v>Crang 11_7</v>
       </c>
       <c r="G206">
-        <v>0.014</v>
+        <v>1.4E-2</v>
       </c>
       <c r="H206">
         <v>3.09</v>
@@ -20529,12 +19947,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:30">
+    <row r="207" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>36</v>
       </c>
       <c r="B207">
-        <v>67.441</v>
+        <v>67.441000000000003</v>
       </c>
       <c r="C207">
         <v>34.25</v>
@@ -20623,30 +20041,26 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:AD207" etc:filterBottomFollowUsedRange="0">
-    <extLst/>
-  </autoFilter>
+  <autoFilter ref="A1:AD207"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="8.4537037037037" customWidth="1"/>
+    <col min="3" max="3" width="8.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -20729,7 +20143,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:27">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>62</v>
       </c>
@@ -20812,7 +20226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:27">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>62</v>
       </c>
@@ -20895,7 +20309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:27">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>62</v>
       </c>
@@ -20978,7 +20392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:27">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>62</v>
       </c>
@@ -21061,7 +20475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>62</v>
       </c>
@@ -21144,7 +20558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:27">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>62</v>
       </c>
@@ -21227,7 +20641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:27">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>62</v>
       </c>
@@ -21310,7 +20724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:27">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>62</v>
       </c>
@@ -21393,7 +20807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:27">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>62</v>
       </c>
@@ -21476,7 +20890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:27">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>62</v>
       </c>
@@ -21559,7 +20973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:27">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>62</v>
       </c>
@@ -21642,7 +21056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:27">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>62</v>
       </c>
@@ -21725,7 +21139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:27">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>62</v>
       </c>
@@ -21808,7 +21222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:27">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>62</v>
       </c>
@@ -21891,7 +21305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:27">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>62</v>
       </c>
@@ -21974,7 +21388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:27">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>62</v>
       </c>
@@ -22057,7 +21471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:27">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>62</v>
       </c>
@@ -22140,7 +21554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:27">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>62</v>
       </c>
@@ -22223,7 +21637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:27">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>62</v>
       </c>
@@ -22306,7 +21720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:27">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>62</v>
       </c>
@@ -22389,7 +21803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:27">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>62</v>
       </c>
@@ -22472,7 +21886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:27">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>62</v>
       </c>
@@ -22555,7 +21969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:27">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>62</v>
       </c>
@@ -22638,7 +22052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:27">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>62</v>
       </c>
@@ -22721,7 +22135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:27">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>62</v>
       </c>
@@ -22804,7 +22218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:27">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>62</v>
       </c>
@@ -22887,7 +22301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:27">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>62</v>
       </c>
@@ -22970,7 +22384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:27">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>62</v>
       </c>
@@ -23053,7 +22467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:27">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>62</v>
       </c>
@@ -23136,7 +22550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:27">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>62</v>
       </c>
@@ -23219,7 +22633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:27">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>62</v>
       </c>
@@ -23302,7 +22716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:27">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>62</v>
       </c>
@@ -23385,7 +22799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:27">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>62</v>
       </c>
@@ -23468,7 +22882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:27">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>96</v>
       </c>
@@ -23551,7 +22965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:27">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>96</v>
       </c>
@@ -23634,7 +23048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:27">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>96</v>
       </c>
@@ -23717,7 +23131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:27">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>96</v>
       </c>
@@ -23800,7 +23214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:27">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>96</v>
       </c>
@@ -23883,7 +23297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:27">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>96</v>
       </c>
@@ -23966,7 +23380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:27">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>96</v>
       </c>
@@ -24049,7 +23463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:27">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>96</v>
       </c>
@@ -24132,7 +23546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:27">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>96</v>
       </c>
@@ -24215,7 +23629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:27">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>96</v>
       </c>
@@ -24298,7 +23712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:27">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>96</v>
       </c>
@@ -24381,7 +23795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:27">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>96</v>
       </c>
@@ -24464,7 +23878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:27">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>96</v>
       </c>
@@ -24547,7 +23961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:27">
+    <row r="48" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>96</v>
       </c>
@@ -24630,7 +24044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:27">
+    <row r="49" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>96</v>
       </c>
@@ -24714,26 +24128,1809 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:AA49" etc:filterBottomFollowUsedRange="0">
-    <extLst/>
-  </autoFilter>
+  <autoFilter ref="A1:AA49"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L126"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C71" sqref="C71"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="3" width="8.7265625" style="13"/>
+    <col min="4" max="4" width="13.26953125" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="13" customWidth="1"/>
+    <col min="6" max="12" width="8.7265625" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="13">
+        <v>32.578868999999997</v>
+      </c>
+      <c r="B2" s="13">
+        <v>67.007221000000001</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="6">
+        <v>32.573613000000002</v>
+      </c>
+      <c r="B3" s="6">
+        <v>67.009069999999994</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="6">
+        <v>32.572926000000002</v>
+      </c>
+      <c r="B4" s="6">
+        <v>67.009156000000004</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="6">
+        <v>32.572493999999999</v>
+      </c>
+      <c r="B5" s="6">
+        <v>67.009214999999998</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="6">
+        <v>32.571865000000003</v>
+      </c>
+      <c r="B6" s="6">
+        <v>67.009352000000007</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="6">
+        <v>32.571238000000001</v>
+      </c>
+      <c r="B7" s="6">
+        <v>67.009400999999997</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="6">
+        <v>32.570754999999998</v>
+      </c>
+      <c r="B8" s="6">
+        <v>67.009433999999999</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="6">
+        <v>32.570191999999999</v>
+      </c>
+      <c r="B9" s="6">
+        <v>67.009461999999999</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="6">
+        <v>32.569648999999998</v>
+      </c>
+      <c r="B10" s="6">
+        <v>67.009573000000003</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="6">
+        <v>32.569279000000002</v>
+      </c>
+      <c r="B11" s="6">
+        <v>67.009687999999997</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="6">
+        <v>32.569026999999998</v>
+      </c>
+      <c r="B12" s="6">
+        <v>67.009533000000005</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="6">
+        <v>32.569094</v>
+      </c>
+      <c r="B13" s="6">
+        <v>67.009322999999995</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="6">
+        <v>32.569170999999997</v>
+      </c>
+      <c r="B14" s="6">
+        <v>67.009169</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="6">
+        <v>32.569223000000001</v>
+      </c>
+      <c r="B15" s="6">
+        <v>67.008887999999999</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="6">
+        <v>32.569003000000002</v>
+      </c>
+      <c r="B16" s="6">
+        <v>67.008793999999995</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="6">
+        <v>32.568922000000001</v>
+      </c>
+      <c r="B17" s="6">
+        <v>67.008622000000003</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="6">
+        <v>32.568919999999999</v>
+      </c>
+      <c r="B18" s="6">
+        <v>67.008533</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="6">
+        <v>32.568846999999998</v>
+      </c>
+      <c r="B19" s="6">
+        <v>67.008317000000005</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="6">
+        <v>32.569051000000002</v>
+      </c>
+      <c r="B20" s="6">
+        <v>67.008207999999996</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="6">
+        <v>32.569353999999997</v>
+      </c>
+      <c r="B21" s="6">
+        <v>67.008082999999999</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" s="6">
+        <v>32.569678000000003</v>
+      </c>
+      <c r="B22" s="6">
+        <v>67.007921999999994</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" s="6">
+        <v>32.569737000000003</v>
+      </c>
+      <c r="B23" s="6">
+        <v>67.007705000000001</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" s="6">
+        <v>32.570033000000002</v>
+      </c>
+      <c r="B24" s="6">
+        <v>67.007446000000002</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" s="6">
+        <v>32.569938</v>
+      </c>
+      <c r="B25" s="6">
+        <v>67.007284999999996</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" s="6">
+        <v>32.569974000000002</v>
+      </c>
+      <c r="B26" s="6">
+        <v>67.007182</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" s="6">
+        <v>32.569960999999999</v>
+      </c>
+      <c r="B27" s="6">
+        <v>67.007143999999997</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" s="6">
+        <v>32.569927999999997</v>
+      </c>
+      <c r="B28" s="6">
+        <v>67.007071999999994</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" s="6">
+        <v>32.569997999999998</v>
+      </c>
+      <c r="B29" s="6">
+        <v>67.006966000000006</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" s="6">
+        <v>32.569997000000001</v>
+      </c>
+      <c r="B30" s="6">
+        <v>67.006865000000005</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" s="6">
+        <v>32.569997000000001</v>
+      </c>
+      <c r="B31" s="6">
+        <v>67.006808000000007</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" s="6">
+        <v>32.569923000000003</v>
+      </c>
+      <c r="B32" s="6">
+        <v>67.006945999999999</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" s="6">
+        <v>32.569926000000002</v>
+      </c>
+      <c r="B33" s="6">
+        <v>67.006878999999998</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" s="6">
+        <v>32.569989999999997</v>
+      </c>
+      <c r="B34" s="6">
+        <v>67.006778999999995</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35" s="6">
+        <v>32.569968000000003</v>
+      </c>
+      <c r="B35" s="6">
+        <v>67.006725000000003</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36" s="6">
+        <v>32.569965000000003</v>
+      </c>
+      <c r="B36" s="6">
+        <v>67.006936999999994</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37" s="6">
+        <v>32.569910999999998</v>
+      </c>
+      <c r="B37" s="6">
+        <v>67.006803000000005</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D37" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38" s="6">
+        <v>32.569935000000001</v>
+      </c>
+      <c r="B38" s="6">
+        <v>67.006685000000004</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39" s="6">
+        <v>32.569965000000003</v>
+      </c>
+      <c r="B39" s="6">
+        <v>67.006626999999995</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D39" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40" s="6">
+        <v>32.570118999999998</v>
+      </c>
+      <c r="B40" s="6">
+        <v>67.006338</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D40" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41" s="6">
+        <v>32.570124</v>
+      </c>
+      <c r="B41" s="6">
+        <v>67.006096999999997</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D41" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A42" s="6">
+        <v>32.570300000000003</v>
+      </c>
+      <c r="B42" s="6">
+        <v>67.005799999999994</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D42" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A43" s="6">
+        <v>32.570827999999999</v>
+      </c>
+      <c r="B43" s="6">
+        <v>67.005639000000002</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D43" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A44" s="6">
+        <v>32.571153000000002</v>
+      </c>
+      <c r="B44" s="6">
+        <v>67.005488</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D44" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A45" s="6">
+        <v>32.571606000000003</v>
+      </c>
+      <c r="B45" s="6">
+        <v>67.005398</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D45" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A46" s="6">
+        <v>32.572310000000002</v>
+      </c>
+      <c r="B46" s="6">
+        <v>67.005325999999997</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D46" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A47" s="6">
+        <v>32.573086000000004</v>
+      </c>
+      <c r="B47" s="6">
+        <v>67.005133000000001</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D47" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A48" s="6">
+        <v>32.574626000000002</v>
+      </c>
+      <c r="B48" s="6">
+        <v>67.007643999999999</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D48" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A49" s="6">
+        <v>32.574575000000003</v>
+      </c>
+      <c r="B49" s="6">
+        <v>67.007934000000006</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D49" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A50" s="6">
+        <v>32.574612000000002</v>
+      </c>
+      <c r="B50" s="6">
+        <v>67.008227000000005</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D50" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A51" s="6">
+        <v>32.574534999999997</v>
+      </c>
+      <c r="B51" s="6">
+        <v>67.008489999999995</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D51" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A52" s="6">
+        <v>32.574388999999996</v>
+      </c>
+      <c r="B52" s="6">
+        <v>67.008690000000001</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D52" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A53" s="6">
+        <v>32.573687</v>
+      </c>
+      <c r="B53" s="6">
+        <v>67.008313000000001</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D53" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A54" s="6">
+        <v>32.573351000000002</v>
+      </c>
+      <c r="B54" s="6">
+        <v>67.008138000000002</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D54" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A55" s="6">
+        <v>32.573123000000002</v>
+      </c>
+      <c r="B55" s="6">
+        <v>67.008004999999997</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D55" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A56" s="6">
+        <v>32.57255</v>
+      </c>
+      <c r="B56" s="6">
+        <v>67.007812000000001</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D56" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A57" s="6">
+        <v>32.571944000000002</v>
+      </c>
+      <c r="B57" s="6">
+        <v>67.007610999999997</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D57" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A58" s="6">
+        <v>32.571688000000002</v>
+      </c>
+      <c r="B58" s="6">
+        <v>67.007450000000006</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D58" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A59" s="6">
+        <v>32.571516000000003</v>
+      </c>
+      <c r="B59" s="6">
+        <v>67.007315000000006</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D59" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A60" s="6">
+        <v>32.571351</v>
+      </c>
+      <c r="B60" s="6">
+        <v>67.007215000000002</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D60" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A61" s="6">
+        <v>32.571283000000001</v>
+      </c>
+      <c r="B61" s="6">
+        <v>67.007125000000002</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D61" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A62" s="6">
+        <v>32.571441999999998</v>
+      </c>
+      <c r="B62" s="6">
+        <v>67.006877000000003</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D62" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A63" s="6">
+        <v>32.571313000000004</v>
+      </c>
+      <c r="B63" s="6">
+        <v>67.006652000000003</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D63" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A64" s="6">
+        <v>32.571710000000003</v>
+      </c>
+      <c r="B64" s="6">
+        <v>67.006473</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D64" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A65" s="6">
+        <v>32.572294999999997</v>
+      </c>
+      <c r="B65" s="6">
+        <v>67.006307000000007</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D65" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A66" s="6">
+        <v>32.573276999999997</v>
+      </c>
+      <c r="B66" s="6">
+        <v>67.006407999999993</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D66" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A67" s="6">
+        <v>32.572840999999997</v>
+      </c>
+      <c r="B67" s="6">
+        <v>67.006020000000007</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D67" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A68" s="6">
+        <v>32.572999000000003</v>
+      </c>
+      <c r="B68" s="6">
+        <v>67.005842000000001</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D68" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A69" s="6">
+        <v>32.573602000000001</v>
+      </c>
+      <c r="B69" s="6">
+        <v>67.005574999999993</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D69" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A70" s="6">
+        <v>32.574444999999997</v>
+      </c>
+      <c r="B70" s="6">
+        <v>67.005455100000006</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D70" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A71" s="13">
+        <v>32.569695000000003</v>
+      </c>
+      <c r="B71" s="13">
+        <v>67.009367999999995</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D71" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A72" s="13">
+        <v>32.569792</v>
+      </c>
+      <c r="B72" s="13">
+        <v>67.009257000000005</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D72" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A73" s="13">
+        <v>32.56991</v>
+      </c>
+      <c r="B73" s="13">
+        <v>67.009187999999995</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D73" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A74" s="13">
+        <v>32.570000999999998</v>
+      </c>
+      <c r="B74" s="13">
+        <v>67.009084999999999</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D74" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A75" s="13">
+        <v>32.570005999999999</v>
+      </c>
+      <c r="B75" s="13">
+        <v>67.008950999999996</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D75" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A76" s="13">
+        <v>32.570022000000002</v>
+      </c>
+      <c r="B76" s="13">
+        <v>67.008730999999997</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D76" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A77" s="13">
+        <v>32.570393000000003</v>
+      </c>
+      <c r="B77" s="13">
+        <v>67.008671000000007</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D77" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A78" s="13">
+        <v>32.570695999999998</v>
+      </c>
+      <c r="B78" s="13">
+        <v>67.008615000000006</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D78" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A79" s="13">
+        <v>32.571013999999998</v>
+      </c>
+      <c r="B79" s="13">
+        <v>67.008509000000004</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D79" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A80" s="13">
+        <v>32.571238999999998</v>
+      </c>
+      <c r="B80" s="13">
+        <v>67.008455999999995</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D80" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A81" s="13">
+        <v>32.571137999999998</v>
+      </c>
+      <c r="B81" s="13">
+        <v>67.008328000000006</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D81" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A82" s="13">
+        <v>32.571154</v>
+      </c>
+      <c r="B82" s="13">
+        <v>67.008212999999998</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D82" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A83" s="13">
+        <v>32.571154</v>
+      </c>
+      <c r="B83" s="13">
+        <v>67.008162999999996</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D83" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A84" s="13">
+        <v>32.571196999999998</v>
+      </c>
+      <c r="B84" s="13">
+        <v>67.008064000000005</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D84" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A85" s="13">
+        <v>32.571233999999997</v>
+      </c>
+      <c r="B85" s="13">
+        <v>67.007971999999995</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D85" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A86" s="13">
+        <v>32.571368</v>
+      </c>
+      <c r="B86" s="13">
+        <v>67.007833000000005</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D86" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A87" s="13">
+        <v>32.571410999999998</v>
+      </c>
+      <c r="B87" s="13">
+        <v>67.007723999999996</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D87" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="E87" s="14"/>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A88" s="13">
+        <v>32.571513000000003</v>
+      </c>
+      <c r="B88" s="13">
+        <v>67.007472000000007</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D88" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A89" s="15">
+        <v>32.538217000000003</v>
+      </c>
+      <c r="B89" s="13">
+        <v>67.025744000000003</v>
+      </c>
+      <c r="C89" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D89" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A90" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="B90" s="15">
+        <v>32.538271000000002</v>
+      </c>
+      <c r="C90" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D90" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A91" s="16">
+        <v>67.025507000000005</v>
+      </c>
+      <c r="B91" s="13">
+        <v>32.538297</v>
+      </c>
+      <c r="C91" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D91" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A92" s="16">
+        <v>67.025374999999997</v>
+      </c>
+      <c r="B92" s="13">
+        <v>32.538271000000002</v>
+      </c>
+      <c r="C92" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D92" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A93" s="16">
+        <v>67.025281000000007</v>
+      </c>
+      <c r="B93" s="13">
+        <v>32.538378000000002</v>
+      </c>
+      <c r="C93" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D93" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A94" s="16">
+        <v>67.025107000000006</v>
+      </c>
+      <c r="B94" s="13">
+        <v>32.538791000000003</v>
+      </c>
+      <c r="C94" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D94" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A95" s="16">
+        <v>67.025026999999994</v>
+      </c>
+      <c r="B95" s="13">
+        <v>32.539262999999998</v>
+      </c>
+      <c r="C95" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D95" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A96" s="16">
+        <v>67.024855000000002</v>
+      </c>
+      <c r="B96" s="13">
+        <v>32.539580000000001</v>
+      </c>
+      <c r="C96" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D96" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A97" s="16">
+        <v>67.024736000000004</v>
+      </c>
+      <c r="B97" s="13">
+        <v>32.540056999999997</v>
+      </c>
+      <c r="C97" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D97" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A98" s="16">
+        <v>67.024501000000001</v>
+      </c>
+      <c r="B98" s="13">
+        <v>32.541179999999997</v>
+      </c>
+      <c r="C98" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D98" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A99" s="16">
+        <v>67.024293</v>
+      </c>
+      <c r="B99" s="13">
+        <v>32.541808000000003</v>
+      </c>
+      <c r="C99" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D99" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A100" s="16">
+        <v>67.024096</v>
+      </c>
+      <c r="B100" s="13">
+        <v>32.542332999999999</v>
+      </c>
+      <c r="C100" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D100" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A101" s="16">
+        <v>67.024096</v>
+      </c>
+      <c r="B101" s="13">
+        <v>32.542332999999999</v>
+      </c>
+      <c r="C101" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D101" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A102" s="16">
+        <v>67.024062999999998</v>
+      </c>
+      <c r="B102" s="13">
+        <v>32.542988000000001</v>
+      </c>
+      <c r="C102" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D102" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A103" s="16">
+        <v>67.024062999999998</v>
+      </c>
+      <c r="B103" s="13">
+        <v>32.542988000000001</v>
+      </c>
+      <c r="C103" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D103" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A104" s="16">
+        <v>67.024568000000002</v>
+      </c>
+      <c r="B104" s="13">
+        <v>32.542676999999998</v>
+      </c>
+      <c r="C104" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D104" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A105" s="16">
+        <v>67.024568000000002</v>
+      </c>
+      <c r="B105" s="13">
+        <v>32.542676999999998</v>
+      </c>
+      <c r="C105" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D105" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A106" s="16">
+        <v>67.025073000000006</v>
+      </c>
+      <c r="B106" s="13">
+        <v>32.542430000000003</v>
+      </c>
+      <c r="C106" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D106" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A107" s="16">
+        <v>67.025347999999994</v>
+      </c>
+      <c r="B107" s="13">
+        <v>32.542194000000002</v>
+      </c>
+      <c r="C107" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D107" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A108" s="16">
+        <v>67.025557000000006</v>
+      </c>
+      <c r="B108" s="13">
+        <v>32.542172000000001</v>
+      </c>
+      <c r="C108" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D108" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A109" s="16">
+        <v>67.025797999999995</v>
+      </c>
+      <c r="B109" s="13">
+        <v>32.542209999999997</v>
+      </c>
+      <c r="C109" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D109" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A110" s="16">
+        <v>67.026062999999994</v>
+      </c>
+      <c r="B110" s="13">
+        <v>32.541988000000003</v>
+      </c>
+      <c r="C110" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D110" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A111" s="16">
+        <v>67.025881999999996</v>
+      </c>
+      <c r="B111" s="13">
+        <v>32.538555000000002</v>
+      </c>
+      <c r="C111" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="D111" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A112" s="16">
+        <v>67.025766000000004</v>
+      </c>
+      <c r="B112" s="13">
+        <v>32.538625000000003</v>
+      </c>
+      <c r="C112" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="D112" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A113" s="16">
+        <v>67.025687000000005</v>
+      </c>
+      <c r="B113" s="13">
+        <v>32.538646</v>
+      </c>
+      <c r="C113" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="D113" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A114" s="16">
+        <v>67.025620000000004</v>
+      </c>
+      <c r="B114" s="13">
+        <v>32.538688999999998</v>
+      </c>
+      <c r="C114" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="D114" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A115" s="16">
+        <v>67.025525999999999</v>
+      </c>
+      <c r="B115" s="13">
+        <v>32.538764</v>
+      </c>
+      <c r="C115" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="D115" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A116" s="16">
+        <v>67.025380999999996</v>
+      </c>
+      <c r="B116" s="13">
+        <v>32.539155999999998</v>
+      </c>
+      <c r="C116" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="D116" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A117" s="16">
+        <v>67.025380999999996</v>
+      </c>
+      <c r="B117" s="13">
+        <v>32.539155999999998</v>
+      </c>
+      <c r="C117" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="D117" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A118" s="16">
+        <v>67.025347999999994</v>
+      </c>
+      <c r="B118" s="13">
+        <v>32.539890999999997</v>
+      </c>
+      <c r="C118" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="D118" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A119" s="16">
+        <v>67.025347999999994</v>
+      </c>
+      <c r="B119" s="13">
+        <v>32.539890999999997</v>
+      </c>
+      <c r="C119" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="D119" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A120" s="16">
+        <v>67.025347999999994</v>
+      </c>
+      <c r="B120" s="13">
+        <v>32.539890999999997</v>
+      </c>
+      <c r="C120" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="D120" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A121" s="16">
+        <v>67.025347999999994</v>
+      </c>
+      <c r="B121" s="13">
+        <v>32.539890999999997</v>
+      </c>
+      <c r="C121" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="D121" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A122" s="16">
+        <v>67.025454999999994</v>
+      </c>
+      <c r="B122" s="13">
+        <v>32.541167000000002</v>
+      </c>
+      <c r="C122" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="D122" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A123" s="16">
+        <v>67.025600999999995</v>
+      </c>
+      <c r="B123" s="13">
+        <v>32.541473000000003</v>
+      </c>
+      <c r="C123" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="D123" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A124" s="16">
+        <v>67.025811000000004</v>
+      </c>
+      <c r="B124" s="13">
+        <v>32.541468000000002</v>
+      </c>
+      <c r="C124" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="D124" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A125" s="16">
+        <v>67.025985000000006</v>
+      </c>
+      <c r="B125" s="13">
+        <v>32.541392999999999</v>
+      </c>
+      <c r="C125" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="D125" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A126" s="16">
+        <v>67.026184999999998</v>
+      </c>
+      <c r="B126" s="13">
+        <v>32.541409000000002</v>
+      </c>
+      <c r="C126" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="D126" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" ht="43.2" spans="1:14">
+    <row r="1" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -24777,7 +25974,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>63</v>
       </c>
@@ -24821,7 +26018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>64</v>
       </c>
@@ -24865,7 +26062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>65</v>
       </c>
@@ -24909,7 +26106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>98</v>
       </c>
@@ -24953,7 +26150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>99</v>
       </c>
@@ -24997,7 +26194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>100</v>
       </c>
@@ -25041,7 +26238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>69</v>
       </c>
@@ -25085,7 +26282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>70</v>
       </c>
@@ -25129,7 +26326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>71</v>
       </c>
@@ -25173,7 +26370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>72</v>
       </c>
@@ -25217,7 +26414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>73</v>
       </c>
@@ -25261,7 +26458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>74</v>
       </c>
@@ -25305,7 +26502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>75</v>
       </c>
@@ -25349,7 +26546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>76</v>
       </c>
@@ -25393,7 +26590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>77</v>
       </c>
@@ -25438,27 +26635,23 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:N16" etc:filterBottomFollowUsedRange="0">
-    <extLst/>
-  </autoFilter>
+  <autoFilter ref="A1:N16"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>106</v>
       </c>
@@ -25469,228 +26662,227 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>31</v>
       </c>
       <c r="B2">
-        <v>67.025075</v>
+        <v>67.025075000000001</v>
       </c>
       <c r="C2">
         <v>32.540053</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>32</v>
       </c>
       <c r="B3">
-        <v>67.024917</v>
+        <v>67.024917000000002</v>
       </c>
       <c r="C3">
-        <v>32.540383</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>32.540382999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>33</v>
       </c>
       <c r="B4">
-        <v>67.025051</v>
+        <v>67.025051000000005</v>
       </c>
       <c r="C4">
         <v>32.540588</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>34</v>
       </c>
       <c r="B5">
-        <v>67.024943</v>
+        <v>67.024942999999993</v>
       </c>
       <c r="C5">
-        <v>32.541286</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>32.541285999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>35</v>
       </c>
       <c r="B6">
-        <v>67.025059</v>
+        <v>67.025058999999999</v>
       </c>
       <c r="C6">
-        <v>32.541472</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>32.541471999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>63</v>
       </c>
       <c r="B7">
-        <v>67.025726</v>
+        <v>67.025726000000006</v>
       </c>
       <c r="C7">
-        <v>32.539363</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>32.539363000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>64</v>
       </c>
       <c r="B8">
-        <v>67.025726</v>
+        <v>67.025726000000006</v>
       </c>
       <c r="C8">
-        <v>32.539363</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>32.539363000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>65</v>
       </c>
       <c r="B9">
-        <v>67.025726</v>
+        <v>67.025726000000006</v>
       </c>
       <c r="C9">
-        <v>32.539363</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>32.539363000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>66</v>
       </c>
       <c r="B10">
-        <v>67.024916</v>
+        <v>67.024916000000005</v>
       </c>
       <c r="C10">
-        <v>32.540228</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>32.540227999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>67</v>
       </c>
       <c r="B11">
-        <v>67.024916</v>
+        <v>67.024916000000005</v>
       </c>
       <c r="C11">
-        <v>32.540228</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>32.540227999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>68</v>
       </c>
       <c r="B12">
-        <v>67.024916</v>
+        <v>67.024916000000005</v>
       </c>
       <c r="C12">
-        <v>32.540228</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>32.540227999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>69</v>
       </c>
       <c r="B13">
-        <v>67.024895</v>
+        <v>67.024895000000001</v>
       </c>
       <c r="C13">
-        <v>32.540434</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>32.540433999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>70</v>
       </c>
       <c r="B14">
-        <v>67.024895</v>
+        <v>67.024895000000001</v>
       </c>
       <c r="C14">
-        <v>32.540434</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>32.540433999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>71</v>
       </c>
       <c r="B15">
-        <v>67.024895</v>
+        <v>67.024895000000001</v>
       </c>
       <c r="C15">
-        <v>32.540434</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>32.540433999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>72</v>
       </c>
       <c r="B16">
-        <v>67.024873</v>
+        <v>67.024872999999999</v>
       </c>
       <c r="C16">
-        <v>32.540323</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>32.540323000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>73</v>
       </c>
       <c r="B17">
-        <v>67.024873</v>
+        <v>67.024872999999999</v>
       </c>
       <c r="C17">
-        <v>32.540323</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>32.540323000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>74</v>
       </c>
       <c r="B18">
-        <v>67.024873</v>
+        <v>67.024872999999999</v>
       </c>
       <c r="C18">
-        <v>32.540323</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>32.540323000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>107</v>
       </c>
       <c r="B19">
-        <v>67.024971</v>
+        <v>67.024970999999994</v>
       </c>
       <c r="C19">
-        <v>32.541609</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>32.541609000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>108</v>
       </c>
       <c r="B20">
-        <v>67.024971</v>
+        <v>67.024970999999994</v>
       </c>
       <c r="C20">
-        <v>32.541609</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>32.541609000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>109</v>
       </c>
       <c r="B21">
-        <v>67.024971</v>
+        <v>67.024970999999994</v>
       </c>
       <c r="C21">
-        <v>32.541609</v>
+        <v>32.541609000000001</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/Vitia_Ostrovsky/R_Calc_Crang_2024/Data/Crang_2024.xlsx
+++ b/Vitia_Ostrovsky/R_Calc_Crang_2024/Data/Crang_2024.xlsx
@@ -20049,10 +20049,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:AA49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="L1" sqref="L1:L1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -20392,7 +20393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>62</v>
       </c>
@@ -20475,7 +20476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>62</v>
       </c>
@@ -20558,7 +20559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>62</v>
       </c>
@@ -20641,7 +20642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>62</v>
       </c>
@@ -20724,7 +20725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>62</v>
       </c>
@@ -20807,7 +20808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>62</v>
       </c>
@@ -20890,7 +20891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>62</v>
       </c>
@@ -20973,7 +20974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>62</v>
       </c>
@@ -21056,7 +21057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>62</v>
       </c>
@@ -21139,7 +21140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>62</v>
       </c>
@@ -21222,7 +21223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>62</v>
       </c>
@@ -21305,7 +21306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>62</v>
       </c>
@@ -21388,7 +21389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>62</v>
       </c>
@@ -21471,7 +21472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>62</v>
       </c>
@@ -21554,7 +21555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>62</v>
       </c>
@@ -21637,7 +21638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>62</v>
       </c>
@@ -21720,7 +21721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>62</v>
       </c>
@@ -21803,7 +21804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>62</v>
       </c>
@@ -21886,7 +21887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>62</v>
       </c>
@@ -21969,7 +21970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>62</v>
       </c>
@@ -22052,7 +22053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>62</v>
       </c>
@@ -22135,7 +22136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>62</v>
       </c>
@@ -22218,7 +22219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>62</v>
       </c>
@@ -22301,7 +22302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>62</v>
       </c>
@@ -22384,7 +22385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>62</v>
       </c>
@@ -22467,7 +22468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>62</v>
       </c>
@@ -22550,7 +22551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>62</v>
       </c>
@@ -22633,7 +22634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>62</v>
       </c>
@@ -22716,7 +22717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>62</v>
       </c>
@@ -22799,7 +22800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>62</v>
       </c>
@@ -23131,7 +23132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>96</v>
       </c>
@@ -23214,7 +23215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>96</v>
       </c>
@@ -23297,7 +23298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>96</v>
       </c>
@@ -23380,7 +23381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>96</v>
       </c>
@@ -23463,7 +23464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>96</v>
       </c>
@@ -23546,7 +23547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>96</v>
       </c>
@@ -23629,7 +23630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>96</v>
       </c>
@@ -23712,7 +23713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>96</v>
       </c>
@@ -23795,7 +23796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>96</v>
       </c>
@@ -23878,7 +23879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>96</v>
       </c>
@@ -23961,7 +23962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>96</v>
       </c>
@@ -24044,7 +24045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>96</v>
       </c>
@@ -24128,17 +24129,23 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AA49"/>
+  <autoFilter ref="A1:AA49">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Crang 1"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L126"/>
+  <dimension ref="A1:L88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C71" sqref="C71"/>
+      <selection activeCell="E93" sqref="E93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -25380,538 +25387,6 @@
       </c>
       <c r="D88" s="13" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A89" s="15">
-        <v>32.538217000000003</v>
-      </c>
-      <c r="B89" s="13">
-        <v>67.025744000000003</v>
-      </c>
-      <c r="C89" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="D89" s="13" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A90" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="B90" s="15">
-        <v>32.538271000000002</v>
-      </c>
-      <c r="C90" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="D90" s="13" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A91" s="16">
-        <v>67.025507000000005</v>
-      </c>
-      <c r="B91" s="13">
-        <v>32.538297</v>
-      </c>
-      <c r="C91" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="D91" s="13" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A92" s="16">
-        <v>67.025374999999997</v>
-      </c>
-      <c r="B92" s="13">
-        <v>32.538271000000002</v>
-      </c>
-      <c r="C92" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="D92" s="13" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A93" s="16">
-        <v>67.025281000000007</v>
-      </c>
-      <c r="B93" s="13">
-        <v>32.538378000000002</v>
-      </c>
-      <c r="C93" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="D93" s="13" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A94" s="16">
-        <v>67.025107000000006</v>
-      </c>
-      <c r="B94" s="13">
-        <v>32.538791000000003</v>
-      </c>
-      <c r="C94" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="D94" s="13" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A95" s="16">
-        <v>67.025026999999994</v>
-      </c>
-      <c r="B95" s="13">
-        <v>32.539262999999998</v>
-      </c>
-      <c r="C95" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="D95" s="13" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A96" s="16">
-        <v>67.024855000000002</v>
-      </c>
-      <c r="B96" s="13">
-        <v>32.539580000000001</v>
-      </c>
-      <c r="C96" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="D96" s="13" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A97" s="16">
-        <v>67.024736000000004</v>
-      </c>
-      <c r="B97" s="13">
-        <v>32.540056999999997</v>
-      </c>
-      <c r="C97" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="D97" s="13" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A98" s="16">
-        <v>67.024501000000001</v>
-      </c>
-      <c r="B98" s="13">
-        <v>32.541179999999997</v>
-      </c>
-      <c r="C98" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="D98" s="13" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A99" s="16">
-        <v>67.024293</v>
-      </c>
-      <c r="B99" s="13">
-        <v>32.541808000000003</v>
-      </c>
-      <c r="C99" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="D99" s="13" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A100" s="16">
-        <v>67.024096</v>
-      </c>
-      <c r="B100" s="13">
-        <v>32.542332999999999</v>
-      </c>
-      <c r="C100" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="D100" s="13" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A101" s="16">
-        <v>67.024096</v>
-      </c>
-      <c r="B101" s="13">
-        <v>32.542332999999999</v>
-      </c>
-      <c r="C101" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="D101" s="13" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A102" s="16">
-        <v>67.024062999999998</v>
-      </c>
-      <c r="B102" s="13">
-        <v>32.542988000000001</v>
-      </c>
-      <c r="C102" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="D102" s="13" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A103" s="16">
-        <v>67.024062999999998</v>
-      </c>
-      <c r="B103" s="13">
-        <v>32.542988000000001</v>
-      </c>
-      <c r="C103" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="D103" s="13" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A104" s="16">
-        <v>67.024568000000002</v>
-      </c>
-      <c r="B104" s="13">
-        <v>32.542676999999998</v>
-      </c>
-      <c r="C104" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="D104" s="13" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A105" s="16">
-        <v>67.024568000000002</v>
-      </c>
-      <c r="B105" s="13">
-        <v>32.542676999999998</v>
-      </c>
-      <c r="C105" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="D105" s="13" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A106" s="16">
-        <v>67.025073000000006</v>
-      </c>
-      <c r="B106" s="13">
-        <v>32.542430000000003</v>
-      </c>
-      <c r="C106" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="D106" s="13" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A107" s="16">
-        <v>67.025347999999994</v>
-      </c>
-      <c r="B107" s="13">
-        <v>32.542194000000002</v>
-      </c>
-      <c r="C107" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="D107" s="13" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A108" s="16">
-        <v>67.025557000000006</v>
-      </c>
-      <c r="B108" s="13">
-        <v>32.542172000000001</v>
-      </c>
-      <c r="C108" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="D108" s="13" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A109" s="16">
-        <v>67.025797999999995</v>
-      </c>
-      <c r="B109" s="13">
-        <v>32.542209999999997</v>
-      </c>
-      <c r="C109" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="D109" s="13" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A110" s="16">
-        <v>67.026062999999994</v>
-      </c>
-      <c r="B110" s="13">
-        <v>32.541988000000003</v>
-      </c>
-      <c r="C110" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="D110" s="13" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A111" s="16">
-        <v>67.025881999999996</v>
-      </c>
-      <c r="B111" s="13">
-        <v>32.538555000000002</v>
-      </c>
-      <c r="C111" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="D111" s="13" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A112" s="16">
-        <v>67.025766000000004</v>
-      </c>
-      <c r="B112" s="13">
-        <v>32.538625000000003</v>
-      </c>
-      <c r="C112" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="D112" s="13" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A113" s="16">
-        <v>67.025687000000005</v>
-      </c>
-      <c r="B113" s="13">
-        <v>32.538646</v>
-      </c>
-      <c r="C113" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="D113" s="13" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A114" s="16">
-        <v>67.025620000000004</v>
-      </c>
-      <c r="B114" s="13">
-        <v>32.538688999999998</v>
-      </c>
-      <c r="C114" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="D114" s="13" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A115" s="16">
-        <v>67.025525999999999</v>
-      </c>
-      <c r="B115" s="13">
-        <v>32.538764</v>
-      </c>
-      <c r="C115" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="D115" s="13" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A116" s="16">
-        <v>67.025380999999996</v>
-      </c>
-      <c r="B116" s="13">
-        <v>32.539155999999998</v>
-      </c>
-      <c r="C116" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="D116" s="13" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A117" s="16">
-        <v>67.025380999999996</v>
-      </c>
-      <c r="B117" s="13">
-        <v>32.539155999999998</v>
-      </c>
-      <c r="C117" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="D117" s="13" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A118" s="16">
-        <v>67.025347999999994</v>
-      </c>
-      <c r="B118" s="13">
-        <v>32.539890999999997</v>
-      </c>
-      <c r="C118" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="D118" s="13" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A119" s="16">
-        <v>67.025347999999994</v>
-      </c>
-      <c r="B119" s="13">
-        <v>32.539890999999997</v>
-      </c>
-      <c r="C119" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="D119" s="13" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A120" s="16">
-        <v>67.025347999999994</v>
-      </c>
-      <c r="B120" s="13">
-        <v>32.539890999999997</v>
-      </c>
-      <c r="C120" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="D120" s="13" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A121" s="16">
-        <v>67.025347999999994</v>
-      </c>
-      <c r="B121" s="13">
-        <v>32.539890999999997</v>
-      </c>
-      <c r="C121" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="D121" s="13" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A122" s="16">
-        <v>67.025454999999994</v>
-      </c>
-      <c r="B122" s="13">
-        <v>32.541167000000002</v>
-      </c>
-      <c r="C122" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="D122" s="13" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A123" s="16">
-        <v>67.025600999999995</v>
-      </c>
-      <c r="B123" s="13">
-        <v>32.541473000000003</v>
-      </c>
-      <c r="C123" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="D123" s="13" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A124" s="16">
-        <v>67.025811000000004</v>
-      </c>
-      <c r="B124" s="13">
-        <v>32.541468000000002</v>
-      </c>
-      <c r="C124" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="D124" s="13" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A125" s="16">
-        <v>67.025985000000006</v>
-      </c>
-      <c r="B125" s="13">
-        <v>32.541392999999999</v>
-      </c>
-      <c r="C125" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="D125" s="13" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A126" s="16">
-        <v>67.026184999999998</v>
-      </c>
-      <c r="B126" s="13">
-        <v>32.541409000000002</v>
-      </c>
-      <c r="C126" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="D126" s="13" t="s">
-        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -26643,10 +26118,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:D59"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -26827,7 +26302,7 @@
         <v>32.540323000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>73</v>
       </c>
@@ -26838,7 +26313,7 @@
         <v>32.540323000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>74</v>
       </c>
@@ -26849,7 +26324,7 @@
         <v>32.540323000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>107</v>
       </c>
@@ -26860,7 +26335,7 @@
         <v>32.541609000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>108</v>
       </c>
@@ -26871,7 +26346,7 @@
         <v>32.541609000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>109</v>
       </c>
@@ -26880,6 +26355,538 @@
       </c>
       <c r="C21">
         <v>32.541609000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" s="15">
+        <v>32.538217000000003</v>
+      </c>
+      <c r="B22" s="13">
+        <v>67.025744000000003</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="B23" s="15">
+        <v>32.538271000000002</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" s="16">
+        <v>67.025507000000005</v>
+      </c>
+      <c r="B24" s="13">
+        <v>32.538297</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" s="16">
+        <v>67.025374999999997</v>
+      </c>
+      <c r="B25" s="13">
+        <v>32.538271000000002</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" s="16">
+        <v>67.025281000000007</v>
+      </c>
+      <c r="B26" s="13">
+        <v>32.538378000000002</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" s="16">
+        <v>67.025107000000006</v>
+      </c>
+      <c r="B27" s="13">
+        <v>32.538791000000003</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" s="16">
+        <v>67.025026999999994</v>
+      </c>
+      <c r="B28" s="13">
+        <v>32.539262999999998</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" s="16">
+        <v>67.024855000000002</v>
+      </c>
+      <c r="B29" s="13">
+        <v>32.539580000000001</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" s="16">
+        <v>67.024736000000004</v>
+      </c>
+      <c r="B30" s="13">
+        <v>32.540056999999997</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" s="16">
+        <v>67.024501000000001</v>
+      </c>
+      <c r="B31" s="13">
+        <v>32.541179999999997</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" s="16">
+        <v>67.024293</v>
+      </c>
+      <c r="B32" s="13">
+        <v>32.541808000000003</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" s="16">
+        <v>67.024096</v>
+      </c>
+      <c r="B33" s="13">
+        <v>32.542332999999999</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" s="16">
+        <v>67.024096</v>
+      </c>
+      <c r="B34" s="13">
+        <v>32.542332999999999</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35" s="16">
+        <v>67.024062999999998</v>
+      </c>
+      <c r="B35" s="13">
+        <v>32.542988000000001</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36" s="16">
+        <v>67.024062999999998</v>
+      </c>
+      <c r="B36" s="13">
+        <v>32.542988000000001</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37" s="16">
+        <v>67.024568000000002</v>
+      </c>
+      <c r="B37" s="13">
+        <v>32.542676999999998</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D37" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38" s="16">
+        <v>67.024568000000002</v>
+      </c>
+      <c r="B38" s="13">
+        <v>32.542676999999998</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39" s="16">
+        <v>67.025073000000006</v>
+      </c>
+      <c r="B39" s="13">
+        <v>32.542430000000003</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D39" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40" s="16">
+        <v>67.025347999999994</v>
+      </c>
+      <c r="B40" s="13">
+        <v>32.542194000000002</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D40" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41" s="16">
+        <v>67.025557000000006</v>
+      </c>
+      <c r="B41" s="13">
+        <v>32.542172000000001</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D41" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A42" s="16">
+        <v>67.025797999999995</v>
+      </c>
+      <c r="B42" s="13">
+        <v>32.542209999999997</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D42" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A43" s="16">
+        <v>67.026062999999994</v>
+      </c>
+      <c r="B43" s="13">
+        <v>32.541988000000003</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D43" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A44" s="16">
+        <v>67.025881999999996</v>
+      </c>
+      <c r="B44" s="13">
+        <v>32.538555000000002</v>
+      </c>
+      <c r="C44" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="D44" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A45" s="16">
+        <v>67.025766000000004</v>
+      </c>
+      <c r="B45" s="13">
+        <v>32.538625000000003</v>
+      </c>
+      <c r="C45" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="D45" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A46" s="16">
+        <v>67.025687000000005</v>
+      </c>
+      <c r="B46" s="13">
+        <v>32.538646</v>
+      </c>
+      <c r="C46" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="D46" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A47" s="16">
+        <v>67.025620000000004</v>
+      </c>
+      <c r="B47" s="13">
+        <v>32.538688999999998</v>
+      </c>
+      <c r="C47" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="D47" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A48" s="16">
+        <v>67.025525999999999</v>
+      </c>
+      <c r="B48" s="13">
+        <v>32.538764</v>
+      </c>
+      <c r="C48" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="D48" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A49" s="16">
+        <v>67.025380999999996</v>
+      </c>
+      <c r="B49" s="13">
+        <v>32.539155999999998</v>
+      </c>
+      <c r="C49" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="D49" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A50" s="16">
+        <v>67.025380999999996</v>
+      </c>
+      <c r="B50" s="13">
+        <v>32.539155999999998</v>
+      </c>
+      <c r="C50" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="D50" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A51" s="16">
+        <v>67.025347999999994</v>
+      </c>
+      <c r="B51" s="13">
+        <v>32.539890999999997</v>
+      </c>
+      <c r="C51" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="D51" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A52" s="16">
+        <v>67.025347999999994</v>
+      </c>
+      <c r="B52" s="13">
+        <v>32.539890999999997</v>
+      </c>
+      <c r="C52" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="D52" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A53" s="16">
+        <v>67.025347999999994</v>
+      </c>
+      <c r="B53" s="13">
+        <v>32.539890999999997</v>
+      </c>
+      <c r="C53" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="D53" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A54" s="16">
+        <v>67.025347999999994</v>
+      </c>
+      <c r="B54" s="13">
+        <v>32.539890999999997</v>
+      </c>
+      <c r="C54" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="D54" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A55" s="16">
+        <v>67.025454999999994</v>
+      </c>
+      <c r="B55" s="13">
+        <v>32.541167000000002</v>
+      </c>
+      <c r="C55" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="D55" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A56" s="16">
+        <v>67.025600999999995</v>
+      </c>
+      <c r="B56" s="13">
+        <v>32.541473000000003</v>
+      </c>
+      <c r="C56" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="D56" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A57" s="16">
+        <v>67.025811000000004</v>
+      </c>
+      <c r="B57" s="13">
+        <v>32.541468000000002</v>
+      </c>
+      <c r="C57" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="D57" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A58" s="16">
+        <v>67.025985000000006</v>
+      </c>
+      <c r="B58" s="13">
+        <v>32.541392999999999</v>
+      </c>
+      <c r="C58" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="D58" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A59" s="16">
+        <v>67.026184999999998</v>
+      </c>
+      <c r="B59" s="13">
+        <v>32.541409000000002</v>
+      </c>
+      <c r="C59" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="D59" s="13" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/Vitia_Ostrovsky/R_Calc_Crang_2024/Data/Crang_2024.xlsx
+++ b/Vitia_Ostrovsky/R_Calc_Crang_2024/Data/Crang_2024.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22190" windowHeight="9180" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22190" windowHeight="9180"/>
   </bookViews>
   <sheets>
     <sheet name="Full" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="Outline" sheetId="5" r:id="rId3"/>
     <sheet name="Чистовые Северная " sheetId="4" r:id="rId4"/>
     <sheet name="Coordinats" sheetId="2" r:id="rId5"/>
+    <sheet name="Nor" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Full!$A$1:$AD$207</definedName>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="923" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="114">
   <si>
     <t>Area</t>
   </si>
@@ -385,9 +386,6 @@
   <si>
     <t>Stream</t>
   </si>
-  <si>
-    <t>67.025658</t>
-  </si>
 </sst>
 </file>
 
@@ -518,6 +516,2510 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12470603674540683"/>
+          <c:y val="0.19486111111111112"/>
+          <c:w val="0.83017585301837271"/>
+          <c:h val="0.72088764946048411"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Outline!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Lat</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Outline!$A$2:$A$88</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="87"/>
+                <c:pt idx="0">
+                  <c:v>32.578868999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32.573613000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32.572926000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32.572493999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32.571865000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.571238000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32.570754999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32.570191999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32.569648999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>32.569279000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>32.569026999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>32.569094</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>32.569170999999997</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>32.569223000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>32.569003000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>32.568922000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>32.568919999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>32.568846999999998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>32.569051000000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>32.569353999999997</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>32.569678000000003</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>32.569737000000003</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>32.570033000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>32.569938</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>32.569974000000002</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>32.569960999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>32.569927999999997</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>32.569997999999998</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>32.569997000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>32.569997000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>32.569923000000003</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32.569926000000002</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32.569989999999997</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>32.569968000000003</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>32.569965000000003</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>32.569910999999998</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>32.569935000000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>32.569965000000003</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>32.570118999999998</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>32.570124</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>32.570300000000003</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>32.570827999999999</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>32.571153000000002</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>32.571606000000003</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>32.572310000000002</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>32.573086000000004</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>32.574626000000002</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>32.574575000000003</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>32.574612000000002</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>32.574534999999997</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>32.574388999999996</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>32.573687</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>32.573351000000002</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>32.573123000000002</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>32.57255</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>32.571944000000002</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>32.571688000000002</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>32.571516000000003</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>32.571351</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>32.571283000000001</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>32.571441999999998</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>32.571313000000004</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>32.571710000000003</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>32.572294999999997</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>32.573276999999997</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>32.572840999999997</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>32.572999000000003</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>32.573602000000001</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>32.574444999999997</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>32.569695000000003</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>32.569792</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>32.56991</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>32.570000999999998</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>32.570005999999999</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>32.570022000000002</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>32.570393000000003</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>32.570695999999998</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>32.571013999999998</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>32.571238999999998</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>32.571137999999998</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>32.571154</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>32.571154</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>32.571196999999998</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>32.571233999999997</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>32.571368</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>32.571410999999998</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>32.571513000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Outline!$B$2:$B$88</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="87"/>
+                <c:pt idx="0">
+                  <c:v>67.007221000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>67.009069999999994</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>67.009156000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>67.009214999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>67.009352000000007</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>67.009400999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>67.009433999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>67.009461999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>67.009573000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>67.009687999999997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>67.009533000000005</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>67.009322999999995</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>67.009169</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>67.008887999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>67.008793999999995</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>67.008622000000003</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>67.008533</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>67.008317000000005</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>67.008207999999996</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>67.008082999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>67.007921999999994</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>67.007705000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>67.007446000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>67.007284999999996</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>67.007182</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>67.007143999999997</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>67.007071999999994</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>67.006966000000006</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>67.006865000000005</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>67.006808000000007</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>67.006945999999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>67.006878999999998</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>67.006778999999995</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>67.006725000000003</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>67.006936999999994</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>67.006803000000005</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>67.006685000000004</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>67.006626999999995</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>67.006338</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>67.006096999999997</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>67.005799999999994</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>67.005639000000002</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>67.005488</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>67.005398</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>67.005325999999997</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>67.005133000000001</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>67.007643999999999</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>67.007934000000006</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>67.008227000000005</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>67.008489999999995</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>67.008690000000001</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>67.008313000000001</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>67.008138000000002</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>67.008004999999997</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>67.007812000000001</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>67.007610999999997</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>67.007450000000006</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>67.007315000000006</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>67.007215000000002</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>67.007125000000002</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>67.006877000000003</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>67.006652000000003</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>67.006473</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>67.006307000000007</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>67.006407999999993</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>67.006020000000007</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>67.005842000000001</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67.005574999999993</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>67.005455100000006</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>67.009367999999995</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>67.009257000000005</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>67.009187999999995</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>67.009084999999999</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>67.008950999999996</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>67.008730999999997</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>67.008671000000007</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>67.008615000000006</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>67.008509000000004</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>67.008455999999995</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>67.008328000000006</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>67.008212999999998</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>67.008162999999996</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>67.008064000000005</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>67.007971999999995</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>67.007833000000005</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>67.007723999999996</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>67.007472000000007</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="224451016"/>
+        <c:axId val="224454152"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="224451016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="224454152"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="224454152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="224451016"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Coordinats!$A$2:$A$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>67.025744000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>67.025658000000007</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>67.025507000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>67.025374999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>67.025281000000007</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>67.025107000000006</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>67.025026999999994</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>67.024855000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>67.024736000000004</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>67.024501000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>67.024293</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>67.024096</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>67.024096</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>67.024062999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>67.024062999999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>67.024568000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>67.024568000000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>67.025073000000006</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>67.025347999999994</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>67.025557000000006</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>67.025797999999995</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>67.026062999999994</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>67.025881999999996</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>67.025766000000004</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>67.025687000000005</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>67.025620000000004</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>67.025525999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>67.025380999999996</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>67.025380999999996</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>67.025347999999994</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>67.025347999999994</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>67.025347999999994</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>67.025347999999994</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>67.025454999999994</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>67.025600999999995</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>67.025811000000004</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>67.025985000000006</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>67.026184999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Coordinats!$B$2:$B$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>32.538217000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32.538271000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32.538297</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32.538271000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32.538378000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.538791000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32.539262999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32.539580000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32.540056999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>32.541179999999997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>32.541808000000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>32.542332999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>32.542332999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>32.542988000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>32.542988000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>32.542676999999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>32.542676999999998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>32.542430000000003</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>32.542194000000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>32.542172000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>32.542209999999997</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>32.541988000000003</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>32.538555000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>32.538625000000003</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>32.538646</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>32.538688999999998</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>32.538764</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>32.539155999999998</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>32.539155999999998</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>32.539890999999997</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>32.539890999999997</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32.539890999999997</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32.539890999999997</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>32.541167000000002</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>32.541473000000003</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>32.541468000000002</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>32.541392999999999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>32.541409000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="225372456"/>
+        <c:axId val="225374808"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="225372456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="225374808"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="225374808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="225372456"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>612775</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>288925</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>174625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>568325</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>168275</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>111125</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>149225</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -780,8 +3282,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD207"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -20049,11 +22551,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:AA49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:L1048576"/>
+      <selection activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -20393,7 +22894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>62</v>
       </c>
@@ -20476,7 +22977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>62</v>
       </c>
@@ -20559,7 +23060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>62</v>
       </c>
@@ -20642,7 +23143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>62</v>
       </c>
@@ -20725,7 +23226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>62</v>
       </c>
@@ -20808,7 +23309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>62</v>
       </c>
@@ -20891,7 +23392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>62</v>
       </c>
@@ -20974,7 +23475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>62</v>
       </c>
@@ -21057,7 +23558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>62</v>
       </c>
@@ -21140,7 +23641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>62</v>
       </c>
@@ -21223,7 +23724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>62</v>
       </c>
@@ -21306,7 +23807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>62</v>
       </c>
@@ -21389,7 +23890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>62</v>
       </c>
@@ -21472,7 +23973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>62</v>
       </c>
@@ -21555,7 +24056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>62</v>
       </c>
@@ -21638,7 +24139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>62</v>
       </c>
@@ -21721,7 +24222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>62</v>
       </c>
@@ -21804,7 +24305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>62</v>
       </c>
@@ -21887,7 +24388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>62</v>
       </c>
@@ -21970,7 +24471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>62</v>
       </c>
@@ -22053,7 +24554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>62</v>
       </c>
@@ -22136,7 +24637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>62</v>
       </c>
@@ -22219,7 +24720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>62</v>
       </c>
@@ -22302,7 +24803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>62</v>
       </c>
@@ -22385,7 +24886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>62</v>
       </c>
@@ -22468,7 +24969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>62</v>
       </c>
@@ -22551,7 +25052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>62</v>
       </c>
@@ -22634,7 +25135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>62</v>
       </c>
@@ -22717,7 +25218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>62</v>
       </c>
@@ -22800,7 +25301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>62</v>
       </c>
@@ -23132,7 +25633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>96</v>
       </c>
@@ -23215,7 +25716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>96</v>
       </c>
@@ -23298,7 +25799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>96</v>
       </c>
@@ -23381,7 +25882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>96</v>
       </c>
@@ -23464,7 +25965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>96</v>
       </c>
@@ -23547,7 +26048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>96</v>
       </c>
@@ -23630,7 +26131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>96</v>
       </c>
@@ -23713,7 +26214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>96</v>
       </c>
@@ -23796,7 +26297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>96</v>
       </c>
@@ -23879,7 +26380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>96</v>
       </c>
@@ -23962,7 +26463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>96</v>
       </c>
@@ -24045,7 +26546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>96</v>
       </c>
@@ -24129,13 +26630,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AA49">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="Crang 1"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:AA49"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -24144,8 +26639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E93" sqref="E93"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O83" sqref="O83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -25392,6 +27887,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -26118,251 +28614,314 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D59"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2">
-        <v>67.025075000000001</v>
-      </c>
-      <c r="C2">
-        <v>32.540053</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3">
-        <v>67.024917000000002</v>
-      </c>
-      <c r="C3">
-        <v>32.540382999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4">
-        <v>67.025051000000005</v>
-      </c>
-      <c r="C4">
-        <v>32.540588</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5">
-        <v>67.024942999999993</v>
-      </c>
-      <c r="C5">
-        <v>32.541285999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6">
-        <v>67.025058999999999</v>
-      </c>
-      <c r="C6">
-        <v>32.541471999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B7">
-        <v>67.025726000000006</v>
-      </c>
-      <c r="C7">
-        <v>32.539363000000002</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>64</v>
-      </c>
-      <c r="B8">
-        <v>67.025726000000006</v>
-      </c>
-      <c r="C8">
-        <v>32.539363000000002</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B9">
-        <v>67.025726000000006</v>
-      </c>
-      <c r="C9">
-        <v>32.539363000000002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>66</v>
-      </c>
-      <c r="B10">
-        <v>67.024916000000005</v>
-      </c>
-      <c r="C10">
-        <v>32.540227999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>67</v>
-      </c>
-      <c r="B11">
-        <v>67.024916000000005</v>
-      </c>
-      <c r="C11">
-        <v>32.540227999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>68</v>
-      </c>
-      <c r="B12">
-        <v>67.024916000000005</v>
-      </c>
-      <c r="C12">
-        <v>32.540227999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>69</v>
-      </c>
-      <c r="B13">
-        <v>67.024895000000001</v>
-      </c>
-      <c r="C13">
-        <v>32.540433999999998</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>70</v>
-      </c>
-      <c r="B14">
-        <v>67.024895000000001</v>
-      </c>
-      <c r="C14">
-        <v>32.540433999999998</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>71</v>
-      </c>
-      <c r="B15">
-        <v>67.024895000000001</v>
-      </c>
-      <c r="C15">
-        <v>32.540433999999998</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>72</v>
-      </c>
-      <c r="B16">
-        <v>67.024872999999999</v>
-      </c>
-      <c r="C16">
-        <v>32.540323000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>73</v>
-      </c>
-      <c r="B17">
-        <v>67.024872999999999</v>
-      </c>
-      <c r="C17">
-        <v>32.540323000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>74</v>
-      </c>
-      <c r="B18">
-        <v>67.024872999999999</v>
-      </c>
-      <c r="C18">
-        <v>32.540323000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B19">
-        <v>67.024970999999994</v>
-      </c>
-      <c r="C19">
-        <v>32.541609000000001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B20">
-        <v>67.024970999999994</v>
-      </c>
-      <c r="C20">
-        <v>32.541609000000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B21">
-        <v>67.024970999999994</v>
-      </c>
-      <c r="C21">
-        <v>32.541609000000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" s="15">
+        <v>110</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="13">
+        <v>67.025744000000003</v>
+      </c>
+      <c r="B2" s="15">
         <v>32.538217000000003</v>
       </c>
+      <c r="C2" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="16">
+        <v>67.025658000000007</v>
+      </c>
+      <c r="B3" s="15">
+        <v>32.538271000000002</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="16">
+        <v>67.025507000000005</v>
+      </c>
+      <c r="B4" s="13">
+        <v>32.538297</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="16">
+        <v>67.025374999999997</v>
+      </c>
+      <c r="B5" s="13">
+        <v>32.538271000000002</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="16">
+        <v>67.025281000000007</v>
+      </c>
+      <c r="B6" s="13">
+        <v>32.538378000000002</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="16">
+        <v>67.025107000000006</v>
+      </c>
+      <c r="B7" s="13">
+        <v>32.538791000000003</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="16">
+        <v>67.025026999999994</v>
+      </c>
+      <c r="B8" s="13">
+        <v>32.539262999999998</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="16">
+        <v>67.024855000000002</v>
+      </c>
+      <c r="B9" s="13">
+        <v>32.539580000000001</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="16">
+        <v>67.024736000000004</v>
+      </c>
+      <c r="B10" s="13">
+        <v>32.540056999999997</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="16">
+        <v>67.024501000000001</v>
+      </c>
+      <c r="B11" s="13">
+        <v>32.541179999999997</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="16">
+        <v>67.024293</v>
+      </c>
+      <c r="B12" s="13">
+        <v>32.541808000000003</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="16">
+        <v>67.024096</v>
+      </c>
+      <c r="B13" s="13">
+        <v>32.542332999999999</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="16">
+        <v>67.024096</v>
+      </c>
+      <c r="B14" s="13">
+        <v>32.542332999999999</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="16">
+        <v>67.024062999999998</v>
+      </c>
+      <c r="B15" s="13">
+        <v>32.542988000000001</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="16">
+        <v>67.024062999999998</v>
+      </c>
+      <c r="B16" s="13">
+        <v>32.542988000000001</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" s="16">
+        <v>67.024568000000002</v>
+      </c>
+      <c r="B17" s="13">
+        <v>32.542676999999998</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" s="16">
+        <v>67.024568000000002</v>
+      </c>
+      <c r="B18" s="13">
+        <v>32.542676999999998</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" s="16">
+        <v>67.025073000000006</v>
+      </c>
+      <c r="B19" s="13">
+        <v>32.542430000000003</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" s="16">
+        <v>67.025347999999994</v>
+      </c>
+      <c r="B20" s="13">
+        <v>32.542194000000002</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" s="16">
+        <v>67.025557000000006</v>
+      </c>
+      <c r="B21" s="13">
+        <v>32.542172000000001</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" s="16">
+        <v>67.025797999999995</v>
+      </c>
       <c r="B22" s="13">
-        <v>67.025744000000003</v>
+        <v>32.542209999999997</v>
       </c>
       <c r="C22" s="13" t="s">
         <v>111</v>
@@ -26370,13 +28929,14 @@
       <c r="D22" s="13" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="B23" s="15">
-        <v>32.538271000000002</v>
+      <c r="F22" s="15"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" s="16">
+        <v>67.026062999999994</v>
+      </c>
+      <c r="B23" s="13">
+        <v>32.541988000000003</v>
       </c>
       <c r="C23" s="13" t="s">
         <v>111</v>
@@ -26385,127 +28945,127 @@
         <v>96</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="16">
-        <v>67.025507000000005</v>
+        <v>67.025881999999996</v>
       </c>
       <c r="B24" s="13">
-        <v>32.538297</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>111</v>
+        <v>32.538555000000002</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>112</v>
       </c>
       <c r="D24" s="13" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="16">
-        <v>67.025374999999997</v>
+        <v>67.025766000000004</v>
       </c>
       <c r="B25" s="13">
-        <v>32.538271000000002</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>111</v>
+        <v>32.538625000000003</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>112</v>
       </c>
       <c r="D25" s="13" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="16">
-        <v>67.025281000000007</v>
+        <v>67.025687000000005</v>
       </c>
       <c r="B26" s="13">
-        <v>32.538378000000002</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>111</v>
+        <v>32.538646</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>112</v>
       </c>
       <c r="D26" s="13" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="16">
-        <v>67.025107000000006</v>
+        <v>67.025620000000004</v>
       </c>
       <c r="B27" s="13">
-        <v>32.538791000000003</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>111</v>
+        <v>32.538688999999998</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>112</v>
       </c>
       <c r="D27" s="13" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="16">
-        <v>67.025026999999994</v>
+        <v>67.025525999999999</v>
       </c>
       <c r="B28" s="13">
-        <v>32.539262999999998</v>
-      </c>
-      <c r="C28" s="13" t="s">
-        <v>111</v>
+        <v>32.538764</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>112</v>
       </c>
       <c r="D28" s="13" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="16">
-        <v>67.024855000000002</v>
+        <v>67.025380999999996</v>
       </c>
       <c r="B29" s="13">
-        <v>32.539580000000001</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>111</v>
+        <v>32.539155999999998</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>112</v>
       </c>
       <c r="D29" s="13" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="16">
-        <v>67.024736000000004</v>
+        <v>67.025380999999996</v>
       </c>
       <c r="B30" s="13">
-        <v>32.540056999999997</v>
-      </c>
-      <c r="C30" s="13" t="s">
-        <v>111</v>
+        <v>32.539155999999998</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>112</v>
       </c>
       <c r="D30" s="13" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="16">
-        <v>67.024501000000001</v>
+        <v>67.025347999999994</v>
       </c>
       <c r="B31" s="13">
-        <v>32.541179999999997</v>
-      </c>
-      <c r="C31" s="13" t="s">
-        <v>111</v>
+        <v>32.539890999999997</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>112</v>
       </c>
       <c r="D31" s="13" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="16">
-        <v>67.024293</v>
+        <v>67.025347999999994</v>
       </c>
       <c r="B32" s="13">
-        <v>32.541808000000003</v>
-      </c>
-      <c r="C32" s="13" t="s">
-        <v>111</v>
+        <v>32.539890999999997</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>112</v>
       </c>
       <c r="D32" s="13" t="s">
         <v>96</v>
@@ -26513,13 +29073,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="16">
-        <v>67.024096</v>
+        <v>67.025347999999994</v>
       </c>
       <c r="B33" s="13">
-        <v>32.542332999999999</v>
-      </c>
-      <c r="C33" s="13" t="s">
-        <v>111</v>
+        <v>32.539890999999997</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>112</v>
       </c>
       <c r="D33" s="13" t="s">
         <v>96</v>
@@ -26527,13 +29087,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="16">
-        <v>67.024096</v>
+        <v>67.025347999999994</v>
       </c>
       <c r="B34" s="13">
-        <v>32.542332999999999</v>
-      </c>
-      <c r="C34" s="13" t="s">
-        <v>111</v>
+        <v>32.539890999999997</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>112</v>
       </c>
       <c r="D34" s="13" t="s">
         <v>96</v>
@@ -26541,13 +29101,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="16">
-        <v>67.024062999999998</v>
+        <v>67.025454999999994</v>
       </c>
       <c r="B35" s="13">
-        <v>32.542988000000001</v>
-      </c>
-      <c r="C35" s="13" t="s">
-        <v>111</v>
+        <v>32.541167000000002</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>112</v>
       </c>
       <c r="D35" s="13" t="s">
         <v>96</v>
@@ -26555,13 +29115,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" s="16">
-        <v>67.024062999999998</v>
+        <v>67.025600999999995</v>
       </c>
       <c r="B36" s="13">
-        <v>32.542988000000001</v>
-      </c>
-      <c r="C36" s="13" t="s">
-        <v>111</v>
+        <v>32.541473000000003</v>
+      </c>
+      <c r="C36" s="16" t="s">
+        <v>112</v>
       </c>
       <c r="D36" s="13" t="s">
         <v>96</v>
@@ -26569,13 +29129,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="16">
-        <v>67.024568000000002</v>
+        <v>67.025811000000004</v>
       </c>
       <c r="B37" s="13">
-        <v>32.542676999999998</v>
-      </c>
-      <c r="C37" s="13" t="s">
-        <v>111</v>
+        <v>32.541468000000002</v>
+      </c>
+      <c r="C37" s="16" t="s">
+        <v>112</v>
       </c>
       <c r="D37" s="13" t="s">
         <v>96</v>
@@ -26583,13 +29143,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="16">
-        <v>67.024568000000002</v>
+        <v>67.025985000000006</v>
       </c>
       <c r="B38" s="13">
-        <v>32.542676999999998</v>
-      </c>
-      <c r="C38" s="13" t="s">
-        <v>111</v>
+        <v>32.541392999999999</v>
+      </c>
+      <c r="C38" s="16" t="s">
+        <v>112</v>
       </c>
       <c r="D38" s="13" t="s">
         <v>96</v>
@@ -26597,296 +29157,263 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="16">
-        <v>67.025073000000006</v>
+        <v>67.026184999999998</v>
       </c>
       <c r="B39" s="13">
-        <v>32.542430000000003</v>
-      </c>
-      <c r="C39" s="13" t="s">
-        <v>111</v>
+        <v>32.541409000000002</v>
+      </c>
+      <c r="C39" s="16" t="s">
+        <v>112</v>
       </c>
       <c r="D39" s="13" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A40" s="16">
-        <v>67.025347999999994</v>
-      </c>
-      <c r="B40" s="13">
-        <v>32.542194000000002</v>
-      </c>
-      <c r="C40" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="D40" s="13" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A41" s="16">
-        <v>67.025557000000006</v>
-      </c>
-      <c r="B41" s="13">
-        <v>32.542172000000001</v>
-      </c>
-      <c r="C41" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="D41" s="13" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A42" s="16">
-        <v>67.025797999999995</v>
-      </c>
-      <c r="B42" s="13">
-        <v>32.542209999999997</v>
-      </c>
-      <c r="C42" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="D42" s="13" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A43" s="16">
-        <v>67.026062999999994</v>
-      </c>
-      <c r="B43" s="13">
-        <v>32.541988000000003</v>
-      </c>
-      <c r="C43" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="D43" s="13" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A44" s="16">
-        <v>67.025881999999996</v>
-      </c>
-      <c r="B44" s="13">
-        <v>32.538555000000002</v>
-      </c>
-      <c r="C44" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="D44" s="13" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A45" s="16">
-        <v>67.025766000000004</v>
-      </c>
-      <c r="B45" s="13">
-        <v>32.538625000000003</v>
-      </c>
-      <c r="C45" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="D45" s="13" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A46" s="16">
-        <v>67.025687000000005</v>
-      </c>
-      <c r="B46" s="13">
-        <v>32.538646</v>
-      </c>
-      <c r="C46" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="D46" s="13" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A47" s="16">
-        <v>67.025620000000004</v>
-      </c>
-      <c r="B47" s="13">
-        <v>32.538688999999998</v>
-      </c>
-      <c r="C47" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="D47" s="13" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A48" s="16">
-        <v>67.025525999999999</v>
-      </c>
-      <c r="B48" s="13">
-        <v>32.538764</v>
-      </c>
-      <c r="C48" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="D48" s="13" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A49" s="16">
-        <v>67.025380999999996</v>
-      </c>
-      <c r="B49" s="13">
-        <v>32.539155999999998</v>
-      </c>
-      <c r="C49" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="D49" s="13" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A50" s="16">
-        <v>67.025380999999996</v>
-      </c>
-      <c r="B50" s="13">
-        <v>32.539155999999998</v>
-      </c>
-      <c r="C50" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="D50" s="13" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A51" s="16">
-        <v>67.025347999999994</v>
-      </c>
-      <c r="B51" s="13">
-        <v>32.539890999999997</v>
-      </c>
-      <c r="C51" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="D51" s="13" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A52" s="16">
-        <v>67.025347999999994</v>
-      </c>
-      <c r="B52" s="13">
-        <v>32.539890999999997</v>
-      </c>
-      <c r="C52" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="D52" s="13" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A53" s="16">
-        <v>67.025347999999994</v>
-      </c>
-      <c r="B53" s="13">
-        <v>32.539890999999997</v>
-      </c>
-      <c r="C53" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="D53" s="13" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A54" s="16">
-        <v>67.025347999999994</v>
-      </c>
-      <c r="B54" s="13">
-        <v>32.539890999999997</v>
-      </c>
-      <c r="C54" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="D54" s="13" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A55" s="16">
-        <v>67.025454999999994</v>
-      </c>
-      <c r="B55" s="13">
-        <v>32.541167000000002</v>
-      </c>
-      <c r="C55" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="D55" s="13" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A56" s="16">
-        <v>67.025600999999995</v>
-      </c>
-      <c r="B56" s="13">
-        <v>32.541473000000003</v>
-      </c>
-      <c r="C56" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="D56" s="13" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A57" s="16">
-        <v>67.025811000000004</v>
-      </c>
-      <c r="B57" s="13">
-        <v>32.541468000000002</v>
-      </c>
-      <c r="C57" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="D57" s="13" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A58" s="16">
-        <v>67.025985000000006</v>
-      </c>
-      <c r="B58" s="13">
-        <v>32.541392999999999</v>
-      </c>
-      <c r="C58" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="D58" s="13" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A59" s="16">
-        <v>67.026184999999998</v>
-      </c>
-      <c r="B59" s="13">
-        <v>32.541409000000002</v>
-      </c>
-      <c r="C59" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="D59" s="13" t="s">
-        <v>96</v>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>67.025726000000006</v>
+      </c>
+      <c r="B2">
+        <v>32.539363000000002</v>
+      </c>
+      <c r="C2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>67.025726000000006</v>
+      </c>
+      <c r="B3">
+        <v>32.539363000000002</v>
+      </c>
+      <c r="C3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>67.025726000000006</v>
+      </c>
+      <c r="B4">
+        <v>32.539363000000002</v>
+      </c>
+      <c r="C4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>67.024916000000005</v>
+      </c>
+      <c r="B5">
+        <v>32.540227999999999</v>
+      </c>
+      <c r="C5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>67.024916000000005</v>
+      </c>
+      <c r="B6">
+        <v>32.540227999999999</v>
+      </c>
+      <c r="C6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>67.024916000000005</v>
+      </c>
+      <c r="B7">
+        <v>32.540227999999999</v>
+      </c>
+      <c r="C7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>67.024895000000001</v>
+      </c>
+      <c r="B8">
+        <v>32.540433999999998</v>
+      </c>
+      <c r="C8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>67.024895000000001</v>
+      </c>
+      <c r="B9">
+        <v>32.540433999999998</v>
+      </c>
+      <c r="C9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>67.024895000000001</v>
+      </c>
+      <c r="B10">
+        <v>32.540433999999998</v>
+      </c>
+      <c r="C10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>67.024872999999999</v>
+      </c>
+      <c r="B11">
+        <v>32.540323000000001</v>
+      </c>
+      <c r="C11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>67.024872999999999</v>
+      </c>
+      <c r="B12">
+        <v>32.540323000000001</v>
+      </c>
+      <c r="C12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>67.024872999999999</v>
+      </c>
+      <c r="B13">
+        <v>32.540323000000001</v>
+      </c>
+      <c r="C13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>67.024970999999994</v>
+      </c>
+      <c r="B14">
+        <v>32.541609000000001</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>67.024970999999994</v>
+      </c>
+      <c r="B15">
+        <v>32.541609000000001</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>67.024970999999994</v>
+      </c>
+      <c r="B16">
+        <v>32.541609000000001</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>67.024872999999999</v>
+      </c>
+      <c r="B17">
+        <v>32.540323000000001</v>
+      </c>
+      <c r="C17" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>67.024872999999999</v>
+      </c>
+      <c r="B18">
+        <v>32.540323000000001</v>
+      </c>
+      <c r="C18" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>67.024970999999994</v>
+      </c>
+      <c r="B19">
+        <v>32.541609000000001</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>67.024970999999994</v>
+      </c>
+      <c r="B20">
+        <v>32.541609000000001</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>67.024970999999994</v>
+      </c>
+      <c r="B21">
+        <v>32.541609000000001</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/Vitia_Ostrovsky/R_Calc_Crang_2024/Data/Crang_2024.xlsx
+++ b/Vitia_Ostrovsky/R_Calc_Crang_2024/Data/Crang_2024.xlsx
@@ -1164,11 +1164,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="224451016"/>
-        <c:axId val="224454152"/>
+        <c:axId val="189453504"/>
+        <c:axId val="189453896"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="224451016"/>
+        <c:axId val="189453504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1225,12 +1225,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="224454152"/>
+        <c:crossAx val="189453896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="224454152"/>
+        <c:axId val="189453896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1287,7 +1287,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="224451016"/>
+        <c:crossAx val="189453504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1351,7 +1351,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1668,11 +1667,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="225372456"/>
-        <c:axId val="225374808"/>
+        <c:axId val="190645168"/>
+        <c:axId val="190646344"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="225372456"/>
+        <c:axId val="190645168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1729,12 +1728,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="225374808"/>
+        <c:crossAx val="190646344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="225374808"/>
+        <c:axId val="190646344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1791,7 +1790,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="225372456"/>
+        <c:crossAx val="190645168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3282,8 +3281,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD207"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="Z1" sqref="Z1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Vitia_Ostrovsky/R_Calc_Crang_2024/Data/Crang_2024.xlsx
+++ b/Vitia_Ostrovsky/R_Calc_Crang_2024/Data/Crang_2024.xlsx
@@ -9,20 +9,21 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22190" windowHeight="9180"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22190" windowHeight="9180" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Full" sheetId="1" r:id="rId1"/>
-    <sheet name="Чистовые" sheetId="3" r:id="rId2"/>
-    <sheet name="Outline" sheetId="5" r:id="rId3"/>
-    <sheet name="Чистовые Северная " sheetId="4" r:id="rId4"/>
-    <sheet name="Coordinats" sheetId="2" r:id="rId5"/>
-    <sheet name="Nor" sheetId="6" r:id="rId6"/>
+    <sheet name="Coordinates" sheetId="7" r:id="rId2"/>
+    <sheet name="Чистовые" sheetId="3" r:id="rId3"/>
+    <sheet name="Outline" sheetId="5" r:id="rId4"/>
+    <sheet name="Чистовые Северная " sheetId="4" r:id="rId5"/>
+    <sheet name="Coordinats" sheetId="2" r:id="rId6"/>
+    <sheet name="Nor" sheetId="6" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Full!$A$1:$AD$207</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Чистовые!$A$1:$AA$49</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Чистовые Северная '!$A$1:$N$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Чистовые!$A$1:$AA$49</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Чистовые Северная '!$A$1:$N$16</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="114">
   <si>
     <t>Area</t>
   </si>
@@ -384,7 +385,7 @@
     <t>Low</t>
   </si>
   <si>
-    <t>Stream</t>
+    <t>Sampe</t>
   </si>
 </sst>
 </file>
@@ -533,6 +534,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -621,265 +623,118 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="87"/>
                 <c:pt idx="0">
-                  <c:v>32.578868999999997</c:v>
+                  <c:v>67.025744000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>32.573613000000002</c:v>
+                  <c:v>67.025658000000007</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>32.572926000000002</c:v>
+                  <c:v>67.025507000000005</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>32.572493999999999</c:v>
+                  <c:v>67.025374999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>32.571865000000003</c:v>
+                  <c:v>67.025281000000007</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32.571238000000001</c:v>
+                  <c:v>67.025107000000006</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32.570754999999998</c:v>
+                  <c:v>67.025026999999994</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>32.570191999999999</c:v>
+                  <c:v>67.024855000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>32.569648999999998</c:v>
+                  <c:v>67.024736000000004</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>32.569279000000002</c:v>
+                  <c:v>67.024501000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>32.569026999999998</c:v>
+                  <c:v>67.024293</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>32.569094</c:v>
+                  <c:v>67.024096</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>32.569170999999997</c:v>
+                  <c:v>67.024096</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>32.569223000000001</c:v>
+                  <c:v>67.024062999999998</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>32.569003000000002</c:v>
+                  <c:v>67.024062999999998</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>32.568922000000001</c:v>
+                  <c:v>67.024568000000002</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>32.568919999999999</c:v>
+                  <c:v>67.024568000000002</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>32.568846999999998</c:v>
+                  <c:v>67.025073000000006</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>32.569051000000002</c:v>
+                  <c:v>67.025347999999994</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>32.569353999999997</c:v>
+                  <c:v>67.025557000000006</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>32.569678000000003</c:v>
+                  <c:v>67.025797999999995</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>32.569737000000003</c:v>
+                  <c:v>67.026062999999994</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>32.570033000000002</c:v>
+                  <c:v>67.025881999999996</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>32.569938</c:v>
+                  <c:v>67.025766000000004</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>32.569974000000002</c:v>
+                  <c:v>67.025687000000005</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>32.569960999999999</c:v>
+                  <c:v>67.025620000000004</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>32.569927999999997</c:v>
+                  <c:v>67.025525999999999</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>32.569997999999998</c:v>
+                  <c:v>67.025380999999996</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>32.569997000000001</c:v>
+                  <c:v>67.025380999999996</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>32.569997000000001</c:v>
+                  <c:v>67.025347999999994</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>32.569923000000003</c:v>
+                  <c:v>67.025347999999994</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>32.569926000000002</c:v>
+                  <c:v>67.025347999999994</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>32.569989999999997</c:v>
+                  <c:v>67.025347999999994</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>32.569968000000003</c:v>
+                  <c:v>67.025454999999994</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>32.569965000000003</c:v>
+                  <c:v>67.025600999999995</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>32.569910999999998</c:v>
+                  <c:v>67.025811000000004</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>32.569935000000001</c:v>
+                  <c:v>67.025985000000006</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>32.569965000000003</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>32.570118999999998</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>32.570124</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>32.570300000000003</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>32.570827999999999</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>32.571153000000002</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>32.571606000000003</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>32.572310000000002</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>32.573086000000004</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>32.574626000000002</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>32.574575000000003</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>32.574612000000002</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>32.574534999999997</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>32.574388999999996</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>32.573687</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>32.573351000000002</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>32.573123000000002</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>32.57255</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>32.571944000000002</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>32.571688000000002</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>32.571516000000003</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>32.571351</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>32.571283000000001</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>32.571441999999998</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>32.571313000000004</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>32.571710000000003</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>32.572294999999997</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>32.573276999999997</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>32.572840999999997</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>32.572999000000003</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>32.573602000000001</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>32.574444999999997</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>32.569695000000003</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>32.569792</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>32.56991</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>32.570000999999998</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>32.570005999999999</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>32.570022000000002</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>32.570393000000003</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>32.570695999999998</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>32.571013999999998</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>32.571238999999998</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>32.571137999999998</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>32.571154</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>32.571154</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>32.571196999999998</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>32.571233999999997</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>32.571368</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>32.571410999999998</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>32.571513000000003</c:v>
+                  <c:v>67.026184999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -891,265 +746,118 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="87"/>
                 <c:pt idx="0">
-                  <c:v>67.007221000000001</c:v>
+                  <c:v>32.538217000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>67.009069999999994</c:v>
+                  <c:v>32.538271000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>67.009156000000004</c:v>
+                  <c:v>32.538297</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>67.009214999999998</c:v>
+                  <c:v>32.538271000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>67.009352000000007</c:v>
+                  <c:v>32.538378000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>67.009400999999997</c:v>
+                  <c:v>32.538791000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>67.009433999999999</c:v>
+                  <c:v>32.539262999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>67.009461999999999</c:v>
+                  <c:v>32.539580000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>67.009573000000003</c:v>
+                  <c:v>32.540056999999997</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>67.009687999999997</c:v>
+                  <c:v>32.541179999999997</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>67.009533000000005</c:v>
+                  <c:v>32.541808000000003</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>67.009322999999995</c:v>
+                  <c:v>32.542332999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>67.009169</c:v>
+                  <c:v>32.542332999999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>67.008887999999999</c:v>
+                  <c:v>32.542988000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>67.008793999999995</c:v>
+                  <c:v>32.542988000000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>67.008622000000003</c:v>
+                  <c:v>32.542676999999998</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>67.008533</c:v>
+                  <c:v>32.542676999999998</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>67.008317000000005</c:v>
+                  <c:v>32.542430000000003</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>67.008207999999996</c:v>
+                  <c:v>32.542194000000002</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>67.008082999999999</c:v>
+                  <c:v>32.542172000000001</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>67.007921999999994</c:v>
+                  <c:v>32.542209999999997</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>67.007705000000001</c:v>
+                  <c:v>32.541988000000003</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>67.007446000000002</c:v>
+                  <c:v>32.538555000000002</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>67.007284999999996</c:v>
+                  <c:v>32.538625000000003</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>67.007182</c:v>
+                  <c:v>32.538646</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>67.007143999999997</c:v>
+                  <c:v>32.538688999999998</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>67.007071999999994</c:v>
+                  <c:v>32.538764</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>67.006966000000006</c:v>
+                  <c:v>32.539155999999998</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>67.006865000000005</c:v>
+                  <c:v>32.539155999999998</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>67.006808000000007</c:v>
+                  <c:v>32.539890999999997</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>67.006945999999999</c:v>
+                  <c:v>32.539890999999997</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>67.006878999999998</c:v>
+                  <c:v>32.539890999999997</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>67.006778999999995</c:v>
+                  <c:v>32.539890999999997</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>67.006725000000003</c:v>
+                  <c:v>32.541167000000002</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>67.006936999999994</c:v>
+                  <c:v>32.541473000000003</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>67.006803000000005</c:v>
+                  <c:v>32.541468000000002</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>67.006685000000004</c:v>
+                  <c:v>32.541392999999999</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>67.006626999999995</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>67.006338</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>67.006096999999997</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>67.005799999999994</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>67.005639000000002</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>67.005488</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>67.005398</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>67.005325999999997</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>67.005133000000001</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>67.007643999999999</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>67.007934000000006</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>67.008227000000005</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>67.008489999999995</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>67.008690000000001</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>67.008313000000001</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>67.008138000000002</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>67.008004999999997</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>67.007812000000001</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>67.007610999999997</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>67.007450000000006</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>67.007315000000006</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>67.007215000000002</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>67.007125000000002</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>67.006877000000003</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>67.006652000000003</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>67.006473</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>67.006307000000007</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>67.006407999999993</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>67.006020000000007</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>67.005842000000001</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>67.005574999999993</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>67.005455100000006</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>67.009367999999995</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>67.009257000000005</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>67.009187999999995</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>67.009084999999999</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>67.008950999999996</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>67.008730999999997</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>67.008671000000007</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>67.008615000000006</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>67.008509000000004</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>67.008455999999995</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>67.008328000000006</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>67.008212999999998</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>67.008162999999996</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>67.008064000000005</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>67.007971999999995</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>67.007833000000005</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>67.007723999999996</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>67.007472000000007</c:v>
+                  <c:v>32.541409000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1164,11 +872,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="189453504"/>
-        <c:axId val="189453896"/>
+        <c:axId val="165428616"/>
+        <c:axId val="165411824"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="189453504"/>
+        <c:axId val="165428616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1225,12 +933,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="189453896"/>
+        <c:crossAx val="165411824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="189453896"/>
+        <c:axId val="165411824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1287,7 +995,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="189453504"/>
+        <c:crossAx val="165428616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1351,6 +1059,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1667,11 +1376,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="190645168"/>
-        <c:axId val="190646344"/>
+        <c:axId val="165089208"/>
+        <c:axId val="164899992"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="190645168"/>
+        <c:axId val="165089208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1728,12 +1437,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="190646344"/>
+        <c:crossAx val="164899992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="190646344"/>
+        <c:axId val="164899992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1790,7 +1499,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="190645168"/>
+        <c:crossAx val="165089208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3281,8 +2990,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD207"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="Z1" sqref="Z1"/>
+    <sheetView topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="E79" sqref="E79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -22549,6 +22258,153 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>67.504999999999995</v>
+      </c>
+      <c r="B2">
+        <v>34.911000000000001</v>
+      </c>
+      <c r="C2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>67.498999999999995</v>
+      </c>
+      <c r="B3">
+        <v>34.383000000000003</v>
+      </c>
+      <c r="C3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>67.498000000000005</v>
+      </c>
+      <c r="B4">
+        <v>34.344000000000001</v>
+      </c>
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>67.497</v>
+      </c>
+      <c r="B5">
+        <v>34.311999999999998</v>
+      </c>
+      <c r="C5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>67.506</v>
+      </c>
+      <c r="B6">
+        <v>34.270000000000003</v>
+      </c>
+      <c r="C6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>67.510000000000005</v>
+      </c>
+      <c r="B7">
+        <v>34.386000000000003</v>
+      </c>
+      <c r="C7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>67.504999999999995</v>
+      </c>
+      <c r="B8">
+        <v>34.351999999999997</v>
+      </c>
+      <c r="C8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>67.399000000000001</v>
+      </c>
+      <c r="B9">
+        <v>34.32</v>
+      </c>
+      <c r="C9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>67.491</v>
+      </c>
+      <c r="B10">
+        <v>34.281999999999996</v>
+      </c>
+      <c r="C10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>67.472999999999999</v>
+      </c>
+      <c r="B11">
+        <v>34.259</v>
+      </c>
+      <c r="C11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>67.441000000000003</v>
+      </c>
+      <c r="B12">
+        <v>34.25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA49"/>
   <sheetViews>
@@ -26634,12 +26490,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O83" sqref="O83"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -26666,1222 +26522,745 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="13">
-        <v>32.578868999999997</v>
-      </c>
-      <c r="B2" s="13">
-        <v>67.007221000000001</v>
+        <v>67.025744000000003</v>
+      </c>
+      <c r="B2" s="15">
+        <v>32.538217000000003</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>111</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="6">
-        <v>32.573613000000002</v>
-      </c>
-      <c r="B3" s="6">
-        <v>67.009069999999994</v>
-      </c>
-      <c r="C3" s="6" t="s">
+      <c r="A3" s="16">
+        <v>67.025658000000007</v>
+      </c>
+      <c r="B3" s="15">
+        <v>32.538271000000002</v>
+      </c>
+      <c r="C3" s="13" t="s">
         <v>111</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="6">
-        <v>32.572926000000002</v>
-      </c>
-      <c r="B4" s="6">
-        <v>67.009156000000004</v>
-      </c>
-      <c r="C4" s="6" t="s">
+      <c r="A4" s="16">
+        <v>67.025507000000005</v>
+      </c>
+      <c r="B4" s="13">
+        <v>32.538297</v>
+      </c>
+      <c r="C4" s="13" t="s">
         <v>111</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="6">
-        <v>32.572493999999999</v>
-      </c>
-      <c r="B5" s="6">
-        <v>67.009214999999998</v>
-      </c>
-      <c r="C5" s="6" t="s">
+      <c r="A5" s="16">
+        <v>67.025374999999997</v>
+      </c>
+      <c r="B5" s="13">
+        <v>32.538271000000002</v>
+      </c>
+      <c r="C5" s="13" t="s">
         <v>111</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="6">
-        <v>32.571865000000003</v>
-      </c>
-      <c r="B6" s="6">
-        <v>67.009352000000007</v>
-      </c>
-      <c r="C6" s="6" t="s">
+      <c r="A6" s="16">
+        <v>67.025281000000007</v>
+      </c>
+      <c r="B6" s="13">
+        <v>32.538378000000002</v>
+      </c>
+      <c r="C6" s="13" t="s">
         <v>111</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="6">
-        <v>32.571238000000001</v>
-      </c>
-      <c r="B7" s="6">
-        <v>67.009400999999997</v>
-      </c>
-      <c r="C7" s="6" t="s">
+      <c r="A7" s="16">
+        <v>67.025107000000006</v>
+      </c>
+      <c r="B7" s="13">
+        <v>32.538791000000003</v>
+      </c>
+      <c r="C7" s="13" t="s">
         <v>111</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="6">
-        <v>32.570754999999998</v>
-      </c>
-      <c r="B8" s="6">
-        <v>67.009433999999999</v>
-      </c>
-      <c r="C8" s="6" t="s">
+      <c r="A8" s="16">
+        <v>67.025026999999994</v>
+      </c>
+      <c r="B8" s="13">
+        <v>32.539262999999998</v>
+      </c>
+      <c r="C8" s="13" t="s">
         <v>111</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="6">
-        <v>32.570191999999999</v>
-      </c>
-      <c r="B9" s="6">
-        <v>67.009461999999999</v>
-      </c>
-      <c r="C9" s="6" t="s">
+      <c r="A9" s="16">
+        <v>67.024855000000002</v>
+      </c>
+      <c r="B9" s="13">
+        <v>32.539580000000001</v>
+      </c>
+      <c r="C9" s="13" t="s">
         <v>111</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="6">
-        <v>32.569648999999998</v>
-      </c>
-      <c r="B10" s="6">
-        <v>67.009573000000003</v>
-      </c>
-      <c r="C10" s="6" t="s">
+      <c r="A10" s="16">
+        <v>67.024736000000004</v>
+      </c>
+      <c r="B10" s="13">
+        <v>32.540056999999997</v>
+      </c>
+      <c r="C10" s="13" t="s">
         <v>111</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="6">
-        <v>32.569279000000002</v>
-      </c>
-      <c r="B11" s="6">
-        <v>67.009687999999997</v>
-      </c>
-      <c r="C11" s="6" t="s">
+      <c r="A11" s="16">
+        <v>67.024501000000001</v>
+      </c>
+      <c r="B11" s="13">
+        <v>32.541179999999997</v>
+      </c>
+      <c r="C11" s="13" t="s">
         <v>111</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="6">
-        <v>32.569026999999998</v>
-      </c>
-      <c r="B12" s="6">
-        <v>67.009533000000005</v>
-      </c>
-      <c r="C12" s="6" t="s">
+      <c r="A12" s="16">
+        <v>67.024293</v>
+      </c>
+      <c r="B12" s="13">
+        <v>32.541808000000003</v>
+      </c>
+      <c r="C12" s="13" t="s">
         <v>111</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="6">
-        <v>32.569094</v>
-      </c>
-      <c r="B13" s="6">
-        <v>67.009322999999995</v>
-      </c>
-      <c r="C13" s="6" t="s">
+      <c r="A13" s="16">
+        <v>67.024096</v>
+      </c>
+      <c r="B13" s="13">
+        <v>32.542332999999999</v>
+      </c>
+      <c r="C13" s="13" t="s">
         <v>111</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="6">
-        <v>32.569170999999997</v>
-      </c>
-      <c r="B14" s="6">
-        <v>67.009169</v>
-      </c>
-      <c r="C14" s="6" t="s">
+      <c r="A14" s="16">
+        <v>67.024096</v>
+      </c>
+      <c r="B14" s="13">
+        <v>32.542332999999999</v>
+      </c>
+      <c r="C14" s="13" t="s">
         <v>111</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="6">
-        <v>32.569223000000001</v>
-      </c>
-      <c r="B15" s="6">
-        <v>67.008887999999999</v>
-      </c>
-      <c r="C15" s="6" t="s">
+      <c r="A15" s="16">
+        <v>67.024062999999998</v>
+      </c>
+      <c r="B15" s="13">
+        <v>32.542988000000001</v>
+      </c>
+      <c r="C15" s="13" t="s">
         <v>111</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" s="6">
-        <v>32.569003000000002</v>
-      </c>
-      <c r="B16" s="6">
-        <v>67.008793999999995</v>
-      </c>
-      <c r="C16" s="6" t="s">
+      <c r="A16" s="16">
+        <v>67.024062999999998</v>
+      </c>
+      <c r="B16" s="13">
+        <v>32.542988000000001</v>
+      </c>
+      <c r="C16" s="13" t="s">
         <v>111</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="6">
-        <v>32.568922000000001</v>
-      </c>
-      <c r="B17" s="6">
-        <v>67.008622000000003</v>
-      </c>
-      <c r="C17" s="6" t="s">
+      <c r="A17" s="16">
+        <v>67.024568000000002</v>
+      </c>
+      <c r="B17" s="13">
+        <v>32.542676999999998</v>
+      </c>
+      <c r="C17" s="13" t="s">
         <v>111</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="6">
-        <v>32.568919999999999</v>
-      </c>
-      <c r="B18" s="6">
-        <v>67.008533</v>
-      </c>
-      <c r="C18" s="6" t="s">
+      <c r="A18" s="16">
+        <v>67.024568000000002</v>
+      </c>
+      <c r="B18" s="13">
+        <v>32.542676999999998</v>
+      </c>
+      <c r="C18" s="13" t="s">
         <v>111</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" s="6">
-        <v>32.568846999999998</v>
-      </c>
-      <c r="B19" s="6">
-        <v>67.008317000000005</v>
-      </c>
-      <c r="C19" s="6" t="s">
+      <c r="A19" s="16">
+        <v>67.025073000000006</v>
+      </c>
+      <c r="B19" s="13">
+        <v>32.542430000000003</v>
+      </c>
+      <c r="C19" s="13" t="s">
         <v>111</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" s="6">
-        <v>32.569051000000002</v>
-      </c>
-      <c r="B20" s="6">
-        <v>67.008207999999996</v>
-      </c>
-      <c r="C20" s="6" t="s">
+      <c r="A20" s="16">
+        <v>67.025347999999994</v>
+      </c>
+      <c r="B20" s="13">
+        <v>32.542194000000002</v>
+      </c>
+      <c r="C20" s="13" t="s">
         <v>111</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" s="6">
-        <v>32.569353999999997</v>
-      </c>
-      <c r="B21" s="6">
-        <v>67.008082999999999</v>
-      </c>
-      <c r="C21" s="6" t="s">
+      <c r="A21" s="16">
+        <v>67.025557000000006</v>
+      </c>
+      <c r="B21" s="13">
+        <v>32.542172000000001</v>
+      </c>
+      <c r="C21" s="13" t="s">
         <v>111</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" s="6">
-        <v>32.569678000000003</v>
-      </c>
-      <c r="B22" s="6">
-        <v>67.007921999999994</v>
-      </c>
-      <c r="C22" s="6" t="s">
+      <c r="A22" s="16">
+        <v>67.025797999999995</v>
+      </c>
+      <c r="B22" s="13">
+        <v>32.542209999999997</v>
+      </c>
+      <c r="C22" s="13" t="s">
         <v>111</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" s="6">
-        <v>32.569737000000003</v>
-      </c>
-      <c r="B23" s="6">
-        <v>67.007705000000001</v>
-      </c>
-      <c r="C23" s="6" t="s">
+      <c r="A23" s="16">
+        <v>67.026062999999994</v>
+      </c>
+      <c r="B23" s="13">
+        <v>32.541988000000003</v>
+      </c>
+      <c r="C23" s="13" t="s">
         <v>111</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" s="6">
-        <v>32.570033000000002</v>
-      </c>
-      <c r="B24" s="6">
-        <v>67.007446000000002</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>111</v>
+      <c r="A24" s="16">
+        <v>67.025881999999996</v>
+      </c>
+      <c r="B24" s="13">
+        <v>32.538555000000002</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>112</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" s="6">
-        <v>32.569938</v>
-      </c>
-      <c r="B25" s="6">
-        <v>67.007284999999996</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>111</v>
+      <c r="A25" s="16">
+        <v>67.025766000000004</v>
+      </c>
+      <c r="B25" s="13">
+        <v>32.538625000000003</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>112</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" s="6">
-        <v>32.569974000000002</v>
-      </c>
-      <c r="B26" s="6">
-        <v>67.007182</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>111</v>
+      <c r="A26" s="16">
+        <v>67.025687000000005</v>
+      </c>
+      <c r="B26" s="13">
+        <v>32.538646</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>112</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" s="6">
-        <v>32.569960999999999</v>
-      </c>
-      <c r="B27" s="6">
-        <v>67.007143999999997</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>111</v>
+      <c r="A27" s="16">
+        <v>67.025620000000004</v>
+      </c>
+      <c r="B27" s="13">
+        <v>32.538688999999998</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>112</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" s="6">
-        <v>32.569927999999997</v>
-      </c>
-      <c r="B28" s="6">
-        <v>67.007071999999994</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>111</v>
+      <c r="A28" s="16">
+        <v>67.025525999999999</v>
+      </c>
+      <c r="B28" s="13">
+        <v>32.538764</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>112</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" s="6">
-        <v>32.569997999999998</v>
-      </c>
-      <c r="B29" s="6">
-        <v>67.006966000000006</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>111</v>
+      <c r="A29" s="16">
+        <v>67.025380999999996</v>
+      </c>
+      <c r="B29" s="13">
+        <v>32.539155999999998</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>112</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30" s="6">
-        <v>32.569997000000001</v>
-      </c>
-      <c r="B30" s="6">
-        <v>67.006865000000005</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>111</v>
+      <c r="A30" s="16">
+        <v>67.025380999999996</v>
+      </c>
+      <c r="B30" s="13">
+        <v>32.539155999999998</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>112</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A31" s="6">
-        <v>32.569997000000001</v>
-      </c>
-      <c r="B31" s="6">
-        <v>67.006808000000007</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>111</v>
+      <c r="A31" s="16">
+        <v>67.025347999999994</v>
+      </c>
+      <c r="B31" s="13">
+        <v>32.539890999999997</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>112</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32" s="6">
-        <v>32.569923000000003</v>
-      </c>
-      <c r="B32" s="6">
-        <v>67.006945999999999</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>111</v>
+      <c r="A32" s="16">
+        <v>67.025347999999994</v>
+      </c>
+      <c r="B32" s="13">
+        <v>32.539890999999997</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>112</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A33" s="6">
-        <v>32.569926000000002</v>
-      </c>
-      <c r="B33" s="6">
-        <v>67.006878999999998</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>111</v>
+      <c r="A33" s="16">
+        <v>67.025347999999994</v>
+      </c>
+      <c r="B33" s="13">
+        <v>32.539890999999997</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>112</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A34" s="6">
-        <v>32.569989999999997</v>
-      </c>
-      <c r="B34" s="6">
-        <v>67.006778999999995</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>111</v>
+      <c r="A34" s="16">
+        <v>67.025347999999994</v>
+      </c>
+      <c r="B34" s="13">
+        <v>32.539890999999997</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>112</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A35" s="6">
-        <v>32.569968000000003</v>
-      </c>
-      <c r="B35" s="6">
-        <v>67.006725000000003</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>111</v>
+      <c r="A35" s="16">
+        <v>67.025454999999994</v>
+      </c>
+      <c r="B35" s="13">
+        <v>32.541167000000002</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>112</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A36" s="6">
-        <v>32.569965000000003</v>
-      </c>
-      <c r="B36" s="6">
-        <v>67.006936999999994</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>111</v>
+      <c r="A36" s="16">
+        <v>67.025600999999995</v>
+      </c>
+      <c r="B36" s="13">
+        <v>32.541473000000003</v>
+      </c>
+      <c r="C36" s="16" t="s">
+        <v>112</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A37" s="6">
-        <v>32.569910999999998</v>
-      </c>
-      <c r="B37" s="6">
-        <v>67.006803000000005</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>111</v>
+      <c r="A37" s="16">
+        <v>67.025811000000004</v>
+      </c>
+      <c r="B37" s="13">
+        <v>32.541468000000002</v>
+      </c>
+      <c r="C37" s="16" t="s">
+        <v>112</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A38" s="6">
-        <v>32.569935000000001</v>
-      </c>
-      <c r="B38" s="6">
-        <v>67.006685000000004</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>111</v>
+      <c r="A38" s="16">
+        <v>67.025985000000006</v>
+      </c>
+      <c r="B38" s="13">
+        <v>32.541392999999999</v>
+      </c>
+      <c r="C38" s="16" t="s">
+        <v>112</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A39" s="6">
-        <v>32.569965000000003</v>
-      </c>
-      <c r="B39" s="6">
-        <v>67.006626999999995</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>111</v>
+      <c r="A39" s="16">
+        <v>67.026184999999998</v>
+      </c>
+      <c r="B39" s="13">
+        <v>32.541409000000002</v>
+      </c>
+      <c r="C39" s="16" t="s">
+        <v>112</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A40" s="6">
-        <v>32.570118999999998</v>
-      </c>
-      <c r="B40" s="6">
-        <v>67.006338</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="D40" s="13" t="s">
-        <v>62</v>
-      </c>
+      <c r="A40" s="6"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A41" s="6">
-        <v>32.570124</v>
-      </c>
-      <c r="B41" s="6">
-        <v>67.006096999999997</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="D41" s="13" t="s">
-        <v>62</v>
-      </c>
+      <c r="A41" s="6"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A42" s="6">
-        <v>32.570300000000003</v>
-      </c>
-      <c r="B42" s="6">
-        <v>67.005799999999994</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="D42" s="13" t="s">
-        <v>62</v>
-      </c>
+      <c r="A42" s="6"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A43" s="6">
-        <v>32.570827999999999</v>
-      </c>
-      <c r="B43" s="6">
-        <v>67.005639000000002</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="D43" s="13" t="s">
-        <v>62</v>
-      </c>
+      <c r="A43" s="6"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A44" s="6">
-        <v>32.571153000000002</v>
-      </c>
-      <c r="B44" s="6">
-        <v>67.005488</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="D44" s="13" t="s">
-        <v>62</v>
-      </c>
+      <c r="A44" s="6"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A45" s="6">
-        <v>32.571606000000003</v>
-      </c>
-      <c r="B45" s="6">
-        <v>67.005398</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="D45" s="13" t="s">
-        <v>62</v>
-      </c>
+      <c r="A45" s="6"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A46" s="6">
-        <v>32.572310000000002</v>
-      </c>
-      <c r="B46" s="6">
-        <v>67.005325999999997</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="D46" s="13" t="s">
-        <v>62</v>
-      </c>
+      <c r="A46" s="6"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A47" s="6">
-        <v>32.573086000000004</v>
-      </c>
-      <c r="B47" s="6">
-        <v>67.005133000000001</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="D47" s="13" t="s">
-        <v>62</v>
-      </c>
+      <c r="A47" s="6"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="6"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A48" s="6">
-        <v>32.574626000000002</v>
-      </c>
-      <c r="B48" s="6">
-        <v>67.007643999999999</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="D48" s="13" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A49" s="6">
-        <v>32.574575000000003</v>
-      </c>
-      <c r="B49" s="6">
-        <v>67.007934000000006</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="D49" s="13" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A50" s="6">
-        <v>32.574612000000002</v>
-      </c>
-      <c r="B50" s="6">
-        <v>67.008227000000005</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="D50" s="13" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A51" s="6">
-        <v>32.574534999999997</v>
-      </c>
-      <c r="B51" s="6">
-        <v>67.008489999999995</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="D51" s="13" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A52" s="6">
-        <v>32.574388999999996</v>
-      </c>
-      <c r="B52" s="6">
-        <v>67.008690000000001</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="D52" s="13" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A53" s="6">
-        <v>32.573687</v>
-      </c>
-      <c r="B53" s="6">
-        <v>67.008313000000001</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="D53" s="13" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A54" s="6">
-        <v>32.573351000000002</v>
-      </c>
-      <c r="B54" s="6">
-        <v>67.008138000000002</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="D54" s="13" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A55" s="6">
-        <v>32.573123000000002</v>
-      </c>
-      <c r="B55" s="6">
-        <v>67.008004999999997</v>
-      </c>
-      <c r="C55" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="D55" s="13" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A56" s="6">
-        <v>32.57255</v>
-      </c>
-      <c r="B56" s="6">
-        <v>67.007812000000001</v>
-      </c>
-      <c r="C56" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="D56" s="13" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A57" s="6">
-        <v>32.571944000000002</v>
-      </c>
-      <c r="B57" s="6">
-        <v>67.007610999999997</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="D57" s="13" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A58" s="6">
-        <v>32.571688000000002</v>
-      </c>
-      <c r="B58" s="6">
-        <v>67.007450000000006</v>
-      </c>
-      <c r="C58" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="D58" s="13" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A59" s="6">
-        <v>32.571516000000003</v>
-      </c>
-      <c r="B59" s="6">
-        <v>67.007315000000006</v>
-      </c>
-      <c r="C59" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="D59" s="13" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A60" s="6">
-        <v>32.571351</v>
-      </c>
-      <c r="B60" s="6">
-        <v>67.007215000000002</v>
-      </c>
-      <c r="C60" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="D60" s="13" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A61" s="6">
-        <v>32.571283000000001</v>
-      </c>
-      <c r="B61" s="6">
-        <v>67.007125000000002</v>
-      </c>
-      <c r="C61" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="D61" s="13" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A62" s="6">
-        <v>32.571441999999998</v>
-      </c>
-      <c r="B62" s="6">
-        <v>67.006877000000003</v>
-      </c>
-      <c r="C62" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="D62" s="13" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A63" s="6">
-        <v>32.571313000000004</v>
-      </c>
-      <c r="B63" s="6">
-        <v>67.006652000000003</v>
-      </c>
-      <c r="C63" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="D63" s="13" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A64" s="6">
-        <v>32.571710000000003</v>
-      </c>
-      <c r="B64" s="6">
-        <v>67.006473</v>
-      </c>
-      <c r="C64" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="D64" s="13" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A65" s="6">
-        <v>32.572294999999997</v>
-      </c>
-      <c r="B65" s="6">
-        <v>67.006307000000007</v>
-      </c>
-      <c r="C65" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="D65" s="13" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A66" s="6">
-        <v>32.573276999999997</v>
-      </c>
-      <c r="B66" s="6">
-        <v>67.006407999999993</v>
-      </c>
-      <c r="C66" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="D66" s="13" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A67" s="6">
-        <v>32.572840999999997</v>
-      </c>
-      <c r="B67" s="6">
-        <v>67.006020000000007</v>
-      </c>
-      <c r="C67" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="D67" s="13" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A68" s="6">
-        <v>32.572999000000003</v>
-      </c>
-      <c r="B68" s="6">
-        <v>67.005842000000001</v>
-      </c>
-      <c r="C68" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="D68" s="13" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A69" s="6">
-        <v>32.573602000000001</v>
-      </c>
-      <c r="B69" s="6">
-        <v>67.005574999999993</v>
-      </c>
-      <c r="C69" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="D69" s="13" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A70" s="6">
-        <v>32.574444999999997</v>
-      </c>
-      <c r="B70" s="6">
-        <v>67.005455100000006</v>
-      </c>
-      <c r="C70" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="D70" s="13" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A71" s="13">
-        <v>32.569695000000003</v>
-      </c>
-      <c r="B71" s="13">
-        <v>67.009367999999995</v>
-      </c>
-      <c r="C71" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="D71" s="13" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A72" s="13">
-        <v>32.569792</v>
-      </c>
-      <c r="B72" s="13">
-        <v>67.009257000000005</v>
-      </c>
-      <c r="C72" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="D72" s="13" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A73" s="13">
-        <v>32.56991</v>
-      </c>
-      <c r="B73" s="13">
-        <v>67.009187999999995</v>
-      </c>
-      <c r="C73" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="D73" s="13" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A74" s="13">
-        <v>32.570000999999998</v>
-      </c>
-      <c r="B74" s="13">
-        <v>67.009084999999999</v>
-      </c>
-      <c r="C74" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="D74" s="13" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A75" s="13">
-        <v>32.570005999999999</v>
-      </c>
-      <c r="B75" s="13">
-        <v>67.008950999999996</v>
-      </c>
-      <c r="C75" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="D75" s="13" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A76" s="13">
-        <v>32.570022000000002</v>
-      </c>
-      <c r="B76" s="13">
-        <v>67.008730999999997</v>
-      </c>
-      <c r="C76" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="D76" s="13" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A77" s="13">
-        <v>32.570393000000003</v>
-      </c>
-      <c r="B77" s="13">
-        <v>67.008671000000007</v>
-      </c>
-      <c r="C77" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="D77" s="13" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A78" s="13">
-        <v>32.570695999999998</v>
-      </c>
-      <c r="B78" s="13">
-        <v>67.008615000000006</v>
-      </c>
-      <c r="C78" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="D78" s="13" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A79" s="13">
-        <v>32.571013999999998</v>
-      </c>
-      <c r="B79" s="13">
-        <v>67.008509000000004</v>
-      </c>
-      <c r="C79" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="D79" s="13" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A80" s="13">
-        <v>32.571238999999998</v>
-      </c>
-      <c r="B80" s="13">
-        <v>67.008455999999995</v>
-      </c>
-      <c r="C80" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="D80" s="13" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A81" s="13">
-        <v>32.571137999999998</v>
-      </c>
-      <c r="B81" s="13">
-        <v>67.008328000000006</v>
-      </c>
-      <c r="C81" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="D81" s="13" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A82" s="13">
-        <v>32.571154</v>
-      </c>
-      <c r="B82" s="13">
-        <v>67.008212999999998</v>
-      </c>
-      <c r="C82" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="D82" s="13" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A83" s="13">
-        <v>32.571154</v>
-      </c>
-      <c r="B83" s="13">
-        <v>67.008162999999996</v>
-      </c>
-      <c r="C83" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="D83" s="13" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A84" s="13">
-        <v>32.571196999999998</v>
-      </c>
-      <c r="B84" s="13">
-        <v>67.008064000000005</v>
-      </c>
-      <c r="C84" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="D84" s="13" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A85" s="13">
-        <v>32.571233999999997</v>
-      </c>
-      <c r="B85" s="13">
-        <v>67.007971999999995</v>
-      </c>
-      <c r="C85" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="D85" s="13" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A86" s="13">
-        <v>32.571368</v>
-      </c>
-      <c r="B86" s="13">
-        <v>67.007833000000005</v>
-      </c>
-      <c r="C86" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="D86" s="13" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A87" s="13">
-        <v>32.571410999999998</v>
-      </c>
-      <c r="B87" s="13">
-        <v>67.007723999999996</v>
-      </c>
-      <c r="C87" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="D87" s="13" t="s">
-        <v>62</v>
-      </c>
+      <c r="A48" s="6"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="6"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A49" s="6"/>
+      <c r="B49" s="6"/>
+      <c r="C49" s="6"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A50" s="6"/>
+      <c r="B50" s="6"/>
+      <c r="C50" s="6"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A51" s="6"/>
+      <c r="B51" s="6"/>
+      <c r="C51" s="6"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A52" s="6"/>
+      <c r="B52" s="6"/>
+      <c r="C52" s="6"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A53" s="6"/>
+      <c r="B53" s="6"/>
+      <c r="C53" s="6"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A54" s="6"/>
+      <c r="B54" s="6"/>
+      <c r="C54" s="6"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A55" s="6"/>
+      <c r="B55" s="6"/>
+      <c r="C55" s="6"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A56" s="6"/>
+      <c r="B56" s="6"/>
+      <c r="C56" s="6"/>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A57" s="6"/>
+      <c r="B57" s="6"/>
+      <c r="C57" s="6"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A58" s="6"/>
+      <c r="B58" s="6"/>
+      <c r="C58" s="6"/>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A59" s="6"/>
+      <c r="B59" s="6"/>
+      <c r="C59" s="6"/>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A60" s="6"/>
+      <c r="B60" s="6"/>
+      <c r="C60" s="6"/>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A61" s="6"/>
+      <c r="B61" s="6"/>
+      <c r="C61" s="6"/>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A62" s="6"/>
+      <c r="B62" s="6"/>
+      <c r="C62" s="6"/>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A63" s="6"/>
+      <c r="B63" s="6"/>
+      <c r="C63" s="6"/>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A64" s="6"/>
+      <c r="B64" s="6"/>
+      <c r="C64" s="6"/>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A65" s="6"/>
+      <c r="B65" s="6"/>
+      <c r="C65" s="6"/>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A66" s="6"/>
+      <c r="B66" s="6"/>
+      <c r="C66" s="6"/>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A67" s="6"/>
+      <c r="B67" s="6"/>
+      <c r="C67" s="6"/>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A68" s="6"/>
+      <c r="B68" s="6"/>
+      <c r="C68" s="6"/>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A69" s="6"/>
+      <c r="B69" s="6"/>
+      <c r="C69" s="6"/>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A70" s="6"/>
+      <c r="B70" s="6"/>
+      <c r="C70" s="6"/>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C71" s="6"/>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C72" s="6"/>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C73" s="6"/>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C74" s="6"/>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C75" s="6"/>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C76" s="6"/>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C77" s="6"/>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C78" s="6"/>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C79" s="6"/>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C80" s="6"/>
+    </row>
+    <row r="81" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C81" s="6"/>
+    </row>
+    <row r="82" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C82" s="6"/>
+    </row>
+    <row r="83" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C83" s="6"/>
+    </row>
+    <row r="84" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C84" s="6"/>
+    </row>
+    <row r="85" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C85" s="6"/>
+    </row>
+    <row r="86" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C86" s="6"/>
+    </row>
+    <row r="87" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C87" s="6"/>
       <c r="E87" s="14"/>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A88" s="13">
-        <v>32.571513000000003</v>
-      </c>
-      <c r="B88" s="13">
-        <v>67.007472000000007</v>
-      </c>
-      <c r="C88" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="D88" s="13" t="s">
-        <v>62</v>
-      </c>
+    <row r="88" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C88" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -27890,7 +27269,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N16"/>
   <sheetViews>
@@ -28611,12 +27990,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -29174,22 +28553,22 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
       </c>
       <c r="C1" t="s">
         <v>106</v>

--- a/Vitia_Ostrovsky/R_Calc_Crang_2024/Data/Crang_2024.xlsx
+++ b/Vitia_Ostrovsky/R_Calc_Crang_2024/Data/Crang_2024.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22190" windowHeight="9180" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22190" windowHeight="9180" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Full" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Чистовые Северная " sheetId="4" r:id="rId5"/>
     <sheet name="Coordinats" sheetId="2" r:id="rId6"/>
     <sheet name="Nor" sheetId="6" r:id="rId7"/>
+    <sheet name="Nord" sheetId="9" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Full!$A$1:$AD$207</definedName>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="114">
   <si>
     <t>Area</t>
   </si>
@@ -534,7 +535,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -872,11 +872,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="165428616"/>
-        <c:axId val="165411824"/>
+        <c:axId val="194259368"/>
+        <c:axId val="194258192"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="165428616"/>
+        <c:axId val="194259368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -933,12 +933,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="165411824"/>
+        <c:crossAx val="194258192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="165411824"/>
+        <c:axId val="194258192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -995,7 +995,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="165428616"/>
+        <c:crossAx val="194259368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1059,7 +1059,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1376,11 +1375,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="165089208"/>
-        <c:axId val="164899992"/>
+        <c:axId val="194257016"/>
+        <c:axId val="194258584"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="165089208"/>
+        <c:axId val="194257016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1437,12 +1436,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="164899992"/>
+        <c:crossAx val="194258584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="164899992"/>
+        <c:axId val="194258584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1499,7 +1498,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="165089208"/>
+        <c:crossAx val="194257016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2990,8 +2989,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD207"/>
   <sheetViews>
-    <sheetView topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="E79" sqref="E79"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3099,8 +3098,8 @@
       <c r="B2">
         <v>67.025075000000001</v>
       </c>
-      <c r="C2" t="s">
-        <v>1</v>
+      <c r="C2">
+        <v>32.540053</v>
       </c>
       <c r="D2" t="s">
         <v>31</v>
@@ -22261,8 +22260,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -26495,7 +26494,7 @@
   <dimension ref="A1:L88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -27995,7 +27994,7 @@
   <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -28797,4 +28796,595 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B72"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>67.025075000000001</v>
+      </c>
+      <c r="B2">
+        <v>32.540053</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>67.025075000000001</v>
+      </c>
+      <c r="B3">
+        <v>32.540053</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>67.025075000000001</v>
+      </c>
+      <c r="B4">
+        <v>32.540053</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>67.025075000000001</v>
+      </c>
+      <c r="B5">
+        <v>32.540053</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>67.025075000000001</v>
+      </c>
+      <c r="B6">
+        <v>32.540053</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>67.025075000000001</v>
+      </c>
+      <c r="B7">
+        <v>32.540053</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>67.025075000000001</v>
+      </c>
+      <c r="B8">
+        <v>32.540053</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>67.025075000000001</v>
+      </c>
+      <c r="B9">
+        <v>32.540053</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>67.025075000000001</v>
+      </c>
+      <c r="B10">
+        <v>32.540053</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>67.025075000000001</v>
+      </c>
+      <c r="B11">
+        <v>32.540053</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>67.025075000000001</v>
+      </c>
+      <c r="B12">
+        <v>32.540053</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>67.024917000000002</v>
+      </c>
+      <c r="B13">
+        <v>32.540382999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>67.024917000000002</v>
+      </c>
+      <c r="B14">
+        <v>32.540382999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>67.024917000000002</v>
+      </c>
+      <c r="B15">
+        <v>32.540382999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>67.024917000000002</v>
+      </c>
+      <c r="B16">
+        <v>32.540382999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>67.024917000000002</v>
+      </c>
+      <c r="B17">
+        <v>32.540382999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>67.024917000000002</v>
+      </c>
+      <c r="B18">
+        <v>32.540382999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>67.024917000000002</v>
+      </c>
+      <c r="B19">
+        <v>32.540382999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>67.024917000000002</v>
+      </c>
+      <c r="B20">
+        <v>32.540382999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>67.024917000000002</v>
+      </c>
+      <c r="B21">
+        <v>32.540382999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>67.024917000000002</v>
+      </c>
+      <c r="B22">
+        <v>32.540382999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>67.024917000000002</v>
+      </c>
+      <c r="B23">
+        <v>32.540382999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>67.024917000000002</v>
+      </c>
+      <c r="B24">
+        <v>32.540382999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>67.024917000000002</v>
+      </c>
+      <c r="B25">
+        <v>32.540382999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>67.024917000000002</v>
+      </c>
+      <c r="B26">
+        <v>32.540382999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>67.024917000000002</v>
+      </c>
+      <c r="B27">
+        <v>32.540382999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>67.024917000000002</v>
+      </c>
+      <c r="B28">
+        <v>32.540382999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>67.024917000000002</v>
+      </c>
+      <c r="B29">
+        <v>32.540382999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>67.024917000000002</v>
+      </c>
+      <c r="B30">
+        <v>32.540382999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>67.024917000000002</v>
+      </c>
+      <c r="B31">
+        <v>32.540382999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>67.024917000000002</v>
+      </c>
+      <c r="B32">
+        <v>32.540382999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>67.024917000000002</v>
+      </c>
+      <c r="B33">
+        <v>32.540382999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>67.025051000000005</v>
+      </c>
+      <c r="B34">
+        <v>32.540588</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>67.025051000000005</v>
+      </c>
+      <c r="B35">
+        <v>32.540588</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>67.025051000000005</v>
+      </c>
+      <c r="B36">
+        <v>32.540588</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>67.025051000000005</v>
+      </c>
+      <c r="B37">
+        <v>32.540588</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>67.025051000000005</v>
+      </c>
+      <c r="B38">
+        <v>32.540588</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>67.025051000000005</v>
+      </c>
+      <c r="B39">
+        <v>32.540588</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>67.025051000000005</v>
+      </c>
+      <c r="B40">
+        <v>32.540588</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>67.025051000000005</v>
+      </c>
+      <c r="B41">
+        <v>32.540588</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>67.025051000000005</v>
+      </c>
+      <c r="B42">
+        <v>32.540588</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>67.025051000000005</v>
+      </c>
+      <c r="B43">
+        <v>32.540588</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>67.025051000000005</v>
+      </c>
+      <c r="B44">
+        <v>32.540588</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>67.025051000000005</v>
+      </c>
+      <c r="B45">
+        <v>32.540588</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>67.025051000000005</v>
+      </c>
+      <c r="B46">
+        <v>32.540588</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>67.025051000000005</v>
+      </c>
+      <c r="B47">
+        <v>32.540588</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>67.024942999999993</v>
+      </c>
+      <c r="B48">
+        <v>32.541285999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>67.024942999999993</v>
+      </c>
+      <c r="B49">
+        <v>32.541285999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>67.024942999999993</v>
+      </c>
+      <c r="B50">
+        <v>32.541285999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <v>67.024942999999993</v>
+      </c>
+      <c r="B51">
+        <v>32.541285999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52">
+        <v>67.024942999999993</v>
+      </c>
+      <c r="B52">
+        <v>32.541285999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53">
+        <v>67.024942999999993</v>
+      </c>
+      <c r="B53">
+        <v>32.541285999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54">
+        <v>67.024942999999993</v>
+      </c>
+      <c r="B54">
+        <v>32.541285999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55">
+        <v>67.024942999999993</v>
+      </c>
+      <c r="B55">
+        <v>32.541285999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56">
+        <v>67.024942999999993</v>
+      </c>
+      <c r="B56">
+        <v>32.541285999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57">
+        <v>67.024942999999993</v>
+      </c>
+      <c r="B57">
+        <v>32.541285999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A58">
+        <v>67.024942999999993</v>
+      </c>
+      <c r="B58">
+        <v>32.541285999999999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59">
+        <v>67.024942999999993</v>
+      </c>
+      <c r="B59">
+        <v>32.541471999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60">
+        <v>67.024942999999993</v>
+      </c>
+      <c r="B60">
+        <v>32.541471999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A61">
+        <v>67.025058999999999</v>
+      </c>
+      <c r="B61">
+        <v>32.541471999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A62">
+        <v>67.025058999999999</v>
+      </c>
+      <c r="B62">
+        <v>32.541471999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A63">
+        <v>67.025058999999999</v>
+      </c>
+      <c r="B63">
+        <v>32.541471999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A64">
+        <v>67.025058999999999</v>
+      </c>
+      <c r="B64">
+        <v>32.541471999999999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A65">
+        <v>67.025058999999999</v>
+      </c>
+      <c r="B65">
+        <v>32.541471999999999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A66">
+        <v>67.025058999999999</v>
+      </c>
+      <c r="B66">
+        <v>32.541471999999999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A67">
+        <v>67.025058999999999</v>
+      </c>
+      <c r="B67">
+        <v>32.541471999999999</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A68">
+        <v>67.025058999999999</v>
+      </c>
+      <c r="B68">
+        <v>32.541471999999999</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A69">
+        <v>67.025058999999999</v>
+      </c>
+      <c r="B69">
+        <v>32.541471999999999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A70">
+        <v>67.025058999999999</v>
+      </c>
+      <c r="B70">
+        <v>32.541471999999999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A71">
+        <v>67.025058999999999</v>
+      </c>
+      <c r="B71">
+        <v>32.541471999999999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A72">
+        <v>67.025058999999999</v>
+      </c>
+      <c r="B72">
+        <v>32.541471999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Vitia_Ostrovsky/R_Calc_Crang_2024/Data/Crang_2024.xlsx
+++ b/Vitia_Ostrovsky/R_Calc_Crang_2024/Data/Crang_2024.xlsx
@@ -9,22 +9,24 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22190" windowHeight="9180" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22190" windowHeight="9180" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Full" sheetId="1" r:id="rId1"/>
-    <sheet name="Coordinates" sheetId="7" r:id="rId2"/>
-    <sheet name="Чистовые" sheetId="3" r:id="rId3"/>
-    <sheet name="Outline" sheetId="5" r:id="rId4"/>
-    <sheet name="Чистовые Северная " sheetId="4" r:id="rId5"/>
-    <sheet name="Coordinats" sheetId="2" r:id="rId6"/>
-    <sheet name="Nor" sheetId="6" r:id="rId7"/>
-    <sheet name="Nord" sheetId="9" r:id="rId8"/>
+    <sheet name="Size_Structure_South" sheetId="11" r:id="rId2"/>
+    <sheet name="Size_Structure_Nord" sheetId="10" r:id="rId3"/>
+    <sheet name="Coordinates" sheetId="7" r:id="rId4"/>
+    <sheet name="Чистовые" sheetId="3" r:id="rId5"/>
+    <sheet name="Outline" sheetId="5" r:id="rId6"/>
+    <sheet name="Чистовые Северная " sheetId="4" r:id="rId7"/>
+    <sheet name="Coordinats" sheetId="2" r:id="rId8"/>
+    <sheet name="Nor" sheetId="6" r:id="rId9"/>
+    <sheet name="Nord" sheetId="9" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Full!$A$1:$AD$207</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Чистовые!$A$1:$AA$49</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Чистовые Северная '!$A$1:$N$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Чистовые!$A$1:$AA$49</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Чистовые Северная '!$A$1:$N$16</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -44,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="114">
   <si>
     <t>Area</t>
   </si>
@@ -393,11 +395,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
@@ -467,23 +477,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -496,13 +506,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -872,11 +883,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="194259368"/>
-        <c:axId val="194258192"/>
+        <c:axId val="179682904"/>
+        <c:axId val="179219648"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="194259368"/>
+        <c:axId val="179682904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -933,12 +944,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="194258192"/>
+        <c:crossAx val="179219648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="194258192"/>
+        <c:axId val="179219648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -995,7 +1006,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="194259368"/>
+        <c:crossAx val="179682904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1375,11 +1386,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="194257016"/>
-        <c:axId val="194258584"/>
+        <c:axId val="179678256"/>
+        <c:axId val="179304048"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="194257016"/>
+        <c:axId val="179678256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1436,12 +1447,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="194258584"/>
+        <c:crossAx val="179304048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="194258584"/>
+        <c:axId val="179304048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1498,7 +1509,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="194257016"/>
+        <c:crossAx val="179678256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2987,10 +2998,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:AD207"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C72"/>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="AC1" sqref="AC1:AC1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3057,7 +3069,7 @@
       <c r="S1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="17" t="s">
         <v>19</v>
       </c>
       <c r="U1" s="3" t="s">
@@ -9694,7 +9706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>36</v>
       </c>
@@ -9787,7 +9799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>36</v>
       </c>
@@ -9880,7 +9892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>36</v>
       </c>
@@ -9973,7 +9985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>36</v>
       </c>
@@ -10066,7 +10078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>36</v>
       </c>
@@ -10159,7 +10171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>36</v>
       </c>
@@ -10252,7 +10264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>36</v>
       </c>
@@ -10345,7 +10357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>36</v>
       </c>
@@ -10438,7 +10450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>36</v>
       </c>
@@ -10531,7 +10543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>36</v>
       </c>
@@ -10624,7 +10636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>36</v>
       </c>
@@ -10717,7 +10729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>36</v>
       </c>
@@ -10810,7 +10822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>36</v>
       </c>
@@ -10903,7 +10915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>36</v>
       </c>
@@ -10996,7 +11008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>36</v>
       </c>
@@ -11089,7 +11101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>36</v>
       </c>
@@ -11182,7 +11194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>36</v>
       </c>
@@ -11275,7 +11287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>36</v>
       </c>
@@ -11368,7 +11380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>36</v>
       </c>
@@ -11461,7 +11473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>36</v>
       </c>
@@ -11554,7 +11566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>36</v>
       </c>
@@ -11647,7 +11659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>36</v>
       </c>
@@ -11740,7 +11752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>36</v>
       </c>
@@ -11833,7 +11845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>36</v>
       </c>
@@ -11926,7 +11938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>36</v>
       </c>
@@ -12019,7 +12031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>36</v>
       </c>
@@ -12112,7 +12124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>36</v>
       </c>
@@ -12205,7 +12217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>36</v>
       </c>
@@ -12298,7 +12310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>36</v>
       </c>
@@ -12391,7 +12403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>36</v>
       </c>
@@ -12484,7 +12496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>36</v>
       </c>
@@ -12577,7 +12589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>36</v>
       </c>
@@ -12670,7 +12682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>36</v>
       </c>
@@ -12763,7 +12775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>36</v>
       </c>
@@ -12856,7 +12868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>36</v>
       </c>
@@ -12949,7 +12961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>36</v>
       </c>
@@ -13042,7 +13054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>36</v>
       </c>
@@ -13135,7 +13147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>36</v>
       </c>
@@ -13228,7 +13240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>36</v>
       </c>
@@ -13321,7 +13333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>36</v>
       </c>
@@ -13414,7 +13426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>36</v>
       </c>
@@ -13507,7 +13519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>36</v>
       </c>
@@ -13600,7 +13612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>36</v>
       </c>
@@ -13693,7 +13705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>36</v>
       </c>
@@ -13786,7 +13798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>36</v>
       </c>
@@ -13879,7 +13891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>36</v>
       </c>
@@ -13972,7 +13984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>36</v>
       </c>
@@ -14065,7 +14077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>36</v>
       </c>
@@ -14158,7 +14170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>36</v>
       </c>
@@ -14251,7 +14263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>36</v>
       </c>
@@ -14344,7 +14356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>36</v>
       </c>
@@ -14437,7 +14449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>36</v>
       </c>
@@ -14530,7 +14542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>36</v>
       </c>
@@ -14623,7 +14635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>36</v>
       </c>
@@ -14716,7 +14728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>36</v>
       </c>
@@ -14809,7 +14821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>36</v>
       </c>
@@ -14902,7 +14914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>36</v>
       </c>
@@ -14995,7 +15007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>36</v>
       </c>
@@ -15088,7 +15100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>36</v>
       </c>
@@ -15181,7 +15193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>36</v>
       </c>
@@ -15274,7 +15286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>36</v>
       </c>
@@ -15367,7 +15379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>36</v>
       </c>
@@ -15460,7 +15472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>36</v>
       </c>
@@ -15553,7 +15565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>36</v>
       </c>
@@ -15646,7 +15658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>36</v>
       </c>
@@ -15739,7 +15751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>36</v>
       </c>
@@ -15832,7 +15844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>36</v>
       </c>
@@ -15925,7 +15937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>36</v>
       </c>
@@ -16018,7 +16030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>36</v>
       </c>
@@ -16111,7 +16123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>36</v>
       </c>
@@ -16204,7 +16216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>36</v>
       </c>
@@ -16297,7 +16309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>36</v>
       </c>
@@ -16390,7 +16402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>36</v>
       </c>
@@ -16483,7 +16495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>36</v>
       </c>
@@ -16576,7 +16588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>36</v>
       </c>
@@ -16669,7 +16681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>36</v>
       </c>
@@ -16762,7 +16774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>36</v>
       </c>
@@ -16855,7 +16867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>36</v>
       </c>
@@ -16948,7 +16960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>36</v>
       </c>
@@ -17041,7 +17053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>36</v>
       </c>
@@ -17134,7 +17146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>36</v>
       </c>
@@ -17227,7 +17239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>36</v>
       </c>
@@ -17320,7 +17332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>36</v>
       </c>
@@ -17413,7 +17425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>36</v>
       </c>
@@ -17506,7 +17518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>36</v>
       </c>
@@ -17599,7 +17611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>36</v>
       </c>
@@ -17692,7 +17704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>36</v>
       </c>
@@ -17785,7 +17797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>36</v>
       </c>
@@ -17878,7 +17890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>36</v>
       </c>
@@ -17971,7 +17983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>36</v>
       </c>
@@ -18064,7 +18076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>36</v>
       </c>
@@ -18157,7 +18169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>36</v>
       </c>
@@ -18250,7 +18262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>36</v>
       </c>
@@ -18343,7 +18355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>36</v>
       </c>
@@ -18436,7 +18448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>36</v>
       </c>
@@ -18529,7 +18541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>36</v>
       </c>
@@ -18622,7 +18634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>36</v>
       </c>
@@ -18715,7 +18727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>36</v>
       </c>
@@ -18808,7 +18820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>36</v>
       </c>
@@ -18901,7 +18913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>36</v>
       </c>
@@ -18994,7 +19006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>36</v>
       </c>
@@ -19087,7 +19099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>36</v>
       </c>
@@ -19180,7 +19192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>36</v>
       </c>
@@ -19273,7 +19285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>36</v>
       </c>
@@ -19366,7 +19378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>36</v>
       </c>
@@ -19459,7 +19471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>36</v>
       </c>
@@ -19552,7 +19564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>36</v>
       </c>
@@ -19645,7 +19657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>36</v>
       </c>
@@ -19738,7 +19750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>36</v>
       </c>
@@ -19831,7 +19843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>36</v>
       </c>
@@ -19924,7 +19936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>36</v>
       </c>
@@ -20017,7 +20029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>36</v>
       </c>
@@ -20110,7 +20122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>36</v>
       </c>
@@ -20203,7 +20215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>36</v>
       </c>
@@ -20296,7 +20308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>36</v>
       </c>
@@ -20389,7 +20401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>36</v>
       </c>
@@ -20482,7 +20494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>36</v>
       </c>
@@ -20575,7 +20587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>36</v>
       </c>
@@ -20668,7 +20680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>36</v>
       </c>
@@ -20761,7 +20773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>36</v>
       </c>
@@ -20854,7 +20866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>36</v>
       </c>
@@ -20947,7 +20959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>36</v>
       </c>
@@ -21040,7 +21052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>36</v>
       </c>
@@ -21133,7 +21145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>36</v>
       </c>
@@ -21226,7 +21238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>36</v>
       </c>
@@ -21319,7 +21331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>36</v>
       </c>
@@ -21412,7 +21424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>36</v>
       </c>
@@ -21505,7 +21517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>36</v>
       </c>
@@ -21598,7 +21610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>36</v>
       </c>
@@ -21691,7 +21703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>36</v>
       </c>
@@ -21784,7 +21796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>36</v>
       </c>
@@ -21877,7 +21889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>36</v>
       </c>
@@ -21970,7 +21982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>36</v>
       </c>
@@ -22063,7 +22075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>36</v>
       </c>
@@ -22156,7 +22168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>36</v>
       </c>
@@ -22250,13 +22262,2304 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AD207"/>
+  <autoFilter ref="A1:AD207">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Северная губа"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B72"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>67.025075000000001</v>
+      </c>
+      <c r="B2">
+        <v>32.540053</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>67.025075000000001</v>
+      </c>
+      <c r="B3">
+        <v>32.540053</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>67.025075000000001</v>
+      </c>
+      <c r="B4">
+        <v>32.540053</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>67.025075000000001</v>
+      </c>
+      <c r="B5">
+        <v>32.540053</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>67.025075000000001</v>
+      </c>
+      <c r="B6">
+        <v>32.540053</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>67.025075000000001</v>
+      </c>
+      <c r="B7">
+        <v>32.540053</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>67.025075000000001</v>
+      </c>
+      <c r="B8">
+        <v>32.540053</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>67.025075000000001</v>
+      </c>
+      <c r="B9">
+        <v>32.540053</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>67.025075000000001</v>
+      </c>
+      <c r="B10">
+        <v>32.540053</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>67.025075000000001</v>
+      </c>
+      <c r="B11">
+        <v>32.540053</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>67.025075000000001</v>
+      </c>
+      <c r="B12">
+        <v>32.540053</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>67.024917000000002</v>
+      </c>
+      <c r="B13">
+        <v>32.540382999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>67.024917000000002</v>
+      </c>
+      <c r="B14">
+        <v>32.540382999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>67.024917000000002</v>
+      </c>
+      <c r="B15">
+        <v>32.540382999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>67.024917000000002</v>
+      </c>
+      <c r="B16">
+        <v>32.540382999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>67.024917000000002</v>
+      </c>
+      <c r="B17">
+        <v>32.540382999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>67.024917000000002</v>
+      </c>
+      <c r="B18">
+        <v>32.540382999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>67.024917000000002</v>
+      </c>
+      <c r="B19">
+        <v>32.540382999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>67.024917000000002</v>
+      </c>
+      <c r="B20">
+        <v>32.540382999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>67.024917000000002</v>
+      </c>
+      <c r="B21">
+        <v>32.540382999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>67.024917000000002</v>
+      </c>
+      <c r="B22">
+        <v>32.540382999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>67.024917000000002</v>
+      </c>
+      <c r="B23">
+        <v>32.540382999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>67.024917000000002</v>
+      </c>
+      <c r="B24">
+        <v>32.540382999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>67.024917000000002</v>
+      </c>
+      <c r="B25">
+        <v>32.540382999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>67.024917000000002</v>
+      </c>
+      <c r="B26">
+        <v>32.540382999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>67.024917000000002</v>
+      </c>
+      <c r="B27">
+        <v>32.540382999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>67.024917000000002</v>
+      </c>
+      <c r="B28">
+        <v>32.540382999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>67.024917000000002</v>
+      </c>
+      <c r="B29">
+        <v>32.540382999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>67.024917000000002</v>
+      </c>
+      <c r="B30">
+        <v>32.540382999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>67.024917000000002</v>
+      </c>
+      <c r="B31">
+        <v>32.540382999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>67.024917000000002</v>
+      </c>
+      <c r="B32">
+        <v>32.540382999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>67.024917000000002</v>
+      </c>
+      <c r="B33">
+        <v>32.540382999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>67.025051000000005</v>
+      </c>
+      <c r="B34">
+        <v>32.540588</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>67.025051000000005</v>
+      </c>
+      <c r="B35">
+        <v>32.540588</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>67.025051000000005</v>
+      </c>
+      <c r="B36">
+        <v>32.540588</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>67.025051000000005</v>
+      </c>
+      <c r="B37">
+        <v>32.540588</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>67.025051000000005</v>
+      </c>
+      <c r="B38">
+        <v>32.540588</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>67.025051000000005</v>
+      </c>
+      <c r="B39">
+        <v>32.540588</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>67.025051000000005</v>
+      </c>
+      <c r="B40">
+        <v>32.540588</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>67.025051000000005</v>
+      </c>
+      <c r="B41">
+        <v>32.540588</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>67.025051000000005</v>
+      </c>
+      <c r="B42">
+        <v>32.540588</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>67.025051000000005</v>
+      </c>
+      <c r="B43">
+        <v>32.540588</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>67.025051000000005</v>
+      </c>
+      <c r="B44">
+        <v>32.540588</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>67.025051000000005</v>
+      </c>
+      <c r="B45">
+        <v>32.540588</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>67.025051000000005</v>
+      </c>
+      <c r="B46">
+        <v>32.540588</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>67.025051000000005</v>
+      </c>
+      <c r="B47">
+        <v>32.540588</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>67.024942999999993</v>
+      </c>
+      <c r="B48">
+        <v>32.541285999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>67.024942999999993</v>
+      </c>
+      <c r="B49">
+        <v>32.541285999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>67.024942999999993</v>
+      </c>
+      <c r="B50">
+        <v>32.541285999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <v>67.024942999999993</v>
+      </c>
+      <c r="B51">
+        <v>32.541285999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52">
+        <v>67.024942999999993</v>
+      </c>
+      <c r="B52">
+        <v>32.541285999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53">
+        <v>67.024942999999993</v>
+      </c>
+      <c r="B53">
+        <v>32.541285999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54">
+        <v>67.024942999999993</v>
+      </c>
+      <c r="B54">
+        <v>32.541285999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55">
+        <v>67.024942999999993</v>
+      </c>
+      <c r="B55">
+        <v>32.541285999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56">
+        <v>67.024942999999993</v>
+      </c>
+      <c r="B56">
+        <v>32.541285999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57">
+        <v>67.024942999999993</v>
+      </c>
+      <c r="B57">
+        <v>32.541285999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A58">
+        <v>67.024942999999993</v>
+      </c>
+      <c r="B58">
+        <v>32.541285999999999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59">
+        <v>67.024942999999993</v>
+      </c>
+      <c r="B59">
+        <v>32.541471999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60">
+        <v>67.024942999999993</v>
+      </c>
+      <c r="B60">
+        <v>32.541471999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A61">
+        <v>67.025058999999999</v>
+      </c>
+      <c r="B61">
+        <v>32.541471999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A62">
+        <v>67.025058999999999</v>
+      </c>
+      <c r="B62">
+        <v>32.541471999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A63">
+        <v>67.025058999999999</v>
+      </c>
+      <c r="B63">
+        <v>32.541471999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A64">
+        <v>67.025058999999999</v>
+      </c>
+      <c r="B64">
+        <v>32.541471999999999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A65">
+        <v>67.025058999999999</v>
+      </c>
+      <c r="B65">
+        <v>32.541471999999999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A66">
+        <v>67.025058999999999</v>
+      </c>
+      <c r="B66">
+        <v>32.541471999999999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A67">
+        <v>67.025058999999999</v>
+      </c>
+      <c r="B67">
+        <v>32.541471999999999</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A68">
+        <v>67.025058999999999</v>
+      </c>
+      <c r="B68">
+        <v>32.541471999999999</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A69">
+        <v>67.025058999999999</v>
+      </c>
+      <c r="B69">
+        <v>32.541471999999999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A70">
+        <v>67.025058999999999</v>
+      </c>
+      <c r="B70">
+        <v>32.541471999999999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A71">
+        <v>67.025058999999999</v>
+      </c>
+      <c r="B71">
+        <v>32.541471999999999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A72">
+        <v>67.025058999999999</v>
+      </c>
+      <c r="B72">
+        <v>32.541471999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B136"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="B2">
+        <v>7.74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>0.57899999999999996</v>
+      </c>
+      <c r="B3">
+        <v>8.17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="B4">
+        <v>3.36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="B5">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="B6">
+        <v>3.71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>0.86</v>
+      </c>
+      <c r="B7">
+        <v>3.94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>0.01</v>
+      </c>
+      <c r="B8">
+        <v>3.04</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="B9">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="B10">
+        <v>2.71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="B11">
+        <v>2.91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>2E-3</v>
+      </c>
+      <c r="B12">
+        <v>2.66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>1.2E-2</v>
+      </c>
+      <c r="B13">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="B14">
+        <v>2.69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="B15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="B16">
+        <v>2.2599999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="B17">
+        <v>2.0299999999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="B18">
+        <v>2.59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="B19">
+        <v>2.0699999999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="B20">
+        <v>1.0900000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="B21">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="B22">
+        <v>1.87</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="B23">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>1.0740000000000001</v>
+      </c>
+      <c r="B25">
+        <v>9.94</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="B26">
+        <v>4.09</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="B27">
+        <v>4.87</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="B28">
+        <v>6.51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="B29">
+        <v>4.99</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="B30">
+        <v>3.71</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="B31">
+        <v>3.97</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>0.02</v>
+      </c>
+      <c r="B32">
+        <v>2.82</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>0.02</v>
+      </c>
+      <c r="B33">
+        <v>2.58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>0.01</v>
+      </c>
+      <c r="B34">
+        <v>3.04</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="B35">
+        <v>2.79</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>1.2E-2</v>
+      </c>
+      <c r="B36">
+        <v>2.5099999999999998</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="B37">
+        <v>2.2799999999999998</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>2E-3</v>
+      </c>
+      <c r="B38">
+        <v>1.77</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>1E-3</v>
+      </c>
+      <c r="B39">
+        <v>1.81</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>7.3400000000000007E-2</v>
+      </c>
+      <c r="B40">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>0.40200000000000002</v>
+      </c>
+      <c r="B41">
+        <v>6.42</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>0.128</v>
+      </c>
+      <c r="B42">
+        <v>5.05</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="B43">
+        <v>3.65</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="B44">
+        <v>4.47</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="B45">
+        <v>3.95</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>0.108</v>
+      </c>
+      <c r="B46">
+        <v>4.91</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="B47">
+        <v>3.83</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="B48">
+        <v>3.95</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>1.4E-2</v>
+      </c>
+      <c r="B49">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="B50">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="B51">
+        <v>2.64</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="B52">
+        <v>2.61</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="B53">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="B54">
+        <v>1.81</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="B55">
+        <v>2.09</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56">
+        <v>1E-3</v>
+      </c>
+      <c r="B56">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="B57">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A58">
+        <v>1E-3</v>
+      </c>
+      <c r="B58">
+        <v>1.1299999999999999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="B59">
+        <v>4.37</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="B60">
+        <v>3.35</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A61">
+        <v>2.4E-2</v>
+      </c>
+      <c r="B61" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A62">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="B62">
+        <v>2.0499999999999998</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A63">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="B63">
+        <v>2.4300000000000002</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A64">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="B64">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A65">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="B65">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A66">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="B66">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A67">
+        <v>1.2E-2</v>
+      </c>
+      <c r="B67">
+        <v>2.71</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A68">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="B68">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A69">
+        <v>0.34</v>
+      </c>
+      <c r="B69">
+        <v>6.05</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A70">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="B70">
+        <v>2.84</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A71">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="B71">
+        <v>2.64</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A72">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="B72">
+        <v>2.84</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A73">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="B73">
+        <v>2.21</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A74">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="B74">
+        <v>2.44</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A75">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="B75">
+        <v>2.94</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A76">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="B76">
+        <v>2.21</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A77">
+        <v>1.34E-2</v>
+      </c>
+      <c r="B77">
+        <v>2.4900000000000002</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A78">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="B78">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A79">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="B79">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A80">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="B80">
+        <v>2.0499999999999998</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A81">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="B81">
+        <v>1.68</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A82">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="B82">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A83">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="B83">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A84">
+        <v>1E-3</v>
+      </c>
+      <c r="B84">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A85">
+        <v>1E-3</v>
+      </c>
+      <c r="B85">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A86">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="B86">
+        <v>4.08</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A87">
+        <v>0.106</v>
+      </c>
+      <c r="B87">
+        <v>3.76</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A88">
+        <v>5.5E-2</v>
+      </c>
+      <c r="B88">
+        <v>3.58</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A89">
+        <v>6.3E-2</v>
+      </c>
+      <c r="B89">
+        <v>3.94</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A90">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="B90">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A91">
+        <v>1.9E-2</v>
+      </c>
+      <c r="B91">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A92">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="B92">
+        <v>3.24</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A93">
+        <v>2.7E-2</v>
+      </c>
+      <c r="B93">
+        <v>3.63</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A94">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="B94">
+        <v>2.52</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A95">
+        <v>0.01</v>
+      </c>
+      <c r="B95">
+        <v>2.34</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A96">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="B96">
+        <v>1.98</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A97">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="B97">
+        <v>2.69</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A98">
+        <v>1.2E-2</v>
+      </c>
+      <c r="B98">
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A99">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="B99">
+        <v>2.0299999999999998</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A100">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="B100">
+        <v>2.12</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A101">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="B101">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A102">
+        <v>1E-3</v>
+      </c>
+      <c r="B102">
+        <v>1.64</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A103">
+        <v>2E-3</v>
+      </c>
+      <c r="B103">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A104">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="B104">
+        <v>7.87</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A105">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="B105">
+        <v>4.16</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A106">
+        <v>3.1E-2</v>
+      </c>
+      <c r="B106">
+        <v>2.82</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A107">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="B107">
+        <v>4.22</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A108">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="B108">
+        <v>3.15</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A109">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="B109">
+        <v>2.64</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A110">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="B110">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A111">
+        <v>1.6E-2</v>
+      </c>
+      <c r="B111">
+        <v>2.57</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A112">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="B112">
+        <v>2.2599999999999998</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A113">
+        <v>1.2E-2</v>
+      </c>
+      <c r="B113">
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A114">
+        <v>1.4E-2</v>
+      </c>
+      <c r="B114">
+        <v>3.07</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A115">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="B115">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A116">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="B116">
+        <v>2.14</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A117">
+        <v>0.92200000000000004</v>
+      </c>
+      <c r="B117">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A118">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="B118">
+        <v>4.3099999999999996</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A119">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="B119">
+        <v>4.38</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A120">
+        <v>0.104</v>
+      </c>
+      <c r="B120">
+        <v>5.1100000000000003</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A121">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="B121">
+        <v>2.4300000000000002</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A122">
+        <v>1.0329999999999999</v>
+      </c>
+      <c r="B122">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A123">
+        <v>0.80800000000000005</v>
+      </c>
+      <c r="B123">
+        <v>9.5299999999999994</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A124">
+        <v>0.52200000000000002</v>
+      </c>
+      <c r="B124">
+        <v>7.92</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A125">
+        <v>0.85299999999999998</v>
+      </c>
+      <c r="B125">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A126">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="B126">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A127">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="B127">
+        <v>3.73</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A128">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="B128">
+        <v>4.7699999999999996</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A129">
+        <v>1.0369999999999999</v>
+      </c>
+      <c r="B129">
+        <v>10.23</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A130">
+        <v>5.5E-2</v>
+      </c>
+      <c r="B130">
+        <v>4.37</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A131">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="B131">
+        <v>3.03</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A132">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="B132">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A133">
+        <v>0.01</v>
+      </c>
+      <c r="B133">
+        <v>2.23</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A134">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="B134">
+        <v>3.23</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A135">
+        <v>1.4E-2</v>
+      </c>
+      <c r="B135">
+        <v>3.09</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A136">
+        <v>0.54</v>
+      </c>
+      <c r="B136">
+        <v>8.64</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B72"/>
+  <sheetViews>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="B72" sqref="B72"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>6.95</v>
+      </c>
+      <c r="B2">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>4.37</v>
+      </c>
+      <c r="B3">
+        <v>0.104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3.8</v>
+      </c>
+      <c r="B4">
+        <v>8.1000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>3.9</v>
+      </c>
+      <c r="B5">
+        <v>6.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>4.18</v>
+      </c>
+      <c r="B6">
+        <v>0.13900000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>4.13</v>
+      </c>
+      <c r="B7">
+        <v>0.126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>3.85</v>
+      </c>
+      <c r="B8">
+        <v>7.0999999999999994E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>2.8</v>
+      </c>
+      <c r="B9">
+        <v>3.2000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>3.68</v>
+      </c>
+      <c r="B10">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="B11">
+        <v>2.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>1.74</v>
+      </c>
+      <c r="B12">
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>8.1</v>
+      </c>
+      <c r="B13">
+        <v>0.65600000000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>7.02</v>
+      </c>
+      <c r="B14">
+        <v>0.34100000000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>8.98</v>
+      </c>
+      <c r="B15">
+        <v>0.78300000000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>7.64</v>
+      </c>
+      <c r="B16">
+        <v>0.48799999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>6.92</v>
+      </c>
+      <c r="B17">
+        <v>0.26400000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>6.68</v>
+      </c>
+      <c r="B18">
+        <v>0.33700000000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>9.09</v>
+      </c>
+      <c r="B19">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>6.54</v>
+      </c>
+      <c r="B20">
+        <v>0.33400000000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>5.52</v>
+      </c>
+      <c r="B21">
+        <v>0.16400000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>8.19</v>
+      </c>
+      <c r="B22">
+        <v>0.48799999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>6.73</v>
+      </c>
+      <c r="B23">
+        <v>0.372</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>4.87</v>
+      </c>
+      <c r="B24">
+        <v>0.121</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>5.79</v>
+      </c>
+      <c r="B25">
+        <v>0.13200000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>5.35</v>
+      </c>
+      <c r="B26">
+        <v>0.14499999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>5.28</v>
+      </c>
+      <c r="B27">
+        <v>0.13700000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>4.7</v>
+      </c>
+      <c r="B28">
+        <v>9.9000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>4.79</v>
+      </c>
+      <c r="B29">
+        <v>8.7999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>4.13</v>
+      </c>
+      <c r="B30">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="B31">
+        <v>6.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>3.37</v>
+      </c>
+      <c r="B32">
+        <v>5.8000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>3.07</v>
+      </c>
+      <c r="B33">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>8.0299999999999994</v>
+      </c>
+      <c r="B34">
+        <v>0.52400000000000002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>9.44</v>
+      </c>
+      <c r="B35">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>7.06</v>
+      </c>
+      <c r="B36">
+        <v>0.41699999999999998</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>7.27</v>
+      </c>
+      <c r="B37">
+        <v>0.34100000000000003</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>7.02</v>
+      </c>
+      <c r="B38">
+        <v>0.316</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>7.64</v>
+      </c>
+      <c r="B39">
+        <v>0.55700000000000005</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>6.41</v>
+      </c>
+      <c r="B40">
+        <v>0.52400000000000002</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>5.92</v>
+      </c>
+      <c r="B41">
+        <v>0.36799999999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>5.48</v>
+      </c>
+      <c r="B42">
+        <v>0.161</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>4.78</v>
+      </c>
+      <c r="B43">
+        <v>0.13100000000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>4.51</v>
+      </c>
+      <c r="B44">
+        <v>0.10100000000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>3.69</v>
+      </c>
+      <c r="B45">
+        <v>9.4E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>2.13</v>
+      </c>
+      <c r="B46">
+        <v>5.8000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>1.78</v>
+      </c>
+      <c r="B47">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>1.0669999999999999</v>
+      </c>
+      <c r="B48">
+        <v>1.2050000000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>8.4600000000000009</v>
+      </c>
+      <c r="B49">
+        <v>0.59099999999999997</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>8.99</v>
+      </c>
+      <c r="B50">
+        <v>0.65800000000000003</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <v>6.79</v>
+      </c>
+      <c r="B51">
+        <v>0.27100000000000002</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52">
+        <v>5.21</v>
+      </c>
+      <c r="B52">
+        <v>0.191</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53">
+        <v>5.98</v>
+      </c>
+      <c r="B53">
+        <v>0.154</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54">
+        <v>5.13</v>
+      </c>
+      <c r="B54">
+        <v>0.20599999999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55">
+        <v>4.54</v>
+      </c>
+      <c r="B55">
+        <v>0.11600000000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56">
+        <v>3.56</v>
+      </c>
+      <c r="B56">
+        <v>0.113</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57">
+        <v>3.93</v>
+      </c>
+      <c r="B57">
+        <v>7.0999999999999994E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A58">
+        <v>1.6</v>
+      </c>
+      <c r="B58">
+        <v>2.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59">
+        <v>13.85</v>
+      </c>
+      <c r="B59">
+        <v>0.68400000000000005</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60">
+        <v>8.92</v>
+      </c>
+      <c r="B60">
+        <v>0.45100000000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A61">
+        <v>8.51</v>
+      </c>
+      <c r="B61">
+        <v>0.54500000000000004</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A62">
+        <v>7.68</v>
+      </c>
+      <c r="B62">
+        <v>0.502</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A63">
+        <v>10.25</v>
+      </c>
+      <c r="B63">
+        <v>1.0920000000000001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A64">
+        <v>7.88</v>
+      </c>
+      <c r="B64">
+        <v>0.53400000000000003</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A65">
+        <v>5.31</v>
+      </c>
+      <c r="B65">
+        <v>0.13100000000000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A66">
+        <v>4.49</v>
+      </c>
+      <c r="B66">
+        <v>7.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A67">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="B67">
+        <v>0.154</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A68">
+        <v>4.37</v>
+      </c>
+      <c r="B68">
+        <v>7.2999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A69">
+        <v>3.89</v>
+      </c>
+      <c r="B69">
+        <v>5.3999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A70">
+        <v>3.63</v>
+      </c>
+      <c r="B70">
+        <v>3.6999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A71">
+        <v>3.33</v>
+      </c>
+      <c r="B71">
+        <v>3.5999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A72">
+        <v>2.58</v>
+      </c>
+      <c r="B72">
+        <v>2.9000000000000001E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C12"/>
   <sheetViews>
@@ -22403,7 +24706,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA49"/>
   <sheetViews>
@@ -26489,7 +28792,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L88"/>
   <sheetViews>
@@ -27268,7 +29571,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N16"/>
   <sheetViews>
@@ -27989,7 +30292,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F39"/>
   <sheetViews>
@@ -28552,7 +30855,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C21"/>
   <sheetViews>
@@ -28796,595 +31099,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B72"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>67.025075000000001</v>
-      </c>
-      <c r="B2">
-        <v>32.540053</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>67.025075000000001</v>
-      </c>
-      <c r="B3">
-        <v>32.540053</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>67.025075000000001</v>
-      </c>
-      <c r="B4">
-        <v>32.540053</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>67.025075000000001</v>
-      </c>
-      <c r="B5">
-        <v>32.540053</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>67.025075000000001</v>
-      </c>
-      <c r="B6">
-        <v>32.540053</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>67.025075000000001</v>
-      </c>
-      <c r="B7">
-        <v>32.540053</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <v>67.025075000000001</v>
-      </c>
-      <c r="B8">
-        <v>32.540053</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <v>67.025075000000001</v>
-      </c>
-      <c r="B9">
-        <v>32.540053</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <v>67.025075000000001</v>
-      </c>
-      <c r="B10">
-        <v>32.540053</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11">
-        <v>67.025075000000001</v>
-      </c>
-      <c r="B11">
-        <v>32.540053</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12">
-        <v>67.025075000000001</v>
-      </c>
-      <c r="B12">
-        <v>32.540053</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13">
-        <v>67.024917000000002</v>
-      </c>
-      <c r="B13">
-        <v>32.540382999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14">
-        <v>67.024917000000002</v>
-      </c>
-      <c r="B14">
-        <v>32.540382999999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15">
-        <v>67.024917000000002</v>
-      </c>
-      <c r="B15">
-        <v>32.540382999999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16">
-        <v>67.024917000000002</v>
-      </c>
-      <c r="B16">
-        <v>32.540382999999999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17">
-        <v>67.024917000000002</v>
-      </c>
-      <c r="B17">
-        <v>32.540382999999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18">
-        <v>67.024917000000002</v>
-      </c>
-      <c r="B18">
-        <v>32.540382999999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19">
-        <v>67.024917000000002</v>
-      </c>
-      <c r="B19">
-        <v>32.540382999999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20">
-        <v>67.024917000000002</v>
-      </c>
-      <c r="B20">
-        <v>32.540382999999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21">
-        <v>67.024917000000002</v>
-      </c>
-      <c r="B21">
-        <v>32.540382999999999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22">
-        <v>67.024917000000002</v>
-      </c>
-      <c r="B22">
-        <v>32.540382999999999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23">
-        <v>67.024917000000002</v>
-      </c>
-      <c r="B23">
-        <v>32.540382999999999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24">
-        <v>67.024917000000002</v>
-      </c>
-      <c r="B24">
-        <v>32.540382999999999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25">
-        <v>67.024917000000002</v>
-      </c>
-      <c r="B25">
-        <v>32.540382999999999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26">
-        <v>67.024917000000002</v>
-      </c>
-      <c r="B26">
-        <v>32.540382999999999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27">
-        <v>67.024917000000002</v>
-      </c>
-      <c r="B27">
-        <v>32.540382999999999</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28">
-        <v>67.024917000000002</v>
-      </c>
-      <c r="B28">
-        <v>32.540382999999999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29">
-        <v>67.024917000000002</v>
-      </c>
-      <c r="B29">
-        <v>32.540382999999999</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A30">
-        <v>67.024917000000002</v>
-      </c>
-      <c r="B30">
-        <v>32.540382999999999</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31">
-        <v>67.024917000000002</v>
-      </c>
-      <c r="B31">
-        <v>32.540382999999999</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A32">
-        <v>67.024917000000002</v>
-      </c>
-      <c r="B32">
-        <v>32.540382999999999</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A33">
-        <v>67.024917000000002</v>
-      </c>
-      <c r="B33">
-        <v>32.540382999999999</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A34">
-        <v>67.025051000000005</v>
-      </c>
-      <c r="B34">
-        <v>32.540588</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A35">
-        <v>67.025051000000005</v>
-      </c>
-      <c r="B35">
-        <v>32.540588</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A36">
-        <v>67.025051000000005</v>
-      </c>
-      <c r="B36">
-        <v>32.540588</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A37">
-        <v>67.025051000000005</v>
-      </c>
-      <c r="B37">
-        <v>32.540588</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A38">
-        <v>67.025051000000005</v>
-      </c>
-      <c r="B38">
-        <v>32.540588</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A39">
-        <v>67.025051000000005</v>
-      </c>
-      <c r="B39">
-        <v>32.540588</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A40">
-        <v>67.025051000000005</v>
-      </c>
-      <c r="B40">
-        <v>32.540588</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A41">
-        <v>67.025051000000005</v>
-      </c>
-      <c r="B41">
-        <v>32.540588</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A42">
-        <v>67.025051000000005</v>
-      </c>
-      <c r="B42">
-        <v>32.540588</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A43">
-        <v>67.025051000000005</v>
-      </c>
-      <c r="B43">
-        <v>32.540588</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A44">
-        <v>67.025051000000005</v>
-      </c>
-      <c r="B44">
-        <v>32.540588</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A45">
-        <v>67.025051000000005</v>
-      </c>
-      <c r="B45">
-        <v>32.540588</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A46">
-        <v>67.025051000000005</v>
-      </c>
-      <c r="B46">
-        <v>32.540588</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A47">
-        <v>67.025051000000005</v>
-      </c>
-      <c r="B47">
-        <v>32.540588</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A48">
-        <v>67.024942999999993</v>
-      </c>
-      <c r="B48">
-        <v>32.541285999999999</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A49">
-        <v>67.024942999999993</v>
-      </c>
-      <c r="B49">
-        <v>32.541285999999999</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A50">
-        <v>67.024942999999993</v>
-      </c>
-      <c r="B50">
-        <v>32.541285999999999</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A51">
-        <v>67.024942999999993</v>
-      </c>
-      <c r="B51">
-        <v>32.541285999999999</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A52">
-        <v>67.024942999999993</v>
-      </c>
-      <c r="B52">
-        <v>32.541285999999999</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A53">
-        <v>67.024942999999993</v>
-      </c>
-      <c r="B53">
-        <v>32.541285999999999</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A54">
-        <v>67.024942999999993</v>
-      </c>
-      <c r="B54">
-        <v>32.541285999999999</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A55">
-        <v>67.024942999999993</v>
-      </c>
-      <c r="B55">
-        <v>32.541285999999999</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A56">
-        <v>67.024942999999993</v>
-      </c>
-      <c r="B56">
-        <v>32.541285999999999</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A57">
-        <v>67.024942999999993</v>
-      </c>
-      <c r="B57">
-        <v>32.541285999999999</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A58">
-        <v>67.024942999999993</v>
-      </c>
-      <c r="B58">
-        <v>32.541285999999999</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A59">
-        <v>67.024942999999993</v>
-      </c>
-      <c r="B59">
-        <v>32.541471999999999</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A60">
-        <v>67.024942999999993</v>
-      </c>
-      <c r="B60">
-        <v>32.541471999999999</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A61">
-        <v>67.025058999999999</v>
-      </c>
-      <c r="B61">
-        <v>32.541471999999999</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A62">
-        <v>67.025058999999999</v>
-      </c>
-      <c r="B62">
-        <v>32.541471999999999</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A63">
-        <v>67.025058999999999</v>
-      </c>
-      <c r="B63">
-        <v>32.541471999999999</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A64">
-        <v>67.025058999999999</v>
-      </c>
-      <c r="B64">
-        <v>32.541471999999999</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A65">
-        <v>67.025058999999999</v>
-      </c>
-      <c r="B65">
-        <v>32.541471999999999</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A66">
-        <v>67.025058999999999</v>
-      </c>
-      <c r="B66">
-        <v>32.541471999999999</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A67">
-        <v>67.025058999999999</v>
-      </c>
-      <c r="B67">
-        <v>32.541471999999999</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A68">
-        <v>67.025058999999999</v>
-      </c>
-      <c r="B68">
-        <v>32.541471999999999</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A69">
-        <v>67.025058999999999</v>
-      </c>
-      <c r="B69">
-        <v>32.541471999999999</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A70">
-        <v>67.025058999999999</v>
-      </c>
-      <c r="B70">
-        <v>32.541471999999999</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A71">
-        <v>67.025058999999999</v>
-      </c>
-      <c r="B71">
-        <v>32.541471999999999</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A72">
-        <v>67.025058999999999</v>
-      </c>
-      <c r="B72">
-        <v>32.541471999999999</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Vitia_Ostrovsky/R_Calc_Crang_2024/Data/Crang_2024.xlsx
+++ b/Vitia_Ostrovsky/R_Calc_Crang_2024/Data/Crang_2024.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22190" windowHeight="9180" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22190" windowHeight="9180" firstSheet="3" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Full" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,8 @@
     <sheet name="Чистовые Северная " sheetId="4" r:id="rId7"/>
     <sheet name="Coordinats" sheetId="2" r:id="rId8"/>
     <sheet name="Nor" sheetId="6" r:id="rId9"/>
-    <sheet name="Nord" sheetId="9" r:id="rId10"/>
+    <sheet name="Лист1" sheetId="12" r:id="rId10"/>
+    <sheet name="Nord" sheetId="9" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Full!$A$1:$AD$207</definedName>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="116">
   <si>
     <t>Area</t>
   </si>
@@ -390,12 +391,18 @@
   <si>
     <t>Sampe</t>
   </si>
+  <si>
+    <t xml:space="preserve">Пищевай объект </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Частота встречаемости </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -456,6 +463,22 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF2E1500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -465,7 +488,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -473,11 +496,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -514,6 +565,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -883,11 +946,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="179682904"/>
-        <c:axId val="179219648"/>
+        <c:axId val="176890080"/>
+        <c:axId val="176890464"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="179682904"/>
+        <c:axId val="176890080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -944,12 +1007,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="179219648"/>
+        <c:crossAx val="176890464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="179219648"/>
+        <c:axId val="176890464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1006,7 +1069,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="179682904"/>
+        <c:crossAx val="176890080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1386,11 +1449,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="179678256"/>
-        <c:axId val="179304048"/>
+        <c:axId val="176034928"/>
+        <c:axId val="177465896"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="179678256"/>
+        <c:axId val="176034928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1447,12 +1510,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="179304048"/>
+        <c:crossAx val="177465896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="179304048"/>
+        <c:axId val="177465896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1509,7 +1572,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="179678256"/>
+        <c:crossAx val="176034928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3001,8 +3064,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:AD207"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="AC1" sqref="AC1:AC1048576"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1:Q1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3103,7 +3166,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -3196,7 +3259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>30</v>
       </c>
@@ -3289,7 +3352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -3382,7 +3445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>30</v>
       </c>
@@ -3475,7 +3538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -3568,7 +3631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -3661,7 +3724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -3754,7 +3817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -3847,7 +3910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>30</v>
       </c>
@@ -3940,7 +4003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -4033,7 +4096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -4126,7 +4189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>30</v>
       </c>
@@ -4219,7 +4282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>30</v>
       </c>
@@ -4312,7 +4375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -4405,7 +4468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -4498,7 +4561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -4591,7 +4654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>30</v>
       </c>
@@ -4684,7 +4747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -4777,7 +4840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>30</v>
       </c>
@@ -4870,7 +4933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>30</v>
       </c>
@@ -4963,7 +5026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -5056,7 +5119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>30</v>
       </c>
@@ -5149,7 +5212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -5242,7 +5305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>30</v>
       </c>
@@ -5335,7 +5398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>30</v>
       </c>
@@ -5428,7 +5491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -5521,7 +5584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>30</v>
       </c>
@@ -5614,7 +5677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>30</v>
       </c>
@@ -5707,7 +5770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -5800,7 +5863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -5893,7 +5956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -5986,7 +6049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>30</v>
       </c>
@@ -6079,7 +6142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>30</v>
       </c>
@@ -6172,7 +6235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>30</v>
       </c>
@@ -6265,7 +6328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>30</v>
       </c>
@@ -6358,7 +6421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>30</v>
       </c>
@@ -6451,7 +6514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>30</v>
       </c>
@@ -6544,7 +6607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>30</v>
       </c>
@@ -6637,7 +6700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>30</v>
       </c>
@@ -6730,7 +6793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>30</v>
       </c>
@@ -6823,7 +6886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>30</v>
       </c>
@@ -6916,7 +6979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>30</v>
       </c>
@@ -7009,7 +7072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>30</v>
       </c>
@@ -7102,7 +7165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>30</v>
       </c>
@@ -7195,7 +7258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>30</v>
       </c>
@@ -7288,7 +7351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>30</v>
       </c>
@@ -7381,7 +7444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>30</v>
       </c>
@@ -7474,7 +7537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>30</v>
       </c>
@@ -7567,7 +7630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>30</v>
       </c>
@@ -7660,7 +7723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>30</v>
       </c>
@@ -7753,7 +7816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>30</v>
       </c>
@@ -7846,7 +7909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>30</v>
       </c>
@@ -7939,7 +8002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>30</v>
       </c>
@@ -8032,7 +8095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>30</v>
       </c>
@@ -8125,7 +8188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>30</v>
       </c>
@@ -8218,7 +8281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>30</v>
       </c>
@@ -8311,7 +8374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>30</v>
       </c>
@@ -8404,7 +8467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>30</v>
       </c>
@@ -8497,7 +8560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>30</v>
       </c>
@@ -8590,7 +8653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>30</v>
       </c>
@@ -8683,7 +8746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>30</v>
       </c>
@@ -8776,7 +8839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>30</v>
       </c>
@@ -8869,7 +8932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>30</v>
       </c>
@@ -8962,7 +9025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>30</v>
       </c>
@@ -9055,7 +9118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>30</v>
       </c>
@@ -9148,7 +9211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>30</v>
       </c>
@@ -9241,7 +9304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>30</v>
       </c>
@@ -9334,7 +9397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>30</v>
       </c>
@@ -9427,7 +9490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>30</v>
       </c>
@@ -9520,7 +9583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>30</v>
       </c>
@@ -9613,7 +9676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>30</v>
       </c>
@@ -9706,7 +9769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>36</v>
       </c>
@@ -9799,7 +9862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>36</v>
       </c>
@@ -9892,7 +9955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>36</v>
       </c>
@@ -9985,7 +10048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>36</v>
       </c>
@@ -10078,7 +10141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>36</v>
       </c>
@@ -10171,7 +10234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>36</v>
       </c>
@@ -10264,7 +10327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>36</v>
       </c>
@@ -10357,7 +10420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>36</v>
       </c>
@@ -10450,7 +10513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>36</v>
       </c>
@@ -10543,7 +10606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>36</v>
       </c>
@@ -10636,7 +10699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>36</v>
       </c>
@@ -10729,7 +10792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>36</v>
       </c>
@@ -10822,7 +10885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>36</v>
       </c>
@@ -10915,7 +10978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>36</v>
       </c>
@@ -11008,7 +11071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>36</v>
       </c>
@@ -11101,7 +11164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>36</v>
       </c>
@@ -11194,7 +11257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>36</v>
       </c>
@@ -11287,7 +11350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>36</v>
       </c>
@@ -11380,7 +11443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>36</v>
       </c>
@@ -11473,7 +11536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>36</v>
       </c>
@@ -11566,7 +11629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>36</v>
       </c>
@@ -11659,7 +11722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>36</v>
       </c>
@@ -11752,7 +11815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>36</v>
       </c>
@@ -11845,7 +11908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>36</v>
       </c>
@@ -11938,7 +12001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>36</v>
       </c>
@@ -12031,7 +12094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>36</v>
       </c>
@@ -12124,7 +12187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>36</v>
       </c>
@@ -12217,7 +12280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>36</v>
       </c>
@@ -12310,7 +12373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>36</v>
       </c>
@@ -12403,7 +12466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>36</v>
       </c>
@@ -12496,7 +12559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>36</v>
       </c>
@@ -12589,7 +12652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>36</v>
       </c>
@@ -12682,7 +12745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>36</v>
       </c>
@@ -12775,7 +12838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>36</v>
       </c>
@@ -12868,7 +12931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>36</v>
       </c>
@@ -12961,7 +13024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>36</v>
       </c>
@@ -13054,7 +13117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>36</v>
       </c>
@@ -13147,7 +13210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>36</v>
       </c>
@@ -13240,7 +13303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>36</v>
       </c>
@@ -13333,7 +13396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>36</v>
       </c>
@@ -13426,7 +13489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>36</v>
       </c>
@@ -13519,7 +13582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>36</v>
       </c>
@@ -13612,7 +13675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>36</v>
       </c>
@@ -13705,7 +13768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>36</v>
       </c>
@@ -13798,7 +13861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>36</v>
       </c>
@@ -13891,7 +13954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>36</v>
       </c>
@@ -13984,7 +14047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>36</v>
       </c>
@@ -14077,7 +14140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>36</v>
       </c>
@@ -14170,7 +14233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>36</v>
       </c>
@@ -14263,7 +14326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>36</v>
       </c>
@@ -14356,7 +14419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>36</v>
       </c>
@@ -14449,7 +14512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>36</v>
       </c>
@@ -14542,7 +14605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>36</v>
       </c>
@@ -14635,7 +14698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>36</v>
       </c>
@@ -14728,7 +14791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>36</v>
       </c>
@@ -14821,7 +14884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>36</v>
       </c>
@@ -14914,7 +14977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>36</v>
       </c>
@@ -15007,7 +15070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>36</v>
       </c>
@@ -15100,7 +15163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>36</v>
       </c>
@@ -15193,7 +15256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>36</v>
       </c>
@@ -15286,7 +15349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>36</v>
       </c>
@@ -15379,7 +15442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>36</v>
       </c>
@@ -15472,7 +15535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>36</v>
       </c>
@@ -15565,7 +15628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>36</v>
       </c>
@@ -15658,7 +15721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>36</v>
       </c>
@@ -15751,7 +15814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>36</v>
       </c>
@@ -15844,7 +15907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>36</v>
       </c>
@@ -15937,7 +16000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>36</v>
       </c>
@@ -16030,7 +16093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>36</v>
       </c>
@@ -16123,7 +16186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>36</v>
       </c>
@@ -16216,7 +16279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>36</v>
       </c>
@@ -16309,7 +16372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>36</v>
       </c>
@@ -16402,7 +16465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>36</v>
       </c>
@@ -16495,7 +16558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>36</v>
       </c>
@@ -16588,7 +16651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>36</v>
       </c>
@@ -16681,7 +16744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>36</v>
       </c>
@@ -16774,7 +16837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>36</v>
       </c>
@@ -16867,7 +16930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>36</v>
       </c>
@@ -16960,7 +17023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>36</v>
       </c>
@@ -17053,7 +17116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>36</v>
       </c>
@@ -17146,7 +17209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>36</v>
       </c>
@@ -17239,7 +17302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>36</v>
       </c>
@@ -17332,7 +17395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>36</v>
       </c>
@@ -17425,7 +17488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>36</v>
       </c>
@@ -17518,7 +17581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>36</v>
       </c>
@@ -17611,7 +17674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>36</v>
       </c>
@@ -17704,7 +17767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>36</v>
       </c>
@@ -17797,7 +17860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>36</v>
       </c>
@@ -17890,7 +17953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>36</v>
       </c>
@@ -17983,7 +18046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>36</v>
       </c>
@@ -18076,7 +18139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>36</v>
       </c>
@@ -18169,7 +18232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>36</v>
       </c>
@@ -18262,7 +18325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>36</v>
       </c>
@@ -18355,7 +18418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>36</v>
       </c>
@@ -18448,7 +18511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>36</v>
       </c>
@@ -18541,7 +18604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>36</v>
       </c>
@@ -18634,7 +18697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>36</v>
       </c>
@@ -18727,7 +18790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>36</v>
       </c>
@@ -18820,7 +18883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>36</v>
       </c>
@@ -18913,7 +18976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>36</v>
       </c>
@@ -19006,7 +19069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>36</v>
       </c>
@@ -19099,7 +19162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>36</v>
       </c>
@@ -19192,7 +19255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>36</v>
       </c>
@@ -19285,7 +19348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>36</v>
       </c>
@@ -19378,7 +19441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>36</v>
       </c>
@@ -19471,7 +19534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>36</v>
       </c>
@@ -19564,7 +19627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>36</v>
       </c>
@@ -19657,7 +19720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>36</v>
       </c>
@@ -19750,7 +19813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>36</v>
       </c>
@@ -19843,7 +19906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>36</v>
       </c>
@@ -19936,7 +19999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>36</v>
       </c>
@@ -20029,7 +20092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>36</v>
       </c>
@@ -20122,7 +20185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>36</v>
       </c>
@@ -20215,7 +20278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>36</v>
       </c>
@@ -20308,7 +20371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>36</v>
       </c>
@@ -20401,7 +20464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>36</v>
       </c>
@@ -20494,7 +20557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>36</v>
       </c>
@@ -20587,7 +20650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>36</v>
       </c>
@@ -20680,7 +20743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>36</v>
       </c>
@@ -20773,7 +20836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>36</v>
       </c>
@@ -20866,7 +20929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>36</v>
       </c>
@@ -20959,7 +21022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>36</v>
       </c>
@@ -21052,7 +21115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>36</v>
       </c>
@@ -21145,7 +21208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>36</v>
       </c>
@@ -21238,7 +21301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>36</v>
       </c>
@@ -21331,7 +21394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>36</v>
       </c>
@@ -21424,7 +21487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>36</v>
       </c>
@@ -21517,7 +21580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>36</v>
       </c>
@@ -21610,7 +21673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>36</v>
       </c>
@@ -21703,7 +21766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>36</v>
       </c>
@@ -21796,7 +21859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>36</v>
       </c>
@@ -21889,7 +21952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>36</v>
       </c>
@@ -21982,7 +22045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>36</v>
       </c>
@@ -22075,7 +22138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>36</v>
       </c>
@@ -22168,7 +22231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:30" hidden="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>36</v>
       </c>
@@ -22265,7 +22328,7 @@
   <autoFilter ref="A1:AD207">
     <filterColumn colId="0">
       <filters>
-        <filter val="Северная губа"/>
+        <filter val="Южная губа"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -22275,6 +22338,114 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="16.08984375" customWidth="1"/>
+    <col min="2" max="2" width="19.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B72"/>
   <sheetViews>
@@ -22869,7 +23040,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B136"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>

--- a/Vitia_Ostrovsky/R_Calc_Crang_2024/Data/Crang_2024.xlsx
+++ b/Vitia_Ostrovsky/R_Calc_Crang_2024/Data/Crang_2024.xlsx
@@ -9,25 +9,26 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22190" windowHeight="9180" firstSheet="3" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22190" windowHeight="9180" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Full" sheetId="1" r:id="rId1"/>
-    <sheet name="Size_Structure_South" sheetId="11" r:id="rId2"/>
-    <sheet name="Size_Structure_Nord" sheetId="10" r:id="rId3"/>
-    <sheet name="Coordinates" sheetId="7" r:id="rId4"/>
-    <sheet name="Чистовые" sheetId="3" r:id="rId5"/>
-    <sheet name="Outline" sheetId="5" r:id="rId6"/>
-    <sheet name="Чистовые Северная " sheetId="4" r:id="rId7"/>
-    <sheet name="Coordinats" sheetId="2" r:id="rId8"/>
-    <sheet name="Nor" sheetId="6" r:id="rId9"/>
-    <sheet name="Лист1" sheetId="12" r:id="rId10"/>
-    <sheet name="Nord" sheetId="9" r:id="rId11"/>
+    <sheet name="Outline_s" sheetId="13" r:id="rId1"/>
+    <sheet name="Coordinates_s" sheetId="14" r:id="rId2"/>
+    <sheet name="Size_Structure_South" sheetId="11" r:id="rId3"/>
+    <sheet name="Size_Structure_Nord" sheetId="10" r:id="rId4"/>
+    <sheet name="Coordinates" sheetId="7" r:id="rId5"/>
+    <sheet name="Чистовые" sheetId="3" r:id="rId6"/>
+    <sheet name="Outline" sheetId="5" r:id="rId7"/>
+    <sheet name="Чистовые Северная " sheetId="4" r:id="rId8"/>
+    <sheet name="Coordinats" sheetId="2" r:id="rId9"/>
+    <sheet name="Nor" sheetId="6" r:id="rId10"/>
+    <sheet name="Full" sheetId="1" r:id="rId11"/>
+    <sheet name="Nord" sheetId="9" r:id="rId12"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Full!$A$1:$AD$207</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Чистовые!$A$1:$AA$49</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Чистовые Северная '!$A$1:$N$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">Full!$A$1:$AD$207</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Чистовые!$A$1:$AA$49</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Чистовые Северная '!$A$1:$N$16</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="115">
   <si>
     <t>Area</t>
   </si>
@@ -392,17 +393,14 @@
     <t>Sampe</t>
   </si>
   <si>
-    <t xml:space="preserve">Пищевай объект </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Частота встречаемости </t>
+    <t>Stream</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -463,22 +461,6 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF2E1500"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -488,7 +470,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -496,39 +478,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -565,18 +519,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -946,11 +888,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="176890080"/>
-        <c:axId val="176890464"/>
+        <c:axId val="180789256"/>
+        <c:axId val="181825016"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="176890080"/>
+        <c:axId val="180789256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1007,12 +949,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="176890464"/>
+        <c:crossAx val="181825016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="176890464"/>
+        <c:axId val="181825016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1069,7 +1011,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="176890080"/>
+        <c:crossAx val="180789256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1449,11 +1391,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="176034928"/>
-        <c:axId val="177465896"/>
+        <c:axId val="181160648"/>
+        <c:axId val="181161032"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="176034928"/>
+        <c:axId val="181160648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1510,12 +1452,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="177465896"/>
+        <c:crossAx val="181161032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="177465896"/>
+        <c:axId val="181161032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1572,7 +1514,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="176034928"/>
+        <c:crossAx val="181160648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3061,11 +3003,1240 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C88"/>
+  <sheetViews>
+    <sheetView topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B88"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="13">
+        <v>32.578868999999997</v>
+      </c>
+      <c r="B2" s="13">
+        <v>67.007221000000001</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="6">
+        <v>32.573613000000002</v>
+      </c>
+      <c r="B3" s="6">
+        <v>67.009069999999994</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="6">
+        <v>32.572926000000002</v>
+      </c>
+      <c r="B4" s="6">
+        <v>67.009156000000004</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="6">
+        <v>32.572493999999999</v>
+      </c>
+      <c r="B5" s="6">
+        <v>67.009214999999998</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="6">
+        <v>32.571865000000003</v>
+      </c>
+      <c r="B6" s="6">
+        <v>67.009352000000007</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="6">
+        <v>32.571238000000001</v>
+      </c>
+      <c r="B7" s="6">
+        <v>67.009400999999997</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="6">
+        <v>32.570754999999998</v>
+      </c>
+      <c r="B8" s="6">
+        <v>67.009433999999999</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="6">
+        <v>32.570191999999999</v>
+      </c>
+      <c r="B9" s="6">
+        <v>67.009461999999999</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="6">
+        <v>32.569648999999998</v>
+      </c>
+      <c r="B10" s="6">
+        <v>67.009573000000003</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="6">
+        <v>32.569279000000002</v>
+      </c>
+      <c r="B11" s="6">
+        <v>67.009687999999997</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="6">
+        <v>32.569026999999998</v>
+      </c>
+      <c r="B12" s="6">
+        <v>67.009533000000005</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="6">
+        <v>32.569094</v>
+      </c>
+      <c r="B13" s="6">
+        <v>67.009322999999995</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="6">
+        <v>32.569170999999997</v>
+      </c>
+      <c r="B14" s="6">
+        <v>67.009169</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="6">
+        <v>32.569223000000001</v>
+      </c>
+      <c r="B15" s="6">
+        <v>67.008887999999999</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="6">
+        <v>32.569003000000002</v>
+      </c>
+      <c r="B16" s="6">
+        <v>67.008793999999995</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="6">
+        <v>32.568922000000001</v>
+      </c>
+      <c r="B17" s="6">
+        <v>67.008622000000003</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" s="6">
+        <v>32.568919999999999</v>
+      </c>
+      <c r="B18" s="6">
+        <v>67.008533</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" s="6">
+        <v>32.568846999999998</v>
+      </c>
+      <c r="B19" s="6">
+        <v>67.008317000000005</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" s="6">
+        <v>32.569051000000002</v>
+      </c>
+      <c r="B20" s="6">
+        <v>67.008207999999996</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" s="6">
+        <v>32.569353999999997</v>
+      </c>
+      <c r="B21" s="6">
+        <v>67.008082999999999</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" s="6">
+        <v>32.569678000000003</v>
+      </c>
+      <c r="B22" s="6">
+        <v>67.007921999999994</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" s="6">
+        <v>32.569737000000003</v>
+      </c>
+      <c r="B23" s="6">
+        <v>67.007705000000001</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" s="6">
+        <v>32.570033000000002</v>
+      </c>
+      <c r="B24" s="6">
+        <v>67.007446000000002</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" s="6">
+        <v>32.569938</v>
+      </c>
+      <c r="B25" s="6">
+        <v>67.007284999999996</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" s="6">
+        <v>32.569974000000002</v>
+      </c>
+      <c r="B26" s="6">
+        <v>67.007182</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" s="6">
+        <v>32.569960999999999</v>
+      </c>
+      <c r="B27" s="6">
+        <v>67.007143999999997</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" s="6">
+        <v>32.569927999999997</v>
+      </c>
+      <c r="B28" s="6">
+        <v>67.007071999999994</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" s="6">
+        <v>32.569997999999998</v>
+      </c>
+      <c r="B29" s="6">
+        <v>67.006966000000006</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" s="6">
+        <v>32.569997000000001</v>
+      </c>
+      <c r="B30" s="6">
+        <v>67.006865000000005</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" s="6">
+        <v>32.569997000000001</v>
+      </c>
+      <c r="B31" s="6">
+        <v>67.006808000000007</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" s="6">
+        <v>32.569923000000003</v>
+      </c>
+      <c r="B32" s="6">
+        <v>67.006945999999999</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" s="6">
+        <v>32.569926000000002</v>
+      </c>
+      <c r="B33" s="6">
+        <v>67.006878999999998</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" s="6">
+        <v>32.569989999999997</v>
+      </c>
+      <c r="B34" s="6">
+        <v>67.006778999999995</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" s="6">
+        <v>32.569968000000003</v>
+      </c>
+      <c r="B35" s="6">
+        <v>67.006725000000003</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" s="6">
+        <v>32.569965000000003</v>
+      </c>
+      <c r="B36" s="6">
+        <v>67.006936999999994</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37" s="6">
+        <v>32.569910999999998</v>
+      </c>
+      <c r="B37" s="6">
+        <v>67.006803000000005</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38" s="6">
+        <v>32.569935000000001</v>
+      </c>
+      <c r="B38" s="6">
+        <v>67.006685000000004</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39" s="6">
+        <v>32.569965000000003</v>
+      </c>
+      <c r="B39" s="6">
+        <v>67.006626999999995</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40" s="6">
+        <v>32.570118999999998</v>
+      </c>
+      <c r="B40" s="6">
+        <v>67.006338</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41" s="6">
+        <v>32.570124</v>
+      </c>
+      <c r="B41" s="6">
+        <v>67.006096999999997</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42" s="6">
+        <v>32.570300000000003</v>
+      </c>
+      <c r="B42" s="6">
+        <v>67.005799999999994</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43" s="6">
+        <v>32.570827999999999</v>
+      </c>
+      <c r="B43" s="6">
+        <v>67.005639000000002</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44" s="6">
+        <v>32.571153000000002</v>
+      </c>
+      <c r="B44" s="6">
+        <v>67.005488</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45" s="6">
+        <v>32.571606000000003</v>
+      </c>
+      <c r="B45" s="6">
+        <v>67.005398</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A46" s="6">
+        <v>32.572310000000002</v>
+      </c>
+      <c r="B46" s="6">
+        <v>67.005325999999997</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A47" s="6">
+        <v>32.573086000000004</v>
+      </c>
+      <c r="B47" s="6">
+        <v>67.005133000000001</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A48" s="6">
+        <v>32.574626000000002</v>
+      </c>
+      <c r="B48" s="6">
+        <v>67.007643999999999</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A49" s="6">
+        <v>32.574575000000003</v>
+      </c>
+      <c r="B49" s="6">
+        <v>67.007934000000006</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A50" s="6">
+        <v>32.574612000000002</v>
+      </c>
+      <c r="B50" s="6">
+        <v>67.008227000000005</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A51" s="6">
+        <v>32.574534999999997</v>
+      </c>
+      <c r="B51" s="6">
+        <v>67.008489999999995</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A52" s="6">
+        <v>32.574388999999996</v>
+      </c>
+      <c r="B52" s="6">
+        <v>67.008690000000001</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A53" s="6">
+        <v>32.573687</v>
+      </c>
+      <c r="B53" s="6">
+        <v>67.008313000000001</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A54" s="6">
+        <v>32.573351000000002</v>
+      </c>
+      <c r="B54" s="6">
+        <v>67.008138000000002</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A55" s="6">
+        <v>32.573123000000002</v>
+      </c>
+      <c r="B55" s="6">
+        <v>67.008004999999997</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A56" s="6">
+        <v>32.57255</v>
+      </c>
+      <c r="B56" s="6">
+        <v>67.007812000000001</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A57" s="6">
+        <v>32.571944000000002</v>
+      </c>
+      <c r="B57" s="6">
+        <v>67.007610999999997</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A58" s="6">
+        <v>32.571688000000002</v>
+      </c>
+      <c r="B58" s="6">
+        <v>67.007450000000006</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A59" s="6">
+        <v>32.571516000000003</v>
+      </c>
+      <c r="B59" s="6">
+        <v>67.007315000000006</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A60" s="6">
+        <v>32.571351</v>
+      </c>
+      <c r="B60" s="6">
+        <v>67.007215000000002</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A61" s="6">
+        <v>32.571283000000001</v>
+      </c>
+      <c r="B61" s="6">
+        <v>67.007125000000002</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A62" s="6">
+        <v>32.571441999999998</v>
+      </c>
+      <c r="B62" s="6">
+        <v>67.006877000000003</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A63" s="6">
+        <v>32.571313000000004</v>
+      </c>
+      <c r="B63" s="6">
+        <v>67.006652000000003</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A64" s="6">
+        <v>32.571710000000003</v>
+      </c>
+      <c r="B64" s="6">
+        <v>67.006473</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A65" s="6">
+        <v>32.572294999999997</v>
+      </c>
+      <c r="B65" s="6">
+        <v>67.006307000000007</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A66" s="6">
+        <v>32.573276999999997</v>
+      </c>
+      <c r="B66" s="6">
+        <v>67.006407999999993</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A67" s="6">
+        <v>32.572840999999997</v>
+      </c>
+      <c r="B67" s="6">
+        <v>67.006020000000007</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A68" s="6">
+        <v>32.572999000000003</v>
+      </c>
+      <c r="B68" s="6">
+        <v>67.005842000000001</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A69" s="6">
+        <v>32.573602000000001</v>
+      </c>
+      <c r="B69" s="6">
+        <v>67.005574999999993</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A70" s="6">
+        <v>32.574444999999997</v>
+      </c>
+      <c r="B70" s="6">
+        <v>67.005455100000006</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A71" s="13">
+        <v>32.569695000000003</v>
+      </c>
+      <c r="B71" s="13">
+        <v>67.009367999999995</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A72" s="13">
+        <v>32.569792</v>
+      </c>
+      <c r="B72" s="13">
+        <v>67.009257000000005</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A73" s="13">
+        <v>32.56991</v>
+      </c>
+      <c r="B73" s="13">
+        <v>67.009187999999995</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A74" s="13">
+        <v>32.570000999999998</v>
+      </c>
+      <c r="B74" s="13">
+        <v>67.009084999999999</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A75" s="13">
+        <v>32.570005999999999</v>
+      </c>
+      <c r="B75" s="13">
+        <v>67.008950999999996</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A76" s="13">
+        <v>32.570022000000002</v>
+      </c>
+      <c r="B76" s="13">
+        <v>67.008730999999997</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A77" s="13">
+        <v>32.570393000000003</v>
+      </c>
+      <c r="B77" s="13">
+        <v>67.008671000000007</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A78" s="13">
+        <v>32.570695999999998</v>
+      </c>
+      <c r="B78" s="13">
+        <v>67.008615000000006</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A79" s="13">
+        <v>32.571013999999998</v>
+      </c>
+      <c r="B79" s="13">
+        <v>67.008509000000004</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A80" s="13">
+        <v>32.571238999999998</v>
+      </c>
+      <c r="B80" s="13">
+        <v>67.008455999999995</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A81" s="13">
+        <v>32.571137999999998</v>
+      </c>
+      <c r="B81" s="13">
+        <v>67.008328000000006</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A82" s="13">
+        <v>32.571154</v>
+      </c>
+      <c r="B82" s="13">
+        <v>67.008212999999998</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A83" s="13">
+        <v>32.571154</v>
+      </c>
+      <c r="B83" s="13">
+        <v>67.008162999999996</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A84" s="13">
+        <v>32.571196999999998</v>
+      </c>
+      <c r="B84" s="13">
+        <v>67.008064000000005</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A85" s="13">
+        <v>32.571233999999997</v>
+      </c>
+      <c r="B85" s="13">
+        <v>67.007971999999995</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A86" s="13">
+        <v>32.571368</v>
+      </c>
+      <c r="B86" s="13">
+        <v>67.007833000000005</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A87" s="13">
+        <v>32.571410999999998</v>
+      </c>
+      <c r="B87" s="13">
+        <v>67.007723999999996</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A88" s="13">
+        <v>32.571513000000003</v>
+      </c>
+      <c r="B88" s="13">
+        <v>67.007472000000007</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>67.025726000000006</v>
+      </c>
+      <c r="B2">
+        <v>32.539363000000002</v>
+      </c>
+      <c r="C2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>67.025726000000006</v>
+      </c>
+      <c r="B3">
+        <v>32.539363000000002</v>
+      </c>
+      <c r="C3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>67.025726000000006</v>
+      </c>
+      <c r="B4">
+        <v>32.539363000000002</v>
+      </c>
+      <c r="C4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>67.024916000000005</v>
+      </c>
+      <c r="B5">
+        <v>32.540227999999999</v>
+      </c>
+      <c r="C5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>67.024916000000005</v>
+      </c>
+      <c r="B6">
+        <v>32.540227999999999</v>
+      </c>
+      <c r="C6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>67.024916000000005</v>
+      </c>
+      <c r="B7">
+        <v>32.540227999999999</v>
+      </c>
+      <c r="C7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>67.024895000000001</v>
+      </c>
+      <c r="B8">
+        <v>32.540433999999998</v>
+      </c>
+      <c r="C8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>67.024895000000001</v>
+      </c>
+      <c r="B9">
+        <v>32.540433999999998</v>
+      </c>
+      <c r="C9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>67.024895000000001</v>
+      </c>
+      <c r="B10">
+        <v>32.540433999999998</v>
+      </c>
+      <c r="C10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>67.024872999999999</v>
+      </c>
+      <c r="B11">
+        <v>32.540323000000001</v>
+      </c>
+      <c r="C11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>67.024872999999999</v>
+      </c>
+      <c r="B12">
+        <v>32.540323000000001</v>
+      </c>
+      <c r="C12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>67.024872999999999</v>
+      </c>
+      <c r="B13">
+        <v>32.540323000000001</v>
+      </c>
+      <c r="C13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>67.024970999999994</v>
+      </c>
+      <c r="B14">
+        <v>32.541609000000001</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>67.024970999999994</v>
+      </c>
+      <c r="B15">
+        <v>32.541609000000001</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>67.024970999999994</v>
+      </c>
+      <c r="B16">
+        <v>32.541609000000001</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>67.024872999999999</v>
+      </c>
+      <c r="B17">
+        <v>32.540323000000001</v>
+      </c>
+      <c r="C17" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>67.024872999999999</v>
+      </c>
+      <c r="B18">
+        <v>32.540323000000001</v>
+      </c>
+      <c r="C18" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>67.024970999999994</v>
+      </c>
+      <c r="B19">
+        <v>32.541609000000001</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>67.024970999999994</v>
+      </c>
+      <c r="B20">
+        <v>32.541609000000001</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>67.024970999999994</v>
+      </c>
+      <c r="B21">
+        <v>32.541609000000001</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:AD207"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1:Q1048576"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="Z1" sqref="Z1:Z1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -22337,115 +23508,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B17"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="16.08984375" customWidth="1"/>
-    <col min="2" max="2" width="19.6328125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="18" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="19" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="19" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="19" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="19" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="19" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="20" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="19" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="19" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="19" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="21" t="s">
-        <v>26</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B72"/>
   <sheetViews>
@@ -23037,6 +24100,153 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="6">
+        <v>34.911000000000001</v>
+      </c>
+      <c r="C2" s="6">
+        <v>67.504999999999995</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="6">
+        <v>34.383000000000003</v>
+      </c>
+      <c r="C3" s="6">
+        <v>67.498999999999995</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="6">
+        <v>34.344000000000001</v>
+      </c>
+      <c r="C4" s="6">
+        <v>67.498000000000005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="6">
+        <v>34.311999999999998</v>
+      </c>
+      <c r="C5" s="6">
+        <v>67.497</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="6">
+        <v>34.270000000000003</v>
+      </c>
+      <c r="C6" s="6">
+        <v>67.506</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="6">
+        <v>34.386000000000003</v>
+      </c>
+      <c r="C7" s="6">
+        <v>67.510000000000005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="6">
+        <v>34.351999999999997</v>
+      </c>
+      <c r="C8" s="6">
+        <v>67.504999999999995</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="6">
+        <v>34.32</v>
+      </c>
+      <c r="C9" s="6">
+        <v>67.399000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="6">
+        <v>34.281999999999996</v>
+      </c>
+      <c r="C10" s="6">
+        <v>67.491</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="6">
+        <v>34.259</v>
+      </c>
+      <c r="C11" s="6">
+        <v>67.472999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="6">
+        <v>34.25</v>
+      </c>
+      <c r="C12" s="6">
+        <v>67.441000000000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B136"/>
   <sheetViews>
@@ -24139,7 +25349,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B72"/>
   <sheetViews>
@@ -24730,7 +25940,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C12"/>
   <sheetViews>
@@ -24877,7 +26087,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA49"/>
   <sheetViews>
@@ -28963,7 +30173,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L88"/>
   <sheetViews>
@@ -29742,7 +30952,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N16"/>
   <sheetViews>
@@ -30463,7 +31673,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F39"/>
   <sheetViews>
@@ -31024,250 +32234,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>67.025726000000006</v>
-      </c>
-      <c r="B2">
-        <v>32.539363000000002</v>
-      </c>
-      <c r="C2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>67.025726000000006</v>
-      </c>
-      <c r="B3">
-        <v>32.539363000000002</v>
-      </c>
-      <c r="C3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>67.025726000000006</v>
-      </c>
-      <c r="B4">
-        <v>32.539363000000002</v>
-      </c>
-      <c r="C4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>67.024916000000005</v>
-      </c>
-      <c r="B5">
-        <v>32.540227999999999</v>
-      </c>
-      <c r="C5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>67.024916000000005</v>
-      </c>
-      <c r="B6">
-        <v>32.540227999999999</v>
-      </c>
-      <c r="C6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>67.024916000000005</v>
-      </c>
-      <c r="B7">
-        <v>32.540227999999999</v>
-      </c>
-      <c r="C7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <v>67.024895000000001</v>
-      </c>
-      <c r="B8">
-        <v>32.540433999999998</v>
-      </c>
-      <c r="C8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <v>67.024895000000001</v>
-      </c>
-      <c r="B9">
-        <v>32.540433999999998</v>
-      </c>
-      <c r="C9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <v>67.024895000000001</v>
-      </c>
-      <c r="B10">
-        <v>32.540433999999998</v>
-      </c>
-      <c r="C10" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11">
-        <v>67.024872999999999</v>
-      </c>
-      <c r="B11">
-        <v>32.540323000000001</v>
-      </c>
-      <c r="C11" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12">
-        <v>67.024872999999999</v>
-      </c>
-      <c r="B12">
-        <v>32.540323000000001</v>
-      </c>
-      <c r="C12" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13">
-        <v>67.024872999999999</v>
-      </c>
-      <c r="B13">
-        <v>32.540323000000001</v>
-      </c>
-      <c r="C13" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14">
-        <v>67.024970999999994</v>
-      </c>
-      <c r="B14">
-        <v>32.541609000000001</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15">
-        <v>67.024970999999994</v>
-      </c>
-      <c r="B15">
-        <v>32.541609000000001</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16">
-        <v>67.024970999999994</v>
-      </c>
-      <c r="B16">
-        <v>32.541609000000001</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17">
-        <v>67.024872999999999</v>
-      </c>
-      <c r="B17">
-        <v>32.540323000000001</v>
-      </c>
-      <c r="C17" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18">
-        <v>67.024872999999999</v>
-      </c>
-      <c r="B18">
-        <v>32.540323000000001</v>
-      </c>
-      <c r="C18" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19">
-        <v>67.024970999999994</v>
-      </c>
-      <c r="B19">
-        <v>32.541609000000001</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20">
-        <v>67.024970999999994</v>
-      </c>
-      <c r="B20">
-        <v>32.541609000000001</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21">
-        <v>67.024970999999994</v>
-      </c>
-      <c r="B21">
-        <v>32.541609000000001</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Vitia_Ostrovsky/R_Calc_Crang_2024/Data/Crang_2024.xlsx
+++ b/Vitia_Ostrovsky/R_Calc_Crang_2024/Data/Crang_2024.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22190" windowHeight="9180" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22190" windowHeight="9180" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Outline_s" sheetId="13" r:id="rId1"/>
@@ -888,11 +888,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="180789256"/>
-        <c:axId val="181825016"/>
+        <c:axId val="180133400"/>
+        <c:axId val="180129960"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="180789256"/>
+        <c:axId val="180133400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -949,12 +949,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="181825016"/>
+        <c:crossAx val="180129960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="181825016"/>
+        <c:axId val="180129960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1011,7 +1011,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="180789256"/>
+        <c:crossAx val="180133400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1391,11 +1391,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="181160648"/>
-        <c:axId val="181161032"/>
+        <c:axId val="179661008"/>
+        <c:axId val="179661392"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="181160648"/>
+        <c:axId val="179661008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1452,12 +1452,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="181161032"/>
+        <c:crossAx val="179661392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="181161032"/>
+        <c:axId val="179661392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1514,7 +1514,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="181160648"/>
+        <c:crossAx val="179661008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -24103,7 +24103,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -26089,10 +26089,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:AA49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E58" sqref="E58"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -28922,7 +28923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>96</v>
       </c>
@@ -29005,7 +29006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>96</v>
       </c>
@@ -29088,7 +29089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>96</v>
       </c>
@@ -29171,7 +29172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>96</v>
       </c>
@@ -29254,7 +29255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>96</v>
       </c>
@@ -29337,7 +29338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>96</v>
       </c>
@@ -29420,7 +29421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>96</v>
       </c>
@@ -29503,7 +29504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>96</v>
       </c>
@@ -29586,7 +29587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>96</v>
       </c>
@@ -29669,7 +29670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>96</v>
       </c>
@@ -29752,7 +29753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>96</v>
       </c>
@@ -29835,7 +29836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>96</v>
       </c>
@@ -29918,7 +29919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>96</v>
       </c>
@@ -30001,7 +30002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>96</v>
       </c>
@@ -30084,7 +30085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>96</v>
       </c>
@@ -30168,7 +30169,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AA49"/>
+  <autoFilter ref="A1:AA49">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Южная губа"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -30178,7 +30185,7 @@
   <dimension ref="A1:L88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Vitia_Ostrovsky/R_Calc_Crang_2024/Data/Crang_2024.xlsx
+++ b/Vitia_Ostrovsky/R_Calc_Crang_2024/Data/Crang_2024.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22190" windowHeight="9180" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22190" windowHeight="9180" firstSheet="3" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Outline_s" sheetId="13" r:id="rId1"/>
@@ -18,17 +18,20 @@
     <sheet name="Size_Structure_Nord" sheetId="10" r:id="rId4"/>
     <sheet name="Coordinates" sheetId="7" r:id="rId5"/>
     <sheet name="Чистовые" sheetId="3" r:id="rId6"/>
-    <sheet name="Outline" sheetId="5" r:id="rId7"/>
-    <sheet name="Чистовые Северная " sheetId="4" r:id="rId8"/>
-    <sheet name="Coordinats" sheetId="2" r:id="rId9"/>
-    <sheet name="Nor" sheetId="6" r:id="rId10"/>
-    <sheet name="Full" sheetId="1" r:id="rId11"/>
-    <sheet name="Nord" sheetId="9" r:id="rId12"/>
+    <sheet name="Сообщества кластеры" sheetId="16" r:id="rId7"/>
+    <sheet name="РАцион в двух акваториях" sheetId="15" r:id="rId8"/>
+    <sheet name="Outline" sheetId="5" r:id="rId9"/>
+    <sheet name="Чистовые Северная " sheetId="4" r:id="rId10"/>
+    <sheet name="Coordinats" sheetId="2" r:id="rId11"/>
+    <sheet name="Nor" sheetId="6" r:id="rId12"/>
+    <sheet name="Full" sheetId="1" r:id="rId13"/>
+    <sheet name="Nord" sheetId="9" r:id="rId14"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">Full!$A$1:$AD$207</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Чистовые!$A$1:$AA$49</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Чистовые Северная '!$A$1:$N$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">Full!$A$1:$AD$207</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Сообщества кластеры'!$A$1:$E$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Чистовые!$A$1:$AB$49</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'Чистовые Северная '!$A$1:$N$16</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -48,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="124">
   <si>
     <t>Area</t>
   </si>
@@ -395,16 +398,51 @@
   <si>
     <t>Stream</t>
   </si>
+  <si>
+    <t>Пустые желудки</t>
+  </si>
+  <si>
+    <t>Пищевой объект</t>
+  </si>
+  <si>
+    <t>Cluster</t>
+  </si>
+  <si>
+    <t>Виды</t>
+  </si>
+  <si>
+    <t>Hydrobia ulvae</t>
+  </si>
+  <si>
+    <t>Кластер 1</t>
+  </si>
+  <si>
+    <t>Кластер 2</t>
+  </si>
+  <si>
+    <t>Кластер 3</t>
+  </si>
+  <si>
+    <t>Кластер 4</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
@@ -482,23 +520,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -511,13 +549,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -888,11 +927,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="180133400"/>
-        <c:axId val="180129960"/>
+        <c:axId val="147939672"/>
+        <c:axId val="146555272"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="180133400"/>
+        <c:axId val="147939672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -949,12 +988,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="180129960"/>
+        <c:crossAx val="146555272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="180129960"/>
+        <c:axId val="146555272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1011,7 +1050,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="180133400"/>
+        <c:crossAx val="147939672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1391,11 +1430,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="179661008"/>
-        <c:axId val="179661392"/>
+        <c:axId val="148441000"/>
+        <c:axId val="148441384"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="179661008"/>
+        <c:axId val="148441000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1452,12 +1491,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="179661392"/>
+        <c:crossAx val="148441384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="179661392"/>
+        <c:axId val="148441384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1514,7 +1553,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="179661008"/>
+        <c:crossAx val="148441000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3986,6 +4025,1290 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" t="s">
+        <v>103</v>
+      </c>
+      <c r="J1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M1" t="s">
+        <v>104</v>
+      </c>
+      <c r="N1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2">
+        <v>148</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3">
+        <v>68</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4">
+        <v>146</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B5">
+        <v>224</v>
+      </c>
+      <c r="C5">
+        <v>7</v>
+      </c>
+      <c r="D5">
+        <v>9</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>9</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B6">
+        <v>163</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>14</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>4</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>8</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>100</v>
+      </c>
+      <c r="B7">
+        <v>218</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>12</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8">
+        <v>144</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8">
+        <v>17</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>6</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9">
+        <v>180</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>8</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>13</v>
+      </c>
+      <c r="J9">
+        <v>2</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>3</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10">
+        <v>86</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>5</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>7</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>72</v>
+      </c>
+      <c r="B11">
+        <v>60</v>
+      </c>
+      <c r="C11">
+        <v>6</v>
+      </c>
+      <c r="D11">
+        <v>16</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>12</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>73</v>
+      </c>
+      <c r="B12">
+        <v>15</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>15</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>3</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>3</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>74</v>
+      </c>
+      <c r="B13">
+        <v>71</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>18</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>3</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>6</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>5</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B14">
+        <v>67</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>49</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>3</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>17</v>
+      </c>
+      <c r="L14">
+        <v>19</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15">
+        <v>123</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>70</v>
+      </c>
+      <c r="E15">
+        <v>4</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>9</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>8</v>
+      </c>
+      <c r="L15">
+        <v>12</v>
+      </c>
+      <c r="M15">
+        <v>3</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>77</v>
+      </c>
+      <c r="B16">
+        <v>39</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>19</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>3</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>4</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:N16"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F39"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="13">
+        <v>67.025744000000003</v>
+      </c>
+      <c r="B2" s="15">
+        <v>32.538217000000003</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="16">
+        <v>67.025658000000007</v>
+      </c>
+      <c r="B3" s="15">
+        <v>32.538271000000002</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="16">
+        <v>67.025507000000005</v>
+      </c>
+      <c r="B4" s="13">
+        <v>32.538297</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="16">
+        <v>67.025374999999997</v>
+      </c>
+      <c r="B5" s="13">
+        <v>32.538271000000002</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="16">
+        <v>67.025281000000007</v>
+      </c>
+      <c r="B6" s="13">
+        <v>32.538378000000002</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="16">
+        <v>67.025107000000006</v>
+      </c>
+      <c r="B7" s="13">
+        <v>32.538791000000003</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="16">
+        <v>67.025026999999994</v>
+      </c>
+      <c r="B8" s="13">
+        <v>32.539262999999998</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="16">
+        <v>67.024855000000002</v>
+      </c>
+      <c r="B9" s="13">
+        <v>32.539580000000001</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="16">
+        <v>67.024736000000004</v>
+      </c>
+      <c r="B10" s="13">
+        <v>32.540056999999997</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="16">
+        <v>67.024501000000001</v>
+      </c>
+      <c r="B11" s="13">
+        <v>32.541179999999997</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="16">
+        <v>67.024293</v>
+      </c>
+      <c r="B12" s="13">
+        <v>32.541808000000003</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="16">
+        <v>67.024096</v>
+      </c>
+      <c r="B13" s="13">
+        <v>32.542332999999999</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="16">
+        <v>67.024096</v>
+      </c>
+      <c r="B14" s="13">
+        <v>32.542332999999999</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="16">
+        <v>67.024062999999998</v>
+      </c>
+      <c r="B15" s="13">
+        <v>32.542988000000001</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="16">
+        <v>67.024062999999998</v>
+      </c>
+      <c r="B16" s="13">
+        <v>32.542988000000001</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" s="16">
+        <v>67.024568000000002</v>
+      </c>
+      <c r="B17" s="13">
+        <v>32.542676999999998</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" s="16">
+        <v>67.024568000000002</v>
+      </c>
+      <c r="B18" s="13">
+        <v>32.542676999999998</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" s="16">
+        <v>67.025073000000006</v>
+      </c>
+      <c r="B19" s="13">
+        <v>32.542430000000003</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" s="16">
+        <v>67.025347999999994</v>
+      </c>
+      <c r="B20" s="13">
+        <v>32.542194000000002</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" s="16">
+        <v>67.025557000000006</v>
+      </c>
+      <c r="B21" s="13">
+        <v>32.542172000000001</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" s="16">
+        <v>67.025797999999995</v>
+      </c>
+      <c r="B22" s="13">
+        <v>32.542209999999997</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="F22" s="15"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" s="16">
+        <v>67.026062999999994</v>
+      </c>
+      <c r="B23" s="13">
+        <v>32.541988000000003</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24" s="16">
+        <v>67.025881999999996</v>
+      </c>
+      <c r="B24" s="13">
+        <v>32.538555000000002</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25" s="16">
+        <v>67.025766000000004</v>
+      </c>
+      <c r="B25" s="13">
+        <v>32.538625000000003</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26" s="16">
+        <v>67.025687000000005</v>
+      </c>
+      <c r="B26" s="13">
+        <v>32.538646</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27" s="16">
+        <v>67.025620000000004</v>
+      </c>
+      <c r="B27" s="13">
+        <v>32.538688999999998</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28" s="16">
+        <v>67.025525999999999</v>
+      </c>
+      <c r="B28" s="13">
+        <v>32.538764</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29" s="16">
+        <v>67.025380999999996</v>
+      </c>
+      <c r="B29" s="13">
+        <v>32.539155999999998</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30" s="16">
+        <v>67.025380999999996</v>
+      </c>
+      <c r="B30" s="13">
+        <v>32.539155999999998</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A31" s="16">
+        <v>67.025347999999994</v>
+      </c>
+      <c r="B31" s="13">
+        <v>32.539890999999997</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A32" s="16">
+        <v>67.025347999999994</v>
+      </c>
+      <c r="B32" s="13">
+        <v>32.539890999999997</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" s="16">
+        <v>67.025347999999994</v>
+      </c>
+      <c r="B33" s="13">
+        <v>32.539890999999997</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" s="16">
+        <v>67.025347999999994</v>
+      </c>
+      <c r="B34" s="13">
+        <v>32.539890999999997</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35" s="16">
+        <v>67.025454999999994</v>
+      </c>
+      <c r="B35" s="13">
+        <v>32.541167000000002</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36" s="16">
+        <v>67.025600999999995</v>
+      </c>
+      <c r="B36" s="13">
+        <v>32.541473000000003</v>
+      </c>
+      <c r="C36" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37" s="16">
+        <v>67.025811000000004</v>
+      </c>
+      <c r="B37" s="13">
+        <v>32.541468000000002</v>
+      </c>
+      <c r="C37" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="D37" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38" s="16">
+        <v>67.025985000000006</v>
+      </c>
+      <c r="B38" s="13">
+        <v>32.541392999999999</v>
+      </c>
+      <c r="C38" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39" s="16">
+        <v>67.026184999999998</v>
+      </c>
+      <c r="B39" s="13">
+        <v>32.541409000000002</v>
+      </c>
+      <c r="C39" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="D39" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4230,7 +5553,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:AD207"/>
@@ -23508,7 +24831,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B72"/>
   <sheetViews>
@@ -26089,19 +27412,18 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:AA49"/>
+  <dimension ref="A1:AB49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AD13" sqref="AD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="8.453125" customWidth="1"/>
+    <col min="3" max="4" width="8.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -26111,80 +27433,83 @@
       <c r="C1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="E1" t="s">
         <v>45</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="R1" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="S1" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="T1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="T1" s="8" t="s">
+      <c r="U1" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="V1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="W1" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="W1" s="6" t="s">
+      <c r="X1" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="X1" s="6" t="s">
+      <c r="Y1" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="Y1" s="6" t="s">
+      <c r="Z1" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="Z1" s="6" t="s">
+      <c r="AA1" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="AA1" s="6" t="s">
+      <c r="AB1" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>62</v>
       </c>
@@ -26195,14 +27520,14 @@
         <v>63</v>
       </c>
       <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2">
         <v>49</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>2</v>
       </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
       <c r="G2">
         <v>0</v>
       </c>
@@ -26219,17 +27544,17 @@
         <v>0</v>
       </c>
       <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
         <v>4</v>
       </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
       <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
         <v>21</v>
       </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
       <c r="P2">
         <v>0</v>
       </c>
@@ -26242,10 +27567,10 @@
       <c r="S2">
         <v>0</v>
       </c>
-      <c r="T2" s="9">
-        <v>0</v>
-      </c>
-      <c r="U2">
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2" s="9">
         <v>0</v>
       </c>
       <c r="V2">
@@ -26266,8 +27591,11 @@
       <c r="AA2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AB2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>62</v>
       </c>
@@ -26278,20 +27606,20 @@
         <v>64</v>
       </c>
       <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
         <v>39</v>
       </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
       <c r="F3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
         <v>4</v>
       </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
       <c r="I3">
         <v>0</v>
       </c>
@@ -26302,17 +27630,17 @@
         <v>0</v>
       </c>
       <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
         <v>7</v>
       </c>
-      <c r="M3">
-        <v>1</v>
-      </c>
       <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
         <v>11</v>
       </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
       <c r="P3">
         <v>0</v>
       </c>
@@ -26326,10 +27654,10 @@
         <v>0</v>
       </c>
       <c r="T3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V3">
         <v>0</v>
@@ -26338,10 +27666,10 @@
         <v>0</v>
       </c>
       <c r="X3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -26349,8 +27677,11 @@
       <c r="AA3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AB3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>62</v>
       </c>
@@ -26361,20 +27692,20 @@
         <v>65</v>
       </c>
       <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
         <v>77</v>
       </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
       <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
         <v>8</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>2</v>
       </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
       <c r="I4">
         <v>0</v>
       </c>
@@ -26385,17 +27716,17 @@
         <v>0</v>
       </c>
       <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
         <v>18</v>
       </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
       <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
         <v>9</v>
       </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
       <c r="P4">
         <v>0</v>
       </c>
@@ -26403,16 +27734,16 @@
         <v>0</v>
       </c>
       <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
         <v>2</v>
       </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
       <c r="T4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V4">
         <v>0</v>
@@ -26424,16 +27755,19 @@
         <v>0</v>
       </c>
       <c r="Y4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AB4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>62</v>
       </c>
@@ -26444,17 +27778,17 @@
         <v>66</v>
       </c>
       <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
         <v>86</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>14</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>2</v>
       </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
       <c r="H5">
         <v>0</v>
       </c>
@@ -26465,37 +27799,37 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
         <v>6</v>
       </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
       <c r="N5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>1</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
       <c r="R5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S5">
+        <v>1</v>
+      </c>
+      <c r="T5">
         <v>2</v>
       </c>
-      <c r="T5">
-        <v>1</v>
-      </c>
       <c r="U5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V5">
         <v>0</v>
@@ -26515,8 +27849,11 @@
       <c r="AA5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AB5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>62</v>
       </c>
@@ -26527,16 +27864,16 @@
         <v>67</v>
       </c>
       <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6">
         <v>112</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>4</v>
       </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
       <c r="G6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -26551,11 +27888,11 @@
         <v>0</v>
       </c>
       <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
         <v>9</v>
       </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
       <c r="N6">
         <v>0</v>
       </c>
@@ -26569,10 +27906,10 @@
         <v>0</v>
       </c>
       <c r="R6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -26598,8 +27935,11 @@
       <c r="AA6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AB6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>62</v>
       </c>
@@ -26610,17 +27950,17 @@
         <v>68</v>
       </c>
       <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7">
         <v>231</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>15</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>2</v>
       </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
       <c r="H7">
         <v>0</v>
       </c>
@@ -26634,20 +27974,20 @@
         <v>0</v>
       </c>
       <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
         <v>7</v>
       </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
       <c r="N7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7">
         <v>4</v>
       </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
       <c r="Q7">
         <v>0</v>
       </c>
@@ -26655,11 +27995,11 @@
         <v>0</v>
       </c>
       <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
         <v>2</v>
       </c>
-      <c r="T7">
-        <v>0</v>
-      </c>
       <c r="U7">
         <v>0</v>
       </c>
@@ -26676,13 +28016,16 @@
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>62</v>
       </c>
@@ -26693,20 +28036,20 @@
         <v>69</v>
       </c>
       <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="E8">
         <v>86</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>11</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>9</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>2</v>
       </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
       <c r="I8">
         <v>0</v>
       </c>
@@ -26717,17 +28060,17 @@
         <v>0</v>
       </c>
       <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
         <v>12</v>
       </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
       <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
         <v>14</v>
       </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
       <c r="P8">
         <v>0</v>
       </c>
@@ -26735,13 +28078,13 @@
         <v>0</v>
       </c>
       <c r="R8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S8">
         <v>1</v>
       </c>
       <c r="T8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U8">
         <v>0</v>
@@ -26764,8 +28107,11 @@
       <c r="AA8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AB8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>62</v>
       </c>
@@ -26776,19 +28122,19 @@
         <v>70</v>
       </c>
       <c r="D9">
+        <v>4</v>
+      </c>
+      <c r="E9">
         <v>73</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>14</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>12</v>
       </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -26800,19 +28146,19 @@
         <v>0</v>
       </c>
       <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
         <v>16</v>
       </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
       <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
         <v>23</v>
       </c>
-      <c r="O9">
-        <v>1</v>
-      </c>
       <c r="P9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9">
         <v>0</v>
@@ -26824,11 +28170,11 @@
         <v>0</v>
       </c>
       <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
         <v>2</v>
       </c>
-      <c r="U9">
-        <v>0</v>
-      </c>
       <c r="V9">
         <v>0</v>
       </c>
@@ -26847,8 +28193,11 @@
       <c r="AA9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AB9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>62</v>
       </c>
@@ -26859,14 +28208,14 @@
         <v>71</v>
       </c>
       <c r="D10">
+        <v>4</v>
+      </c>
+      <c r="E10">
         <v>17</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>18</v>
       </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
       <c r="G10">
         <v>0</v>
       </c>
@@ -26883,17 +28232,17 @@
         <v>0</v>
       </c>
       <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
         <v>2</v>
       </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
       <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
         <v>2</v>
       </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
       <c r="P10">
         <v>0</v>
       </c>
@@ -26901,10 +28250,10 @@
         <v>0</v>
       </c>
       <c r="R10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T10">
         <v>0</v>
@@ -26930,8 +28279,11 @@
       <c r="AA10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AB10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>62</v>
       </c>
@@ -26942,17 +28294,17 @@
         <v>72</v>
       </c>
       <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
         <v>133</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>4</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>3</v>
       </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
       <c r="H11">
         <v>0</v>
       </c>
@@ -26966,17 +28318,17 @@
         <v>0</v>
       </c>
       <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
         <v>11</v>
       </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
       <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
         <v>30</v>
       </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
       <c r="P11">
         <v>0</v>
       </c>
@@ -26990,11 +28342,11 @@
         <v>0</v>
       </c>
       <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
         <v>2</v>
       </c>
-      <c r="U11">
-        <v>0</v>
-      </c>
       <c r="V11">
         <v>0</v>
       </c>
@@ -27013,8 +28365,11 @@
       <c r="AA11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AB11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>62</v>
       </c>
@@ -27025,17 +28380,17 @@
         <v>73</v>
       </c>
       <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
         <v>107</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>16</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>20</v>
       </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
       <c r="H12">
         <v>0</v>
       </c>
@@ -27049,19 +28404,19 @@
         <v>0</v>
       </c>
       <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
         <v>11</v>
       </c>
-      <c r="M12">
-        <v>1</v>
-      </c>
       <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
         <v>30</v>
       </c>
-      <c r="O12">
-        <v>1</v>
-      </c>
       <c r="P12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -27085,10 +28440,10 @@
         <v>0</v>
       </c>
       <c r="X12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z12">
         <v>0</v>
@@ -27096,8 +28451,11 @@
       <c r="AA12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AB12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>62</v>
       </c>
@@ -27108,19 +28466,19 @@
         <v>74</v>
       </c>
       <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
         <v>86</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>12</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>8</v>
       </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -27132,17 +28490,17 @@
         <v>0</v>
       </c>
       <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
         <v>10</v>
       </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
       <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
         <v>28</v>
       </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
       <c r="P13">
         <v>0</v>
       </c>
@@ -27153,10 +28511,10 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U13">
         <v>0</v>
@@ -27179,8 +28537,11 @@
       <c r="AA13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AB13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>62</v>
       </c>
@@ -27191,17 +28552,17 @@
         <v>75</v>
       </c>
       <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14">
         <v>7</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>5</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>6</v>
       </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
       <c r="H14">
         <v>0</v>
       </c>
@@ -27215,17 +28576,17 @@
         <v>0</v>
       </c>
       <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
         <v>21</v>
       </c>
-      <c r="M14">
-        <v>1</v>
-      </c>
       <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
         <v>17</v>
       </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
       <c r="P14">
         <v>0</v>
       </c>
@@ -27236,10 +28597,10 @@
         <v>0</v>
       </c>
       <c r="S14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U14">
         <v>0</v>
@@ -27262,8 +28623,11 @@
       <c r="AA14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AB14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>62</v>
       </c>
@@ -27274,44 +28638,44 @@
         <v>76</v>
       </c>
       <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15">
         <v>101</v>
       </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
       <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
         <v>33</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>4</v>
       </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
         <v>29</v>
       </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
       <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
         <v>41</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>3</v>
       </c>
-      <c r="P15">
-        <v>0</v>
-      </c>
       <c r="Q15">
         <v>0</v>
       </c>
@@ -27345,8 +28709,11 @@
       <c r="AA15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AB15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>62</v>
       </c>
@@ -27357,19 +28724,19 @@
         <v>77</v>
       </c>
       <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16">
         <v>134</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>11</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>42</v>
       </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -27381,17 +28748,17 @@
         <v>0</v>
       </c>
       <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
         <v>13</v>
       </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
       <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
         <v>28</v>
       </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
       <c r="P16">
         <v>0</v>
       </c>
@@ -27405,10 +28772,10 @@
         <v>0</v>
       </c>
       <c r="T16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V16">
         <v>0</v>
@@ -27428,8 +28795,11 @@
       <c r="AA16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AB16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>62</v>
       </c>
@@ -27440,20 +28810,20 @@
         <v>78</v>
       </c>
       <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17">
         <v>61</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>2</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>3</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>4</v>
       </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
       <c r="I17">
         <v>0</v>
       </c>
@@ -27464,17 +28834,17 @@
         <v>0</v>
       </c>
       <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
         <v>9</v>
       </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
       <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
         <v>19</v>
       </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
       <c r="P17">
         <v>0</v>
       </c>
@@ -27488,10 +28858,10 @@
         <v>0</v>
       </c>
       <c r="T17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V17">
         <v>0</v>
@@ -27511,8 +28881,11 @@
       <c r="AA17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AB17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>62</v>
       </c>
@@ -27523,17 +28896,17 @@
         <v>79</v>
       </c>
       <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18">
         <v>15</v>
       </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
       <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
         <v>4</v>
       </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
       <c r="H18">
         <v>0</v>
       </c>
@@ -27544,31 +28917,31 @@
         <v>0</v>
       </c>
       <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
         <v>2</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>4</v>
       </c>
-      <c r="M18">
-        <v>1</v>
-      </c>
       <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
         <v>39</v>
       </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R18">
         <v>1</v>
       </c>
       <c r="S18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T18">
         <v>0</v>
@@ -27577,10 +28950,10 @@
         <v>0</v>
       </c>
       <c r="V18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X18">
         <v>0</v>
@@ -27594,8 +28967,11 @@
       <c r="AA18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AB18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>62</v>
       </c>
@@ -27606,19 +28982,19 @@
         <v>80</v>
       </c>
       <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19">
         <v>56</v>
       </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
       <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
         <v>5</v>
       </c>
-      <c r="G19">
-        <v>1</v>
-      </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -27630,17 +29006,17 @@
         <v>0</v>
       </c>
       <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
         <v>7</v>
       </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
       <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
         <v>19</v>
       </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
       <c r="P19">
         <v>0</v>
       </c>
@@ -27660,10 +29036,10 @@
         <v>0</v>
       </c>
       <c r="V19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X19">
         <v>0</v>
@@ -27677,8 +29053,11 @@
       <c r="AA19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AB19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>62</v>
       </c>
@@ -27689,20 +29068,20 @@
         <v>81</v>
       </c>
       <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20">
         <v>49</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>3</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>6</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>2</v>
       </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
       <c r="I20">
         <v>0</v>
       </c>
@@ -27713,17 +29092,17 @@
         <v>0</v>
       </c>
       <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
         <v>4</v>
       </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
       <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
         <v>15</v>
       </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
       <c r="P20">
         <v>0</v>
       </c>
@@ -27760,8 +29139,11 @@
       <c r="AA20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AB20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>62</v>
       </c>
@@ -27772,19 +29154,19 @@
         <v>82</v>
       </c>
       <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21">
         <v>49</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
       <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
         <v>10</v>
       </c>
-      <c r="G21">
-        <v>1</v>
-      </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -27796,17 +29178,17 @@
         <v>0</v>
       </c>
       <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
         <v>20</v>
       </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
       <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
         <v>24</v>
       </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
       <c r="P21">
         <v>0</v>
       </c>
@@ -27843,8 +29225,11 @@
       <c r="AA21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AB21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>62</v>
       </c>
@@ -27855,17 +29240,17 @@
         <v>83</v>
       </c>
       <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22">
         <v>48</v>
       </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
       <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
         <v>4</v>
       </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
       <c r="H22">
         <v>0</v>
       </c>
@@ -27879,17 +29264,17 @@
         <v>0</v>
       </c>
       <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
         <v>9</v>
       </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
       <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
         <v>14</v>
       </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
       <c r="P22">
         <v>0</v>
       </c>
@@ -27900,13 +29285,13 @@
         <v>0</v>
       </c>
       <c r="S22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T22">
         <v>1</v>
       </c>
       <c r="U22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V22">
         <v>0</v>
@@ -27924,10 +29309,13 @@
         <v>0</v>
       </c>
       <c r="AA22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="AB22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>62</v>
       </c>
@@ -27938,41 +29326,41 @@
         <v>84</v>
       </c>
       <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="E23">
         <v>70</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>5</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>4</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>5</v>
       </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K23">
         <v>2</v>
       </c>
       <c r="L23">
+        <v>2</v>
+      </c>
+      <c r="M23">
         <v>7</v>
       </c>
-      <c r="M23">
-        <v>0</v>
-      </c>
       <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
         <v>106</v>
       </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
       <c r="P23">
         <v>0</v>
       </c>
@@ -27986,16 +29374,16 @@
         <v>0</v>
       </c>
       <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
         <v>2</v>
       </c>
-      <c r="U23">
-        <v>1</v>
-      </c>
       <c r="V23">
         <v>1</v>
       </c>
       <c r="W23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X23">
         <v>0</v>
@@ -28009,8 +29397,11 @@
       <c r="AA23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AB23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>62</v>
       </c>
@@ -28021,40 +29412,40 @@
         <v>85</v>
       </c>
       <c r="D24">
+        <v>3</v>
+      </c>
+      <c r="E24">
         <v>90</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>2</v>
       </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
       <c r="G24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
         <v>3</v>
       </c>
-      <c r="M24">
-        <v>0</v>
-      </c>
       <c r="N24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P24">
         <v>0</v>
@@ -28092,8 +29483,11 @@
       <c r="AA24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AB24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>62</v>
       </c>
@@ -28104,41 +29498,41 @@
         <v>86</v>
       </c>
       <c r="D25">
+        <v>3</v>
+      </c>
+      <c r="E25">
         <v>98</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>5</v>
-      </c>
-      <c r="F25">
-        <v>4</v>
       </c>
       <c r="G25">
         <v>4</v>
       </c>
       <c r="H25">
+        <v>4</v>
+      </c>
+      <c r="I25">
         <v>3</v>
       </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
         <v>4</v>
       </c>
-      <c r="M25">
-        <v>0</v>
-      </c>
       <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
         <v>20</v>
       </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
       <c r="P25">
         <v>0</v>
       </c>
@@ -28152,11 +29546,11 @@
         <v>0</v>
       </c>
       <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25">
         <v>2</v>
       </c>
-      <c r="U25">
-        <v>0</v>
-      </c>
       <c r="V25">
         <v>0</v>
       </c>
@@ -28175,8 +29569,11 @@
       <c r="AA25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AB25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>62</v>
       </c>
@@ -28187,17 +29584,17 @@
         <v>87</v>
       </c>
       <c r="D26">
+        <v>3</v>
+      </c>
+      <c r="E26">
         <v>48</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>8</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>9</v>
       </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
       <c r="H26">
         <v>0</v>
       </c>
@@ -28211,34 +29608,34 @@
         <v>0</v>
       </c>
       <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
         <v>5</v>
       </c>
-      <c r="M26">
-        <v>0</v>
-      </c>
       <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
         <v>20</v>
       </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
       <c r="P26">
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S26">
         <v>0</v>
       </c>
       <c r="T26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V26">
         <v>0</v>
@@ -28258,8 +29655,11 @@
       <c r="AA26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AB26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>62</v>
       </c>
@@ -28270,17 +29670,17 @@
         <v>88</v>
       </c>
       <c r="D27">
+        <v>3</v>
+      </c>
+      <c r="E27">
         <v>166</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>4</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>2</v>
       </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
       <c r="H27">
         <v>0</v>
       </c>
@@ -28294,17 +29694,17 @@
         <v>0</v>
       </c>
       <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
         <v>10</v>
       </c>
-      <c r="M27">
-        <v>0</v>
-      </c>
       <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
         <v>43</v>
       </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
       <c r="P27">
         <v>0</v>
       </c>
@@ -28318,10 +29718,10 @@
         <v>0</v>
       </c>
       <c r="T27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V27">
         <v>0</v>
@@ -28341,8 +29741,11 @@
       <c r="AA27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AB27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>62</v>
       </c>
@@ -28353,22 +29756,22 @@
         <v>89</v>
       </c>
       <c r="D28">
+        <v>3</v>
+      </c>
+      <c r="E28">
         <v>111</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>2</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>3</v>
       </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -28377,17 +29780,17 @@
         <v>0</v>
       </c>
       <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
         <v>5</v>
       </c>
-      <c r="M28">
-        <v>0</v>
-      </c>
       <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
         <v>16</v>
       </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
       <c r="P28">
         <v>0</v>
       </c>
@@ -28424,8 +29827,11 @@
       <c r="AA28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AB28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>62</v>
       </c>
@@ -28436,17 +29842,17 @@
         <v>90</v>
       </c>
       <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="E29">
         <v>27</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>25</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>16</v>
       </c>
-      <c r="G29">
-        <v>0</v>
-      </c>
       <c r="H29">
         <v>0</v>
       </c>
@@ -28460,32 +29866,32 @@
         <v>0</v>
       </c>
       <c r="L29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
         <v>5</v>
       </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
       <c r="P29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R29">
         <v>0</v>
       </c>
       <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="T29">
         <v>6</v>
       </c>
-      <c r="T29">
-        <v>0</v>
-      </c>
       <c r="U29">
         <v>0</v>
       </c>
@@ -28493,10 +29899,10 @@
         <v>0</v>
       </c>
       <c r="W29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y29">
         <v>0</v>
@@ -28507,8 +29913,11 @@
       <c r="AA29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AB29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>62</v>
       </c>
@@ -28519,40 +29928,40 @@
         <v>91</v>
       </c>
       <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="E30">
         <v>26</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>37</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>8</v>
       </c>
-      <c r="G30">
-        <v>0</v>
-      </c>
       <c r="H30">
         <v>0</v>
       </c>
       <c r="I30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K30">
         <v>0</v>
       </c>
       <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
         <v>5</v>
       </c>
-      <c r="M30">
-        <v>0</v>
-      </c>
       <c r="N30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P30">
         <v>0</v>
@@ -28564,14 +29973,14 @@
         <v>0</v>
       </c>
       <c r="S30">
+        <v>0</v>
+      </c>
+      <c r="T30">
         <v>5</v>
       </c>
-      <c r="T30">
+      <c r="U30">
         <v>2</v>
       </c>
-      <c r="U30">
-        <v>0</v>
-      </c>
       <c r="V30">
         <v>0</v>
       </c>
@@ -28590,8 +29999,11 @@
       <c r="AA30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AB30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>62</v>
       </c>
@@ -28602,17 +30014,17 @@
         <v>92</v>
       </c>
       <c r="D31">
+        <v>2</v>
+      </c>
+      <c r="E31">
         <v>43</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>20</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>12</v>
       </c>
-      <c r="G31">
-        <v>0</v>
-      </c>
       <c r="H31">
         <v>0</v>
       </c>
@@ -28626,7 +30038,7 @@
         <v>0</v>
       </c>
       <c r="L31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M31">
         <v>1</v>
@@ -28635,7 +30047,7 @@
         <v>1</v>
       </c>
       <c r="O31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P31">
         <v>0</v>
@@ -28644,13 +30056,13 @@
         <v>0</v>
       </c>
       <c r="R31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S31">
         <v>1</v>
       </c>
       <c r="T31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U31">
         <v>0</v>
@@ -28662,19 +30074,22 @@
         <v>0</v>
       </c>
       <c r="X31">
+        <v>0</v>
+      </c>
+      <c r="Y31">
         <v>2</v>
       </c>
-      <c r="Y31">
-        <v>0</v>
-      </c>
       <c r="Z31">
         <v>0</v>
       </c>
       <c r="AA31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AB31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>62</v>
       </c>
@@ -28685,35 +30100,35 @@
         <v>93</v>
       </c>
       <c r="D32">
+        <v>2</v>
+      </c>
+      <c r="E32">
         <v>21</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>2</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>25</v>
       </c>
-      <c r="G32">
-        <v>1</v>
-      </c>
       <c r="H32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
         <v>2</v>
       </c>
-      <c r="L32">
+      <c r="M32">
         <v>5</v>
       </c>
-      <c r="M32">
-        <v>0</v>
-      </c>
       <c r="N32">
         <v>0</v>
       </c>
@@ -28724,20 +30139,20 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T32">
+        <v>1</v>
+      </c>
+      <c r="U32">
         <v>3</v>
       </c>
-      <c r="U32">
-        <v>0</v>
-      </c>
       <c r="V32">
         <v>0</v>
       </c>
@@ -28756,8 +30171,11 @@
       <c r="AA32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AB32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>62</v>
       </c>
@@ -28768,20 +30186,20 @@
         <v>94</v>
       </c>
       <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="E33">
         <v>12</v>
       </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
       <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
         <v>4</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>2</v>
       </c>
-      <c r="H33">
-        <v>0</v>
-      </c>
       <c r="I33">
         <v>0</v>
       </c>
@@ -28789,14 +30207,14 @@
         <v>0</v>
       </c>
       <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
         <v>3</v>
       </c>
-      <c r="L33">
+      <c r="M33">
         <v>2</v>
       </c>
-      <c r="M33">
-        <v>0</v>
-      </c>
       <c r="N33">
         <v>0</v>
       </c>
@@ -28813,13 +30231,13 @@
         <v>0</v>
       </c>
       <c r="S33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T33">
         <v>1</v>
       </c>
       <c r="U33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V33">
         <v>0</v>
@@ -28839,8 +30257,11 @@
       <c r="AA33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AB33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>62</v>
       </c>
@@ -28851,17 +30272,17 @@
         <v>95</v>
       </c>
       <c r="D34">
+        <v>2</v>
+      </c>
+      <c r="E34">
         <v>13</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>3</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>24</v>
       </c>
-      <c r="G34">
-        <v>0</v>
-      </c>
       <c r="H34">
         <v>0</v>
       </c>
@@ -28875,22 +30296,22 @@
         <v>0</v>
       </c>
       <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
         <v>6</v>
       </c>
-      <c r="M34">
-        <v>0</v>
-      </c>
       <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
         <v>4</v>
       </c>
-      <c r="O34">
+      <c r="P34">
         <v>2</v>
       </c>
-      <c r="P34">
-        <v>0</v>
-      </c>
       <c r="Q34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R34">
         <v>1</v>
@@ -28902,7 +30323,7 @@
         <v>1</v>
       </c>
       <c r="U34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V34">
         <v>0</v>
@@ -28922,8 +30343,11 @@
       <c r="AA34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AB34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>96</v>
       </c>
@@ -28934,28 +30358,28 @@
         <v>63</v>
       </c>
       <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
         <v>148</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>4</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>3</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>2</v>
       </c>
-      <c r="H35">
-        <v>0</v>
-      </c>
       <c r="I35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35">
         <v>1</v>
       </c>
       <c r="K35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L35">
         <v>0</v>
@@ -29005,8 +30429,11 @@
       <c r="AA35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AB35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>96</v>
       </c>
@@ -29017,34 +30444,34 @@
         <v>64</v>
       </c>
       <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
         <v>68</v>
-      </c>
-      <c r="E36">
-        <v>3</v>
       </c>
       <c r="F36">
         <v>3</v>
       </c>
       <c r="G36">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H36">
         <v>0</v>
       </c>
       <c r="I36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K36">
         <v>0</v>
       </c>
       <c r="L36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N36">
         <v>0</v>
@@ -29088,8 +30515,11 @@
       <c r="AA36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AB36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>96</v>
       </c>
@@ -29100,20 +30530,20 @@
         <v>65</v>
       </c>
       <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
         <v>146</v>
       </c>
-      <c r="E37">
+      <c r="F37">
         <v>2</v>
       </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
       <c r="G37">
+        <v>1</v>
+      </c>
+      <c r="H37">
         <v>3</v>
       </c>
-      <c r="H37">
-        <v>0</v>
-      </c>
       <c r="I37">
         <v>0</v>
       </c>
@@ -29121,10 +30551,10 @@
         <v>0</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M37">
         <v>0</v>
@@ -29171,8 +30601,11 @@
       <c r="AA37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AB37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>96</v>
       </c>
@@ -29183,17 +30616,17 @@
         <v>98</v>
       </c>
       <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
         <v>224</v>
       </c>
-      <c r="E38">
+      <c r="F38">
         <v>7</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <v>9</v>
       </c>
-      <c r="G38">
-        <v>0</v>
-      </c>
       <c r="H38">
         <v>0</v>
       </c>
@@ -29207,13 +30640,13 @@
         <v>0</v>
       </c>
       <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
         <v>9</v>
       </c>
-      <c r="M38">
-        <v>1</v>
-      </c>
       <c r="N38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O38">
         <v>0</v>
@@ -29254,8 +30687,11 @@
       <c r="AA38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AB38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>96</v>
       </c>
@@ -29266,41 +30702,41 @@
         <v>99</v>
       </c>
       <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
         <v>163</v>
       </c>
-      <c r="E39">
+      <c r="F39">
         <v>5</v>
       </c>
-      <c r="F39">
+      <c r="G39">
         <v>14</v>
       </c>
-      <c r="G39">
-        <v>0</v>
-      </c>
       <c r="H39">
         <v>0</v>
       </c>
       <c r="I39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39">
         <v>1</v>
       </c>
       <c r="K39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
         <v>4</v>
       </c>
-      <c r="M39">
-        <v>0</v>
-      </c>
       <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="O39">
         <v>8</v>
       </c>
-      <c r="O39">
-        <v>0</v>
-      </c>
       <c r="P39">
         <v>0</v>
       </c>
@@ -29337,8 +30773,11 @@
       <c r="AA39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AB39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>96</v>
       </c>
@@ -29349,17 +30788,17 @@
         <v>100</v>
       </c>
       <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
         <v>218</v>
       </c>
-      <c r="E40">
-        <v>1</v>
-      </c>
       <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40">
         <v>12</v>
       </c>
-      <c r="G40">
-        <v>0</v>
-      </c>
       <c r="H40">
         <v>0</v>
       </c>
@@ -29373,10 +30812,10 @@
         <v>0</v>
       </c>
       <c r="L40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N40">
         <v>0</v>
@@ -29420,8 +30859,11 @@
       <c r="AA40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AB40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>96</v>
       </c>
@@ -29432,17 +30874,17 @@
         <v>69</v>
       </c>
       <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
         <v>144</v>
       </c>
-      <c r="E41">
+      <c r="F41">
         <v>7</v>
       </c>
-      <c r="F41">
+      <c r="G41">
         <v>17</v>
       </c>
-      <c r="G41">
-        <v>0</v>
-      </c>
       <c r="H41">
         <v>0</v>
       </c>
@@ -29450,17 +30892,17 @@
         <v>0</v>
       </c>
       <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
         <v>3</v>
       </c>
-      <c r="K41">
-        <v>0</v>
-      </c>
       <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41">
         <v>6</v>
       </c>
-      <c r="M41">
-        <v>0</v>
-      </c>
       <c r="N41">
         <v>0</v>
       </c>
@@ -29503,8 +30945,11 @@
       <c r="AA41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AB41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>96</v>
       </c>
@@ -29515,17 +30960,17 @@
         <v>70</v>
       </c>
       <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
         <v>180</v>
       </c>
-      <c r="E42">
+      <c r="F42">
         <v>3</v>
       </c>
-      <c r="F42">
+      <c r="G42">
         <v>8</v>
       </c>
-      <c r="G42">
-        <v>0</v>
-      </c>
       <c r="H42">
         <v>0</v>
       </c>
@@ -29539,20 +30984,20 @@
         <v>0</v>
       </c>
       <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
         <v>13</v>
       </c>
-      <c r="M42">
+      <c r="N42">
         <v>2</v>
       </c>
-      <c r="N42">
-        <v>0</v>
-      </c>
       <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42">
         <v>3</v>
       </c>
-      <c r="P42">
-        <v>0</v>
-      </c>
       <c r="Q42">
         <v>0</v>
       </c>
@@ -29586,8 +31031,11 @@
       <c r="AA42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AB42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>96</v>
       </c>
@@ -29598,17 +31046,17 @@
         <v>71</v>
       </c>
       <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
         <v>86</v>
       </c>
-      <c r="E43">
-        <v>1</v>
-      </c>
       <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43">
         <v>5</v>
       </c>
-      <c r="G43">
-        <v>0</v>
-      </c>
       <c r="H43">
         <v>0</v>
       </c>
@@ -29616,17 +31064,17 @@
         <v>0</v>
       </c>
       <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
         <v>2</v>
       </c>
-      <c r="K43">
-        <v>0</v>
-      </c>
       <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
         <v>7</v>
       </c>
-      <c r="M43">
-        <v>0</v>
-      </c>
       <c r="N43">
         <v>0</v>
       </c>
@@ -29669,8 +31117,11 @@
       <c r="AA43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AB43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>96</v>
       </c>
@@ -29681,17 +31132,17 @@
         <v>72</v>
       </c>
       <c r="D44">
+        <v>3</v>
+      </c>
+      <c r="E44">
         <v>60</v>
       </c>
-      <c r="E44">
+      <c r="F44">
         <v>6</v>
       </c>
-      <c r="F44">
+      <c r="G44">
         <v>16</v>
       </c>
-      <c r="G44">
-        <v>0</v>
-      </c>
       <c r="H44">
         <v>0</v>
       </c>
@@ -29699,17 +31150,17 @@
         <v>0</v>
       </c>
       <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
         <v>2</v>
       </c>
-      <c r="K44">
-        <v>0</v>
-      </c>
       <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
         <v>12</v>
       </c>
-      <c r="M44">
-        <v>0</v>
-      </c>
       <c r="N44">
         <v>0</v>
       </c>
@@ -29752,8 +31203,11 @@
       <c r="AA44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AB44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>96</v>
       </c>
@@ -29764,17 +31218,17 @@
         <v>73</v>
       </c>
       <c r="D45">
+        <v>3</v>
+      </c>
+      <c r="E45">
         <v>15</v>
       </c>
-      <c r="E45">
-        <v>1</v>
-      </c>
       <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45">
         <v>15</v>
       </c>
-      <c r="G45">
-        <v>0</v>
-      </c>
       <c r="H45">
         <v>0</v>
       </c>
@@ -29785,28 +31239,28 @@
         <v>0</v>
       </c>
       <c r="K45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L45">
+        <v>1</v>
+      </c>
+      <c r="M45">
         <v>3</v>
       </c>
-      <c r="M45">
-        <v>0</v>
-      </c>
       <c r="N45">
         <v>0</v>
       </c>
       <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45">
         <v>3</v>
       </c>
-      <c r="P45">
-        <v>0</v>
-      </c>
       <c r="Q45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S45">
         <v>0</v>
@@ -29835,8 +31289,11 @@
       <c r="AA45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AB45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>96</v>
       </c>
@@ -29847,41 +31304,41 @@
         <v>74</v>
       </c>
       <c r="D46">
+        <v>3</v>
+      </c>
+      <c r="E46">
         <v>71</v>
       </c>
-      <c r="E46">
-        <v>1</v>
-      </c>
       <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46">
         <v>18</v>
       </c>
-      <c r="G46">
-        <v>1</v>
-      </c>
       <c r="H46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46">
         <v>0</v>
       </c>
       <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
         <v>3</v>
       </c>
-      <c r="K46">
-        <v>0</v>
-      </c>
       <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
         <v>6</v>
       </c>
-      <c r="M46">
-        <v>0</v>
-      </c>
       <c r="N46">
+        <v>0</v>
+      </c>
+      <c r="O46">
         <v>5</v>
       </c>
-      <c r="O46">
-        <v>0</v>
-      </c>
       <c r="P46">
         <v>0</v>
       </c>
@@ -29918,8 +31375,11 @@
       <c r="AA46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AB46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>96</v>
       </c>
@@ -29930,19 +31390,19 @@
         <v>75</v>
       </c>
       <c r="D47">
+        <v>2</v>
+      </c>
+      <c r="E47">
         <v>67</v>
       </c>
-      <c r="E47">
-        <v>1</v>
-      </c>
       <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47">
         <v>49</v>
       </c>
-      <c r="G47">
-        <v>1</v>
-      </c>
       <c r="H47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47">
         <v>0</v>
@@ -29954,22 +31414,22 @@
         <v>0</v>
       </c>
       <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
         <v>3</v>
       </c>
-      <c r="M47">
-        <v>0</v>
-      </c>
       <c r="N47">
+        <v>0</v>
+      </c>
+      <c r="O47">
         <v>17</v>
       </c>
-      <c r="O47">
+      <c r="P47">
         <v>19</v>
       </c>
-      <c r="P47">
-        <v>1</v>
-      </c>
       <c r="Q47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R47">
         <v>0</v>
@@ -30001,8 +31461,11 @@
       <c r="AA47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AB47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>96</v>
       </c>
@@ -30013,47 +31476,47 @@
         <v>76</v>
       </c>
       <c r="D48">
+        <v>2</v>
+      </c>
+      <c r="E48">
         <v>123</v>
       </c>
-      <c r="E48">
+      <c r="F48">
         <v>2</v>
       </c>
-      <c r="F48">
+      <c r="G48">
         <v>70</v>
       </c>
-      <c r="G48">
+      <c r="H48">
         <v>4</v>
       </c>
-      <c r="H48">
-        <v>0</v>
-      </c>
       <c r="I48">
         <v>0</v>
       </c>
       <c r="J48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
         <v>9</v>
       </c>
-      <c r="M48">
-        <v>0</v>
-      </c>
       <c r="N48">
+        <v>0</v>
+      </c>
+      <c r="O48">
         <v>8</v>
       </c>
-      <c r="O48">
+      <c r="P48">
         <v>12</v>
       </c>
-      <c r="P48">
+      <c r="Q48">
         <v>3</v>
       </c>
-      <c r="Q48">
-        <v>0</v>
-      </c>
       <c r="R48">
         <v>0</v>
       </c>
@@ -30084,8 +31547,11 @@
       <c r="AA48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AB48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>96</v>
       </c>
@@ -30096,20 +31562,20 @@
         <v>77</v>
       </c>
       <c r="D49">
+        <v>2</v>
+      </c>
+      <c r="E49">
         <v>39</v>
       </c>
-      <c r="E49">
+      <c r="F49">
         <v>2</v>
       </c>
-      <c r="F49">
+      <c r="G49">
         <v>19</v>
       </c>
-      <c r="G49">
+      <c r="H49">
         <v>2</v>
       </c>
-      <c r="H49">
-        <v>0</v>
-      </c>
       <c r="I49">
         <v>0</v>
       </c>
@@ -30120,20 +31586,20 @@
         <v>0</v>
       </c>
       <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
         <v>3</v>
       </c>
-      <c r="M49">
-        <v>0</v>
-      </c>
       <c r="N49">
+        <v>0</v>
+      </c>
+      <c r="O49">
         <v>2</v>
       </c>
-      <c r="O49">
+      <c r="P49">
         <v>4</v>
       </c>
-      <c r="P49">
-        <v>0</v>
-      </c>
       <c r="Q49">
         <v>0</v>
       </c>
@@ -30167,20 +31633,741 @@
       <c r="AA49">
         <v>0</v>
       </c>
+      <c r="AB49">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AA49">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="Южная губа"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:AB49"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="19.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.08984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2">
+        <v>141.9</v>
+      </c>
+      <c r="C2">
+        <v>43.3</v>
+      </c>
+      <c r="D2">
+        <v>75.7</v>
+      </c>
+      <c r="E2">
+        <v>100.8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3">
+        <v>5.4</v>
+      </c>
+      <c r="C3">
+        <v>6.6</v>
+      </c>
+      <c r="D3">
+        <v>3.5</v>
+      </c>
+      <c r="E3">
+        <v>12.7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4">
+        <v>6.1</v>
+      </c>
+      <c r="C4">
+        <v>5.9</v>
+      </c>
+      <c r="D4">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="E4">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>11.2</v>
+      </c>
+      <c r="D5">
+        <v>22.5</v>
+      </c>
+      <c r="E5">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6">
+        <v>8.6</v>
+      </c>
+      <c r="C6">
+        <v>17.3</v>
+      </c>
+      <c r="D6">
+        <v>10.7</v>
+      </c>
+      <c r="E6">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7">
+        <v>0.3</v>
+      </c>
+      <c r="C7">
+        <v>2.5</v>
+      </c>
+      <c r="D7">
+        <v>0.4</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8">
+        <v>0.1</v>
+      </c>
+      <c r="C8">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D8">
+        <v>0.1</v>
+      </c>
+      <c r="E8">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0.2</v>
+      </c>
+      <c r="D9">
+        <v>0.1</v>
+      </c>
+      <c r="E9">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10">
+        <v>0.5</v>
+      </c>
+      <c r="C10">
+        <v>1.2</v>
+      </c>
+      <c r="D10">
+        <v>1.4</v>
+      </c>
+      <c r="E10">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11">
+        <v>0.2</v>
+      </c>
+      <c r="C11">
+        <v>0.6</v>
+      </c>
+      <c r="D11">
+        <v>0.6</v>
+      </c>
+      <c r="E11">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12">
+        <v>0.1</v>
+      </c>
+      <c r="C12">
+        <v>0.5</v>
+      </c>
+      <c r="D12">
+        <v>0.3</v>
+      </c>
+      <c r="E12">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14">
+        <v>0.6</v>
+      </c>
+      <c r="C14">
+        <v>0.1</v>
+      </c>
+      <c r="D14">
+        <v>0.6</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0.3</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0.2</v>
+      </c>
+      <c r="D16">
+        <v>0.1</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17">
+        <v>0.3</v>
+      </c>
+      <c r="C17">
+        <v>0.1</v>
+      </c>
+      <c r="D17">
+        <v>0.1</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18">
+        <v>0.1</v>
+      </c>
+      <c r="C18">
+        <v>0.1</v>
+      </c>
+      <c r="D18">
+        <v>0.1</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0.1</v>
+      </c>
+      <c r="D19">
+        <v>0.1</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0.1</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0.1</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0.3</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23">
+        <v>0.2</v>
+      </c>
+      <c r="C23">
+        <v>0.1</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0.1</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0.1</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A7:E25">
+    <sortCondition descending="1" ref="E7:E25"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A23" sqref="A1:C23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.08984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2">
+        <v>0.155</v>
+      </c>
+      <c r="C2">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>0.155</v>
+      </c>
+      <c r="C3">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4">
+        <v>0.113</v>
+      </c>
+      <c r="C4">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="C5">
+        <v>0.34100000000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="C6">
+        <v>0.13300000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="C8">
+        <v>0.104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="C10">
+        <v>5.1999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11">
+        <v>1.4E-2</v>
+      </c>
+      <c r="C11">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12">
+        <v>1.4E-2</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13">
+        <v>1.4E-2</v>
+      </c>
+      <c r="C13">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14">
+        <v>1.4E-2</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15">
+        <v>1.4E-2</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16">
+        <v>1.4E-2</v>
+      </c>
+      <c r="C16">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17">
+        <v>1.4E-2</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18">
+        <v>1.4E-2</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19">
+        <v>1.4E-2</v>
+      </c>
+      <c r="C19">
+        <v>2.1999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>115</v>
+      </c>
+      <c r="B23">
+        <v>0.70399999999999996</v>
+      </c>
+      <c r="C23">
+        <v>0.45200000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:C22">
+    <sortCondition descending="1" ref="B2:B22"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L88"/>
   <sheetViews>
@@ -30957,1288 +33144,4 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" t="s">
-        <v>103</v>
-      </c>
-      <c r="J1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L1" t="s">
-        <v>52</v>
-      </c>
-      <c r="M1" t="s">
-        <v>104</v>
-      </c>
-      <c r="N1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B2">
-        <v>148</v>
-      </c>
-      <c r="C2">
-        <v>4</v>
-      </c>
-      <c r="D2">
-        <v>3</v>
-      </c>
-      <c r="E2">
-        <v>2</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B3">
-        <v>68</v>
-      </c>
-      <c r="C3">
-        <v>3</v>
-      </c>
-      <c r="D3">
-        <v>3</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B4">
-        <v>146</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>3</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>98</v>
-      </c>
-      <c r="B5">
-        <v>224</v>
-      </c>
-      <c r="C5">
-        <v>7</v>
-      </c>
-      <c r="D5">
-        <v>9</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>9</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>99</v>
-      </c>
-      <c r="B6">
-        <v>163</v>
-      </c>
-      <c r="C6">
-        <v>5</v>
-      </c>
-      <c r="D6">
-        <v>14</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>4</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>8</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>100</v>
-      </c>
-      <c r="B7">
-        <v>218</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>12</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>69</v>
-      </c>
-      <c r="B8">
-        <v>144</v>
-      </c>
-      <c r="C8">
-        <v>7</v>
-      </c>
-      <c r="D8">
-        <v>17</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>3</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>6</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>70</v>
-      </c>
-      <c r="B9">
-        <v>180</v>
-      </c>
-      <c r="C9">
-        <v>3</v>
-      </c>
-      <c r="D9">
-        <v>8</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>13</v>
-      </c>
-      <c r="J9">
-        <v>2</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>3</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>71</v>
-      </c>
-      <c r="B10">
-        <v>86</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>5</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>2</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>7</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>72</v>
-      </c>
-      <c r="B11">
-        <v>60</v>
-      </c>
-      <c r="C11">
-        <v>6</v>
-      </c>
-      <c r="D11">
-        <v>16</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>2</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>12</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>73</v>
-      </c>
-      <c r="B12">
-        <v>15</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>15</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-      <c r="I12">
-        <v>3</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>3</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>74</v>
-      </c>
-      <c r="B13">
-        <v>71</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <v>18</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>3</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>6</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>5</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>75</v>
-      </c>
-      <c r="B14">
-        <v>67</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>49</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>3</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>17</v>
-      </c>
-      <c r="L14">
-        <v>19</v>
-      </c>
-      <c r="M14">
-        <v>1</v>
-      </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>76</v>
-      </c>
-      <c r="B15">
-        <v>123</v>
-      </c>
-      <c r="C15">
-        <v>2</v>
-      </c>
-      <c r="D15">
-        <v>70</v>
-      </c>
-      <c r="E15">
-        <v>4</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>9</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>8</v>
-      </c>
-      <c r="L15">
-        <v>12</v>
-      </c>
-      <c r="M15">
-        <v>3</v>
-      </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>77</v>
-      </c>
-      <c r="B16">
-        <v>39</v>
-      </c>
-      <c r="C16">
-        <v>2</v>
-      </c>
-      <c r="D16">
-        <v>19</v>
-      </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>3</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>2</v>
-      </c>
-      <c r="L16">
-        <v>4</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="N16">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:N16"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F39"/>
-  <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="13">
-        <v>67.025744000000003</v>
-      </c>
-      <c r="B2" s="15">
-        <v>32.538217000000003</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="16">
-        <v>67.025658000000007</v>
-      </c>
-      <c r="B3" s="15">
-        <v>32.538271000000002</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="16">
-        <v>67.025507000000005</v>
-      </c>
-      <c r="B4" s="13">
-        <v>32.538297</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="16">
-        <v>67.025374999999997</v>
-      </c>
-      <c r="B5" s="13">
-        <v>32.538271000000002</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="16">
-        <v>67.025281000000007</v>
-      </c>
-      <c r="B6" s="13">
-        <v>32.538378000000002</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="16">
-        <v>67.025107000000006</v>
-      </c>
-      <c r="B7" s="13">
-        <v>32.538791000000003</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="16">
-        <v>67.025026999999994</v>
-      </c>
-      <c r="B8" s="13">
-        <v>32.539262999999998</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="16">
-        <v>67.024855000000002</v>
-      </c>
-      <c r="B9" s="13">
-        <v>32.539580000000001</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="16">
-        <v>67.024736000000004</v>
-      </c>
-      <c r="B10" s="13">
-        <v>32.540056999999997</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="16">
-        <v>67.024501000000001</v>
-      </c>
-      <c r="B11" s="13">
-        <v>32.541179999999997</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="16">
-        <v>67.024293</v>
-      </c>
-      <c r="B12" s="13">
-        <v>32.541808000000003</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="16">
-        <v>67.024096</v>
-      </c>
-      <c r="B13" s="13">
-        <v>32.542332999999999</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="16">
-        <v>67.024096</v>
-      </c>
-      <c r="B14" s="13">
-        <v>32.542332999999999</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="16">
-        <v>67.024062999999998</v>
-      </c>
-      <c r="B15" s="13">
-        <v>32.542988000000001</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" s="16">
-        <v>67.024062999999998</v>
-      </c>
-      <c r="B16" s="13">
-        <v>32.542988000000001</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="16">
-        <v>67.024568000000002</v>
-      </c>
-      <c r="B17" s="13">
-        <v>32.542676999999998</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" s="16">
-        <v>67.024568000000002</v>
-      </c>
-      <c r="B18" s="13">
-        <v>32.542676999999998</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" s="16">
-        <v>67.025073000000006</v>
-      </c>
-      <c r="B19" s="13">
-        <v>32.542430000000003</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" s="16">
-        <v>67.025347999999994</v>
-      </c>
-      <c r="B20" s="13">
-        <v>32.542194000000002</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" s="16">
-        <v>67.025557000000006</v>
-      </c>
-      <c r="B21" s="13">
-        <v>32.542172000000001</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22" s="16">
-        <v>67.025797999999995</v>
-      </c>
-      <c r="B22" s="13">
-        <v>32.542209999999997</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="F22" s="15"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" s="16">
-        <v>67.026062999999994</v>
-      </c>
-      <c r="B23" s="13">
-        <v>32.541988000000003</v>
-      </c>
-      <c r="C23" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24" s="16">
-        <v>67.025881999999996</v>
-      </c>
-      <c r="B24" s="13">
-        <v>32.538555000000002</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A25" s="16">
-        <v>67.025766000000004</v>
-      </c>
-      <c r="B25" s="13">
-        <v>32.538625000000003</v>
-      </c>
-      <c r="C25" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A26" s="16">
-        <v>67.025687000000005</v>
-      </c>
-      <c r="B26" s="13">
-        <v>32.538646</v>
-      </c>
-      <c r="C26" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="D26" s="13" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A27" s="16">
-        <v>67.025620000000004</v>
-      </c>
-      <c r="B27" s="13">
-        <v>32.538688999999998</v>
-      </c>
-      <c r="C27" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="D27" s="13" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A28" s="16">
-        <v>67.025525999999999</v>
-      </c>
-      <c r="B28" s="13">
-        <v>32.538764</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="D28" s="13" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A29" s="16">
-        <v>67.025380999999996</v>
-      </c>
-      <c r="B29" s="13">
-        <v>32.539155999999998</v>
-      </c>
-      <c r="C29" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A30" s="16">
-        <v>67.025380999999996</v>
-      </c>
-      <c r="B30" s="13">
-        <v>32.539155999999998</v>
-      </c>
-      <c r="C30" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="D30" s="13" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A31" s="16">
-        <v>67.025347999999994</v>
-      </c>
-      <c r="B31" s="13">
-        <v>32.539890999999997</v>
-      </c>
-      <c r="C31" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="D31" s="13" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A32" s="16">
-        <v>67.025347999999994</v>
-      </c>
-      <c r="B32" s="13">
-        <v>32.539890999999997</v>
-      </c>
-      <c r="C32" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="D32" s="13" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A33" s="16">
-        <v>67.025347999999994</v>
-      </c>
-      <c r="B33" s="13">
-        <v>32.539890999999997</v>
-      </c>
-      <c r="C33" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="D33" s="13" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A34" s="16">
-        <v>67.025347999999994</v>
-      </c>
-      <c r="B34" s="13">
-        <v>32.539890999999997</v>
-      </c>
-      <c r="C34" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="D34" s="13" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A35" s="16">
-        <v>67.025454999999994</v>
-      </c>
-      <c r="B35" s="13">
-        <v>32.541167000000002</v>
-      </c>
-      <c r="C35" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="D35" s="13" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A36" s="16">
-        <v>67.025600999999995</v>
-      </c>
-      <c r="B36" s="13">
-        <v>32.541473000000003</v>
-      </c>
-      <c r="C36" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="D36" s="13" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A37" s="16">
-        <v>67.025811000000004</v>
-      </c>
-      <c r="B37" s="13">
-        <v>32.541468000000002</v>
-      </c>
-      <c r="C37" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="D37" s="13" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A38" s="16">
-        <v>67.025985000000006</v>
-      </c>
-      <c r="B38" s="13">
-        <v>32.541392999999999</v>
-      </c>
-      <c r="C38" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="D38" s="13" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A39" s="16">
-        <v>67.026184999999998</v>
-      </c>
-      <c r="B39" s="13">
-        <v>32.541409000000002</v>
-      </c>
-      <c r="C39" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="D39" s="13" t="s">
-        <v>96</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/Vitia_Ostrovsky/R_Calc_Crang_2024/Data/Crang_2024.xlsx
+++ b/Vitia_Ostrovsky/R_Calc_Crang_2024/Data/Crang_2024.xlsx
@@ -25,8 +25,10 @@
     <sheet name="Coordinats" sheetId="2" r:id="rId11"/>
     <sheet name="Nor" sheetId="6" r:id="rId12"/>
     <sheet name="Full" sheetId="1" r:id="rId13"/>
-    <sheet name="нето что надо " sheetId="17" r:id="rId14"/>
-    <sheet name="Nord" sheetId="9" r:id="rId15"/>
+    <sheet name="Лист2" sheetId="19" r:id="rId14"/>
+    <sheet name="нето что надо " sheetId="17" r:id="rId15"/>
+    <sheet name="Лист1" sheetId="18" r:id="rId16"/>
+    <sheet name="Nord" sheetId="9" r:id="rId17"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">Full!$A$1:$AE$207</definedName>
@@ -52,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1032" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1078" uniqueCount="125">
   <si>
     <t>Area</t>
   </si>
@@ -931,11 +933,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="164410912"/>
-        <c:axId val="164411296"/>
+        <c:axId val="164449640"/>
+        <c:axId val="35784000"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="164410912"/>
+        <c:axId val="164449640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -992,12 +994,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="164411296"/>
+        <c:crossAx val="35784000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="164411296"/>
+        <c:axId val="35784000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1054,7 +1056,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="164410912"/>
+        <c:crossAx val="164449640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1434,11 +1436,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="164611184"/>
-        <c:axId val="163950008"/>
+        <c:axId val="165188328"/>
+        <c:axId val="165192568"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="164611184"/>
+        <c:axId val="165188328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1495,12 +1497,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="163950008"/>
+        <c:crossAx val="165192568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="163950008"/>
+        <c:axId val="165192568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1557,7 +1559,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="164611184"/>
+        <c:crossAx val="165188328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5561,7 +5563,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE207"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A187" workbookViewId="0">
       <selection activeCell="D200" sqref="D200:D207"/>
     </sheetView>
   </sheetViews>
@@ -5678,7 +5680,7 @@
         <v>32.540053</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2" t="s">
         <v>31</v>
@@ -5774,7 +5776,7 @@
         <v>32.540053</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3" t="s">
         <v>31</v>
@@ -5870,7 +5872,7 @@
         <v>32.540053</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4" t="s">
         <v>31</v>
@@ -5966,7 +5968,7 @@
         <v>32.540053</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5" t="s">
         <v>31</v>
@@ -6062,7 +6064,7 @@
         <v>32.540053</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E6" t="s">
         <v>31</v>
@@ -6158,7 +6160,7 @@
         <v>32.540053</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7" t="s">
         <v>31</v>
@@ -6254,7 +6256,7 @@
         <v>32.540053</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E8" t="s">
         <v>31</v>
@@ -6350,7 +6352,7 @@
         <v>32.540053</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E9" t="s">
         <v>31</v>
@@ -6446,7 +6448,7 @@
         <v>32.540053</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E10" t="s">
         <v>31</v>
@@ -6542,7 +6544,7 @@
         <v>32.540053</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E11" t="s">
         <v>31</v>
@@ -6638,7 +6640,7 @@
         <v>32.540053</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E12" t="s">
         <v>31</v>
@@ -8750,7 +8752,7 @@
         <v>32.540588</v>
       </c>
       <c r="D34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E34" t="s">
         <v>33</v>
@@ -8846,7 +8848,7 @@
         <v>32.540588</v>
       </c>
       <c r="D35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E35" t="s">
         <v>33</v>
@@ -8942,7 +8944,7 @@
         <v>32.540588</v>
       </c>
       <c r="D36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E36" t="s">
         <v>33</v>
@@ -9038,7 +9040,7 @@
         <v>32.540588</v>
       </c>
       <c r="D37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E37" t="s">
         <v>33</v>
@@ -9134,7 +9136,7 @@
         <v>32.540588</v>
       </c>
       <c r="D38">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E38" t="s">
         <v>33</v>
@@ -9230,7 +9232,7 @@
         <v>32.540588</v>
       </c>
       <c r="D39">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E39" t="s">
         <v>33</v>
@@ -9326,7 +9328,7 @@
         <v>32.540588</v>
       </c>
       <c r="D40">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E40" t="s">
         <v>33</v>
@@ -9422,7 +9424,7 @@
         <v>32.540588</v>
       </c>
       <c r="D41">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E41" t="s">
         <v>33</v>
@@ -9518,7 +9520,7 @@
         <v>32.540588</v>
       </c>
       <c r="D42">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E42" t="s">
         <v>33</v>
@@ -9614,7 +9616,7 @@
         <v>32.540588</v>
       </c>
       <c r="D43">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E43" t="s">
         <v>33</v>
@@ -9710,7 +9712,7 @@
         <v>32.540588</v>
       </c>
       <c r="D44">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E44" t="s">
         <v>33</v>
@@ -9806,7 +9808,7 @@
         <v>32.540588</v>
       </c>
       <c r="D45">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E45" t="s">
         <v>33</v>
@@ -9902,7 +9904,7 @@
         <v>32.540588</v>
       </c>
       <c r="D46">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E46" t="s">
         <v>33</v>
@@ -9998,7 +10000,7 @@
         <v>32.540588</v>
       </c>
       <c r="D47">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E47" t="s">
         <v>33</v>
@@ -10094,7 +10096,7 @@
         <v>32.541285999999999</v>
       </c>
       <c r="D48">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E48" t="s">
         <v>34</v>
@@ -10190,7 +10192,7 @@
         <v>32.541285999999999</v>
       </c>
       <c r="D49">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E49" t="s">
         <v>34</v>
@@ -10286,7 +10288,7 @@
         <v>32.541285999999999</v>
       </c>
       <c r="D50">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E50" t="s">
         <v>34</v>
@@ -10382,7 +10384,7 @@
         <v>32.541285999999999</v>
       </c>
       <c r="D51">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E51" t="s">
         <v>34</v>
@@ -10478,7 +10480,7 @@
         <v>32.541285999999999</v>
       </c>
       <c r="D52">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E52" t="s">
         <v>34</v>
@@ -10574,7 +10576,7 @@
         <v>32.541285999999999</v>
       </c>
       <c r="D53">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E53" t="s">
         <v>34</v>
@@ -10670,7 +10672,7 @@
         <v>32.541285999999999</v>
       </c>
       <c r="D54">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E54" t="s">
         <v>34</v>
@@ -10766,7 +10768,7 @@
         <v>32.541285999999999</v>
       </c>
       <c r="D55">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E55" t="s">
         <v>34</v>
@@ -10862,7 +10864,7 @@
         <v>32.541285999999999</v>
       </c>
       <c r="D56">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E56" t="s">
         <v>34</v>
@@ -10958,7 +10960,7 @@
         <v>32.541285999999999</v>
       </c>
       <c r="D57">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E57" t="s">
         <v>34</v>
@@ -11054,7 +11056,7 @@
         <v>32.541285999999999</v>
       </c>
       <c r="D58">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E58" t="s">
         <v>34</v>
@@ -11150,7 +11152,7 @@
         <v>32.541471999999999</v>
       </c>
       <c r="D59">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E59" t="s">
         <v>35</v>
@@ -11246,7 +11248,7 @@
         <v>32.541471999999999</v>
       </c>
       <c r="D60">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E60" t="s">
         <v>35</v>
@@ -11342,7 +11344,7 @@
         <v>32.541471999999999</v>
       </c>
       <c r="D61">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E61" t="s">
         <v>35</v>
@@ -11438,7 +11440,7 @@
         <v>32.541471999999999</v>
       </c>
       <c r="D62">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E62" t="s">
         <v>35</v>
@@ -11534,7 +11536,7 @@
         <v>32.541471999999999</v>
       </c>
       <c r="D63">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E63" t="s">
         <v>35</v>
@@ -11630,7 +11632,7 @@
         <v>32.541471999999999</v>
       </c>
       <c r="D64">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E64" t="s">
         <v>35</v>
@@ -11726,7 +11728,7 @@
         <v>32.541471999999999</v>
       </c>
       <c r="D65">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E65" t="s">
         <v>35</v>
@@ -11822,7 +11824,7 @@
         <v>32.541471999999999</v>
       </c>
       <c r="D66">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E66" t="s">
         <v>35</v>
@@ -11918,7 +11920,7 @@
         <v>32.541471999999999</v>
       </c>
       <c r="D67">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E67" t="s">
         <v>35</v>
@@ -12014,7 +12016,7 @@
         <v>32.541471999999999</v>
       </c>
       <c r="D68">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E68" t="s">
         <v>35</v>
@@ -12110,7 +12112,7 @@
         <v>32.541471999999999</v>
       </c>
       <c r="D69">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E69" t="s">
         <v>35</v>
@@ -12206,7 +12208,7 @@
         <v>32.541471999999999</v>
       </c>
       <c r="D70">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E70" t="s">
         <v>35</v>
@@ -12302,7 +12304,7 @@
         <v>32.541471999999999</v>
       </c>
       <c r="D71">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E71" t="s">
         <v>35</v>
@@ -12398,7 +12400,7 @@
         <v>32.541471999999999</v>
       </c>
       <c r="D72">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E72" t="s">
         <v>35</v>
@@ -12494,7 +12496,7 @@
         <v>34.911000000000001</v>
       </c>
       <c r="D73">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E73" t="s">
         <v>37</v>
@@ -12590,7 +12592,7 @@
         <v>34.911000000000001</v>
       </c>
       <c r="D74">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E74" t="s">
         <v>37</v>
@@ -12686,7 +12688,7 @@
         <v>34.911000000000001</v>
       </c>
       <c r="D75">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E75" t="s">
         <v>37</v>
@@ -12782,7 +12784,7 @@
         <v>34.911000000000001</v>
       </c>
       <c r="D76">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E76" t="s">
         <v>37</v>
@@ -12878,7 +12880,7 @@
         <v>34.911000000000001</v>
       </c>
       <c r="D77">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E77" t="s">
         <v>37</v>
@@ -12974,7 +12976,7 @@
         <v>34.911000000000001</v>
       </c>
       <c r="D78">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E78" t="s">
         <v>37</v>
@@ -13070,7 +13072,7 @@
         <v>34.911000000000001</v>
       </c>
       <c r="D79">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E79" t="s">
         <v>37</v>
@@ -13166,7 +13168,7 @@
         <v>34.911000000000001</v>
       </c>
       <c r="D80">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E80" t="s">
         <v>37</v>
@@ -13262,7 +13264,7 @@
         <v>34.911000000000001</v>
       </c>
       <c r="D81">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E81" t="s">
         <v>37</v>
@@ -13358,7 +13360,7 @@
         <v>34.911000000000001</v>
       </c>
       <c r="D82">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E82" t="s">
         <v>37</v>
@@ -13454,7 +13456,7 @@
         <v>34.911000000000001</v>
       </c>
       <c r="D83">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E83" t="s">
         <v>37</v>
@@ -13550,7 +13552,7 @@
         <v>34.911000000000001</v>
       </c>
       <c r="D84">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E84" t="s">
         <v>37</v>
@@ -13646,7 +13648,7 @@
         <v>34.911000000000001</v>
       </c>
       <c r="D85">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E85" t="s">
         <v>37</v>
@@ -13742,7 +13744,7 @@
         <v>34.911000000000001</v>
       </c>
       <c r="D86">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E86" t="s">
         <v>37</v>
@@ -13838,7 +13840,7 @@
         <v>34.911000000000001</v>
       </c>
       <c r="D87">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E87" t="s">
         <v>37</v>
@@ -13934,7 +13936,7 @@
         <v>34.911000000000001</v>
       </c>
       <c r="D88">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E88" t="s">
         <v>37</v>
@@ -14030,7 +14032,7 @@
         <v>34.911000000000001</v>
       </c>
       <c r="D89">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E89" t="s">
         <v>37</v>
@@ -14126,7 +14128,7 @@
         <v>34.911000000000001</v>
       </c>
       <c r="D90">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E90" t="s">
         <v>37</v>
@@ -14222,7 +14224,7 @@
         <v>34.911000000000001</v>
       </c>
       <c r="D91">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E91" t="s">
         <v>37</v>
@@ -14318,7 +14320,7 @@
         <v>34.911000000000001</v>
       </c>
       <c r="D92">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E92" t="s">
         <v>37</v>
@@ -14414,7 +14416,7 @@
         <v>34.911000000000001</v>
       </c>
       <c r="D93">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E93" t="s">
         <v>37</v>
@@ -14510,7 +14512,7 @@
         <v>34.911000000000001</v>
       </c>
       <c r="D94">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E94" t="s">
         <v>37</v>
@@ -14606,7 +14608,7 @@
         <v>34.911000000000001</v>
       </c>
       <c r="D95">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E95" t="s">
         <v>37</v>
@@ -14702,7 +14704,7 @@
         <v>34.383000000000003</v>
       </c>
       <c r="D96">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E96" t="s">
         <v>32</v>
@@ -14798,7 +14800,7 @@
         <v>34.383000000000003</v>
       </c>
       <c r="D97">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E97" t="s">
         <v>32</v>
@@ -14894,7 +14896,7 @@
         <v>34.383000000000003</v>
       </c>
       <c r="D98">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E98" t="s">
         <v>32</v>
@@ -14990,7 +14992,7 @@
         <v>34.383000000000003</v>
       </c>
       <c r="D99">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E99" t="s">
         <v>32</v>
@@ -15086,7 +15088,7 @@
         <v>34.383000000000003</v>
       </c>
       <c r="D100">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E100" t="s">
         <v>32</v>
@@ -15182,7 +15184,7 @@
         <v>34.383000000000003</v>
       </c>
       <c r="D101">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E101" t="s">
         <v>32</v>
@@ -15278,7 +15280,7 @@
         <v>34.383000000000003</v>
       </c>
       <c r="D102">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E102" t="s">
         <v>32</v>
@@ -15374,7 +15376,7 @@
         <v>34.383000000000003</v>
       </c>
       <c r="D103">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E103" t="s">
         <v>32</v>
@@ -15470,7 +15472,7 @@
         <v>34.383000000000003</v>
       </c>
       <c r="D104">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E104" t="s">
         <v>32</v>
@@ -15566,7 +15568,7 @@
         <v>34.383000000000003</v>
       </c>
       <c r="D105">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E105" t="s">
         <v>32</v>
@@ -15662,7 +15664,7 @@
         <v>34.383000000000003</v>
       </c>
       <c r="D106">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E106" t="s">
         <v>32</v>
@@ -15758,7 +15760,7 @@
         <v>34.383000000000003</v>
       </c>
       <c r="D107">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E107" t="s">
         <v>32</v>
@@ -15854,7 +15856,7 @@
         <v>34.383000000000003</v>
       </c>
       <c r="D108">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E108" t="s">
         <v>32</v>
@@ -15950,7 +15952,7 @@
         <v>34.383000000000003</v>
       </c>
       <c r="D109">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E109" t="s">
         <v>32</v>
@@ -16046,7 +16048,7 @@
         <v>34.383000000000003</v>
       </c>
       <c r="D110">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E110" t="s">
         <v>32</v>
@@ -16142,7 +16144,7 @@
         <v>34.344000000000001</v>
       </c>
       <c r="D111">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E111" t="s">
         <v>33</v>
@@ -16238,7 +16240,7 @@
         <v>34.344000000000001</v>
       </c>
       <c r="D112">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E112" t="s">
         <v>33</v>
@@ -16334,7 +16336,7 @@
         <v>34.344000000000001</v>
       </c>
       <c r="D113">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E113" t="s">
         <v>33</v>
@@ -16430,7 +16432,7 @@
         <v>34.344000000000001</v>
       </c>
       <c r="D114">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E114" t="s">
         <v>33</v>
@@ -16526,7 +16528,7 @@
         <v>34.344000000000001</v>
       </c>
       <c r="D115">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E115" t="s">
         <v>33</v>
@@ -16622,7 +16624,7 @@
         <v>34.344000000000001</v>
       </c>
       <c r="D116">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E116" t="s">
         <v>33</v>
@@ -16718,7 +16720,7 @@
         <v>34.344000000000001</v>
       </c>
       <c r="D117">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E117" t="s">
         <v>33</v>
@@ -16814,7 +16816,7 @@
         <v>34.344000000000001</v>
       </c>
       <c r="D118">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E118" t="s">
         <v>33</v>
@@ -16910,7 +16912,7 @@
         <v>34.344000000000001</v>
       </c>
       <c r="D119">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E119" t="s">
         <v>33</v>
@@ -17006,7 +17008,7 @@
         <v>34.344000000000001</v>
       </c>
       <c r="D120">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E120" t="s">
         <v>33</v>
@@ -17102,7 +17104,7 @@
         <v>34.344000000000001</v>
       </c>
       <c r="D121">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E121" t="s">
         <v>33</v>
@@ -17198,7 +17200,7 @@
         <v>34.344000000000001</v>
       </c>
       <c r="D122">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E122" t="s">
         <v>33</v>
@@ -17294,7 +17296,7 @@
         <v>34.344000000000001</v>
       </c>
       <c r="D123">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E123" t="s">
         <v>33</v>
@@ -17390,7 +17392,7 @@
         <v>34.344000000000001</v>
       </c>
       <c r="D124">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E124" t="s">
         <v>33</v>
@@ -17486,7 +17488,7 @@
         <v>34.344000000000001</v>
       </c>
       <c r="D125">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E125" t="s">
         <v>33</v>
@@ -17582,7 +17584,7 @@
         <v>34.344000000000001</v>
       </c>
       <c r="D126">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E126" t="s">
         <v>33</v>
@@ -17678,7 +17680,7 @@
         <v>34.344000000000001</v>
       </c>
       <c r="D127">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E127" t="s">
         <v>33</v>
@@ -17774,7 +17776,7 @@
         <v>34.344000000000001</v>
       </c>
       <c r="D128">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E128" t="s">
         <v>33</v>
@@ -17870,7 +17872,7 @@
         <v>34.344000000000001</v>
       </c>
       <c r="D129">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E129" t="s">
         <v>33</v>
@@ -17966,7 +17968,7 @@
         <v>34.311999999999998</v>
       </c>
       <c r="D130">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E130" t="s">
         <v>34</v>
@@ -18062,7 +18064,7 @@
         <v>34.311999999999998</v>
       </c>
       <c r="D131">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E131" t="s">
         <v>34</v>
@@ -18158,7 +18160,7 @@
         <v>34.311999999999998</v>
       </c>
       <c r="D132">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E132" t="s">
         <v>34</v>
@@ -18254,7 +18256,7 @@
         <v>34.311999999999998</v>
       </c>
       <c r="D133">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E133" t="s">
         <v>34</v>
@@ -18350,7 +18352,7 @@
         <v>34.311999999999998</v>
       </c>
       <c r="D134">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E134" t="s">
         <v>34</v>
@@ -18446,7 +18448,7 @@
         <v>34.311999999999998</v>
       </c>
       <c r="D135">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E135" t="s">
         <v>34</v>
@@ -18542,7 +18544,7 @@
         <v>34.270000000000003</v>
       </c>
       <c r="D136">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E136" t="s">
         <v>35</v>
@@ -18638,7 +18640,7 @@
         <v>34.270000000000003</v>
       </c>
       <c r="D137">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E137" t="s">
         <v>35</v>
@@ -18734,7 +18736,7 @@
         <v>34.270000000000003</v>
       </c>
       <c r="D138">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E138" t="s">
         <v>35</v>
@@ -18830,7 +18832,7 @@
         <v>34.270000000000003</v>
       </c>
       <c r="D139">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E139" t="s">
         <v>35</v>
@@ -18926,7 +18928,7 @@
         <v>34.386000000000003</v>
       </c>
       <c r="D140">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E140" t="s">
         <v>39</v>
@@ -19022,7 +19024,7 @@
         <v>34.386000000000003</v>
       </c>
       <c r="D141">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E141" t="s">
         <v>39</v>
@@ -19118,7 +19120,7 @@
         <v>34.386000000000003</v>
       </c>
       <c r="D142">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E142" t="s">
         <v>39</v>
@@ -19214,7 +19216,7 @@
         <v>34.386000000000003</v>
       </c>
       <c r="D143">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E143" t="s">
         <v>39</v>
@@ -19310,7 +19312,7 @@
         <v>34.386000000000003</v>
       </c>
       <c r="D144">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E144" t="s">
         <v>39</v>
@@ -19406,7 +19408,7 @@
         <v>34.386000000000003</v>
       </c>
       <c r="D145">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E145" t="s">
         <v>39</v>
@@ -19502,7 +19504,7 @@
         <v>34.386000000000003</v>
       </c>
       <c r="D146">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E146" t="s">
         <v>39</v>
@@ -19598,7 +19600,7 @@
         <v>34.386000000000003</v>
       </c>
       <c r="D147">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E147" t="s">
         <v>39</v>
@@ -19694,7 +19696,7 @@
         <v>34.386000000000003</v>
       </c>
       <c r="D148">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E148" t="s">
         <v>39</v>
@@ -19790,7 +19792,7 @@
         <v>34.386000000000003</v>
       </c>
       <c r="D149">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E149" t="s">
         <v>39</v>
@@ -19886,7 +19888,7 @@
         <v>34.386000000000003</v>
       </c>
       <c r="D150">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E150" t="s">
         <v>39</v>
@@ -19982,7 +19984,7 @@
         <v>34.386000000000003</v>
       </c>
       <c r="D151">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E151" t="s">
         <v>39</v>
@@ -20078,7 +20080,7 @@
         <v>34.386000000000003</v>
       </c>
       <c r="D152">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E152" t="s">
         <v>39</v>
@@ -20174,7 +20176,7 @@
         <v>34.386000000000003</v>
       </c>
       <c r="D153">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E153" t="s">
         <v>39</v>
@@ -20270,7 +20272,7 @@
         <v>34.386000000000003</v>
       </c>
       <c r="D154">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E154" t="s">
         <v>39</v>
@@ -20366,7 +20368,7 @@
         <v>34.386000000000003</v>
       </c>
       <c r="D155">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E155" t="s">
         <v>39</v>
@@ -20462,7 +20464,7 @@
         <v>34.386000000000003</v>
       </c>
       <c r="D156">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E156" t="s">
         <v>39</v>
@@ -20558,7 +20560,7 @@
         <v>34.351999999999997</v>
       </c>
       <c r="D157">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E157" t="s">
         <v>40</v>
@@ -20654,7 +20656,7 @@
         <v>34.351999999999997</v>
       </c>
       <c r="D158">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E158" t="s">
         <v>40</v>
@@ -20750,7 +20752,7 @@
         <v>34.351999999999997</v>
       </c>
       <c r="D159">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E159" t="s">
         <v>40</v>
@@ -20846,7 +20848,7 @@
         <v>34.351999999999997</v>
       </c>
       <c r="D160">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E160" t="s">
         <v>40</v>
@@ -20942,7 +20944,7 @@
         <v>34.351999999999997</v>
       </c>
       <c r="D161">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E161" t="s">
         <v>40</v>
@@ -21038,7 +21040,7 @@
         <v>34.351999999999997</v>
       </c>
       <c r="D162">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E162" t="s">
         <v>40</v>
@@ -21134,7 +21136,7 @@
         <v>34.351999999999997</v>
       </c>
       <c r="D163">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E163" t="s">
         <v>40</v>
@@ -21230,7 +21232,7 @@
         <v>34.351999999999997</v>
       </c>
       <c r="D164">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E164" t="s">
         <v>40</v>
@@ -21326,7 +21328,7 @@
         <v>34.351999999999997</v>
       </c>
       <c r="D165">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E165" t="s">
         <v>40</v>
@@ -21422,7 +21424,7 @@
         <v>34.351999999999997</v>
       </c>
       <c r="D166">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E166" t="s">
         <v>40</v>
@@ -21518,7 +21520,7 @@
         <v>34.351999999999997</v>
       </c>
       <c r="D167">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E167" t="s">
         <v>40</v>
@@ -21614,7 +21616,7 @@
         <v>34.351999999999997</v>
       </c>
       <c r="D168">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E168" t="s">
         <v>40</v>
@@ -21710,7 +21712,7 @@
         <v>34.351999999999997</v>
       </c>
       <c r="D169">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E169" t="s">
         <v>40</v>
@@ -21806,7 +21808,7 @@
         <v>34.351999999999997</v>
       </c>
       <c r="D170">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E170" t="s">
         <v>40</v>
@@ -21902,7 +21904,7 @@
         <v>34.351999999999997</v>
       </c>
       <c r="D171">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E171" t="s">
         <v>40</v>
@@ -21998,7 +22000,7 @@
         <v>34.351999999999997</v>
       </c>
       <c r="D172">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E172" t="s">
         <v>40</v>
@@ -22094,7 +22096,7 @@
         <v>34.351999999999997</v>
       </c>
       <c r="D173">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E173" t="s">
         <v>40</v>
@@ -22190,7 +22192,7 @@
         <v>34.351999999999997</v>
       </c>
       <c r="D174">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E174" t="s">
         <v>40</v>
@@ -22286,7 +22288,7 @@
         <v>34.32</v>
       </c>
       <c r="D175">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="E175" t="s">
         <v>41</v>
@@ -22382,7 +22384,7 @@
         <v>34.32</v>
       </c>
       <c r="D176">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="E176" t="s">
         <v>41</v>
@@ -22478,7 +22480,7 @@
         <v>34.32</v>
       </c>
       <c r="D177">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="E177" t="s">
         <v>41</v>
@@ -22574,7 +22576,7 @@
         <v>34.32</v>
       </c>
       <c r="D178">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="E178" t="s">
         <v>41</v>
@@ -22670,7 +22672,7 @@
         <v>34.32</v>
       </c>
       <c r="D179">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="E179" t="s">
         <v>41</v>
@@ -22766,7 +22768,7 @@
         <v>34.32</v>
       </c>
       <c r="D180">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="E180" t="s">
         <v>41</v>
@@ -22862,7 +22864,7 @@
         <v>34.32</v>
       </c>
       <c r="D181">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="E181" t="s">
         <v>41</v>
@@ -22958,7 +22960,7 @@
         <v>34.32</v>
       </c>
       <c r="D182">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="E182" t="s">
         <v>41</v>
@@ -23054,7 +23056,7 @@
         <v>34.32</v>
       </c>
       <c r="D183">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="E183" t="s">
         <v>41</v>
@@ -23150,7 +23152,7 @@
         <v>34.32</v>
       </c>
       <c r="D184">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="E184" t="s">
         <v>41</v>
@@ -23246,7 +23248,7 @@
         <v>34.32</v>
       </c>
       <c r="D185">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="E185" t="s">
         <v>41</v>
@@ -23342,7 +23344,7 @@
         <v>34.32</v>
       </c>
       <c r="D186">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="E186" t="s">
         <v>41</v>
@@ -23438,7 +23440,7 @@
         <v>34.32</v>
       </c>
       <c r="D187">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="E187" t="s">
         <v>41</v>
@@ -23534,7 +23536,7 @@
         <v>34.281999999999996</v>
       </c>
       <c r="D188">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="E188" t="s">
         <v>42</v>
@@ -23630,7 +23632,7 @@
         <v>34.281999999999996</v>
       </c>
       <c r="D189">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="E189" t="s">
         <v>42</v>
@@ -23726,7 +23728,7 @@
         <v>34.281999999999996</v>
       </c>
       <c r="D190">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="E190" t="s">
         <v>42</v>
@@ -23822,7 +23824,7 @@
         <v>34.281999999999996</v>
       </c>
       <c r="D191">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="E191" t="s">
         <v>42</v>
@@ -23918,7 +23920,7 @@
         <v>34.281999999999996</v>
       </c>
       <c r="D192">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="E192" t="s">
         <v>42</v>
@@ -24014,7 +24016,7 @@
         <v>34.259</v>
       </c>
       <c r="D193">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E193" t="s">
         <v>43</v>
@@ -24110,7 +24112,7 @@
         <v>34.259</v>
       </c>
       <c r="D194">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E194" t="s">
         <v>43</v>
@@ -24206,7 +24208,7 @@
         <v>34.259</v>
       </c>
       <c r="D195">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E195" t="s">
         <v>43</v>
@@ -24302,7 +24304,7 @@
         <v>34.259</v>
       </c>
       <c r="D196">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E196" t="s">
         <v>43</v>
@@ -24398,7 +24400,7 @@
         <v>34.259</v>
       </c>
       <c r="D197">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E197" t="s">
         <v>43</v>
@@ -24494,7 +24496,7 @@
         <v>34.259</v>
       </c>
       <c r="D198">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E198" t="s">
         <v>43</v>
@@ -24590,7 +24592,7 @@
         <v>34.259</v>
       </c>
       <c r="D199">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E199" t="s">
         <v>43</v>
@@ -24686,7 +24688,7 @@
         <v>34.25</v>
       </c>
       <c r="D200">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="E200" t="s">
         <v>44</v>
@@ -24782,7 +24784,7 @@
         <v>34.25</v>
       </c>
       <c r="D201">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="E201" t="s">
         <v>44</v>
@@ -24878,7 +24880,7 @@
         <v>34.25</v>
       </c>
       <c r="D202">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="E202" t="s">
         <v>44</v>
@@ -24974,7 +24976,7 @@
         <v>34.25</v>
       </c>
       <c r="D203">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="E203" t="s">
         <v>44</v>
@@ -25070,7 +25072,7 @@
         <v>34.25</v>
       </c>
       <c r="D204">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="E204" t="s">
         <v>44</v>
@@ -25166,7 +25168,7 @@
         <v>34.25</v>
       </c>
       <c r="D205">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="E205" t="s">
         <v>44</v>
@@ -25262,7 +25264,7 @@
         <v>34.25</v>
       </c>
       <c r="D206">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="E206" t="s">
         <v>44</v>
@@ -25358,7 +25360,7 @@
         <v>34.25</v>
       </c>
       <c r="D207">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="E207" t="s">
         <v>44</v>
@@ -25452,9 +25454,490 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection sqref="A1:F23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="18.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+      <c r="E1">
+        <v>4</v>
+      </c>
+      <c r="F1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>0.7</v>
+      </c>
+      <c r="C2">
+        <v>0.6</v>
+      </c>
+      <c r="D2">
+        <v>0.4</v>
+      </c>
+      <c r="E2">
+        <v>0.7</v>
+      </c>
+      <c r="F2">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>0.1</v>
+      </c>
+      <c r="C3">
+        <v>0.2</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0.2</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0.2</v>
+      </c>
+      <c r="D5">
+        <v>0.2</v>
+      </c>
+      <c r="E5">
+        <v>0.2</v>
+      </c>
+      <c r="F5">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6">
+        <v>0.1</v>
+      </c>
+      <c r="C6">
+        <v>0.1</v>
+      </c>
+      <c r="D6">
+        <v>0.3</v>
+      </c>
+      <c r="E6">
+        <v>0.2</v>
+      </c>
+      <c r="F6">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0.1</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0.1</v>
+      </c>
+      <c r="D8">
+        <v>0.1</v>
+      </c>
+      <c r="E8">
+        <v>0.1</v>
+      </c>
+      <c r="F8">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0.1</v>
+      </c>
+      <c r="D9">
+        <v>0.2</v>
+      </c>
+      <c r="E9">
+        <v>0.1</v>
+      </c>
+      <c r="F9">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>0.1</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11">
+        <v>0.1</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0.1</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0.1</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:F23">
+    <sortCondition descending="1" ref="C2:C23"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:Q23"/>
     </sheetView>
   </sheetViews>
@@ -26688,7 +27171,278 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C23"/>
+  <sheetViews>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection sqref="A1:C23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="18.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>0.6</v>
+      </c>
+      <c r="C2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>0.1</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <v>0.1</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <v>0.1</v>
+      </c>
+      <c r="C7">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8">
+        <v>0.1</v>
+      </c>
+      <c r="C8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9">
+        <v>0.2</v>
+      </c>
+      <c r="C9">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11">
+        <v>0.1</v>
+      </c>
+      <c r="C11">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B72"/>
   <sheetViews>

--- a/Vitia_Ostrovsky/R_Calc_Crang_2024/Data/Crang_2024.xlsx
+++ b/Vitia_Ostrovsky/R_Calc_Crang_2024/Data/Crang_2024.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22190" windowHeight="9180" firstSheet="8" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22190" windowHeight="9180" firstSheet="9" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Outline_s" sheetId="13" r:id="rId1"/>
@@ -25,10 +25,9 @@
     <sheet name="Coordinats" sheetId="2" r:id="rId11"/>
     <sheet name="Nor" sheetId="6" r:id="rId12"/>
     <sheet name="Full" sheetId="1" r:id="rId13"/>
-    <sheet name="Лист2" sheetId="19" r:id="rId14"/>
-    <sheet name="нето что надо " sheetId="17" r:id="rId15"/>
-    <sheet name="Лист1" sheetId="18" r:id="rId16"/>
-    <sheet name="Nord" sheetId="9" r:id="rId17"/>
+    <sheet name="Лист3" sheetId="20" r:id="rId14"/>
+    <sheet name="Лист1" sheetId="18" r:id="rId15"/>
+    <sheet name="Nord" sheetId="9" r:id="rId16"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">Full!$A$1:$AE$207</definedName>
@@ -54,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1078" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="125">
   <si>
     <t>Area</t>
   </si>
@@ -429,7 +428,7 @@
     <t>Кластер 4</t>
   </si>
   <si>
-    <t>Пищевые объекты</t>
+    <t>variable</t>
   </si>
 </sst>
 </file>
@@ -933,11 +932,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="164449640"/>
-        <c:axId val="35784000"/>
+        <c:axId val="162227032"/>
+        <c:axId val="162227424"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="164449640"/>
+        <c:axId val="162227032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -994,12 +993,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="35784000"/>
+        <c:crossAx val="162227424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="35784000"/>
+        <c:axId val="162227424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1056,7 +1055,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="164449640"/>
+        <c:crossAx val="162227032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1436,11 +1435,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="165188328"/>
-        <c:axId val="165192568"/>
+        <c:axId val="162228208"/>
+        <c:axId val="162227816"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="165188328"/>
+        <c:axId val="162228208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1497,12 +1496,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="165192568"/>
+        <c:crossAx val="162227816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="165192568"/>
+        <c:axId val="162227816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1559,7 +1558,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="165188328"/>
+        <c:crossAx val="162228208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5563,8 +5562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE207"/>
   <sheetViews>
-    <sheetView topLeftCell="A187" workbookViewId="0">
-      <selection activeCell="D200" sqref="D200:D207"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D157" sqref="D157:D174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -20560,7 +20559,7 @@
         <v>34.351999999999997</v>
       </c>
       <c r="D157">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E157" t="s">
         <v>40</v>
@@ -20656,7 +20655,7 @@
         <v>34.351999999999997</v>
       </c>
       <c r="D158">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E158" t="s">
         <v>40</v>
@@ -20752,7 +20751,7 @@
         <v>34.351999999999997</v>
       </c>
       <c r="D159">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E159" t="s">
         <v>40</v>
@@ -20848,7 +20847,7 @@
         <v>34.351999999999997</v>
       </c>
       <c r="D160">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E160" t="s">
         <v>40</v>
@@ -20944,7 +20943,7 @@
         <v>34.351999999999997</v>
       </c>
       <c r="D161">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E161" t="s">
         <v>40</v>
@@ -21040,7 +21039,7 @@
         <v>34.351999999999997</v>
       </c>
       <c r="D162">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E162" t="s">
         <v>40</v>
@@ -21136,7 +21135,7 @@
         <v>34.351999999999997</v>
       </c>
       <c r="D163">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E163" t="s">
         <v>40</v>
@@ -21232,7 +21231,7 @@
         <v>34.351999999999997</v>
       </c>
       <c r="D164">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E164" t="s">
         <v>40</v>
@@ -21328,7 +21327,7 @@
         <v>34.351999999999997</v>
       </c>
       <c r="D165">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E165" t="s">
         <v>40</v>
@@ -21424,7 +21423,7 @@
         <v>34.351999999999997</v>
       </c>
       <c r="D166">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E166" t="s">
         <v>40</v>
@@ -21520,7 +21519,7 @@
         <v>34.351999999999997</v>
       </c>
       <c r="D167">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E167" t="s">
         <v>40</v>
@@ -21616,7 +21615,7 @@
         <v>34.351999999999997</v>
       </c>
       <c r="D168">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E168" t="s">
         <v>40</v>
@@ -21712,7 +21711,7 @@
         <v>34.351999999999997</v>
       </c>
       <c r="D169">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E169" t="s">
         <v>40</v>
@@ -21808,7 +21807,7 @@
         <v>34.351999999999997</v>
       </c>
       <c r="D170">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E170" t="s">
         <v>40</v>
@@ -21904,7 +21903,7 @@
         <v>34.351999999999997</v>
       </c>
       <c r="D171">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E171" t="s">
         <v>40</v>
@@ -22000,7 +21999,7 @@
         <v>34.351999999999997</v>
       </c>
       <c r="D172">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E172" t="s">
         <v>40</v>
@@ -22096,7 +22095,7 @@
         <v>34.351999999999997</v>
       </c>
       <c r="D173">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E173" t="s">
         <v>40</v>
@@ -22192,7 +22191,7 @@
         <v>34.351999999999997</v>
       </c>
       <c r="D174">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E174" t="s">
         <v>40</v>
@@ -24016,7 +24015,7 @@
         <v>34.259</v>
       </c>
       <c r="D193">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E193" t="s">
         <v>43</v>
@@ -24112,7 +24111,7 @@
         <v>34.259</v>
       </c>
       <c r="D194">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E194" t="s">
         <v>43</v>
@@ -24208,7 +24207,7 @@
         <v>34.259</v>
       </c>
       <c r="D195">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E195" t="s">
         <v>43</v>
@@ -24304,7 +24303,7 @@
         <v>34.259</v>
       </c>
       <c r="D196">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E196" t="s">
         <v>43</v>
@@ -24400,7 +24399,7 @@
         <v>34.259</v>
       </c>
       <c r="D197">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E197" t="s">
         <v>43</v>
@@ -24496,7 +24495,7 @@
         <v>34.259</v>
       </c>
       <c r="D198">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E198" t="s">
         <v>43</v>
@@ -24592,7 +24591,7 @@
         <v>34.259</v>
       </c>
       <c r="D199">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E199" t="s">
         <v>43</v>
@@ -25454,20 +25453,23 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection sqref="A1:F23"/>
+    <sheetView tabSelected="1" topLeftCell="C5" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6:O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="B1">
         <v>1</v>
@@ -25481,11 +25483,8 @@
       <c r="E1">
         <v>4</v>
       </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -25499,35 +25498,29 @@
         <v>0.4</v>
       </c>
       <c r="E2">
-        <v>0.7</v>
-      </c>
-      <c r="F2">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B3">
         <v>0.1</v>
       </c>
       <c r="C3">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -25536,138 +25529,165 @@
         <v>0.2</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="D5">
         <v>0.2</v>
       </c>
       <c r="E5">
-        <v>0.2</v>
-      </c>
-      <c r="F5">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>0.1</v>
       </c>
       <c r="D6">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="E6">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0.1</v>
+      </c>
+      <c r="E7">
+        <v>0.1</v>
+      </c>
+      <c r="I7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M7" t="s">
+        <v>15</v>
+      </c>
+      <c r="O7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>0.1</v>
+      </c>
+      <c r="C8">
         <v>0.2</v>
       </c>
-      <c r="F6">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="I8" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" t="s">
+        <v>13</v>
+      </c>
+      <c r="M8" t="s">
+        <v>13</v>
+      </c>
+      <c r="O8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0.2</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="I9" t="s">
+        <v>12</v>
+      </c>
+      <c r="K9" t="s">
+        <v>9</v>
+      </c>
+      <c r="M9" t="s">
+        <v>17</v>
+      </c>
+      <c r="O9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
         <v>0.1</v>
       </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="I10" t="s">
+        <v>26</v>
+      </c>
+      <c r="K10" t="s">
+        <v>15</v>
+      </c>
+      <c r="M10" t="s">
         <v>14</v>
       </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0.1</v>
-      </c>
-      <c r="D8">
-        <v>0.1</v>
-      </c>
-      <c r="E8">
-        <v>0.1</v>
-      </c>
-      <c r="F8">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0.1</v>
-      </c>
-      <c r="D9">
-        <v>0.2</v>
-      </c>
-      <c r="E9">
-        <v>0.1</v>
-      </c>
-      <c r="F9">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="O10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
         <v>12</v>
-      </c>
-      <c r="B10">
-        <v>0.1</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>26</v>
       </c>
       <c r="B11">
         <v>0.1</v>
@@ -25681,154 +25701,145 @@
       <c r="E11">
         <v>0</v>
       </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="K11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M11" t="s">
+        <v>24</v>
+      </c>
+      <c r="O11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12">
+        <v>0.1</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="K12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
         <v>16</v>
       </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="K13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
         <v>18</v>
       </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
         <v>19</v>
       </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
         <v>20</v>
       </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
         <v>21</v>
       </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
         <v>22</v>
       </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>0.1</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
         <v>23</v>
       </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>24</v>
-      </c>
       <c r="B19">
         <v>0</v>
       </c>
@@ -25836,16 +25847,13 @@
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
-      <c r="F19">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -25861,11 +25869,8 @@
       <c r="E20">
         <v>0</v>
       </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -25881,11 +25886,8 @@
       <c r="E21">
         <v>0</v>
       </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -25901,11 +25903,8 @@
       <c r="E22">
         <v>0</v>
       </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -25921,1262 +25920,22 @@
       <c r="E23">
         <v>0</v>
       </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
     </row>
   </sheetData>
-  <sortState ref="A2:F23">
-    <sortCondition descending="1" ref="C2:C23"/>
+  <sortState ref="A3:E23">
+    <sortCondition descending="1" ref="E3:E23"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q23"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:Q23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="18.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.90625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>12</v>
-      </c>
-      <c r="N1">
-        <v>13</v>
-      </c>
-      <c r="O1">
-        <v>14</v>
-      </c>
-      <c r="P1">
-        <v>15</v>
-      </c>
-      <c r="Q1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2">
-        <v>0.4</v>
-      </c>
-      <c r="C2">
-        <v>0.7</v>
-      </c>
-      <c r="D2">
-        <v>0.7</v>
-      </c>
-      <c r="E2">
-        <v>0.9</v>
-      </c>
-      <c r="F2">
-        <v>0.8</v>
-      </c>
-      <c r="G2">
-        <v>0.6</v>
-      </c>
-      <c r="H2">
-        <v>0.5</v>
-      </c>
-      <c r="I2">
-        <v>0.5</v>
-      </c>
-      <c r="J2">
-        <v>0.3</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0.4</v>
-      </c>
-      <c r="M2">
-        <v>0.2</v>
-      </c>
-      <c r="N2">
-        <v>0.2</v>
-      </c>
-      <c r="O2">
-        <v>0.4</v>
-      </c>
-      <c r="P2">
-        <v>0.6</v>
-      </c>
-      <c r="Q2">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3">
-        <v>0.5</v>
-      </c>
-      <c r="C3">
-        <v>0.1</v>
-      </c>
-      <c r="D3">
-        <v>0.1</v>
-      </c>
-      <c r="E3">
-        <v>0.1</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0.1</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0.1</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4">
-        <v>0.1</v>
-      </c>
-      <c r="C4">
-        <v>0.1</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0.1</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5">
-        <v>0.2</v>
-      </c>
-      <c r="C5">
-        <v>0.1</v>
-      </c>
-      <c r="D5">
-        <v>0.3</v>
-      </c>
-      <c r="E5">
-        <v>0.1</v>
-      </c>
-      <c r="F5">
-        <v>0.1</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6">
-        <v>0.1</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0.1</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>0.1</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7">
-        <v>0.3</v>
-      </c>
-      <c r="C7">
-        <v>0.1</v>
-      </c>
-      <c r="D7">
-        <v>0.1</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0.1</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0.2</v>
-      </c>
-      <c r="I7">
-        <v>0.1</v>
-      </c>
-      <c r="J7">
-        <v>0.3</v>
-      </c>
-      <c r="K7">
-        <v>0.2</v>
-      </c>
-      <c r="L7">
-        <v>0.2</v>
-      </c>
-      <c r="M7">
-        <v>0.4</v>
-      </c>
-      <c r="N7">
-        <v>0.2</v>
-      </c>
-      <c r="O7">
-        <v>0.4</v>
-      </c>
-      <c r="P7">
-        <v>0.1</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8">
-        <v>0.1</v>
-      </c>
-      <c r="C8">
-        <v>0.1</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0.1</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0.1</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0.2</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0.1</v>
-      </c>
-      <c r="M8">
-        <v>0.2</v>
-      </c>
-      <c r="N8">
-        <v>0.3</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8">
-        <v>0.1</v>
-      </c>
-      <c r="Q8">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9">
-        <v>0.2</v>
-      </c>
-      <c r="C9">
-        <v>0.1</v>
-      </c>
-      <c r="D9">
-        <v>0.1</v>
-      </c>
-      <c r="E9">
-        <v>0.1</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0.2</v>
-      </c>
-      <c r="H9">
-        <v>0.1</v>
-      </c>
-      <c r="I9">
-        <v>0.3</v>
-      </c>
-      <c r="J9">
-        <v>0.3</v>
-      </c>
-      <c r="K9">
-        <v>0.5</v>
-      </c>
-      <c r="L9">
-        <v>0.4</v>
-      </c>
-      <c r="M9">
-        <v>0.7</v>
-      </c>
-      <c r="N9">
-        <v>0.5</v>
-      </c>
-      <c r="O9">
-        <v>0.6</v>
-      </c>
-      <c r="P9">
-        <v>0.4</v>
-      </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10">
-        <v>0.1</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11">
-        <v>0.1</v>
-      </c>
-      <c r="C11">
-        <v>0.1</v>
-      </c>
-      <c r="D11">
-        <v>0.2</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0.2</v>
-      </c>
-      <c r="I11">
-        <v>0.2</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>0.2</v>
-      </c>
-      <c r="L11">
-        <v>0.2</v>
-      </c>
-      <c r="M11">
-        <v>0.2</v>
-      </c>
-      <c r="N11">
-        <v>0.3</v>
-      </c>
-      <c r="O11">
-        <v>0.2</v>
-      </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0.1</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13">
-        <v>0.1</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0.1</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14">
-        <v>0.1</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="N16">
-        <v>0</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>0.1</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-      <c r="N17">
-        <v>0</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>0.1</v>
-      </c>
-      <c r="E18">
-        <v>0.1</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>0.1</v>
-      </c>
-      <c r="I18">
-        <v>0.1</v>
-      </c>
-      <c r="J18">
-        <v>0.2</v>
-      </c>
-      <c r="K18">
-        <v>0.2</v>
-      </c>
-      <c r="L18">
-        <v>0.1</v>
-      </c>
-      <c r="M18">
-        <v>0.1</v>
-      </c>
-      <c r="N18">
-        <v>0</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>0.1</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
-      <c r="N19">
-        <v>0</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>0.1</v>
-      </c>
-      <c r="G20">
-        <v>0.1</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>0.1</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
-      <c r="N20">
-        <v>0</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>27</v>
-      </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>0.1</v>
-      </c>
-      <c r="I21">
-        <v>0.1</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
-      <c r="N21">
-        <v>0</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21">
-        <v>0.1</v>
-      </c>
-      <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>28</v>
-      </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>0.1</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="L22">
-        <v>0</v>
-      </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
-      <c r="N22">
-        <v>0</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>29</v>
-      </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>0.1</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-      <c r="M23">
-        <v>0</v>
-      </c>
-      <c r="N23">
-        <v>0</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C23"/>
-  <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection sqref="A1:C23"/>
+      <selection activeCell="A3" sqref="A3:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -27208,84 +25967,84 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B3">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B5">
         <v>0.1</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
         <v>0.1</v>
-      </c>
-      <c r="C7">
-        <v>0.2</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B8">
         <v>0.1</v>
       </c>
       <c r="C8">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B9">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="C9">
-        <v>0.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -27296,18 +26055,18 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>0.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -27318,7 +26077,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -27329,7 +26088,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -27340,7 +26099,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -27351,7 +26110,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -27362,7 +26121,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -27373,13 +26132,13 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
@@ -27438,11 +26197,14 @@
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:C23">
+    <sortCondition descending="1" ref="C2:C23"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B72"/>
   <sheetViews>

--- a/Vitia_Ostrovsky/R_Calc_Crang_2024/Data/Crang_2024.xlsx
+++ b/Vitia_Ostrovsky/R_Calc_Crang_2024/Data/Crang_2024.xlsx
@@ -932,11 +932,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="162227032"/>
-        <c:axId val="162227424"/>
+        <c:axId val="165748000"/>
+        <c:axId val="165748384"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="162227032"/>
+        <c:axId val="165748000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -993,12 +993,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="162227424"/>
+        <c:crossAx val="165748384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="162227424"/>
+        <c:axId val="165748384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1055,7 +1055,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="162227032"/>
+        <c:crossAx val="165748000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1435,11 +1435,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="162228208"/>
-        <c:axId val="162227816"/>
+        <c:axId val="164089176"/>
+        <c:axId val="164788880"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="162228208"/>
+        <c:axId val="164089176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1496,12 +1496,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="162227816"/>
+        <c:crossAx val="164788880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="162227816"/>
+        <c:axId val="164788880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1558,7 +1558,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="162228208"/>
+        <c:crossAx val="164089176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -25455,8 +25455,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C5" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6:O13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Vitia_Ostrovsky/R_Calc_Crang_2024/Data/Crang_2024.xlsx
+++ b/Vitia_Ostrovsky/R_Calc_Crang_2024/Data/Crang_2024.xlsx
@@ -912,11 +912,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="179826752"/>
-        <c:axId val="179827144"/>
+        <c:axId val="172089504"/>
+        <c:axId val="172086368"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="179826752"/>
+        <c:axId val="172089504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -973,12 +973,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="179827144"/>
+        <c:crossAx val="172086368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="179827144"/>
+        <c:axId val="172086368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1035,7 +1035,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="179826752"/>
+        <c:crossAx val="172089504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1938,15 +1938,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:AE207"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A188" workbookViewId="0">
-      <selection activeCell="D125" sqref="D125:D207"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="5" max="5" width="8.08984375" customWidth="1"/>
+    <col min="7" max="7" width="10.54296875" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="17.36328125" customWidth="1"/>
     <col min="31" max="31" width="21.08984375" customWidth="1"/>
   </cols>
@@ -2046,7 +2048,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>116</v>
       </c>
@@ -2142,7 +2144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>116</v>
       </c>
@@ -2238,7 +2240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>116</v>
       </c>
@@ -2334,7 +2336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>116</v>
       </c>
@@ -2430,7 +2432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>116</v>
       </c>
@@ -2526,7 +2528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>116</v>
       </c>
@@ -2622,7 +2624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>116</v>
       </c>
@@ -2718,7 +2720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>116</v>
       </c>
@@ -2814,7 +2816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>116</v>
       </c>
@@ -2910,7 +2912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>116</v>
       </c>
@@ -3006,7 +3008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>116</v>
       </c>
@@ -3102,7 +3104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>116</v>
       </c>
@@ -3198,7 +3200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>116</v>
       </c>
@@ -3294,7 +3296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>116</v>
       </c>
@@ -3390,7 +3392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>116</v>
       </c>
@@ -3486,7 +3488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>116</v>
       </c>
@@ -3582,7 +3584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>116</v>
       </c>
@@ -3678,7 +3680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>116</v>
       </c>
@@ -3774,7 +3776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>116</v>
       </c>
@@ -3870,7 +3872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>116</v>
       </c>
@@ -3966,7 +3968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>116</v>
       </c>
@@ -4062,7 +4064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>116</v>
       </c>
@@ -4158,7 +4160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>116</v>
       </c>
@@ -4254,7 +4256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>116</v>
       </c>
@@ -4350,7 +4352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>116</v>
       </c>
@@ -4446,7 +4448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>116</v>
       </c>
@@ -4542,7 +4544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>116</v>
       </c>
@@ -4638,7 +4640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>116</v>
       </c>
@@ -4734,7 +4736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>116</v>
       </c>
@@ -4830,7 +4832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>116</v>
       </c>
@@ -4926,7 +4928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>116</v>
       </c>
@@ -5022,7 +5024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>116</v>
       </c>
@@ -5118,7 +5120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>116</v>
       </c>
@@ -5214,7 +5216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>116</v>
       </c>
@@ -5310,7 +5312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>116</v>
       </c>
@@ -5406,7 +5408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>116</v>
       </c>
@@ -5502,7 +5504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>116</v>
       </c>
@@ -5598,7 +5600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>116</v>
       </c>
@@ -5694,7 +5696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>116</v>
       </c>
@@ -5790,7 +5792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>116</v>
       </c>
@@ -5886,7 +5888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>116</v>
       </c>
@@ -5982,7 +5984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>116</v>
       </c>
@@ -6078,7 +6080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>116</v>
       </c>
@@ -6174,7 +6176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>116</v>
       </c>
@@ -6270,7 +6272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>116</v>
       </c>
@@ -6366,7 +6368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>116</v>
       </c>
@@ -6462,7 +6464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>116</v>
       </c>
@@ -6489,7 +6491,7 @@
         <v>1.2050000000000001</v>
       </c>
       <c r="I48">
-        <v>1.0669999999999999</v>
+        <v>10.067</v>
       </c>
       <c r="J48">
         <v>0</v>
@@ -6558,7 +6560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>116</v>
       </c>
@@ -6654,7 +6656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>116</v>
       </c>
@@ -6750,7 +6752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>116</v>
       </c>
@@ -6846,7 +6848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>116</v>
       </c>
@@ -6942,7 +6944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>116</v>
       </c>
@@ -7038,7 +7040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>116</v>
       </c>
@@ -7134,7 +7136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>116</v>
       </c>
@@ -7230,7 +7232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>116</v>
       </c>
@@ -7326,7 +7328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>116</v>
       </c>
@@ -7422,7 +7424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>116</v>
       </c>
@@ -7518,7 +7520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>116</v>
       </c>
@@ -7614,7 +7616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>116</v>
       </c>
@@ -7710,7 +7712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>116</v>
       </c>
@@ -7806,7 +7808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>116</v>
       </c>
@@ -7902,7 +7904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>116</v>
       </c>
@@ -7998,7 +8000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>116</v>
       </c>
@@ -8094,7 +8096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>116</v>
       </c>
@@ -8190,7 +8192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>116</v>
       </c>
@@ -8286,7 +8288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>116</v>
       </c>
@@ -8382,7 +8384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>116</v>
       </c>
@@ -8478,7 +8480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>116</v>
       </c>
@@ -8574,7 +8576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>116</v>
       </c>
@@ -8670,7 +8672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>116</v>
       </c>
@@ -8766,7 +8768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>116</v>
       </c>
@@ -21823,7 +21825,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AE207"/>
+  <autoFilter ref="A1:AE207">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Южная губа"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>

--- a/Vitia_Ostrovsky/R_Calc_Crang_2024/Data/Crang_2024.xlsx
+++ b/Vitia_Ostrovsky/R_Calc_Crang_2024/Data/Crang_2024.xlsx
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="125">
   <si>
     <t>Lon</t>
   </si>
@@ -488,12 +488,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -508,7 +514,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -543,6 +549,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -912,11 +919,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="172089504"/>
-        <c:axId val="172086368"/>
+        <c:axId val="136685864"/>
+        <c:axId val="137603640"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="172089504"/>
+        <c:axId val="136685864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -973,12 +980,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="172086368"/>
+        <c:crossAx val="137603640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="172086368"/>
+        <c:axId val="137603640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1035,7 +1042,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="172089504"/>
+        <c:crossAx val="136685864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1938,11 +1945,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:AE207"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="I60" sqref="I60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2048,7 +2054,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="2" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>116</v>
       </c>
@@ -2144,7 +2150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>116</v>
       </c>
@@ -2240,7 +2246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>116</v>
       </c>
@@ -2336,7 +2342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>116</v>
       </c>
@@ -2432,7 +2438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>116</v>
       </c>
@@ -2528,7 +2534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>116</v>
       </c>
@@ -2624,7 +2630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>116</v>
       </c>
@@ -2720,7 +2726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>116</v>
       </c>
@@ -2816,7 +2822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>116</v>
       </c>
@@ -2912,7 +2918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>116</v>
       </c>
@@ -3008,7 +3014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>116</v>
       </c>
@@ -3104,7 +3110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>116</v>
       </c>
@@ -3200,7 +3206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>116</v>
       </c>
@@ -3296,7 +3302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>116</v>
       </c>
@@ -3392,7 +3398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>116</v>
       </c>
@@ -3488,7 +3494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>116</v>
       </c>
@@ -3584,7 +3590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>116</v>
       </c>
@@ -3680,7 +3686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>116</v>
       </c>
@@ -3776,7 +3782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>116</v>
       </c>
@@ -3872,7 +3878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>116</v>
       </c>
@@ -3968,7 +3974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>116</v>
       </c>
@@ -4064,7 +4070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>116</v>
       </c>
@@ -4160,7 +4166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>116</v>
       </c>
@@ -4256,7 +4262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>116</v>
       </c>
@@ -4352,7 +4358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>116</v>
       </c>
@@ -4448,7 +4454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>116</v>
       </c>
@@ -4544,7 +4550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>116</v>
       </c>
@@ -4640,7 +4646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>116</v>
       </c>
@@ -4736,7 +4742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>116</v>
       </c>
@@ -4832,7 +4838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>116</v>
       </c>
@@ -4928,7 +4934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>116</v>
       </c>
@@ -5024,7 +5030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>116</v>
       </c>
@@ -5120,7 +5126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>116</v>
       </c>
@@ -5216,7 +5222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>116</v>
       </c>
@@ -5312,7 +5318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>116</v>
       </c>
@@ -5408,7 +5414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>116</v>
       </c>
@@ -5504,7 +5510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>116</v>
       </c>
@@ -5600,7 +5606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>116</v>
       </c>
@@ -5696,7 +5702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>116</v>
       </c>
@@ -5792,7 +5798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>116</v>
       </c>
@@ -5888,7 +5894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>116</v>
       </c>
@@ -5984,7 +5990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>116</v>
       </c>
@@ -6080,7 +6086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>116</v>
       </c>
@@ -6176,7 +6182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>116</v>
       </c>
@@ -6272,7 +6278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>116</v>
       </c>
@@ -6368,7 +6374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>116</v>
       </c>
@@ -6464,7 +6470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>116</v>
       </c>
@@ -6560,7 +6566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>116</v>
       </c>
@@ -6656,7 +6662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>116</v>
       </c>
@@ -6752,7 +6758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>116</v>
       </c>
@@ -6848,7 +6854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>116</v>
       </c>
@@ -6944,7 +6950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>116</v>
       </c>
@@ -7040,7 +7046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>116</v>
       </c>
@@ -7136,7 +7142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>116</v>
       </c>
@@ -7232,7 +7238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>116</v>
       </c>
@@ -7328,7 +7334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>116</v>
       </c>
@@ -7424,7 +7430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>116</v>
       </c>
@@ -7520,7 +7526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>116</v>
       </c>
@@ -7543,11 +7549,11 @@
         <f t="shared" si="0"/>
         <v>Crang 5_1</v>
       </c>
-      <c r="H59">
-        <v>0.68400000000000005</v>
-      </c>
-      <c r="I59">
-        <v>13.85</v>
+      <c r="H59" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="I59" t="s">
+        <v>20</v>
       </c>
       <c r="J59">
         <v>1</v>
@@ -7616,7 +7622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>116</v>
       </c>
@@ -7712,7 +7718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>116</v>
       </c>
@@ -7808,7 +7814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>116</v>
       </c>
@@ -7904,7 +7910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>116</v>
       </c>
@@ -8000,7 +8006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>116</v>
       </c>
@@ -8096,7 +8102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>116</v>
       </c>
@@ -8192,7 +8198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>116</v>
       </c>
@@ -8288,7 +8294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>116</v>
       </c>
@@ -8384,7 +8390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>116</v>
       </c>
@@ -8480,7 +8486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>116</v>
       </c>
@@ -8576,7 +8582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>116</v>
       </c>
@@ -8672,7 +8678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>116</v>
       </c>
@@ -8768,7 +8774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:31" hidden="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>116</v>
       </c>
@@ -9368,7 +9374,7 @@
         <v>Crang  1_6</v>
       </c>
       <c r="H78">
-        <v>0.86</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="I78">
         <v>3.94</v>
@@ -12536,7 +12542,7 @@
         <v>Crang 3_1</v>
       </c>
       <c r="H111">
-        <v>7.3400000000000007E-2</v>
+        <v>0.73399999999999999</v>
       </c>
       <c r="I111">
         <v>9.6</v>
@@ -21825,13 +21831,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AE207">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="Южная губа"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:AE207"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
